--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4C61B6-C34E-4AD0-80A5-BE689951FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C074CFE6-3217-43DB-8F7C-833B3B18C579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
-    <sheet name="몬스터 능력치" sheetId="6" r:id="rId2"/>
-    <sheet name="몬스터UI" sheetId="8" r:id="rId3"/>
+    <sheet name="몬스터UI" sheetId="8" r:id="rId2"/>
+    <sheet name="몬스터 능력치" sheetId="6" r:id="rId3"/>
     <sheet name="몬스터 종류" sheetId="10" r:id="rId4"/>
-    <sheet name="몬스터 데이터" sheetId="12" r:id="rId5"/>
-    <sheet name="몬스터 생성규칙" sheetId="11" r:id="rId6"/>
-    <sheet name="이동경로" sheetId="9" r:id="rId7"/>
-    <sheet name="일정" sheetId="7" r:id="rId8"/>
+    <sheet name="몬스터 생성규칙" sheetId="11" r:id="rId5"/>
+    <sheet name="이동경로" sheetId="9" r:id="rId6"/>
+    <sheet name="일정" sheetId="7" r:id="rId7"/>
+    <sheet name="몬스터 데이터" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="437">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <t>체력과 방어막이 25%씩 감소하며, 속도가 40% 증가한다.</t>
   </si>
   <si>
-    <t>Speciality1Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,9 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speciality1Type</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,10 +1034,6 @@
   </si>
   <si>
     <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1470,6 +1455,299 @@
   </si>
   <si>
     <t>8/29 - 몬스터 속성, 레벨, 분류 제작, 에셋 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.웨이브에 따른 보스, 서브보스 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)3, 5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 서브보스 몬스터이다.</t>
+  </si>
+  <si>
+    <t>2)5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 보스 몬스터이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 5의 배수의 웨이브에서 서브보스 하나, 5의 배수의 웨이브에서 보스가 하나 소환된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*서브보스와 보스는 몬스터 생성규칙에 따라 소환되어야 하는 전체 몬스터 수에 포함된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1보스, 서브보스의 속성 부여규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangedStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sturdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abudant</t>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speciality2Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)6라운드까지 보스, 서브보스는 특성2를 지니지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)6라운드 이후 보스, 서브보스는 각자의 분류에 맞는 특성2를 지닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활의, 생성의, 이끄는, 저주하는 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열의, 은밀한 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용가능한 몬스터분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*두 몬스터가 겹쳐 나오는 경우 출현량은 반반이다.(총 마릿수 홀수일시 등장라운드가 더 낮은 몬스터가 1마리 많이 소환된다.)</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은밀한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이끄는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.스폰 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 진행 중 몬스터 스폰 주기는 0.3초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성1(Speciality)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성2(Property)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,19 +2035,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,15 +2084,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2912,7 +3202,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2921,21 +3211,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2944,89 +3234,89 @@
       <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+        <v>308</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="B6" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -3045,7 +3335,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3078,11 +3368,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA207C7-F3EB-4DC6-9236-0C38985E2373}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:C113"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3105,7 +3457,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -3113,7 +3465,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -3124,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -3163,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -3186,7 +3538,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -3209,7 +3561,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -3232,7 +3584,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -3262,44 +3614,44 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
@@ -3309,28 +3661,28 @@
       <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="33"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -3338,26 +3690,26 @@
       <c r="F24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -3365,26 +3717,26 @@
       <c r="F25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="6">
         <v>3</v>
@@ -3392,26 +3744,26 @@
       <c r="F26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6">
         <v>4</v>
@@ -3419,94 +3771,94 @@
       <c r="F27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="34"/>
+      <c r="A28" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D28" s="27">
         <v>5</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="34"/>
+      <c r="A38" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="38"/>
       <c r="C38" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
       <c r="N39" s="19"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
@@ -3515,12 +3867,12 @@
       <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="34"/>
+      <c r="A40" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="38"/>
       <c r="C40" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
@@ -3528,15 +3880,15 @@
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
       <c r="N40" s="19"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
@@ -3545,12 +3897,12 @@
       <c r="S40" s="20"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="34"/>
+      <c r="A41" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="38"/>
       <c r="C41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="21">
         <v>2</v>
@@ -3558,15 +3910,15 @@
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
       <c r="N41" s="19"/>
       <c r="O41" s="20"/>
       <c r="P41" s="20"/>
@@ -3575,12 +3927,12 @@
       <c r="S41" s="20"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="34"/>
+      <c r="A42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="38"/>
       <c r="C42" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" s="21">
         <v>3</v>
@@ -3588,15 +3940,15 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
       <c r="N42" s="19"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
@@ -3605,12 +3957,12 @@
       <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A43" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="34"/>
+      <c r="A43" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="38"/>
       <c r="C43" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="21">
         <v>4</v>
@@ -3618,15 +3970,15 @@
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
       <c r="N43" s="19"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
@@ -3635,12 +3987,12 @@
       <c r="S43" s="20"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="34"/>
+      <c r="A44" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="38"/>
       <c r="C44" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="21">
         <v>5</v>
@@ -3648,15 +4000,15 @@
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
       <c r="N44" s="19"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
@@ -3665,12 +4017,12 @@
       <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="34"/>
+      <c r="A45" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="38"/>
       <c r="C45" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" s="21">
         <v>6</v>
@@ -3678,15 +4030,15 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
       <c r="N45" s="19"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
@@ -3695,12 +4047,12 @@
       <c r="S45" s="20"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="34"/>
+      <c r="A46" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="38"/>
       <c r="C46" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="21">
         <v>7</v>
@@ -3708,15 +4060,15 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
       <c r="N46" s="19"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
@@ -3725,12 +4077,12 @@
       <c r="S46" s="20"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A47" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="34"/>
+      <c r="A47" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="38"/>
       <c r="C47" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" s="21">
         <v>8</v>
@@ -3738,62 +4090,62 @@
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G48" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A51" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="34"/>
+      <c r="A51" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B51" s="38"/>
       <c r="C51" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="38"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="45"/>
       <c r="T52" s="19"/>
       <c r="U52" s="23"/>
       <c r="V52" s="23"/>
@@ -3808,33 +4160,33 @@
       <c r="AE52" s="23"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A53" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="34"/>
+      <c r="A53" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="38"/>
       <c r="C53" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" s="21">
         <v>1</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="45"/>
       <c r="T53" s="19"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
@@ -3849,33 +4201,33 @@
       <c r="AE53" s="23"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A54" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="34"/>
+      <c r="A54" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="38"/>
       <c r="C54" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54" s="21">
         <v>2</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="45"/>
       <c r="T54" s="19"/>
       <c r="U54" s="23"/>
       <c r="V54" s="23"/>
@@ -3890,33 +4242,33 @@
       <c r="AE54" s="23"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A55" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="34"/>
+      <c r="A55" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="38"/>
       <c r="C55" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="21">
         <v>3</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
+        <v>49</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="45"/>
       <c r="T55" s="19"/>
       <c r="U55" s="23"/>
       <c r="V55" s="23"/>
@@ -3931,33 +4283,33 @@
       <c r="AE55" s="23"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A56" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="34"/>
+      <c r="A56" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="38"/>
       <c r="C56" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" s="21">
         <v>4</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="45"/>
       <c r="T56" s="19"/>
       <c r="U56" s="23"/>
       <c r="V56" s="23"/>
@@ -3972,33 +4324,33 @@
       <c r="AE56" s="23"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A57" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="34"/>
+      <c r="A57" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="38"/>
       <c r="C57" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="21">
         <v>5</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="45"/>
       <c r="T57" s="19"/>
       <c r="U57" s="23"/>
       <c r="V57" s="23"/>
@@ -4013,33 +4365,33 @@
       <c r="AE57" s="23"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A58" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="34"/>
+      <c r="A58" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="38"/>
       <c r="C58" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D58" s="21">
         <v>6</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="45"/>
       <c r="T58" s="19"/>
       <c r="U58" s="23"/>
       <c r="V58" s="23"/>
@@ -4054,33 +4406,33 @@
       <c r="AE58" s="23"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A59" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="34"/>
+      <c r="A59" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="38"/>
       <c r="C59" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" s="21">
         <v>7</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="45"/>
       <c r="T59" s="19"/>
       <c r="U59" s="23"/>
       <c r="V59" s="23"/>
@@ -4095,33 +4447,33 @@
       <c r="AE59" s="23"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A60" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="34"/>
+      <c r="A60" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="38"/>
       <c r="C60" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="21">
         <v>8</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="45"/>
       <c r="T60" s="19"/>
       <c r="U60" s="23"/>
       <c r="V60" s="23"/>
@@ -4136,33 +4488,33 @@
       <c r="AE60" s="23"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A61" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="34"/>
+      <c r="A61" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="38"/>
       <c r="C61" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="21">
         <v>9</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
+        <v>55</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="45"/>
       <c r="T61" s="19"/>
       <c r="U61" s="23"/>
       <c r="V61" s="23"/>
@@ -4177,86 +4529,86 @@
       <c r="AE61" s="23"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A62" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="34"/>
+      <c r="A62" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="38"/>
       <c r="C62" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="21">
         <v>10</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.4">
       <c r="G63" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.4">
       <c r="G64" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G65" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G66" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G67" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G68" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="D71" t="s">
         <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="6">
         <v>1</v>
@@ -4264,16 +4616,16 @@
       <c r="D73" s="6">
         <v>1</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
+      <c r="E73" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="6">
         <v>2</v>
@@ -4281,16 +4633,16 @@
       <c r="D74" s="6">
         <v>2</v>
       </c>
-      <c r="E74" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
+      <c r="E74" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="6">
         <v>3</v>
@@ -4298,16 +4650,16 @@
       <c r="D75" s="6">
         <v>3</v>
       </c>
-      <c r="E75" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
+      <c r="E75" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="6">
         <v>4</v>
@@ -4315,16 +4667,16 @@
       <c r="D76" s="6">
         <v>4</v>
       </c>
-      <c r="E76" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
+      <c r="E76" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="6">
         <v>5</v>
@@ -4332,156 +4684,156 @@
       <c r="D77" s="6">
         <v>5</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
+      <c r="E77" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D88" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
+        <v>83</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A90" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
+        <v>85</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D92" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D93" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.4">
@@ -4489,1047 +4841,1047 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B100" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="34"/>
+      <c r="B100" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="38"/>
       <c r="D100" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B101" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="34"/>
+      <c r="B101" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="38"/>
       <c r="D101" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B102" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="34"/>
+      <c r="B102" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="38"/>
       <c r="D102" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B103" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="34"/>
+      <c r="B103" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="38"/>
       <c r="D103" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A113" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" s="46"/>
+      <c r="G113" s="30" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A113" s="39" t="s">
+      <c r="H113" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="30" t="s">
+      <c r="I113" s="37"/>
+      <c r="J113" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="E113" s="39" t="s">
+      <c r="K113" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="F113" s="39"/>
-      <c r="G113" s="30" t="s">
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="37"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A114" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="H113" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="I113" s="41"/>
-      <c r="J113" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="K113" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="41"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A114" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="B114" s="40"/>
-      <c r="C114" s="40"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="29">
         <v>10</v>
       </c>
-      <c r="E114" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F114" s="40"/>
+      <c r="E114" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" s="47"/>
       <c r="G114" s="29">
         <v>11</v>
       </c>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
       <c r="J114" s="29">
         <v>10</v>
       </c>
-      <c r="K114" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="34"/>
-      <c r="S114" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="T114" s="34"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="34"/>
-      <c r="W114" s="34"/>
+      <c r="K114" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="38"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+      <c r="R114" s="38"/>
+      <c r="S114" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="T114" s="38"/>
+      <c r="U114" s="38"/>
+      <c r="V114" s="38"/>
+      <c r="W114" s="38"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="F115" s="40"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F115" s="47"/>
       <c r="G115" s="29">
         <v>21</v>
       </c>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
       <c r="J115" s="29">
         <v>10</v>
       </c>
-      <c r="K115" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34"/>
-      <c r="V115" s="34"/>
-      <c r="W115" s="34"/>
+      <c r="K115" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+      <c r="O115" s="38"/>
+      <c r="P115" s="38"/>
+      <c r="Q115" s="38"/>
+      <c r="R115" s="38"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="38"/>
+      <c r="U115" s="38"/>
+      <c r="V115" s="38"/>
+      <c r="W115" s="38"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29">
         <v>31</v>
       </c>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
       <c r="J116" s="29">
         <v>10</v>
       </c>
-      <c r="K116" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="34"/>
-      <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
-      <c r="U116" s="34"/>
-      <c r="V116" s="34"/>
-      <c r="W116" s="34"/>
+      <c r="K116" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+      <c r="R116" s="38"/>
+      <c r="S116" s="38"/>
+      <c r="T116" s="38"/>
+      <c r="U116" s="38"/>
+      <c r="V116" s="38"/>
+      <c r="W116" s="38"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F117" s="28"/>
       <c r="G117" s="29">
         <v>41</v>
       </c>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
       <c r="J117" s="29">
         <v>10</v>
       </c>
-      <c r="K117" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="L117" s="42"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="42"/>
-      <c r="P117" s="42"/>
-      <c r="Q117" s="42"/>
-      <c r="R117" s="42"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
-      <c r="U117" s="34"/>
-      <c r="V117" s="34"/>
-      <c r="W117" s="34"/>
+      <c r="K117" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="39"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="39"/>
+      <c r="Q117" s="39"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38"/>
+      <c r="V117" s="38"/>
+      <c r="W117" s="38"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="29">
         <v>51</v>
       </c>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
       <c r="J118" s="29">
         <v>10</v>
       </c>
-      <c r="K118" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="L118" s="42"/>
-      <c r="M118" s="42"/>
-      <c r="N118" s="42"/>
-      <c r="O118" s="42"/>
-      <c r="P118" s="42"/>
-      <c r="Q118" s="42"/>
-      <c r="R118" s="42"/>
-      <c r="S118" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="T118" s="34"/>
-      <c r="U118" s="34"/>
-      <c r="V118" s="34"/>
-      <c r="W118" s="34"/>
+      <c r="K118" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38"/>
+      <c r="V118" s="38"/>
+      <c r="W118" s="38"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F119" s="28"/>
       <c r="G119" s="29">
         <v>61</v>
       </c>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
       <c r="J119" s="29">
         <v>10</v>
       </c>
-      <c r="K119" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="L119" s="42"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="42"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
-      <c r="U119" s="34"/>
-      <c r="V119" s="34"/>
-      <c r="W119" s="34"/>
+      <c r="K119" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="39"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="38"/>
+      <c r="V119" s="38"/>
+      <c r="W119" s="38"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A120" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
+      <c r="A120" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="29">
         <v>20</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F120" s="28"/>
       <c r="G120" s="29">
         <v>11</v>
       </c>
-      <c r="H120" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I120" s="34"/>
+      <c r="H120" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I120" s="38"/>
       <c r="J120" s="29">
         <v>11</v>
       </c>
-      <c r="K120" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="34"/>
-      <c r="R120" s="34"/>
-      <c r="S120" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="T120" s="34"/>
-      <c r="U120" s="34"/>
-      <c r="V120" s="34"/>
-      <c r="W120" s="34"/>
+      <c r="K120" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="38"/>
+      <c r="O120" s="38"/>
+      <c r="P120" s="38"/>
+      <c r="Q120" s="38"/>
+      <c r="R120" s="38"/>
+      <c r="S120" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="T120" s="38"/>
+      <c r="U120" s="38"/>
+      <c r="V120" s="38"/>
+      <c r="W120" s="38"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="I121" s="34"/>
+      <c r="H121" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I121" s="38"/>
       <c r="J121" s="29">
         <v>21</v>
       </c>
-      <c r="K121" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="L121" s="34"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="34"/>
-      <c r="O121" s="34"/>
-      <c r="P121" s="34"/>
-      <c r="Q121" s="34"/>
-      <c r="R121" s="34"/>
-      <c r="S121" s="34"/>
-      <c r="T121" s="34"/>
-      <c r="U121" s="34"/>
-      <c r="V121" s="34"/>
-      <c r="W121" s="34"/>
+      <c r="K121" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="38"/>
+      <c r="O121" s="38"/>
+      <c r="P121" s="38"/>
+      <c r="Q121" s="38"/>
+      <c r="R121" s="38"/>
+      <c r="S121" s="38"/>
+      <c r="T121" s="38"/>
+      <c r="U121" s="38"/>
+      <c r="V121" s="38"/>
+      <c r="W121" s="38"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
       <c r="G122" s="29"/>
-      <c r="H122" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I122" s="34"/>
+      <c r="H122" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I122" s="38"/>
       <c r="J122" s="29">
         <v>31</v>
       </c>
-      <c r="K122" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="34"/>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="34"/>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="34"/>
-      <c r="W122" s="34"/>
+      <c r="K122" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="38"/>
+      <c r="O122" s="38"/>
+      <c r="P122" s="38"/>
+      <c r="Q122" s="38"/>
+      <c r="R122" s="38"/>
+      <c r="S122" s="38"/>
+      <c r="T122" s="38"/>
+      <c r="U122" s="38"/>
+      <c r="V122" s="38"/>
+      <c r="W122" s="38"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A123" s="34"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
       <c r="G123" s="29"/>
-      <c r="H123" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="I123" s="42"/>
+      <c r="H123" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="I123" s="39"/>
       <c r="J123" s="29">
         <v>41</v>
       </c>
-      <c r="K123" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34"/>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
-      <c r="U123" s="34"/>
-      <c r="V123" s="34"/>
-      <c r="W123" s="34"/>
+      <c r="K123" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38"/>
+      <c r="N123" s="38"/>
+      <c r="O123" s="38"/>
+      <c r="P123" s="38"/>
+      <c r="Q123" s="38"/>
+      <c r="R123" s="38"/>
+      <c r="S123" s="38"/>
+      <c r="T123" s="38"/>
+      <c r="U123" s="38"/>
+      <c r="V123" s="38"/>
+      <c r="W123" s="38"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="28" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F124" s="28"/>
       <c r="G124" s="29">
         <v>21</v>
       </c>
-      <c r="H124" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I124" s="34"/>
+      <c r="H124" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I124" s="38"/>
       <c r="J124" s="29">
         <v>11</v>
       </c>
-      <c r="K124" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="34"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="34"/>
-      <c r="S124" s="34"/>
-      <c r="T124" s="34"/>
-      <c r="U124" s="34"/>
-      <c r="V124" s="34"/>
-      <c r="W124" s="34"/>
+      <c r="K124" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="38"/>
+      <c r="V124" s="38"/>
+      <c r="W124" s="38"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
       <c r="G125" s="29"/>
-      <c r="H125" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="I125" s="34"/>
+      <c r="H125" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I125" s="38"/>
       <c r="J125" s="29">
         <v>21</v>
       </c>
-      <c r="K125" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="L125" s="34"/>
-      <c r="M125" s="34"/>
-      <c r="N125" s="34"/>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
-      <c r="R125" s="34"/>
-      <c r="S125" s="34"/>
-      <c r="T125" s="34"/>
-      <c r="U125" s="34"/>
-      <c r="V125" s="34"/>
-      <c r="W125" s="34"/>
+      <c r="K125" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="38"/>
+      <c r="P125" s="38"/>
+      <c r="Q125" s="38"/>
+      <c r="R125" s="38"/>
+      <c r="S125" s="38"/>
+      <c r="T125" s="38"/>
+      <c r="U125" s="38"/>
+      <c r="V125" s="38"/>
+      <c r="W125" s="38"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
       <c r="G126" s="29"/>
-      <c r="H126" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I126" s="34"/>
+      <c r="H126" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I126" s="38"/>
       <c r="J126" s="29">
         <v>31</v>
       </c>
-      <c r="K126" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="L126" s="34"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="34"/>
-      <c r="R126" s="34"/>
-      <c r="S126" s="34"/>
-      <c r="T126" s="34"/>
-      <c r="U126" s="34"/>
-      <c r="V126" s="34"/>
-      <c r="W126" s="34"/>
+      <c r="K126" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="38"/>
+      <c r="P126" s="38"/>
+      <c r="Q126" s="38"/>
+      <c r="R126" s="38"/>
+      <c r="S126" s="38"/>
+      <c r="T126" s="38"/>
+      <c r="U126" s="38"/>
+      <c r="V126" s="38"/>
+      <c r="W126" s="38"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
       <c r="G127" s="29"/>
-      <c r="H127" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I127" s="42"/>
+      <c r="H127" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="I127" s="39"/>
       <c r="J127" s="29">
         <v>41</v>
       </c>
-      <c r="K127" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="L127" s="34"/>
-      <c r="M127" s="34"/>
-      <c r="N127" s="34"/>
-      <c r="O127" s="34"/>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="34"/>
-      <c r="R127" s="34"/>
-      <c r="S127" s="34"/>
-      <c r="T127" s="34"/>
-      <c r="U127" s="34"/>
-      <c r="V127" s="34"/>
-      <c r="W127" s="34"/>
+      <c r="K127" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L127" s="38"/>
+      <c r="M127" s="38"/>
+      <c r="N127" s="38"/>
+      <c r="O127" s="38"/>
+      <c r="P127" s="38"/>
+      <c r="Q127" s="38"/>
+      <c r="R127" s="38"/>
+      <c r="S127" s="38"/>
+      <c r="T127" s="38"/>
+      <c r="U127" s="38"/>
+      <c r="V127" s="38"/>
+      <c r="W127" s="38"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
       <c r="E128" s="28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F128" s="28"/>
       <c r="G128" s="29">
         <v>31</v>
       </c>
-      <c r="H128" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I128" s="34"/>
+      <c r="H128" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I128" s="38"/>
       <c r="J128" s="29">
         <v>11</v>
       </c>
-      <c r="K128" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="L128" s="34"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="34"/>
-      <c r="O128" s="34"/>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="34"/>
-      <c r="R128" s="34"/>
-      <c r="S128" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="T128" s="34"/>
-      <c r="U128" s="34"/>
-      <c r="V128" s="34"/>
-      <c r="W128" s="34"/>
+      <c r="K128" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L128" s="38"/>
+      <c r="M128" s="38"/>
+      <c r="N128" s="38"/>
+      <c r="O128" s="38"/>
+      <c r="P128" s="38"/>
+      <c r="Q128" s="38"/>
+      <c r="R128" s="38"/>
+      <c r="S128" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="T128" s="38"/>
+      <c r="U128" s="38"/>
+      <c r="V128" s="38"/>
+      <c r="W128" s="38"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
       <c r="G129" s="29"/>
-      <c r="H129" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="I129" s="34"/>
+      <c r="H129" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I129" s="38"/>
       <c r="J129" s="29">
         <v>21</v>
       </c>
-      <c r="K129" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="L129" s="34"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="34"/>
-      <c r="O129" s="34"/>
-      <c r="P129" s="34"/>
-      <c r="Q129" s="34"/>
-      <c r="R129" s="34"/>
-      <c r="S129" s="34"/>
-      <c r="T129" s="34"/>
-      <c r="U129" s="34"/>
-      <c r="V129" s="34"/>
-      <c r="W129" s="34"/>
+      <c r="K129" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="38"/>
+      <c r="T129" s="38"/>
+      <c r="U129" s="38"/>
+      <c r="V129" s="38"/>
+      <c r="W129" s="38"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
       <c r="G130" s="29"/>
-      <c r="H130" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I130" s="34"/>
+      <c r="H130" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I130" s="38"/>
       <c r="J130" s="29">
         <v>31</v>
       </c>
-      <c r="K130" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="L130" s="34"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="34"/>
-      <c r="S130" s="34"/>
-      <c r="T130" s="34"/>
-      <c r="U130" s="34"/>
-      <c r="V130" s="34"/>
-      <c r="W130" s="34"/>
+      <c r="K130" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="38"/>
+      <c r="O130" s="38"/>
+      <c r="P130" s="38"/>
+      <c r="Q130" s="38"/>
+      <c r="R130" s="38"/>
+      <c r="S130" s="38"/>
+      <c r="T130" s="38"/>
+      <c r="U130" s="38"/>
+      <c r="V130" s="38"/>
+      <c r="W130" s="38"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
       <c r="G131" s="29"/>
-      <c r="H131" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I131" s="42"/>
+      <c r="H131" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="I131" s="39"/>
       <c r="J131" s="29">
         <v>41</v>
       </c>
-      <c r="K131" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="L131" s="34"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="34"/>
-      <c r="O131" s="34"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="34"/>
-      <c r="R131" s="34"/>
-      <c r="S131" s="34"/>
-      <c r="T131" s="34"/>
-      <c r="U131" s="34"/>
-      <c r="V131" s="34"/>
-      <c r="W131" s="34"/>
+      <c r="K131" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L131" s="38"/>
+      <c r="M131" s="38"/>
+      <c r="N131" s="38"/>
+      <c r="O131" s="38"/>
+      <c r="P131" s="38"/>
+      <c r="Q131" s="38"/>
+      <c r="R131" s="38"/>
+      <c r="S131" s="38"/>
+      <c r="T131" s="38"/>
+      <c r="U131" s="38"/>
+      <c r="V131" s="38"/>
+      <c r="W131" s="38"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
       <c r="E132" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F132" s="28"/>
       <c r="G132" s="29">
         <v>41</v>
       </c>
-      <c r="H132" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="I132" s="34"/>
+      <c r="H132" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I132" s="38"/>
       <c r="J132" s="29">
         <v>11</v>
       </c>
-      <c r="K132" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="L132" s="34"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="34"/>
-      <c r="U132" s="34"/>
-      <c r="V132" s="34"/>
-      <c r="W132" s="34"/>
+      <c r="K132" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="38"/>
+      <c r="P132" s="38"/>
+      <c r="Q132" s="38"/>
+      <c r="R132" s="38"/>
+      <c r="S132" s="38"/>
+      <c r="T132" s="38"/>
+      <c r="U132" s="38"/>
+      <c r="V132" s="38"/>
+      <c r="W132" s="38"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="I133" s="34"/>
+      <c r="H133" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I133" s="38"/>
       <c r="J133" s="29">
         <v>21</v>
       </c>
-      <c r="K133" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="L133" s="34"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-      <c r="P133" s="34"/>
-      <c r="Q133" s="34"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
-      <c r="U133" s="34"/>
-      <c r="V133" s="34"/>
-      <c r="W133" s="34"/>
+      <c r="K133" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38"/>
+      <c r="S133" s="38"/>
+      <c r="T133" s="38"/>
+      <c r="U133" s="38"/>
+      <c r="V133" s="38"/>
+      <c r="W133" s="38"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
       <c r="G134" s="29"/>
-      <c r="H134" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I134" s="34"/>
+      <c r="H134" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I134" s="38"/>
       <c r="J134" s="29">
         <v>31</v>
       </c>
-      <c r="K134" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="L134" s="34"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="34"/>
-      <c r="O134" s="34"/>
-      <c r="P134" s="34"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
-      <c r="U134" s="34"/>
-      <c r="V134" s="34"/>
-      <c r="W134" s="34"/>
+      <c r="K134" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="38"/>
+      <c r="P134" s="38"/>
+      <c r="Q134" s="38"/>
+      <c r="R134" s="38"/>
+      <c r="S134" s="38"/>
+      <c r="T134" s="38"/>
+      <c r="U134" s="38"/>
+      <c r="V134" s="38"/>
+      <c r="W134" s="38"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="34"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
+      <c r="A135" s="38"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
       <c r="G135" s="29"/>
-      <c r="H135" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I135" s="42"/>
+      <c r="H135" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="I135" s="39"/>
       <c r="J135" s="29">
         <v>41</v>
       </c>
-      <c r="K135" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="L135" s="34"/>
-      <c r="M135" s="34"/>
-      <c r="N135" s="34"/>
-      <c r="O135" s="34"/>
-      <c r="P135" s="34"/>
-      <c r="Q135" s="34"/>
-      <c r="R135" s="34"/>
-      <c r="S135" s="34"/>
-      <c r="T135" s="34"/>
-      <c r="U135" s="34"/>
-      <c r="V135" s="34"/>
-      <c r="W135" s="34"/>
+      <c r="K135" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L135" s="38"/>
+      <c r="M135" s="38"/>
+      <c r="N135" s="38"/>
+      <c r="O135" s="38"/>
+      <c r="P135" s="38"/>
+      <c r="Q135" s="38"/>
+      <c r="R135" s="38"/>
+      <c r="S135" s="38"/>
+      <c r="T135" s="38"/>
+      <c r="U135" s="38"/>
+      <c r="V135" s="38"/>
+      <c r="W135" s="38"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
+      <c r="A136" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
       <c r="D136" s="29">
         <v>30</v>
       </c>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
       <c r="G136" s="29">
         <v>10</v>
       </c>
-      <c r="H136" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="I136" s="34"/>
+      <c r="H136" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="I136" s="38"/>
       <c r="J136" s="29">
         <v>11</v>
       </c>
-      <c r="K136" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="L136" s="34"/>
-      <c r="M136" s="34"/>
-      <c r="N136" s="34"/>
-      <c r="O136" s="34"/>
-      <c r="P136" s="34"/>
-      <c r="Q136" s="34"/>
-      <c r="R136" s="34"/>
-      <c r="S136" s="34"/>
-      <c r="T136" s="34"/>
-      <c r="U136" s="34"/>
-      <c r="V136" s="34"/>
-      <c r="W136" s="34"/>
+      <c r="K136" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+      <c r="O136" s="38"/>
+      <c r="P136" s="38"/>
+      <c r="Q136" s="38"/>
+      <c r="R136" s="38"/>
+      <c r="S136" s="38"/>
+      <c r="T136" s="38"/>
+      <c r="U136" s="38"/>
+      <c r="V136" s="38"/>
+      <c r="W136" s="38"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="34"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
       <c r="G137" s="29"/>
-      <c r="H137" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="I137" s="42"/>
+      <c r="H137" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I137" s="39"/>
       <c r="J137" s="28">
         <v>21</v>
       </c>
-      <c r="K137" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="L137" s="34"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
-      <c r="P137" s="34"/>
-      <c r="Q137" s="34"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-      <c r="T137" s="34"/>
-      <c r="U137" s="34"/>
-      <c r="V137" s="34"/>
-      <c r="W137" s="34"/>
+      <c r="K137" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="38"/>
+      <c r="S137" s="38"/>
+      <c r="T137" s="38"/>
+      <c r="U137" s="38"/>
+      <c r="V137" s="38"/>
+      <c r="W137" s="38"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="34"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
       <c r="G138" s="29"/>
-      <c r="H138" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="I138" s="42"/>
+      <c r="H138" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I138" s="39"/>
       <c r="J138" s="28">
         <v>31</v>
       </c>
-      <c r="K138" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="L138" s="34"/>
-      <c r="M138" s="34"/>
-      <c r="N138" s="34"/>
-      <c r="O138" s="34"/>
-      <c r="P138" s="34"/>
-      <c r="Q138" s="34"/>
-      <c r="R138" s="34"/>
-      <c r="S138" s="34"/>
-      <c r="T138" s="34"/>
-      <c r="U138" s="34"/>
-      <c r="V138" s="34"/>
-      <c r="W138" s="34"/>
+      <c r="K138" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L138" s="38"/>
+      <c r="M138" s="38"/>
+      <c r="N138" s="38"/>
+      <c r="O138" s="38"/>
+      <c r="P138" s="38"/>
+      <c r="Q138" s="38"/>
+      <c r="R138" s="38"/>
+      <c r="S138" s="38"/>
+      <c r="T138" s="38"/>
+      <c r="U138" s="38"/>
+      <c r="V138" s="38"/>
+      <c r="W138" s="38"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
       <c r="G139" s="29"/>
-      <c r="H139" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="I139" s="42"/>
+      <c r="H139" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="I139" s="39"/>
       <c r="J139" s="28">
         <v>41</v>
       </c>
-      <c r="K139" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="L139" s="34"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="34"/>
-      <c r="P139" s="34"/>
-      <c r="Q139" s="34"/>
-      <c r="R139" s="34"/>
-      <c r="S139" s="34"/>
-      <c r="T139" s="34"/>
-      <c r="U139" s="34"/>
-      <c r="V139" s="34"/>
-      <c r="W139" s="34"/>
+      <c r="K139" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L139" s="38"/>
+      <c r="M139" s="38"/>
+      <c r="N139" s="38"/>
+      <c r="O139" s="38"/>
+      <c r="P139" s="38"/>
+      <c r="Q139" s="38"/>
+      <c r="R139" s="38"/>
+      <c r="S139" s="38"/>
+      <c r="T139" s="38"/>
+      <c r="U139" s="38"/>
+      <c r="V139" s="38"/>
+      <c r="W139" s="38"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="I140" s="42"/>
+      <c r="H140" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="I140" s="39"/>
       <c r="J140" s="28">
         <v>51</v>
       </c>
-      <c r="K140" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="L140" s="34"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="34"/>
-      <c r="O140" s="34"/>
-      <c r="P140" s="34"/>
-      <c r="Q140" s="34"/>
-      <c r="R140" s="34"/>
-      <c r="S140" s="34"/>
-      <c r="T140" s="34"/>
-      <c r="U140" s="34"/>
-      <c r="V140" s="34"/>
-      <c r="W140" s="34"/>
+      <c r="K140" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L140" s="38"/>
+      <c r="M140" s="38"/>
+      <c r="N140" s="38"/>
+      <c r="O140" s="38"/>
+      <c r="P140" s="38"/>
+      <c r="Q140" s="38"/>
+      <c r="R140" s="38"/>
+      <c r="S140" s="38"/>
+      <c r="T140" s="38"/>
+      <c r="U140" s="38"/>
+      <c r="V140" s="38"/>
+      <c r="W140" s="38"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="I141" s="42"/>
+      <c r="H141" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="I141" s="39"/>
       <c r="J141" s="28">
         <v>61</v>
       </c>
-      <c r="K141" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="L141" s="34"/>
-      <c r="M141" s="34"/>
-      <c r="N141" s="34"/>
-      <c r="O141" s="34"/>
-      <c r="P141" s="34"/>
-      <c r="Q141" s="34"/>
-      <c r="R141" s="34"/>
-      <c r="S141" s="34"/>
-      <c r="T141" s="34"/>
-      <c r="U141" s="34"/>
-      <c r="V141" s="34"/>
-      <c r="W141" s="34"/>
+      <c r="K141" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L141" s="38"/>
+      <c r="M141" s="38"/>
+      <c r="N141" s="38"/>
+      <c r="O141" s="38"/>
+      <c r="P141" s="38"/>
+      <c r="Q141" s="38"/>
+      <c r="R141" s="38"/>
+      <c r="S141" s="38"/>
+      <c r="T141" s="38"/>
+      <c r="U141" s="38"/>
+      <c r="V141" s="38"/>
+      <c r="W141" s="38"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5543,6 +5895,10 @@
     <mergeCell ref="E125:F127"/>
     <mergeCell ref="E121:F123"/>
     <mergeCell ref="E133:F135"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
     <mergeCell ref="S113:W113"/>
     <mergeCell ref="S114:W117"/>
     <mergeCell ref="S118:W119"/>
@@ -5552,8 +5908,21 @@
     <mergeCell ref="H137:I137"/>
     <mergeCell ref="H138:I138"/>
     <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K124:R124"/>
+    <mergeCell ref="K125:R125"/>
+    <mergeCell ref="K126:R126"/>
+    <mergeCell ref="K127:R127"/>
+    <mergeCell ref="K128:R128"/>
+    <mergeCell ref="K129:R129"/>
+    <mergeCell ref="K130:R130"/>
+    <mergeCell ref="K131:R131"/>
+    <mergeCell ref="K132:R132"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="H57:R57"/>
@@ -5578,12 +5947,6 @@
     <mergeCell ref="H121:I121"/>
     <mergeCell ref="H122:I122"/>
     <mergeCell ref="H123:I123"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A41:B41"/>
@@ -5600,7 +5963,14 @@
     <mergeCell ref="E88:Q88"/>
     <mergeCell ref="E89:Q89"/>
     <mergeCell ref="E77:H77"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="G23:O23"/>
     <mergeCell ref="G24:O24"/>
     <mergeCell ref="G25:O25"/>
@@ -5617,9 +5987,6 @@
     <mergeCell ref="H59:R59"/>
     <mergeCell ref="H60:R60"/>
     <mergeCell ref="H61:R61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -5641,23 +6008,8 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K124:R124"/>
-    <mergeCell ref="K125:R125"/>
-    <mergeCell ref="K126:R126"/>
-    <mergeCell ref="K127:R127"/>
-    <mergeCell ref="K128:R128"/>
-    <mergeCell ref="K129:R129"/>
-    <mergeCell ref="K130:R130"/>
-    <mergeCell ref="K131:R131"/>
-    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="H114:I114"/>
     <mergeCell ref="H115:I115"/>
@@ -5684,251 +6036,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA207C7-F3EB-4DC6-9236-0C38985E2373}">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="G5" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" t="s">
-        <v>208</v>
-      </c>
-      <c r="M5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="J13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
-  <dimension ref="B1:E77"/>
+  <dimension ref="B1:E79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E53" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E71" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5942,553 +6237,591 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38">
+        <v>6</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="38">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="6">
+        <v>6</v>
+      </c>
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="19"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B47" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>364</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="29">
-        <v>100</v>
-      </c>
-      <c r="E4" s="29">
-        <v>100</v>
-      </c>
-      <c r="F4" s="29">
-        <v>100</v>
-      </c>
-      <c r="G4" s="29">
-        <v>10</v>
-      </c>
-      <c r="H4" s="29">
-        <v>60</v>
-      </c>
-      <c r="I4" s="29">
-        <v>0</v>
-      </c>
-      <c r="J4" s="29">
-        <v>10</v>
-      </c>
-      <c r="K4" s="29">
-        <v>30</v>
-      </c>
-      <c r="L4" s="29">
-        <v>0</v>
-      </c>
-      <c r="M4" s="29">
-        <v>2</v>
-      </c>
-      <c r="N4" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="29">
-        <v>100</v>
-      </c>
-      <c r="E5" s="29">
-        <v>100</v>
-      </c>
-      <c r="F5" s="29">
-        <v>100</v>
-      </c>
-      <c r="G5" s="29">
-        <v>10</v>
-      </c>
-      <c r="H5" s="29">
-        <v>50</v>
-      </c>
-      <c r="I5" s="29">
-        <v>30</v>
-      </c>
-      <c r="J5" s="29">
-        <v>10</v>
-      </c>
-      <c r="K5" s="29">
-        <v>10</v>
-      </c>
-      <c r="L5" s="29">
-        <v>0</v>
-      </c>
-      <c r="M5" s="29">
-        <v>2</v>
-      </c>
-      <c r="N5" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="29">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="29">
-        <v>100</v>
-      </c>
-      <c r="E6" s="29">
-        <v>100</v>
-      </c>
-      <c r="F6" s="29">
-        <v>100</v>
-      </c>
-      <c r="G6" s="29">
-        <v>10</v>
-      </c>
-      <c r="H6" s="29">
-        <v>50</v>
-      </c>
-      <c r="I6" s="29">
-        <v>15</v>
-      </c>
-      <c r="J6" s="29">
-        <v>30</v>
-      </c>
-      <c r="K6" s="29">
-        <v>5</v>
-      </c>
-      <c r="L6" s="29">
-        <v>0</v>
-      </c>
-      <c r="M6" s="29">
-        <v>4</v>
-      </c>
-      <c r="N6" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="29">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="29">
-        <v>100</v>
-      </c>
-      <c r="E7" s="29">
-        <v>100</v>
-      </c>
-      <c r="F7" s="29">
-        <v>100</v>
-      </c>
-      <c r="G7" s="29">
-        <v>10</v>
-      </c>
-      <c r="H7" s="29">
-        <v>40</v>
-      </c>
-      <c r="I7" s="29">
-        <v>40</v>
-      </c>
-      <c r="J7" s="29">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
-        <v>5</v>
-      </c>
-      <c r="L7" s="29">
-        <v>15</v>
-      </c>
-      <c r="M7" s="29">
-        <v>6</v>
-      </c>
-      <c r="N7" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="29">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="29">
-        <v>100</v>
-      </c>
-      <c r="E8" s="29">
-        <v>100</v>
-      </c>
-      <c r="F8" s="29">
-        <v>100</v>
-      </c>
-      <c r="G8" s="29">
-        <v>10</v>
-      </c>
-      <c r="H8" s="29">
-        <v>20</v>
-      </c>
-      <c r="I8" s="29">
-        <v>20</v>
-      </c>
-      <c r="J8" s="29">
-        <v>20</v>
-      </c>
-      <c r="K8" s="29">
-        <v>20</v>
-      </c>
-      <c r="L8" s="29">
-        <v>20</v>
-      </c>
-      <c r="M8" s="29">
-        <v>3</v>
-      </c>
-      <c r="N8" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="29">
-        <v>5</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="29">
-        <v>100</v>
-      </c>
-      <c r="E9" s="29">
-        <v>100</v>
-      </c>
-      <c r="F9" s="29">
-        <v>100</v>
-      </c>
-      <c r="G9" s="29">
-        <v>10</v>
-      </c>
-      <c r="H9" s="29">
-        <v>25</v>
-      </c>
-      <c r="I9" s="29">
-        <v>50</v>
-      </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <v>25</v>
-      </c>
-      <c r="M9" s="29">
-        <v>5</v>
-      </c>
-      <c r="N9" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="29">
-        <v>6</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="29">
-        <v>100</v>
-      </c>
-      <c r="E10" s="29">
-        <v>100</v>
-      </c>
-      <c r="F10" s="29">
-        <v>100</v>
-      </c>
-      <c r="G10" s="29">
-        <v>10</v>
-      </c>
-      <c r="H10" s="29">
-        <v>15</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <v>35</v>
-      </c>
-      <c r="K10" s="29">
-        <v>25</v>
-      </c>
-      <c r="L10" s="29">
-        <v>25</v>
-      </c>
-      <c r="M10" s="29">
-        <v>3</v>
-      </c>
-      <c r="N10" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="29">
-        <v>7</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="29">
-        <v>100</v>
-      </c>
-      <c r="E11" s="29">
-        <v>100</v>
-      </c>
-      <c r="F11" s="29">
-        <v>100</v>
-      </c>
-      <c r="G11" s="29">
-        <v>10</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
-        <v>10</v>
-      </c>
-      <c r="J11" s="29">
-        <v>20</v>
-      </c>
-      <c r="K11" s="29">
-        <v>30</v>
-      </c>
-      <c r="L11" s="29">
-        <v>40</v>
-      </c>
-      <c r="M11" s="29">
-        <v>5</v>
-      </c>
-      <c r="N11" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="29">
-        <v>2</v>
-      </c>
-      <c r="C22" s="29">
-        <v>7</v>
-      </c>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B56" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:N12"/>
+  <mergeCells count="28">
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C57:K57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6497,488 +6830,119 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
-  <dimension ref="A1:M44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34">
-        <v>6</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="6">
-        <v>6</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="19"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B40" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B41" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B42" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDCFC51-F329-4DF0-9957-672B6080BF8B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7957EAEE-90B0-40E0-9698-9F30DADA447F}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6988,92 +6952,1199 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7957EAEE-90B0-40E0-9698-9F30DADA447F}">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
+  <dimension ref="B1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>345</v>
+      <c r="L2" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="29">
+        <v>100</v>
+      </c>
+      <c r="E4" s="29">
+        <v>100</v>
+      </c>
+      <c r="F4" s="29">
+        <v>100</v>
+      </c>
+      <c r="G4" s="29">
+        <v>10</v>
+      </c>
+      <c r="H4" s="29">
+        <v>60</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>10</v>
+      </c>
+      <c r="K4" s="29">
+        <v>30</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
+        <v>2</v>
+      </c>
+      <c r="N4" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="29">
+        <v>100</v>
+      </c>
+      <c r="E5" s="29">
+        <v>100</v>
+      </c>
+      <c r="F5" s="29">
+        <v>100</v>
+      </c>
+      <c r="G5" s="29">
+        <v>10</v>
+      </c>
+      <c r="H5" s="29">
+        <v>50</v>
+      </c>
+      <c r="I5" s="29">
+        <v>30</v>
+      </c>
+      <c r="J5" s="29">
+        <v>10</v>
+      </c>
+      <c r="K5" s="29">
+        <v>10</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29">
+        <v>2</v>
+      </c>
+      <c r="N5" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="29">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="29">
+        <v>100</v>
+      </c>
+      <c r="E6" s="29">
+        <v>100</v>
+      </c>
+      <c r="F6" s="29">
+        <v>100</v>
+      </c>
+      <c r="G6" s="29">
+        <v>10</v>
+      </c>
+      <c r="H6" s="29">
+        <v>50</v>
+      </c>
+      <c r="I6" s="29">
+        <v>15</v>
+      </c>
+      <c r="J6" s="29">
+        <v>30</v>
+      </c>
+      <c r="K6" s="29">
+        <v>5</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>4</v>
+      </c>
+      <c r="N6" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="29">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="29">
+        <v>100</v>
+      </c>
+      <c r="E7" s="29">
+        <v>100</v>
+      </c>
+      <c r="F7" s="29">
+        <v>100</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10</v>
+      </c>
+      <c r="H7" s="29">
+        <v>40</v>
+      </c>
+      <c r="I7" s="29">
+        <v>40</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>5</v>
+      </c>
+      <c r="L7" s="29">
+        <v>15</v>
+      </c>
+      <c r="M7" s="29">
+        <v>6</v>
+      </c>
+      <c r="N7" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
+        <v>100</v>
+      </c>
+      <c r="F8" s="29">
+        <v>100</v>
+      </c>
+      <c r="G8" s="29">
+        <v>10</v>
+      </c>
+      <c r="H8" s="29">
+        <v>20</v>
+      </c>
+      <c r="I8" s="29">
+        <v>20</v>
+      </c>
+      <c r="J8" s="29">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29">
+        <v>20</v>
+      </c>
+      <c r="M8" s="29">
+        <v>3</v>
+      </c>
+      <c r="N8" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="29">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="29">
+        <v>100</v>
+      </c>
+      <c r="E9" s="29">
+        <v>100</v>
+      </c>
+      <c r="F9" s="29">
+        <v>100</v>
+      </c>
+      <c r="G9" s="29">
+        <v>10</v>
+      </c>
+      <c r="H9" s="29">
+        <v>25</v>
+      </c>
+      <c r="I9" s="29">
+        <v>50</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>25</v>
+      </c>
+      <c r="M9" s="29">
+        <v>5</v>
+      </c>
+      <c r="N9" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="29">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="29">
+        <v>100</v>
+      </c>
+      <c r="E10" s="29">
+        <v>100</v>
+      </c>
+      <c r="F10" s="29">
+        <v>100</v>
+      </c>
+      <c r="G10" s="29">
+        <v>10</v>
+      </c>
+      <c r="H10" s="29">
+        <v>15</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>35</v>
+      </c>
+      <c r="K10" s="29">
+        <v>25</v>
+      </c>
+      <c r="L10" s="29">
+        <v>25</v>
+      </c>
+      <c r="M10" s="29">
+        <v>3</v>
+      </c>
+      <c r="N10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="29">
+        <v>100</v>
+      </c>
+      <c r="E11" s="29">
+        <v>100</v>
+      </c>
+      <c r="F11" s="29">
+        <v>100</v>
+      </c>
+      <c r="G11" s="29">
+        <v>10</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
+        <v>10</v>
+      </c>
+      <c r="J11" s="29">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29">
+        <v>30</v>
+      </c>
+      <c r="L11" s="29">
+        <v>40</v>
+      </c>
+      <c r="M11" s="29">
+        <v>5</v>
+      </c>
+      <c r="N11" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="29">
+        <v>2</v>
+      </c>
+      <c r="C22" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="31">
+        <v>2</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="F29" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="31">
+        <v>3</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="31">
+        <v>5</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="31">
+        <v>6</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="31">
+        <v>7</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="F34" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="31">
+        <v>8</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="35">
+        <v>1</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1</v>
+      </c>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="35">
+        <v>2</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E42" s="38">
+        <v>1</v>
+      </c>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="35">
+        <v>3</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E43" s="38">
+        <v>2</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="35">
+        <v>4</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="E44" s="38">
+        <v>2</v>
+      </c>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="35">
+        <v>5</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" s="38">
+        <v>2</v>
+      </c>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="35">
+        <v>6</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="38">
+        <v>3</v>
+      </c>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="35">
+        <v>7</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="E47" s="38">
+        <v>3</v>
+      </c>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="35">
+        <v>8</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E48" s="38">
+        <v>3</v>
+      </c>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="35">
+        <v>9</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E49" s="38">
+        <v>3</v>
+      </c>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="35">
+        <v>10</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="38">
+        <v>3</v>
+      </c>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="33">
+        <v>1</v>
+      </c>
+      <c r="C56" s="33">
+        <v>10</v>
+      </c>
+      <c r="D56" s="33">
+        <v>10</v>
+      </c>
+      <c r="E56" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="33">
+        <v>2</v>
+      </c>
+      <c r="C57" s="33">
+        <v>10</v>
+      </c>
+      <c r="D57" s="33">
+        <v>10</v>
+      </c>
+      <c r="E57" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="33">
+        <v>3</v>
+      </c>
+      <c r="C58" s="33">
+        <v>10</v>
+      </c>
+      <c r="D58" s="33">
+        <v>10</v>
+      </c>
+      <c r="E58" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="33">
+        <v>4</v>
+      </c>
+      <c r="C59" s="33">
+        <v>10</v>
+      </c>
+      <c r="D59" s="33">
+        <v>10</v>
+      </c>
+      <c r="E59" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="33">
+        <v>5</v>
+      </c>
+      <c r="C60" s="33">
+        <v>10</v>
+      </c>
+      <c r="D60" s="33">
+        <v>10</v>
+      </c>
+      <c r="E60" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" s="38"/>
+      <c r="F65" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="E66" s="38"/>
+      <c r="F66" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="38">
+        <v>1</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G67" s="33">
+        <v>0</v>
+      </c>
+      <c r="H67" s="33">
+        <v>0</v>
+      </c>
+      <c r="I67" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="38">
+        <v>2</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G68" s="33">
+        <v>20</v>
+      </c>
+      <c r="H68" s="33">
+        <v>20</v>
+      </c>
+      <c r="I68" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="38">
+        <v>3</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E69" s="38"/>
+      <c r="F69" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="G69" s="33">
+        <v>40</v>
+      </c>
+      <c r="H69" s="33">
+        <v>40</v>
+      </c>
+      <c r="I69" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G70" t="s">
+        <v>391</v>
+      </c>
+      <c r="H70" t="s">
+        <v>391</v>
+      </c>
+      <c r="I70" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A14FFA1-D65B-4CF1-AB15-D0DB2BEB043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42E848A-0BF3-40B0-A87A-A1C0EFBC0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="471">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,914 +934,932 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속성 : 무(15%), 흙(35%), 전기(25%), 불(25%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특성 : 거대한, 단단한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>7.2 기믹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+  </si>
+  <si>
+    <t>대분류ID</t>
+  </si>
+  <si>
+    <t>중분류</t>
+  </si>
+  <si>
+    <t>중분류ID</t>
+  </si>
+  <si>
+    <t>소분류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소분류ID </t>
+  </si>
+  <si>
+    <t>효과 설명</t>
+  </si>
+  <si>
+    <t>몬스터 전체가 같은 효과를 받음</t>
+  </si>
+  <si>
+    <t>생명회복</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 10%가 회복됨</t>
+  </si>
+  <si>
+    <t>생명감소</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 7%가 감소함</t>
+  </si>
+  <si>
+    <t>방어구증가</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 회복됨</t>
+  </si>
+  <si>
+    <t>방어구감소</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 감소함</t>
+  </si>
+  <si>
+    <t>방어력증가</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 증가함</t>
+  </si>
+  <si>
+    <t>방어력감소</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 감소함</t>
+  </si>
+  <si>
+    <t>몬스터 속성에 따라 효과를 받음</t>
+  </si>
+  <si>
+    <t>물 속성 적</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+  </si>
+  <si>
+    <t>흙 속성 적</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+  </si>
+  <si>
+    <t>불 속성 적</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+  </si>
+  <si>
+    <t>전기 속성 적</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 증가함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 증가함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 증가함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 감소함</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 감소함</t>
+  </si>
+  <si>
+    <t>타워 종류에 따라 효과를 받음</t>
+  </si>
+  <si>
+    <t>화살타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 화살타워에서 받는 데미지가 5% 증가함</t>
+  </si>
+  <si>
+    <t>모래시계타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
+  </si>
+  <si>
+    <t>독타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 초당 받는 데미지가 5% 증가함</t>
+  </si>
+  <si>
+    <t>드래곤타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 드래곤타워에서 받는 데미지가 5% 증가함</t>
+  </si>
+  <si>
+    <t>레이저타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 레이저타워에서 받는 데미지가 5% 증가함</t>
+  </si>
+  <si>
+    <t>미사일타워</t>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 미사일타워에서 받는 데미지가 5% 증가함</t>
+  </si>
+  <si>
+    <t>몬스터 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적으로 나올 몬스터들의 다양화와 이에 따른 수치, 특성 세분화 / 몬스터 간의 적절한 밸런스 분배와 난이도 조절을 위해 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획의도, 몬스터 능력치, 몬스터UI, 몬스터 종류, 몬스터 데이터 ,몬스터 생성규칙, 몬스터UI, 이동경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.몬스터 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.몬스터 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성에 따른 스탯 증감은 몬스터 분류 다음 순위로 적용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 몬스터 별로 각 속성에 따른 적용확률이 존재한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.몬스터 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성을 지닌 몬스터를 표현할 때, (특성2)(특성1)(몬스터명)의 형태로 나타낸다.(ex. 강화된 단단한 (몬스터명), 은밀한 거대한 (몬스터명))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1몬스터 특성1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2몬스터 특성2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*특성을 가지고 있지 않을 경우 ID는 1으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*특성을 가지고 있지 않을 경우 ID는 1으로 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 2 : 모든 캐릭터 대상 적용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 3~5(특수 특성) : 서브보스 한정 적용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 6~10(보스 특성) : 보스 한정 적용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.몬스터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 분류에 따른 스탯 변화는 레벨 다음 순위로 적용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.몬스터 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 관통 타워 - 해당 타워의 공격에 한하여, 몬스터의 방어력은 0으로 계산된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*몬스터 파트에서 기믹에 따른 데미지 변화량 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 속성 적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이동경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//기본 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 가능한 경로가 두가지 이상일 경우 (마리수)/(경로수)를 내림한 값의 수를 각각의 경로에 소환하고, (마리수)%(경로수)!=0일 경우 첫번째 경로에 나머지 몬스터를 추가 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터는 종점에 도착시 자신의 공격력에 해당하는 종점 체력을 깎고 사망한다.(종점에 도착 시 공격모션을 취한 후, 사망모션을 취한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 몬스터의 해당 속성을 지닐 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지닐 수 있는 특성1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 몬스터가 지닐 수 있는 속성의 확률이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 몬스터가 지닐 수 있는 특성1의 종류이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 표의 경우 몬스터는 특성1로 ID2과 ID7의 특성을 가질 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 표의 경우 몬스터는 60%확률로 무속성, 0%확률로 물속성, 10%확률로 땅속성, 30%확률로 불속성 , 0%확률로 전기속성을 지닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.웨이브에 따른 보스, 서브보스 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)3, 5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 서브보스 몬스터이다.</t>
+  </si>
+  <si>
+    <t>2)5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 보스 몬스터이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 5의 배수의 웨이브에서 서브보스 하나, 5의 배수의 웨이브에서 보스가 하나 소환된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*서브보스와 보스는 몬스터 생성규칙에 따라 소환되어야 하는 전체 몬스터 수에 포함된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1보스, 서브보스의 속성 부여규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangedStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sturdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abudant</t>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)6라운드까지 보스, 서브보스는 특성2를 지니지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)6라운드 이후 보스, 서브보스는 각자의 분류에 맞는 특성2를 지닌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활의, 생성의, 이끄는, 저주하는 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열의, 은밀한 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*두 몬스터가 겹쳐 나오는 경우 출현량은 반반이다.(총 마릿수 홀수일시 등장라운드가 더 낮은 몬스터가 1마리 많이 소환된다.)</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은밀한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이끄는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.스폰 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 진행 중 몬스터 스폰 주기는 0.3초로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성1(Speciality)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성2(Property)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.몬스터 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.몬스터 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.몬스터 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.몬스터 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.몬스터 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 특성을 지닌 캐릭터는 가 마을에 도달할 경우 다음 웨이브에 한정하여 모든 획득 루트의 재화 획득량이 절반이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.특수 상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 서브보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 : 무(41%), 물(39%), 전기(15%), 불(5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 : 무(24%), 물(19%), 흙(19%), 불(19%), 전기(19%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.몬스터 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.몬스터UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.몬스터종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.몬스터 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.이동경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.몬스터 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 몬스터수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)11웨이브부터 40웨이브까지 몬스터는 (전스테이지 몬스터 마리수) x 10%를 반올림한 값의 수를 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 전스테이지 기준 10% 증가, 정수로 맞아떨어지지 않을 경우 반올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4)41웨이브부터 몬스터는 (전스테이지 몬스터 마리수) x 15%를 반올림한 값의 수를 생성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 전스테이지 기준 15% 증가, 정수로 맞아떨어지지 않을 경우 반올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 특성1 몬스터 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 특성2 몬스터 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 특화 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 스탯 계산 공식, 피해량 계산 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 = 기본값 x (레벨 증가치) x (몬스터 분류 증가치) x (속성 변동치+특성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 x 20% x 40% x (50%+10%)= 100 x 1.2 x 1.4 x 1.6 = 268.8의 체력을 지닌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 체력 기본값 100, 레벨 3, 보스, 물속성, 거대한인 몬스터는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 적용 피해량(방어구 없을 시) = 피해량 x (피해량 증가 기믹) x (특화 타워 피해량 증가) x [0.01 x (100-{방어력+-(방어력 변동치)}]</t>
+  </si>
+  <si>
+    <t>100 x 5% x 20% x (0.01 x 70) = 100 x 1.05 x 1.2 x 0.7 = 88.2의 피해량이 최종적으로 적용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.스탯, 피해량 계산 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기본 스탯의 %로 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)방어구 없음, 피해량 100, 피해량 5% 증가 기믹, 체력 특화 타워 피해량 증가 20%, 몬스터 방어력 합산 30일 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 적용 피해량(방어구 존재 시) = 피해량 x 0.9 x (피해량 증가 기믹) x (특화 타워 피해량 증가) x [0.01 x (100-{방어력+-(방어력 변동치)}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.스폰 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.웨이브에 따른 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.웨이브에 따른 특성부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.웨이브에 따른 속성부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.웨이브에 따른 보스, 서브보스 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출현 마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.08.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(웨이브가 3의 배수), 2(웨이브가 5의 배수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 웨이브당 1 증가 + {0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
+  </si>
+  <si>
+    <t>웨이브당 2 증가 + {0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브당 4마리 증가 +{0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*웨이브가 15의 배수인 경우, 특성2 수는 '+2'로 계산한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 특성을 지닌 캐릭터를 기준으로 전방향 5칸 범위 내 캐릭터에게 10%만큼 방어력을 증가시킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용가능한 몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 : 흙(35%), 전기(25%), 불(25%), 무(15%)</t>
+  </si>
+  <si>
     <t>속성 : 전기(40%), 불(30%), 흙(20%), 물(10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2 기믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대분류</t>
-  </si>
-  <si>
-    <t>대분류ID</t>
-  </si>
-  <si>
-    <t>중분류</t>
-  </si>
-  <si>
-    <t>중분류ID</t>
-  </si>
-  <si>
-    <t>소분류</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소분류ID </t>
-  </si>
-  <si>
-    <t>효과 설명</t>
-  </si>
-  <si>
-    <t>몬스터 전체가 같은 효과를 받음</t>
-  </si>
-  <si>
-    <t>생명회복</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 10%가 회복됨</t>
-  </si>
-  <si>
-    <t>생명감소</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 7%가 감소함</t>
-  </si>
-  <si>
-    <t>방어구증가</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 회복됨</t>
-  </si>
-  <si>
-    <t>방어구감소</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 감소함</t>
-  </si>
-  <si>
-    <t>방어력증가</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 증가함</t>
-  </si>
-  <si>
-    <t>방어력감소</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 감소함</t>
-  </si>
-  <si>
-    <t>몬스터 속성에 따라 효과를 받음</t>
-  </si>
-  <si>
-    <t>물 속성 적</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
-  </si>
-  <si>
-    <t>흙 속성 적</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
-  </si>
-  <si>
-    <t>불 속성 적</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
-  </si>
-  <si>
-    <t>전기 속성 적</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 10%가 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 10%가 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 10%가 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 10%가 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 증가함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 증가함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 증가함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 감소함</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 감소함</t>
-  </si>
-  <si>
-    <t>타워 종류에 따라 효과를 받음</t>
-  </si>
-  <si>
-    <t>화살타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 3초간 화살타워에서 받는 데미지가 5% 증가함</t>
-  </si>
-  <si>
-    <t>모래시계타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
-  </si>
-  <si>
-    <t>독타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 3초간 초당 받는 데미지가 5% 증가함</t>
-  </si>
-  <si>
-    <t>드래곤타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 3초간 드래곤타워에서 받는 데미지가 5% 증가함</t>
-  </si>
-  <si>
-    <t>레이저타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 3초간 레이저타워에서 받는 데미지가 5% 증가함</t>
-  </si>
-  <si>
-    <t>미사일타워</t>
-  </si>
-  <si>
-    <t>이 타일을 지나면 3초간 미사일타워에서 받는 데미지가 5% 증가함</t>
-  </si>
-  <si>
-    <t>몬스터 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적으로 나올 몬스터들의 다양화와 이에 따른 수치, 특성 세분화 / 몬스터 간의 적절한 밸런스 분배와 난이도 조절을 위해 기획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획의도, 몬스터 능력치, 몬스터UI, 몬스터 종류, 몬스터 데이터 ,몬스터 생성규칙, 몬스터UI, 이동경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.몬스터 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.몬스터 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성에 따른 스탯 증감은 몬스터 분류 다음 순위로 적용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 몬스터 별로 각 속성에 따른 적용확률이 존재한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.몬스터 특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성을 지닌 몬스터를 표현할 때, (특성2)(특성1)(몬스터명)의 형태로 나타낸다.(ex. 강화된 단단한 (몬스터명), 은밀한 거대한 (몬스터명))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1몬스터 특성1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2몬스터 특성2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*특성을 가지고 있지 않을 경우 ID는 1으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*특성을 가지고 있지 않을 경우 ID는 1으로 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 2 : 모든 캐릭터 대상 적용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 3~5(특수 특성) : 서브보스 한정 적용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 6~10(보스 특성) : 보스 한정 적용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.몬스터 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.몬스터 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 타입별 특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 분류에 따른 스탯 변화는 레벨 다음 순위로 적용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.몬스터 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 관통 타워 - 해당 타워의 공격에 한하여, 몬스터의 방어력은 0으로 계산된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*몬스터 파트에서 기믹에 따른 데미지 변화량 계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 증가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기 속성 적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 이동경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//기본 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성 가능한 경로가 두가지 이상일 경우 (마리수)/(경로수)를 내림한 값의 수를 각각의 경로에 소환하고, (마리수)%(경로수)!=0일 경우 첫번째 경로에 나머지 몬스터를 추가 소환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터는 종점에 도착시 자신의 공격력에 해당하는 종점 체력을 깎고 사망한다.(종점에 도착 시 공격모션을 취한 후, 사망모션을 취한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 몬스터의 해당 속성을 지닐 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지닐 수 있는 특성1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 몬스터가 지닐 수 있는 속성의 확률이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 몬스터가 지닐 수 있는 특성1의 종류이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 표의 경우 몬스터는 특성1로 ID2과 ID7의 특성을 가질 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 표의 경우 몬스터는 60%확률로 무속성, 0%확률로 물속성, 10%확률로 땅속성, 30%확률로 불속성 , 0%확률로 전기속성을 지닌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.웨이브에 따른 보스, 서브보스 생성 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)3, 5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 서브보스 몬스터이다.</t>
-  </si>
-  <si>
-    <t>2)5의 배수의 웨이브에서 생성되는 몬스터 중 하나는 보스 몬스터이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 5의 배수의 웨이브에서 서브보스 하나, 5의 배수의 웨이브에서 보스가 하나 소환된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*서브보스와 보스는 몬스터 생성규칙에 따라 소환되어야 하는 전체 몬스터 수에 포함된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1보스, 서브보스의 속성 부여규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangedStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sturdy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abudant</t>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rapid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가량(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)6라운드까지 보스, 서브보스는 특성2를 지니지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)6라운드 이후 보스, 서브보스는 각자의 분류에 맞는 특성2를 지닌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활의, 생성의, 이끄는, 저주하는 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(25%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열의, 은밀한 특성 중 하나를 지닌다. 해당 특성들의 확률은 동일하다(50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*두 몬스터가 겹쳐 나오는 경우 출현량은 반반이다.(총 마릿수 홀수일시 등장라운드가 더 낮은 몬스터가 1마리 많이 소환된다.)</t>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화된</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은밀한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부활한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이끄는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저주하는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropertyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.스폰 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 진행 중 몬스터 스폰 주기는 0.3초로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성1(Speciality)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성2(Property)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.몬스터 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.몬스터 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.몬스터 특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.몬스터 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.몬스터 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.몬스터 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 특성을 지닌 캐릭터는 가 마을에 도달할 경우 다음 웨이브에 한정하여 모든 획득 루트의 재화 획득량이 절반이 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.특수 상황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가량(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>: 서브보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 : 무(41%), 물(39%), 전기(15%), 불(5%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 : 무(24%), 물(19%), 흙(19%), 불(19%), 전기(19%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.몬스터 능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.몬스터UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.몬스터종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.몬스터 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.이동경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.몬스터 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가량(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 몬스터수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3)11웨이브부터 40웨이브까지 몬스터는 (전스테이지 몬스터 마리수) x 10%를 반올림한 값의 수를 생성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 전스테이지 기준 10% 증가, 정수로 맞아떨어지지 않을 경우 반올림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4)41웨이브부터 몬스터는 (전스테이지 몬스터 마리수) x 15%를 반올림한 값의 수를 생성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 전스테이지 기준 15% 증가, 정수로 맞아떨어지지 않을 경우 반올림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 특성1 몬스터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 특성2 몬스터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1 특화 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0. 스탯 계산 공식, 피해량 계산 공식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탯 = 기본값 x (레벨 증가치) x (몬스터 분류 증가치) x (속성 변동치+특성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 x 20% x 40% x (50%+10%)= 100 x 1.2 x 1.4 x 1.6 = 268.8의 체력을 지닌다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) 체력 기본값 100, 레벨 3, 보스, 물속성, 거대한인 몬스터는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 적용 피해량(방어구 없을 시) = 피해량 x (피해량 증가 기믹) x (특화 타워 피해량 증가) x [0.01 x (100-{방어력+-(방어력 변동치)}]</t>
-  </si>
-  <si>
-    <t>100 x 5% x 20% x (0.01 x 70) = 100 x 1.05 x 1.2 x 0.7 = 88.2의 피해량이 최종적으로 적용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.스탯, 피해량 계산 공식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 기본 스탯의 %로 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)방어구 없음, 피해량 100, 피해량 5% 증가 기믹, 체력 특화 타워 피해량 증가 20%, 몬스터 방어력 합산 30일 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 적용 피해량(방어구 존재 시) = 피해량 x 0.9 x (피해량 증가 기믹) x (특화 타워 피해량 증가) x [0.01 x (100-{방어력+-(방어력 변동치)}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.스폰 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.웨이브에 따른 생성규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.웨이브에 따른 특성부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.웨이브에 따른 속성부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.웨이브에 따른 보스, 서브보스 생성 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.08.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1(웨이브가 3의 배수), 2(웨이브가 5의 배수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 웨이브당 1 증가 + {0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
-  </si>
-  <si>
-    <t>웨이브당 2 증가 + {0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브당 4마리 증가 +{0, 1(웨이브가 3의 배수), 2(웨이브가 5의 배수)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*웨이브가 15의 배수인 경우, 특성2 수는 '+2'로 계산한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 특성을 지닌 캐릭터를 기준으로 전방향 5칸 범위 내 캐릭터에게 10%만큼 방어력을 증가시킨다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용가능한 몬스터 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3034,6 +3052,1835 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4BDB00-61F0-49D5-AE9E-236380A4AE12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="72289" t="12787" r="3213" b="55245"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5219700" y="1028700"/>
+          <a:ext cx="1028700" cy="1011836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D748C21A-91B5-4464-B57F-C1DA681024A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9237" t="61805" r="69880" b="5695"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6583680" y="1028700"/>
+          <a:ext cx="883420" cy="1036320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61304739-50EC-4F2F-987B-B6812DA3BD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="29719" t="63402" r="43775" b="4097"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7848600" y="1028699"/>
+          <a:ext cx="1143000" cy="1056409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C462BB-D89F-49C3-B4AA-353B8166BE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15232" t="55440" r="55867" b="4663"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5836920" y="3078479"/>
+          <a:ext cx="1089660" cy="1133835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F112A6-7A72-4867-9375-C2AC9740D7B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="72252" t="24353" b="29016"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7277100" y="3086099"/>
+          <a:ext cx="899160" cy="1139031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF494F54-9F66-456A-9567-C534353E0BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="27729" r="54696" b="58549"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8724900" y="3093719"/>
+          <a:ext cx="632460" cy="1124373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F346D7-8E0F-44C5-A15B-8F64A44216BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3905" t="25389" r="66022" b="31606"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9799320" y="3101340"/>
+          <a:ext cx="1036320" cy="1117072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>182478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AFFAC8-AD12-40F8-AE86-3C899D482C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26046" t="53926" r="51459"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5867400" y="5087619"/>
+          <a:ext cx="830580" cy="1282299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55296</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0AD1F0-4F0A-4500-9E9B-0CCE814A4481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51304" t="59162" r="26202" b="2094"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7086600" y="5052060"/>
+          <a:ext cx="1015416" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF764CEF-BA90-41B9-BC98-3C1DEFE50CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="41438" t="1047" r="40010" b="63875"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8473440" y="5013960"/>
+          <a:ext cx="967740" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>205434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C12A86-BF67-41EB-8F40-72FCE9571E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="76955" t="23561" r="3312" b="35077"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9966960" y="5044439"/>
+          <a:ext cx="853440" cy="1348435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655422</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339E8EF-8D71-4989-B835-F02A67BAD93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26604" t="60427" r="49615" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5821679" y="7124700"/>
+          <a:ext cx="868783" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D30B3D-9C50-47CE-B541-30E7DE549B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="49982" t="61497" r="28654" b="-1069"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7178040" y="7117079"/>
+          <a:ext cx="853440" cy="1191595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFACC43-562A-4D89-9579-425754E06111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="84245" t="42246" r="438" b="34759"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8519160" y="7147559"/>
+          <a:ext cx="998220" cy="1129565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>631237</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9F141-EE4D-4DBF-8DF0-243B34F37363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="74571" t="56684" r="6484"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9982200" y="7101840"/>
+          <a:ext cx="707437" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263492</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF5D87F-56E7-4855-9E24-784D449E221D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1186" t="24122" r="66798" b="45989"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6210300" y="9052560"/>
+          <a:ext cx="1429352" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B51381B-9435-4CF0-9C12-1A73F418A44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="54150" t="53486" r="23320" b="15051"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="9029699"/>
+          <a:ext cx="1005840" cy="1058779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37536</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D465183E-2932-4640-8B60-C094F0C21360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3558" t="47717" r="75889" b="23966"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9090660" y="9052560"/>
+          <a:ext cx="1005276" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CFF9BA-FB91-4E7F-AB73-0871D64BFFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="75099" t="48243" r="1186" b="21868"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="9083040"/>
+          <a:ext cx="1066800" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>3420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0286A877-B390-48A0-B717-64CE9C21C23C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="55814" t="7713" r="13954" b="49607"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6507480" y="11056619"/>
+          <a:ext cx="1242060" cy="1321681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9297F143-05C9-4D18-93DC-391E09191A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8527" t="44222" r="52326" b="243"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8427719" y="11018519"/>
+          <a:ext cx="1261321" cy="1348741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>205739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5914EC-25BF-437C-AD54-A6D02A0E5E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13307" t="10476" r="53994" b="44124"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4983480" y="11033759"/>
+          <a:ext cx="1318260" cy="1379576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BF789C-0FF2-4D71-80D9-5CA5FD28550F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-1165" t="38659" r="72024" b="28351"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11529060" y="13007339"/>
+          <a:ext cx="1508760" cy="1287475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220979</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249187</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5DD9EF-D216-45FB-B8B3-EAF42BDCC875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6994" t="10825" r="65808" b="54639"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5585459" y="12992100"/>
+          <a:ext cx="1369328" cy="1310640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393154</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C477C-711C-41F3-8365-2104AFE9C651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12822" t="59279" r="48324"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7528559" y="13060680"/>
+          <a:ext cx="1581875" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAD45C3-DA9B-42A5-ACF4-915E5355FA62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="75377" t="36598" b="31443"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9662160" y="13045439"/>
+          <a:ext cx="1287780" cy="1259873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>24139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E22E3BD-12FF-4194-B936-97EB62C5ACD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="50575" t="55913" r="22988" b="-2033"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5897880" y="15194280"/>
+          <a:ext cx="899160" cy="1182379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502919</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43486</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595E6CC4-81CA-4DE2-B719-0C43BC739523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="69732" t="33040" b="16639"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7208519" y="15224759"/>
+          <a:ext cx="881687" cy="1104901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>193638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C04216-EAAB-4747-8DC1-1AFDCCAFE750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="38631" r="73946" b="12572"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8549640" y="15217139"/>
+          <a:ext cx="784860" cy="1108039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36884</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA850E1C-FD40-43B5-891F-0F9FE935233A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4981" t="14232" r="72414" b="50695"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9814560" y="15217139"/>
+          <a:ext cx="951284" cy="1112521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43" descr="screenshot">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA0478-0781-43F1-8E8D-25B2AE2B3ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25296" t="58206" r="54150" b="5612"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11986260" y="9052560"/>
+          <a:ext cx="792480" cy="1051560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3347,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -3386,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3405,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3439,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -3470,7 +5317,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3487,32 +5334,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +5381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -3542,87 +5389,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -3643,7 +5490,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -3800,17 +5647,17 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
@@ -3982,12 +5829,12 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -3997,12 +5844,12 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B57" s="45"/>
       <c r="C57" s="21" t="s">
@@ -4271,7 +6118,7 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.4">
@@ -4281,12 +6128,12 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A70" s="45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B70" s="45"/>
       <c r="C70" s="21" t="s">
@@ -4643,7 +6490,7 @@
         <v>56</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
@@ -4684,7 +6531,7 @@
         <v>55</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
@@ -4721,7 +6568,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4732,7 +6579,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="38"/>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>64</v>
@@ -4740,21 +6587,21 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G84" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="39"/>
       <c r="B85" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G86" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4762,7 +6609,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4890,12 +6737,12 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
@@ -4906,7 +6753,7 @@
         <v>77</v>
       </c>
       <c r="D106" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.4">
@@ -5028,12 +6875,12 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -5079,12 +6926,12 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
@@ -5099,34 +6946,34 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132" s="51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E132" s="51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F132" s="51"/>
       <c r="G132" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I132" s="47"/>
       <c r="J132" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K132" s="47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L132" s="47"/>
       <c r="M132" s="47"/>
@@ -5136,7 +6983,7 @@
       <c r="Q132" s="47"/>
       <c r="R132" s="47"/>
       <c r="S132" s="47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T132" s="47"/>
       <c r="U132" s="47"/>
@@ -5145,7 +6992,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B133" s="52"/>
       <c r="C133" s="52"/>
@@ -5153,7 +7000,7 @@
         <v>10</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F133" s="52"/>
       <c r="G133" s="29">
@@ -5165,7 +7012,7 @@
         <v>10</v>
       </c>
       <c r="K133" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L133" s="45"/>
       <c r="M133" s="45"/>
@@ -5175,7 +7022,7 @@
       <c r="Q133" s="45"/>
       <c r="R133" s="45"/>
       <c r="S133" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="T133" s="45"/>
       <c r="U133" s="45"/>
@@ -5188,7 +7035,7 @@
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
       <c r="E134" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F134" s="52"/>
       <c r="G134" s="29">
@@ -5200,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="K134" s="45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L134" s="45"/>
       <c r="M134" s="45"/>
@@ -5221,7 +7068,7 @@
       <c r="C135" s="45"/>
       <c r="D135" s="45"/>
       <c r="E135" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="29">
@@ -5233,7 +7080,7 @@
         <v>10</v>
       </c>
       <c r="K135" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L135" s="45"/>
       <c r="M135" s="45"/>
@@ -5254,7 +7101,7 @@
       <c r="C136" s="45"/>
       <c r="D136" s="45"/>
       <c r="E136" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="29">
@@ -5266,7 +7113,7 @@
         <v>10</v>
       </c>
       <c r="K136" s="46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L136" s="46"/>
       <c r="M136" s="46"/>
@@ -5287,7 +7134,7 @@
       <c r="C137" s="45"/>
       <c r="D137" s="45"/>
       <c r="E137" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="29">
@@ -5299,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="K137" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L137" s="46"/>
       <c r="M137" s="46"/>
@@ -5309,7 +7156,7 @@
       <c r="Q137" s="46"/>
       <c r="R137" s="46"/>
       <c r="S137" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T137" s="45"/>
       <c r="U137" s="45"/>
@@ -5322,7 +7169,7 @@
       <c r="C138" s="45"/>
       <c r="D138" s="45"/>
       <c r="E138" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="29">
@@ -5334,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="K138" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L138" s="46"/>
       <c r="M138" s="46"/>
@@ -5351,7 +7198,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A139" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B139" s="52"/>
       <c r="C139" s="52"/>
@@ -5359,21 +7206,21 @@
         <v>20</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="29">
         <v>11</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I139" s="45"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
       <c r="K139" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L139" s="45"/>
       <c r="M139" s="45"/>
@@ -5383,7 +7230,7 @@
       <c r="Q139" s="45"/>
       <c r="R139" s="45"/>
       <c r="S139" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="T139" s="45"/>
       <c r="U139" s="45"/>
@@ -5399,14 +7246,14 @@
       <c r="F140" s="45"/>
       <c r="G140" s="29"/>
       <c r="H140" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I140" s="45"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
       <c r="K140" s="45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L140" s="45"/>
       <c r="M140" s="45"/>
@@ -5430,14 +7277,14 @@
       <c r="F141" s="45"/>
       <c r="G141" s="29"/>
       <c r="H141" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I141" s="45"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
       <c r="K141" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L141" s="45"/>
       <c r="M141" s="45"/>
@@ -5461,14 +7308,14 @@
       <c r="F142" s="45"/>
       <c r="G142" s="29"/>
       <c r="H142" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I142" s="46"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
       <c r="K142" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L142" s="45"/>
       <c r="M142" s="45"/>
@@ -5489,21 +7336,21 @@
       <c r="C143" s="45"/>
       <c r="D143" s="45"/>
       <c r="E143" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="29">
         <v>21</v>
       </c>
       <c r="H143" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I143" s="45"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
       <c r="K143" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L143" s="45"/>
       <c r="M143" s="45"/>
@@ -5527,14 +7374,14 @@
       <c r="F144" s="45"/>
       <c r="G144" s="29"/>
       <c r="H144" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I144" s="45"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
       <c r="K144" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L144" s="45"/>
       <c r="M144" s="45"/>
@@ -5558,14 +7405,14 @@
       <c r="F145" s="45"/>
       <c r="G145" s="29"/>
       <c r="H145" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I145" s="45"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
       <c r="K145" s="45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L145" s="45"/>
       <c r="M145" s="45"/>
@@ -5589,14 +7436,14 @@
       <c r="F146" s="45"/>
       <c r="G146" s="29"/>
       <c r="H146" s="46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I146" s="46"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
       <c r="K146" s="45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L146" s="45"/>
       <c r="M146" s="45"/>
@@ -5617,21 +7464,21 @@
       <c r="C147" s="45"/>
       <c r="D147" s="45"/>
       <c r="E147" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="29">
         <v>31</v>
       </c>
       <c r="H147" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I147" s="45"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
       <c r="K147" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L147" s="45"/>
       <c r="M147" s="45"/>
@@ -5641,7 +7488,7 @@
       <c r="Q147" s="45"/>
       <c r="R147" s="45"/>
       <c r="S147" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T147" s="45"/>
       <c r="U147" s="45"/>
@@ -5657,14 +7504,14 @@
       <c r="F148" s="45"/>
       <c r="G148" s="29"/>
       <c r="H148" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I148" s="45"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
       <c r="K148" s="45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L148" s="45"/>
       <c r="M148" s="45"/>
@@ -5688,14 +7535,14 @@
       <c r="F149" s="45"/>
       <c r="G149" s="29"/>
       <c r="H149" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I149" s="45"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
       <c r="K149" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L149" s="45"/>
       <c r="M149" s="45"/>
@@ -5719,14 +7566,14 @@
       <c r="F150" s="45"/>
       <c r="G150" s="29"/>
       <c r="H150" s="46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I150" s="46"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
       <c r="K150" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L150" s="45"/>
       <c r="M150" s="45"/>
@@ -5747,21 +7594,21 @@
       <c r="C151" s="45"/>
       <c r="D151" s="45"/>
       <c r="E151" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="29">
         <v>41</v>
       </c>
       <c r="H151" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I151" s="45"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L151" s="45"/>
       <c r="M151" s="45"/>
@@ -5785,14 +7632,14 @@
       <c r="F152" s="46"/>
       <c r="G152" s="29"/>
       <c r="H152" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I152" s="45"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L152" s="45"/>
       <c r="M152" s="45"/>
@@ -5816,14 +7663,14 @@
       <c r="F153" s="46"/>
       <c r="G153" s="29"/>
       <c r="H153" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I153" s="45"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L153" s="45"/>
       <c r="M153" s="45"/>
@@ -5847,14 +7694,14 @@
       <c r="F154" s="46"/>
       <c r="G154" s="29"/>
       <c r="H154" s="46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I154" s="46"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L154" s="45"/>
       <c r="M154" s="45"/>
@@ -5871,7 +7718,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A155" s="52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B155" s="52"/>
       <c r="C155" s="52"/>
@@ -5884,14 +7731,14 @@
         <v>10</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I155" s="45"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L155" s="45"/>
       <c r="M155" s="45"/>
@@ -5915,14 +7762,14 @@
       <c r="F156" s="45"/>
       <c r="G156" s="29"/>
       <c r="H156" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I156" s="46"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L156" s="45"/>
       <c r="M156" s="45"/>
@@ -5946,14 +7793,14 @@
       <c r="F157" s="45"/>
       <c r="G157" s="29"/>
       <c r="H157" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I157" s="46"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L157" s="45"/>
       <c r="M157" s="45"/>
@@ -5977,14 +7824,14 @@
       <c r="F158" s="45"/>
       <c r="G158" s="29"/>
       <c r="H158" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I158" s="46"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L158" s="45"/>
       <c r="M158" s="45"/>
@@ -6008,14 +7855,14 @@
       <c r="F159" s="45"/>
       <c r="G159" s="29"/>
       <c r="H159" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I159" s="46"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
       <c r="K159" s="45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L159" s="45"/>
       <c r="M159" s="45"/>
@@ -6039,14 +7886,14 @@
       <c r="F160" s="45"/>
       <c r="G160" s="29"/>
       <c r="H160" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I160" s="46"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
       <c r="K160" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L160" s="45"/>
       <c r="M160" s="45"/>
@@ -6063,7 +7910,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6276,192 +8123,301 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
-  <dimension ref="B1:E79"/>
+  <dimension ref="B1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>464</v>
+      </c>
+      <c r="K11" t="s">
+        <v>465</v>
+      </c>
+      <c r="M11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>464</v>
+      </c>
+      <c r="L21" t="s">
+        <v>467</v>
+      </c>
+      <c r="N21" t="s">
+        <v>465</v>
+      </c>
+      <c r="P21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>464</v>
+      </c>
+      <c r="L30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N30" t="s">
+        <v>467</v>
+      </c>
+      <c r="P30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>464</v>
+      </c>
+      <c r="L39" t="s">
+        <v>467</v>
+      </c>
+      <c r="N39" t="s">
+        <v>468</v>
+      </c>
+      <c r="P39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="K47" t="s">
+        <v>464</v>
+      </c>
+      <c r="M47" t="s">
+        <v>467</v>
+      </c>
+      <c r="O47" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>465</v>
+      </c>
+      <c r="S47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="N57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="E64" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J66" t="s">
+        <v>466</v>
+      </c>
+      <c r="M66" t="s">
+        <v>468</v>
+      </c>
+      <c r="P66" t="s">
+        <v>465</v>
+      </c>
+      <c r="S66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E71" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>468</v>
+      </c>
+      <c r="L75" t="s">
+        <v>465</v>
+      </c>
+      <c r="N75" t="s">
+        <v>466</v>
+      </c>
+      <c r="P75" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6478,50 +8434,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -6541,12 +8497,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -6601,7 +8557,7 @@
         <v>153</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -6615,7 +8571,7 @@
         <v>154</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -6731,7 +8687,7 @@
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
@@ -6750,7 +8706,7 @@
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
@@ -6769,7 +8725,7 @@
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
@@ -6788,7 +8744,7 @@
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
@@ -6829,7 +8785,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -6946,25 +8902,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B64" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>333</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>335</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
@@ -6977,10 +8933,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>336</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
@@ -6993,30 +8949,30 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B73" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>370</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -7030,10 +8986,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="45" t="s">
         <v>369</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>371</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -7047,10 +9003,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -7104,7 +9060,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7121,7 +9077,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7134,59 +9090,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
   <dimension ref="B1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74:L125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>327</v>
-      </c>
-      <c r="F1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>352</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I2" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>462</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>204</v>
@@ -7203,31 +9159,31 @@
         <v>10</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>206</v>
@@ -7250,7 +9206,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" s="29">
         <v>10</v>
@@ -7291,7 +9247,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" s="29">
         <v>10</v>
@@ -7332,7 +9288,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="29">
         <v>10</v>
@@ -7373,7 +9329,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="29">
         <v>10</v>
@@ -7414,7 +9370,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8" s="29">
         <v>10</v>
@@ -7455,7 +9411,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="29">
         <v>10</v>
@@ -7496,7 +9452,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10" s="29">
         <v>10</v>
@@ -7537,7 +9493,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="29">
         <v>10</v>
@@ -7572,20 +9528,20 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="57"/>
       <c r="M12" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N12" s="57"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
@@ -7607,52 +9563,52 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>322</v>
-      </c>
       <c r="F17" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -7663,7 +9619,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -7684,26 +9640,26 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G26" s="57"/>
       <c r="H26" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -7711,18 +9667,18 @@
         <v>9</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -7730,14 +9686,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="36">
@@ -7749,14 +9705,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="36">
@@ -7768,14 +9724,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="36">
@@ -7787,14 +9743,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="36">
@@ -7806,14 +9762,14 @@
         <v>5</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="36">
@@ -7825,14 +9781,14 @@
         <v>6</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="36">
@@ -7844,14 +9800,14 @@
         <v>7</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G34" s="57"/>
       <c r="H34" s="36">
@@ -7863,14 +9819,14 @@
         <v>8</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G35" s="57"/>
       <c r="H35" s="36">
@@ -7879,27 +9835,27 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G39" s="46"/>
     </row>
@@ -7908,14 +9864,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G40" s="46"/>
     </row>
@@ -7928,7 +9884,7 @@
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F41" s="45">
         <v>1</v>
@@ -7944,7 +9900,7 @@
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F42" s="45">
         <v>1</v>
@@ -7960,7 +9916,7 @@
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F43" s="45">
         <v>2</v>
@@ -7976,7 +9932,7 @@
       </c>
       <c r="D44" s="58"/>
       <c r="E44" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F44" s="45">
         <v>2</v>
@@ -7992,7 +9948,7 @@
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F45" s="45">
         <v>2</v>
@@ -8008,7 +9964,7 @@
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F46" s="45">
         <v>3</v>
@@ -8024,7 +9980,7 @@
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F47" s="45">
         <v>3</v>
@@ -8040,7 +9996,7 @@
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F48" s="45">
         <v>3</v>
@@ -8056,7 +10012,7 @@
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F49" s="45">
         <v>3</v>
@@ -8072,7 +10028,7 @@
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F50" s="45">
         <v>3</v>
@@ -8081,29 +10037,29 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D54" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>345</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -8114,13 +10070,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -8210,43 +10166,43 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B65" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C65" s="45"/>
       <c r="D65" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -8255,20 +10211,20 @@
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -8277,11 +10233,11 @@
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G67" s="33">
         <v>0</v>
@@ -8299,11 +10255,11 @@
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G68" s="33">
         <v>20</v>
@@ -8321,11 +10277,11 @@
       </c>
       <c r="C69" s="45"/>
       <c r="D69" s="45" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G69" s="33">
         <v>40</v>
@@ -8339,82 +10295,82 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F73" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="D74" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F74" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="G74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="G74" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="H74" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J74" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="K74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="K74" s="36" t="s">
-        <v>423</v>
-      </c>
       <c r="L74" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -9869,22 +11825,22 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
+        <v>445</v>
+      </c>
+      <c r="D126" t="s">
+        <v>446</v>
+      </c>
+      <c r="G126" t="s">
+        <v>445</v>
+      </c>
+      <c r="H126" t="s">
         <v>447</v>
       </c>
-      <c r="D126" t="s">
-        <v>448</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="K126" t="s">
+        <v>445</v>
+      </c>
+      <c r="L126" t="s">
         <v>447</v>
-      </c>
-      <c r="H126" t="s">
-        <v>449</v>
-      </c>
-      <c r="K126" t="s">
-        <v>447</v>
-      </c>
-      <c r="L126" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -9969,7 +11925,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -9979,7 +11935,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -9989,7 +11945,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -9999,17 +11955,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42E848A-0BF3-40B0-A87A-A1C0EFBC0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A14FFA1-D65B-4CF1-AB15-D0DB2BEB043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="466">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,10 +934,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>속성 : 무(15%), 흙(35%), 전기(25%), 불(25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>특성 : 거대한, 단단한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>속성 : 전기(40%), 불(30%), 흙(20%), 물(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7.2 기믹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1834,32 +1842,6 @@
   <si>
     <t>적용가능한 몬스터 분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 : 흙(35%), 전기(25%), 불(25%), 무(15%)</t>
-  </si>
-  <si>
-    <t>속성 : 전기(40%), 불(30%), 흙(20%), 물(10%)</t>
   </si>
 </sst>
 </file>
@@ -3052,1835 +3034,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51716</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4BDB00-61F0-49D5-AE9E-236380A4AE12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="72289" t="12787" r="3213" b="55245"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5219700" y="1028700"/>
-          <a:ext cx="1028700" cy="1011836"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>90940</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D748C21A-91B5-4464-B57F-C1DA681024A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="9237" t="61805" r="69880" b="5695"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6583680" y="1028700"/>
-          <a:ext cx="883420" cy="1036320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>96288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61304739-50EC-4F2F-987B-B6812DA3BD9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="29719" t="63402" r="43775" b="4097"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7848600" y="1028699"/>
-          <a:ext cx="1143000" cy="1056409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>205739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13694</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C462BB-D89F-49C3-B4AA-353B8166BE5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="15232" t="55440" r="55867" b="4663"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5836920" y="3078479"/>
-          <a:ext cx="1089660" cy="1133835"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>213359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26510</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F112A6-7A72-4867-9375-C2AC9740D7B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="72252" t="24353" b="29016"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7277100" y="3086099"/>
-          <a:ext cx="899160" cy="1139031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19472</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF494F54-9F66-456A-9567-C534353E0BC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="27729" r="54696" b="58549"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8724900" y="3093719"/>
-          <a:ext cx="632460" cy="1124373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F346D7-8E0F-44C5-A15B-8F64A44216BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3905" t="25389" r="66022" b="31606"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9799320" y="3101340"/>
-          <a:ext cx="1036320" cy="1117072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5079</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>182478</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AFFAC8-AD12-40F8-AE86-3C899D482C90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="26046" t="53926" r="51459"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5867400" y="5087619"/>
-          <a:ext cx="830580" cy="1282299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>55296</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0AD1F0-4F0A-4500-9E9B-0CCE814A4481}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="51304" t="59162" r="26202" b="2094"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7086600" y="5052060"/>
-          <a:ext cx="1015416" cy="1318260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF764CEF-BA90-41B9-BC98-3C1DEFE50CC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="41438" t="1047" r="40010" b="63875"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8473440" y="5013960"/>
-          <a:ext cx="967740" cy="1379220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>205434</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C12A86-BF67-41EB-8F40-72FCE9571E84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="76955" t="23561" r="3312" b="35077"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9966960" y="5044439"/>
-          <a:ext cx="853440" cy="1348435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>655422</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2339E8EF-8D71-4989-B835-F02A67BAD93C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="26604" t="60427" r="49615" b="1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5821679" y="7124700"/>
-          <a:ext cx="868783" cy="1089660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>132414</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D30B3D-9C50-47CE-B541-30E7DE549B14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="49982" t="61497" r="28654" b="-1069"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7178040" y="7117079"/>
-          <a:ext cx="853440" cy="1191595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>100864</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFACC43-562A-4D89-9579-425754E06111}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="84245" t="42246" r="438" b="34759"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8519160" y="7147559"/>
-          <a:ext cx="998220" cy="1129565"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>631237</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="그림 23" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F9F141-EE4D-4DBF-8DF0-243B34F37363}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="74571" t="56684" r="6484"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9982200" y="7101840"/>
-          <a:ext cx="707437" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>263492</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF5D87F-56E7-4855-9E24-784D449E221D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1186" t="24122" r="66798" b="45989"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6210300" y="9052560"/>
-          <a:ext cx="1429352" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144378</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B51381B-9435-4CF0-9C12-1A73F418A44C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="54150" t="53486" r="23320" b="15051"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7810500" y="9029699"/>
-          <a:ext cx="1005840" cy="1058779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>37536</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D465183E-2932-4640-8B60-C094F0C21360}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3558" t="47717" r="75889" b="23966"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9090660" y="9052560"/>
-          <a:ext cx="1005276" cy="1043940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="그림 29" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CFF9BA-FB91-4E7F-AB73-0871D64BFFAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="75099" t="48243" r="1186" b="21868"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10439400" y="9083040"/>
-          <a:ext cx="1066800" cy="1013460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>3420</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="그림 30" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0286A877-B390-48A0-B717-64CE9C21C23C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="55814" t="7713" r="13954" b="49607"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6507480" y="11056619"/>
-          <a:ext cx="1242060" cy="1321681"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>301200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9297F143-05C9-4D18-93DC-391E09191A7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="8527" t="44222" r="52326" b="243"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8427719" y="11018519"/>
-          <a:ext cx="1261321" cy="1348741"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>205739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="그림 33" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5914EC-25BF-437C-AD54-A6D02A0E5E66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="13307" t="10476" r="53994" b="44124"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4983480" y="11033759"/>
-          <a:ext cx="1318260" cy="1379576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152094</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BF789C-0FF2-4D71-80D9-5CA5FD28550F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="-1165" t="38659" r="72024" b="28351"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11529060" y="13007339"/>
-          <a:ext cx="1508760" cy="1287475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>220979</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>249187</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="그림 35" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5DD9EF-D216-45FB-B8B3-EAF42BDCC875}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6994" t="10825" r="65808" b="54639"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5585459" y="12992100"/>
-          <a:ext cx="1369328" cy="1310640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393154</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="그림 36" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C477C-711C-41F3-8365-2104AFE9C651}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12822" t="59279" r="48324"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7528559" y="13060680"/>
-          <a:ext cx="1581875" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>162592</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="그림 37" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAD45C3-DA9B-42A5-ACF4-915E5355FA62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="75377" t="36598" b="31443"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9662160" y="13045439"/>
-          <a:ext cx="1287780" cy="1259873"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>24139</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="그림 38" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E22E3BD-12FF-4194-B936-97EB62C5ACD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="50575" t="55913" r="22988" b="-2033"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5897880" y="15194280"/>
-          <a:ext cx="899160" cy="1182379"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>502919</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>198119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>43486</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="그림 39" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595E6CC4-81CA-4DE2-B719-0C43BC739523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="69732" t="33040" b="16639"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7208519" y="15224759"/>
-          <a:ext cx="881687" cy="1104901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>193638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="그림 40" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C04216-EAAB-4747-8DC1-1AFDCCAFE750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="38631" r="73946" b="12572"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8549640" y="15217139"/>
-          <a:ext cx="784860" cy="1108039"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>36884</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="그림 42" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA850E1C-FD40-43B5-891F-0F9FE935233A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4981" t="14232" r="72414" b="50695"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9814560" y="15217139"/>
-          <a:ext cx="951284" cy="1112521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="그림 43" descr="screenshot">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA0478-0781-43F1-8E8D-25B2AE2B3ED3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25296" t="58206" r="54150" b="5612"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11986260" y="9052560"/>
-          <a:ext cx="792480" cy="1051560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5194,7 +3347,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5233,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -5252,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -5286,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -5317,7 +3470,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="41" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5334,32 +3487,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +3534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -5389,87 +3542,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="42" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="42" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -5490,7 +3643,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="43" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -5647,17 +3800,17 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
@@ -5829,12 +3982,12 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -5844,12 +3997,12 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="45" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B57" s="45"/>
       <c r="C57" s="21" t="s">
@@ -6118,7 +4271,7 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.4">
@@ -6128,12 +4281,12 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A70" s="45" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B70" s="45"/>
       <c r="C70" s="21" t="s">
@@ -6490,7 +4643,7 @@
         <v>56</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
@@ -6531,7 +4684,7 @@
         <v>55</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
@@ -6568,7 +4721,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -6579,7 +4732,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="38"/>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>64</v>
@@ -6587,21 +4740,21 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G84" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="39"/>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G86" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -6609,7 +4762,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -6737,12 +4890,12 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A102" s="15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.4">
@@ -6753,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.4">
@@ -6875,12 +5028,12 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -6926,12 +5079,12 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
@@ -6946,34 +5099,34 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132" s="51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E132" s="51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F132" s="51"/>
       <c r="G132" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I132" s="47"/>
       <c r="J132" s="30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K132" s="47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L132" s="47"/>
       <c r="M132" s="47"/>
@@ -6983,7 +5136,7 @@
       <c r="Q132" s="47"/>
       <c r="R132" s="47"/>
       <c r="S132" s="47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="T132" s="47"/>
       <c r="U132" s="47"/>
@@ -6992,7 +5145,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133" s="52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B133" s="52"/>
       <c r="C133" s="52"/>
@@ -7000,7 +5153,7 @@
         <v>10</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F133" s="52"/>
       <c r="G133" s="29">
@@ -7012,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="K133" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L133" s="45"/>
       <c r="M133" s="45"/>
@@ -7022,7 +5175,7 @@
       <c r="Q133" s="45"/>
       <c r="R133" s="45"/>
       <c r="S133" s="45" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T133" s="45"/>
       <c r="U133" s="45"/>
@@ -7035,7 +5188,7 @@
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
       <c r="E134" s="52" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F134" s="52"/>
       <c r="G134" s="29">
@@ -7047,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="K134" s="45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L134" s="45"/>
       <c r="M134" s="45"/>
@@ -7068,7 +5221,7 @@
       <c r="C135" s="45"/>
       <c r="D135" s="45"/>
       <c r="E135" s="29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="29">
@@ -7080,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="K135" s="45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L135" s="45"/>
       <c r="M135" s="45"/>
@@ -7101,7 +5254,7 @@
       <c r="C136" s="45"/>
       <c r="D136" s="45"/>
       <c r="E136" s="28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="29">
@@ -7113,7 +5266,7 @@
         <v>10</v>
       </c>
       <c r="K136" s="46" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L136" s="46"/>
       <c r="M136" s="46"/>
@@ -7134,7 +5287,7 @@
       <c r="C137" s="45"/>
       <c r="D137" s="45"/>
       <c r="E137" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="29">
@@ -7146,7 +5299,7 @@
         <v>10</v>
       </c>
       <c r="K137" s="46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L137" s="46"/>
       <c r="M137" s="46"/>
@@ -7156,7 +5309,7 @@
       <c r="Q137" s="46"/>
       <c r="R137" s="46"/>
       <c r="S137" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T137" s="45"/>
       <c r="U137" s="45"/>
@@ -7169,7 +5322,7 @@
       <c r="C138" s="45"/>
       <c r="D138" s="45"/>
       <c r="E138" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="29">
@@ -7181,7 +5334,7 @@
         <v>10</v>
       </c>
       <c r="K138" s="46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L138" s="46"/>
       <c r="M138" s="46"/>
@@ -7198,7 +5351,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A139" s="52" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B139" s="52"/>
       <c r="C139" s="52"/>
@@ -7206,21 +5359,21 @@
         <v>20</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="29">
         <v>11</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I139" s="45"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
       <c r="K139" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L139" s="45"/>
       <c r="M139" s="45"/>
@@ -7230,7 +5383,7 @@
       <c r="Q139" s="45"/>
       <c r="R139" s="45"/>
       <c r="S139" s="45" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T139" s="45"/>
       <c r="U139" s="45"/>
@@ -7246,14 +5399,14 @@
       <c r="F140" s="45"/>
       <c r="G140" s="29"/>
       <c r="H140" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I140" s="45"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
       <c r="K140" s="45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L140" s="45"/>
       <c r="M140" s="45"/>
@@ -7277,14 +5430,14 @@
       <c r="F141" s="45"/>
       <c r="G141" s="29"/>
       <c r="H141" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I141" s="45"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
       <c r="K141" s="45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L141" s="45"/>
       <c r="M141" s="45"/>
@@ -7308,14 +5461,14 @@
       <c r="F142" s="45"/>
       <c r="G142" s="29"/>
       <c r="H142" s="46" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I142" s="46"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
       <c r="K142" s="45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L142" s="45"/>
       <c r="M142" s="45"/>
@@ -7336,21 +5489,21 @@
       <c r="C143" s="45"/>
       <c r="D143" s="45"/>
       <c r="E143" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="29">
         <v>21</v>
       </c>
       <c r="H143" s="45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I143" s="45"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
       <c r="K143" s="45" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L143" s="45"/>
       <c r="M143" s="45"/>
@@ -7374,14 +5527,14 @@
       <c r="F144" s="45"/>
       <c r="G144" s="29"/>
       <c r="H144" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I144" s="45"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
       <c r="K144" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L144" s="45"/>
       <c r="M144" s="45"/>
@@ -7405,14 +5558,14 @@
       <c r="F145" s="45"/>
       <c r="G145" s="29"/>
       <c r="H145" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I145" s="45"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
       <c r="K145" s="45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L145" s="45"/>
       <c r="M145" s="45"/>
@@ -7436,14 +5589,14 @@
       <c r="F146" s="45"/>
       <c r="G146" s="29"/>
       <c r="H146" s="46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I146" s="46"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
       <c r="K146" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L146" s="45"/>
       <c r="M146" s="45"/>
@@ -7464,21 +5617,21 @@
       <c r="C147" s="45"/>
       <c r="D147" s="45"/>
       <c r="E147" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="29">
         <v>31</v>
       </c>
       <c r="H147" s="45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I147" s="45"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
       <c r="K147" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L147" s="45"/>
       <c r="M147" s="45"/>
@@ -7488,7 +5641,7 @@
       <c r="Q147" s="45"/>
       <c r="R147" s="45"/>
       <c r="S147" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T147" s="45"/>
       <c r="U147" s="45"/>
@@ -7504,14 +5657,14 @@
       <c r="F148" s="45"/>
       <c r="G148" s="29"/>
       <c r="H148" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I148" s="45"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
       <c r="K148" s="45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L148" s="45"/>
       <c r="M148" s="45"/>
@@ -7535,14 +5688,14 @@
       <c r="F149" s="45"/>
       <c r="G149" s="29"/>
       <c r="H149" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I149" s="45"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
       <c r="K149" s="45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L149" s="45"/>
       <c r="M149" s="45"/>
@@ -7566,14 +5719,14 @@
       <c r="F150" s="45"/>
       <c r="G150" s="29"/>
       <c r="H150" s="46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I150" s="46"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
       <c r="K150" s="45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L150" s="45"/>
       <c r="M150" s="45"/>
@@ -7594,21 +5747,21 @@
       <c r="C151" s="45"/>
       <c r="D151" s="45"/>
       <c r="E151" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="29">
         <v>41</v>
       </c>
       <c r="H151" s="45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I151" s="45"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L151" s="45"/>
       <c r="M151" s="45"/>
@@ -7632,14 +5785,14 @@
       <c r="F152" s="46"/>
       <c r="G152" s="29"/>
       <c r="H152" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I152" s="45"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L152" s="45"/>
       <c r="M152" s="45"/>
@@ -7663,14 +5816,14 @@
       <c r="F153" s="46"/>
       <c r="G153" s="29"/>
       <c r="H153" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I153" s="45"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L153" s="45"/>
       <c r="M153" s="45"/>
@@ -7694,14 +5847,14 @@
       <c r="F154" s="46"/>
       <c r="G154" s="29"/>
       <c r="H154" s="46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I154" s="46"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L154" s="45"/>
       <c r="M154" s="45"/>
@@ -7718,7 +5871,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A155" s="52" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B155" s="52"/>
       <c r="C155" s="52"/>
@@ -7731,14 +5884,14 @@
         <v>10</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I155" s="45"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L155" s="45"/>
       <c r="M155" s="45"/>
@@ -7762,14 +5915,14 @@
       <c r="F156" s="45"/>
       <c r="G156" s="29"/>
       <c r="H156" s="46" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I156" s="46"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L156" s="45"/>
       <c r="M156" s="45"/>
@@ -7793,14 +5946,14 @@
       <c r="F157" s="45"/>
       <c r="G157" s="29"/>
       <c r="H157" s="46" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I157" s="46"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L157" s="45"/>
       <c r="M157" s="45"/>
@@ -7824,14 +5977,14 @@
       <c r="F158" s="45"/>
       <c r="G158" s="29"/>
       <c r="H158" s="46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I158" s="46"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L158" s="45"/>
       <c r="M158" s="45"/>
@@ -7855,14 +6008,14 @@
       <c r="F159" s="45"/>
       <c r="G159" s="29"/>
       <c r="H159" s="46" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I159" s="46"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
       <c r="K159" s="45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L159" s="45"/>
       <c r="M159" s="45"/>
@@ -7886,14 +6039,14 @@
       <c r="F160" s="45"/>
       <c r="G160" s="29"/>
       <c r="H160" s="46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I160" s="46"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
       <c r="K160" s="45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L160" s="45"/>
       <c r="M160" s="45"/>
@@ -7910,7 +6063,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8123,301 +6276,192 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
-  <dimension ref="B1:S79"/>
+  <dimension ref="B1:E79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I11" t="s">
-        <v>464</v>
-      </c>
-      <c r="K11" t="s">
-        <v>465</v>
-      </c>
-      <c r="M11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J21" t="s">
-        <v>464</v>
-      </c>
-      <c r="L21" t="s">
-        <v>467</v>
-      </c>
-      <c r="N21" t="s">
-        <v>465</v>
-      </c>
-      <c r="P21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="J30" t="s">
-        <v>464</v>
-      </c>
-      <c r="L30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N30" t="s">
-        <v>467</v>
-      </c>
-      <c r="P30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="J39" t="s">
-        <v>464</v>
-      </c>
-      <c r="L39" t="s">
-        <v>467</v>
-      </c>
-      <c r="N39" t="s">
-        <v>468</v>
-      </c>
-      <c r="P39" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="K47" t="s">
-        <v>464</v>
-      </c>
-      <c r="M47" t="s">
-        <v>467</v>
-      </c>
-      <c r="O47" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>465</v>
-      </c>
-      <c r="S47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I57" t="s">
-        <v>467</v>
-      </c>
-      <c r="K57" t="s">
-        <v>464</v>
-      </c>
-      <c r="N57" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="J66" t="s">
-        <v>466</v>
-      </c>
-      <c r="M66" t="s">
-        <v>468</v>
-      </c>
-      <c r="P66" t="s">
-        <v>465</v>
-      </c>
-      <c r="S66" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E71" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="J75" t="s">
-        <v>468</v>
-      </c>
-      <c r="L75" t="s">
-        <v>465</v>
-      </c>
-      <c r="N75" t="s">
-        <v>466</v>
-      </c>
-      <c r="P75" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8434,50 +6478,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -8497,12 +6541,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -8557,7 +6601,7 @@
         <v>153</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -8571,7 +6615,7 @@
         <v>154</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -8687,7 +6731,7 @@
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G37" s="45"/>
       <c r="H37" s="45"/>
@@ -8706,7 +6750,7 @@
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
@@ -8725,7 +6769,7 @@
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
@@ -8744,7 +6788,7 @@
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
@@ -8785,7 +6829,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -8902,25 +6946,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B64" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
@@ -8933,10 +6977,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
@@ -8949,30 +6993,30 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B73" s="34" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -8986,10 +7030,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -9003,10 +7047,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -9060,7 +7104,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9077,7 +7121,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -9090,59 +7134,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
   <dimension ref="B1:N126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74:L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="29" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>341</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>204</v>
@@ -9159,31 +7203,31 @@
         <v>10</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>206</v>
@@ -9206,7 +7250,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" s="29">
         <v>10</v>
@@ -9247,7 +7291,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="29">
         <v>10</v>
@@ -9288,7 +7332,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" s="29">
         <v>10</v>
@@ -9329,7 +7373,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" s="29">
         <v>10</v>
@@ -9370,7 +7414,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" s="29">
         <v>10</v>
@@ -9411,7 +7455,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" s="29">
         <v>10</v>
@@ -9452,7 +7496,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G10" s="29">
         <v>10</v>
@@ -9493,7 +7537,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G11" s="29">
         <v>10</v>
@@ -9528,20 +7572,20 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="57"/>
       <c r="M12" s="55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N12" s="57"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
@@ -9563,52 +7607,52 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="29" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -9619,7 +7663,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
@@ -9640,26 +7684,26 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="36" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="36" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G26" s="57"/>
       <c r="H26" s="36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -9667,18 +7711,18 @@
         <v>9</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="36" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -9686,14 +7730,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="36">
@@ -9705,14 +7749,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="36">
@@ -9724,14 +7768,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="36">
@@ -9743,14 +7787,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="36">
@@ -9762,14 +7806,14 @@
         <v>5</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G32" s="57"/>
       <c r="H32" s="36">
@@ -9781,14 +7825,14 @@
         <v>6</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="36">
@@ -9800,14 +7844,14 @@
         <v>7</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G34" s="57"/>
       <c r="H34" s="36">
@@ -9819,14 +7863,14 @@
         <v>8</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G35" s="57"/>
       <c r="H35" s="36">
@@ -9835,27 +7879,27 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="40" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="40" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G39" s="46"/>
     </row>
@@ -9864,14 +7908,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G40" s="46"/>
     </row>
@@ -9884,7 +7928,7 @@
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="40" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F41" s="45">
         <v>1</v>
@@ -9900,7 +7944,7 @@
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F42" s="45">
         <v>1</v>
@@ -9916,7 +7960,7 @@
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F43" s="45">
         <v>2</v>
@@ -9932,7 +7976,7 @@
       </c>
       <c r="D44" s="58"/>
       <c r="E44" s="40" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F44" s="45">
         <v>2</v>
@@ -9948,7 +7992,7 @@
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="40" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F45" s="45">
         <v>2</v>
@@ -9964,7 +8008,7 @@
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="40" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F46" s="45">
         <v>3</v>
@@ -9980,7 +8024,7 @@
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="40" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F47" s="45">
         <v>3</v>
@@ -9996,7 +8040,7 @@
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F48" s="45">
         <v>3</v>
@@ -10012,7 +8056,7 @@
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="40" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F49" s="45">
         <v>3</v>
@@ -10028,7 +8072,7 @@
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="40" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F50" s="45">
         <v>3</v>
@@ -10037,29 +8081,29 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="35" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -10070,13 +8114,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -10166,43 +8210,43 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D61" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B65" s="45" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C65" s="45"/>
       <c r="D65" s="45" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="33" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -10211,20 +8255,20 @@
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="45" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="33" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -10233,11 +8277,11 @@
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="33" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G67" s="33">
         <v>0</v>
@@ -10255,11 +8299,11 @@
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="45" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="33" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G68" s="33">
         <v>20</v>
@@ -10277,11 +8321,11 @@
       </c>
       <c r="C69" s="45"/>
       <c r="D69" s="45" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="33" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G69" s="33">
         <v>40</v>
@@ -10295,82 +8339,82 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B74" s="36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C74" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="F74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="F74" s="36" t="s">
-        <v>419</v>
-      </c>
       <c r="G74" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="J74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="H74" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="J74" s="36" t="s">
-        <v>419</v>
-      </c>
       <c r="K74" s="36" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L74" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -11825,22 +9869,22 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G126" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H126" t="s">
+        <v>449</v>
+      </c>
+      <c r="K126" t="s">
         <v>447</v>
       </c>
-      <c r="K126" t="s">
-        <v>445</v>
-      </c>
       <c r="L126" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -11925,7 +9969,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -11935,7 +9979,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -11945,7 +9989,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -11955,17 +9999,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42E848A-0BF3-40B0-A87A-A1C0EFBC0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE34751-C3E4-4B12-A52C-793A7E23AE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="481">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1860,6 +1860,46 @@
   </si>
   <si>
     <t>속성 : 전기(40%), 불(30%), 흙(20%), 물(10%)</t>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터1 마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터2 마리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*해당 웨이브에 등장하는 몬스터 종류를 의미한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1969,7 +2009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2049,6 +2089,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2058,7 +2107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2191,16 +2240,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2212,16 +2255,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2233,10 +2270,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5193,21 +5251,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5216,17 +5274,17 @@
       <c r="B2">
         <v>1.7</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -5235,70 +5293,70 @@
       <c r="B3" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -5381,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -5551,14 +5609,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5574,14 +5632,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5597,14 +5655,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5620,14 +5678,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5661,10 +5719,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5676,10 +5734,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5689,26 +5747,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="57"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5718,24 +5776,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5745,24 +5803,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5772,24 +5830,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5799,24 +5857,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -5848,10 +5906,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -5865,10 +5923,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -5880,13 +5938,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -5895,10 +5953,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="45"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -5910,13 +5968,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="H59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -5925,10 +5983,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -5940,13 +5998,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -5955,10 +6013,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -5970,13 +6028,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="45" t="s">
+      <c r="H61" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -5985,10 +6043,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="45"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6000,13 +6058,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="H62" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6015,10 +6073,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6030,13 +6088,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="45" t="s">
+      <c r="H63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6045,10 +6103,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="45"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6060,13 +6118,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6075,10 +6133,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="45"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6090,13 +6148,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6105,10 +6163,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="45"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6132,10 +6190,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="45"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6147,10 +6205,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="45"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6161,19 +6219,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="48" t="s">
+      <c r="H71" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="50"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="48"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6188,10 +6246,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="45"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6202,19 +6260,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="48" t="s">
+      <c r="H72" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="50"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="48"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6229,10 +6287,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="45"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6243,19 +6301,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="48" t="s">
+      <c r="H73" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="50"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="48"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6270,10 +6328,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="54"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="24" t="s">
         <v>119</v>
       </c>
@@ -6284,19 +6342,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="48" t="s">
+      <c r="H74" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="50"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="48"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6311,10 +6369,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="6" t="s">
         <v>120</v>
       </c>
@@ -6325,19 +6383,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="48" t="s">
+      <c r="H75" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="50"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6352,10 +6410,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="54"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="6" t="s">
         <v>121</v>
       </c>
@@ -6366,19 +6424,19 @@
       <c r="G76" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="48" t="s">
+      <c r="H76" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="50"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6393,10 +6451,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
@@ -6407,19 +6465,19 @@
       <c r="G77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="48" t="s">
+      <c r="H77" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="50"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="48"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6434,10 +6492,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="53"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="6" t="s">
         <v>123</v>
       </c>
@@ -6448,19 +6506,19 @@
       <c r="G78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="48" t="s">
+      <c r="H78" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="50"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6475,10 +6533,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="6" t="s">
         <v>124</v>
       </c>
@@ -6489,19 +6547,19 @@
       <c r="G79" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="48" t="s">
+      <c r="H79" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="50"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="48"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6516,10 +6574,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="6" t="s">
         <v>125</v>
       </c>
@@ -6530,19 +6588,19 @@
       <c r="G80" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="48" t="s">
+      <c r="H80" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="50"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="48"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6557,10 +6615,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -6633,12 +6691,12 @@
       <c r="D91" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
@@ -6650,12 +6708,12 @@
       <c r="D92" s="6">
         <v>1</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
@@ -6667,12 +6725,12 @@
       <c r="D93" s="6">
         <v>2</v>
       </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
@@ -6684,12 +6742,12 @@
       <c r="D94" s="6">
         <v>3</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
@@ -6701,12 +6759,12 @@
       <c r="D95" s="6">
         <v>4</v>
       </c>
-      <c r="E95" s="45" t="s">
+      <c r="E95" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
@@ -6718,12 +6776,12 @@
       <c r="D96" s="6">
         <v>5</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
@@ -6766,21 +6824,21 @@
       <c r="D107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="45" t="s">
+      <c r="E107" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
-      <c r="Q107" s="45"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
+      <c r="Q107" s="50"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
@@ -6792,21 +6850,21 @@
       <c r="D108" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="45" t="s">
+      <c r="E108" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
-      <c r="Q108" s="45"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
@@ -6818,21 +6876,21 @@
       <c r="D109" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="45" t="s">
+      <c r="E109" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
-      <c r="Q109" s="45"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6844,21 +6902,21 @@
       <c r="D110" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E110" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
-      <c r="Q110" s="45"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="50"/>
+      <c r="P110" s="50"/>
+      <c r="Q110" s="50"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D111" s="14" t="s">
@@ -6884,37 +6942,37 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="45"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="45"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="45"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="45" t="s">
+      <c r="B122" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="45"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="6">
         <v>6</v>
       </c>
@@ -6950,123 +7008,123 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E132" s="51" t="s">
+      <c r="E132" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F132" s="51"/>
+      <c r="F132" s="57"/>
       <c r="G132" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="47" t="s">
+      <c r="H132" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="47"/>
+      <c r="I132" s="54"/>
       <c r="J132" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K132" s="47" t="s">
+      <c r="K132" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L132" s="47"/>
-      <c r="M132" s="47"/>
-      <c r="N132" s="47"/>
-      <c r="O132" s="47"/>
-      <c r="P132" s="47"/>
-      <c r="Q132" s="47"/>
-      <c r="R132" s="47"/>
-      <c r="S132" s="47" t="s">
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
+      <c r="P132" s="54"/>
+      <c r="Q132" s="54"/>
+      <c r="R132" s="54"/>
+      <c r="S132" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="T132" s="47"/>
-      <c r="U132" s="47"/>
-      <c r="V132" s="47"/>
-      <c r="W132" s="47"/>
+      <c r="T132" s="54"/>
+      <c r="U132" s="54"/>
+      <c r="V132" s="54"/>
+      <c r="W132" s="54"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="29">
         <v>10</v>
       </c>
-      <c r="E133" s="52" t="s">
+      <c r="E133" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="F133" s="52"/>
+      <c r="F133" s="58"/>
       <c r="G133" s="29">
         <v>11</v>
       </c>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
       <c r="J133" s="29">
         <v>10</v>
       </c>
-      <c r="K133" s="45" t="s">
+      <c r="K133" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="L133" s="45"/>
-      <c r="M133" s="45"/>
-      <c r="N133" s="45"/>
-      <c r="O133" s="45"/>
-      <c r="P133" s="45"/>
-      <c r="Q133" s="45"/>
-      <c r="R133" s="45"/>
-      <c r="S133" s="45" t="s">
+      <c r="L133" s="50"/>
+      <c r="M133" s="50"/>
+      <c r="N133" s="50"/>
+      <c r="O133" s="50"/>
+      <c r="P133" s="50"/>
+      <c r="Q133" s="50"/>
+      <c r="R133" s="50"/>
+      <c r="S133" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="T133" s="45"/>
-      <c r="U133" s="45"/>
-      <c r="V133" s="45"/>
-      <c r="W133" s="45"/>
+      <c r="T133" s="50"/>
+      <c r="U133" s="50"/>
+      <c r="V133" s="50"/>
+      <c r="W133" s="50"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="52" t="s">
+      <c r="A134" s="50"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="F134" s="52"/>
+      <c r="F134" s="58"/>
       <c r="G134" s="29">
         <v>21</v>
       </c>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
       <c r="J134" s="29">
         <v>10</v>
       </c>
-      <c r="K134" s="45" t="s">
+      <c r="K134" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="L134" s="45"/>
-      <c r="M134" s="45"/>
-      <c r="N134" s="45"/>
-      <c r="O134" s="45"/>
-      <c r="P134" s="45"/>
-      <c r="Q134" s="45"/>
-      <c r="R134" s="45"/>
-      <c r="S134" s="45"/>
-      <c r="T134" s="45"/>
-      <c r="U134" s="45"/>
-      <c r="V134" s="45"/>
-      <c r="W134" s="45"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
+      <c r="A135" s="50"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
       <c r="E135" s="29" t="s">
         <v>238</v>
       </c>
@@ -7074,32 +7132,32 @@
       <c r="G135" s="29">
         <v>31</v>
       </c>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="45" t="s">
+      <c r="K135" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="L135" s="45"/>
-      <c r="M135" s="45"/>
-      <c r="N135" s="45"/>
-      <c r="O135" s="45"/>
-      <c r="P135" s="45"/>
-      <c r="Q135" s="45"/>
-      <c r="R135" s="45"/>
-      <c r="S135" s="45"/>
-      <c r="T135" s="45"/>
-      <c r="U135" s="45"/>
-      <c r="V135" s="45"/>
-      <c r="W135" s="45"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
+      <c r="Q135" s="50"/>
+      <c r="R135" s="50"/>
+      <c r="S135" s="50"/>
+      <c r="T135" s="50"/>
+      <c r="U135" s="50"/>
+      <c r="V135" s="50"/>
+      <c r="W135" s="50"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
       <c r="E136" s="28" t="s">
         <v>240</v>
       </c>
@@ -7107,32 +7165,32 @@
       <c r="G136" s="29">
         <v>41</v>
       </c>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="46" t="s">
+      <c r="K136" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="46"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="46"/>
-      <c r="S136" s="45"/>
-      <c r="T136" s="45"/>
-      <c r="U136" s="45"/>
-      <c r="V136" s="45"/>
-      <c r="W136" s="45"/>
+      <c r="L136" s="49"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="49"/>
+      <c r="O136" s="49"/>
+      <c r="P136" s="49"/>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="49"/>
+      <c r="S136" s="50"/>
+      <c r="T136" s="50"/>
+      <c r="U136" s="50"/>
+      <c r="V136" s="50"/>
+      <c r="W136" s="50"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
       <c r="E137" s="28" t="s">
         <v>242</v>
       </c>
@@ -7140,34 +7198,34 @@
       <c r="G137" s="29">
         <v>51</v>
       </c>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="46" t="s">
+      <c r="K137" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="46"/>
-      <c r="R137" s="46"/>
-      <c r="S137" s="45" t="s">
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="49"/>
+      <c r="S137" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="T137" s="45"/>
-      <c r="U137" s="45"/>
-      <c r="V137" s="45"/>
-      <c r="W137" s="45"/>
+      <c r="T137" s="50"/>
+      <c r="U137" s="50"/>
+      <c r="V137" s="50"/>
+      <c r="W137" s="50"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
+      <c r="A138" s="50"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
       <c r="E138" s="28" t="s">
         <v>244</v>
       </c>
@@ -7175,33 +7233,33 @@
       <c r="G138" s="29">
         <v>61</v>
       </c>
-      <c r="H138" s="45"/>
-      <c r="I138" s="45"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="46" t="s">
+      <c r="K138" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="L138" s="46"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="46"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="46"/>
-      <c r="Q138" s="46"/>
-      <c r="R138" s="46"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
-      <c r="U138" s="45"/>
-      <c r="V138" s="45"/>
-      <c r="W138" s="45"/>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+      <c r="O138" s="49"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="49"/>
+      <c r="S138" s="50"/>
+      <c r="T138" s="50"/>
+      <c r="U138" s="50"/>
+      <c r="V138" s="50"/>
+      <c r="W138" s="50"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="52"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="58"/>
       <c r="D139" s="29">
         <v>20</v>
       </c>
@@ -7212,129 +7270,129 @@
       <c r="G139" s="29">
         <v>11</v>
       </c>
-      <c r="H139" s="45" t="s">
+      <c r="H139" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="45"/>
+      <c r="I139" s="50"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
-      <c r="K139" s="45" t="s">
+      <c r="K139" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="45"/>
-      <c r="P139" s="45"/>
-      <c r="Q139" s="45"/>
-      <c r="R139" s="45"/>
-      <c r="S139" s="45" t="s">
+      <c r="L139" s="50"/>
+      <c r="M139" s="50"/>
+      <c r="N139" s="50"/>
+      <c r="O139" s="50"/>
+      <c r="P139" s="50"/>
+      <c r="Q139" s="50"/>
+      <c r="R139" s="50"/>
+      <c r="S139" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="T139" s="45"/>
-      <c r="U139" s="45"/>
-      <c r="V139" s="45"/>
-      <c r="W139" s="45"/>
+      <c r="T139" s="50"/>
+      <c r="U139" s="50"/>
+      <c r="V139" s="50"/>
+      <c r="W139" s="50"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="45" t="s">
+      <c r="H140" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I140" s="45"/>
+      <c r="I140" s="50"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
-      <c r="K140" s="45" t="s">
+      <c r="K140" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45"/>
-      <c r="V140" s="45"/>
-      <c r="W140" s="45"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="50"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="50"/>
+      <c r="S140" s="50"/>
+      <c r="T140" s="50"/>
+      <c r="U140" s="50"/>
+      <c r="V140" s="50"/>
+      <c r="W140" s="50"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="45"/>
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="45" t="s">
+      <c r="H141" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I141" s="45"/>
+      <c r="I141" s="50"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
-      <c r="K141" s="45" t="s">
+      <c r="K141" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="45"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
-      <c r="U141" s="45"/>
-      <c r="V141" s="45"/>
-      <c r="W141" s="45"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="50"/>
+      <c r="S141" s="50"/>
+      <c r="T141" s="50"/>
+      <c r="U141" s="50"/>
+      <c r="V141" s="50"/>
+      <c r="W141" s="50"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="46" t="s">
+      <c r="H142" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="I142" s="46"/>
+      <c r="I142" s="49"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
-      <c r="K142" s="45" t="s">
+      <c r="K142" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="L142" s="45"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="45"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="45"/>
-      <c r="S142" s="45"/>
-      <c r="T142" s="45"/>
-      <c r="U142" s="45"/>
-      <c r="V142" s="45"/>
-      <c r="W142" s="45"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="50"/>
+      <c r="S142" s="50"/>
+      <c r="T142" s="50"/>
+      <c r="U142" s="50"/>
+      <c r="V142" s="50"/>
+      <c r="W142" s="50"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
+      <c r="A143" s="50"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
       <c r="E143" s="28" t="s">
         <v>236</v>
       </c>
@@ -7342,127 +7400,127 @@
       <c r="G143" s="29">
         <v>21</v>
       </c>
-      <c r="H143" s="45" t="s">
+      <c r="H143" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="45"/>
+      <c r="I143" s="50"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
-      <c r="K143" s="45" t="s">
+      <c r="K143" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="L143" s="45"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="45"/>
-      <c r="O143" s="45"/>
-      <c r="P143" s="45"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="45"/>
-      <c r="S143" s="45"/>
-      <c r="T143" s="45"/>
-      <c r="U143" s="45"/>
-      <c r="V143" s="45"/>
-      <c r="W143" s="45"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="50"/>
+      <c r="P143" s="50"/>
+      <c r="Q143" s="50"/>
+      <c r="R143" s="50"/>
+      <c r="S143" s="50"/>
+      <c r="T143" s="50"/>
+      <c r="U143" s="50"/>
+      <c r="V143" s="50"/>
+      <c r="W143" s="50"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
+      <c r="A144" s="50"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
       <c r="G144" s="29"/>
-      <c r="H144" s="45" t="s">
+      <c r="H144" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="45"/>
+      <c r="I144" s="50"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
-      <c r="K144" s="45" t="s">
+      <c r="K144" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="L144" s="45"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="45"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="45"/>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45"/>
-      <c r="U144" s="45"/>
-      <c r="V144" s="45"/>
-      <c r="W144" s="45"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
+      <c r="Q144" s="50"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="50"/>
+      <c r="T144" s="50"/>
+      <c r="U144" s="50"/>
+      <c r="V144" s="50"/>
+      <c r="W144" s="50"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
+      <c r="A145" s="50"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
       <c r="G145" s="29"/>
-      <c r="H145" s="45" t="s">
+      <c r="H145" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="45"/>
+      <c r="I145" s="50"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
-      <c r="K145" s="45" t="s">
+      <c r="K145" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="L145" s="45"/>
-      <c r="M145" s="45"/>
-      <c r="N145" s="45"/>
-      <c r="O145" s="45"/>
-      <c r="P145" s="45"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="45"/>
-      <c r="S145" s="45"/>
-      <c r="T145" s="45"/>
-      <c r="U145" s="45"/>
-      <c r="V145" s="45"/>
-      <c r="W145" s="45"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+      <c r="N145" s="50"/>
+      <c r="O145" s="50"/>
+      <c r="P145" s="50"/>
+      <c r="Q145" s="50"/>
+      <c r="R145" s="50"/>
+      <c r="S145" s="50"/>
+      <c r="T145" s="50"/>
+      <c r="U145" s="50"/>
+      <c r="V145" s="50"/>
+      <c r="W145" s="50"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
+      <c r="A146" s="50"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="46" t="s">
+      <c r="H146" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="46"/>
+      <c r="I146" s="49"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
-      <c r="K146" s="45" t="s">
+      <c r="K146" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="L146" s="45"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="45"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="45"/>
-      <c r="S146" s="45"/>
-      <c r="T146" s="45"/>
-      <c r="U146" s="45"/>
-      <c r="V146" s="45"/>
-      <c r="W146" s="45"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
+      <c r="P146" s="50"/>
+      <c r="Q146" s="50"/>
+      <c r="R146" s="50"/>
+      <c r="S146" s="50"/>
+      <c r="T146" s="50"/>
+      <c r="U146" s="50"/>
+      <c r="V146" s="50"/>
+      <c r="W146" s="50"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
       <c r="E147" s="28" t="s">
         <v>242</v>
       </c>
@@ -7470,129 +7528,129 @@
       <c r="G147" s="29">
         <v>31</v>
       </c>
-      <c r="H147" s="45" t="s">
+      <c r="H147" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="45"/>
+      <c r="I147" s="50"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
-      <c r="K147" s="45" t="s">
+      <c r="K147" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45" t="s">
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
+      <c r="P147" s="50"/>
+      <c r="Q147" s="50"/>
+      <c r="R147" s="50"/>
+      <c r="S147" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="T147" s="45"/>
-      <c r="U147" s="45"/>
-      <c r="V147" s="45"/>
-      <c r="W147" s="45"/>
+      <c r="T147" s="50"/>
+      <c r="U147" s="50"/>
+      <c r="V147" s="50"/>
+      <c r="W147" s="50"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="45" t="s">
+      <c r="H148" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I148" s="45"/>
+      <c r="I148" s="50"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
-      <c r="K148" s="45" t="s">
+      <c r="K148" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
-      <c r="U148" s="45"/>
-      <c r="V148" s="45"/>
-      <c r="W148" s="45"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
+      <c r="P148" s="50"/>
+      <c r="Q148" s="50"/>
+      <c r="R148" s="50"/>
+      <c r="S148" s="50"/>
+      <c r="T148" s="50"/>
+      <c r="U148" s="50"/>
+      <c r="V148" s="50"/>
+      <c r="W148" s="50"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
+      <c r="A149" s="50"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
       <c r="G149" s="29"/>
-      <c r="H149" s="45" t="s">
+      <c r="H149" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="45"/>
+      <c r="I149" s="50"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
-      <c r="K149" s="45" t="s">
+      <c r="K149" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="45"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="45"/>
-      <c r="S149" s="45"/>
-      <c r="T149" s="45"/>
-      <c r="U149" s="45"/>
-      <c r="V149" s="45"/>
-      <c r="W149" s="45"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50"/>
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
+      <c r="W149" s="50"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
+      <c r="A150" s="50"/>
+      <c r="B150" s="50"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="46" t="s">
+      <c r="H150" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I150" s="46"/>
+      <c r="I150" s="49"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
-      <c r="K150" s="45" t="s">
+      <c r="K150" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L150" s="45"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="45"/>
-      <c r="P150" s="45"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="45"/>
-      <c r="S150" s="45"/>
-      <c r="T150" s="45"/>
-      <c r="U150" s="45"/>
-      <c r="V150" s="45"/>
-      <c r="W150" s="45"/>
+      <c r="L150" s="50"/>
+      <c r="M150" s="50"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="50"/>
+      <c r="P150" s="50"/>
+      <c r="Q150" s="50"/>
+      <c r="R150" s="50"/>
+      <c r="S150" s="50"/>
+      <c r="T150" s="50"/>
+      <c r="U150" s="50"/>
+      <c r="V150" s="50"/>
+      <c r="W150" s="50"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="45"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
+      <c r="A151" s="50"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="28" t="s">
         <v>244</v>
       </c>
@@ -7600,128 +7658,128 @@
       <c r="G151" s="29">
         <v>41</v>
       </c>
-      <c r="H151" s="45" t="s">
+      <c r="H151" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="45"/>
+      <c r="I151" s="50"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
-      <c r="K151" s="45" t="s">
+      <c r="K151" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="45"/>
-      <c r="M151" s="45"/>
-      <c r="N151" s="45"/>
-      <c r="O151" s="45"/>
-      <c r="P151" s="45"/>
-      <c r="Q151" s="45"/>
-      <c r="R151" s="45"/>
-      <c r="S151" s="45"/>
-      <c r="T151" s="45"/>
-      <c r="U151" s="45"/>
-      <c r="V151" s="45"/>
-      <c r="W151" s="45"/>
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="50"/>
+      <c r="P151" s="50"/>
+      <c r="Q151" s="50"/>
+      <c r="R151" s="50"/>
+      <c r="S151" s="50"/>
+      <c r="T151" s="50"/>
+      <c r="U151" s="50"/>
+      <c r="V151" s="50"/>
+      <c r="W151" s="50"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
+      <c r="A152" s="50"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="45" t="s">
+      <c r="H152" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I152" s="45"/>
+      <c r="I152" s="50"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
-      <c r="K152" s="45" t="s">
+      <c r="K152" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="45"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="45"/>
-      <c r="P152" s="45"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="45"/>
-      <c r="S152" s="45"/>
-      <c r="T152" s="45"/>
-      <c r="U152" s="45"/>
-      <c r="V152" s="45"/>
-      <c r="W152" s="45"/>
+      <c r="L152" s="50"/>
+      <c r="M152" s="50"/>
+      <c r="N152" s="50"/>
+      <c r="O152" s="50"/>
+      <c r="P152" s="50"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="50"/>
+      <c r="S152" s="50"/>
+      <c r="T152" s="50"/>
+      <c r="U152" s="50"/>
+      <c r="V152" s="50"/>
+      <c r="W152" s="50"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="45"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
+      <c r="A153" s="50"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="45" t="s">
+      <c r="H153" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I153" s="45"/>
+      <c r="I153" s="50"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
-      <c r="K153" s="45" t="s">
+      <c r="K153" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="45"/>
-      <c r="P153" s="45"/>
-      <c r="Q153" s="45"/>
-      <c r="R153" s="45"/>
-      <c r="S153" s="45"/>
-      <c r="T153" s="45"/>
-      <c r="U153" s="45"/>
-      <c r="V153" s="45"/>
-      <c r="W153" s="45"/>
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
+      <c r="O153" s="50"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="50"/>
+      <c r="R153" s="50"/>
+      <c r="S153" s="50"/>
+      <c r="T153" s="50"/>
+      <c r="U153" s="50"/>
+      <c r="V153" s="50"/>
+      <c r="W153" s="50"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="45"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="46"/>
-      <c r="F154" s="46"/>
+      <c r="A154" s="50"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="46" t="s">
+      <c r="H154" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I154" s="46"/>
+      <c r="I154" s="49"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
-      <c r="K154" s="45" t="s">
+      <c r="K154" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="L154" s="45"/>
-      <c r="M154" s="45"/>
-      <c r="N154" s="45"/>
-      <c r="O154" s="45"/>
-      <c r="P154" s="45"/>
-      <c r="Q154" s="45"/>
-      <c r="R154" s="45"/>
-      <c r="S154" s="45"/>
-      <c r="T154" s="45"/>
-      <c r="U154" s="45"/>
-      <c r="V154" s="45"/>
-      <c r="W154" s="45"/>
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="50"/>
+      <c r="P154" s="50"/>
+      <c r="Q154" s="50"/>
+      <c r="R154" s="50"/>
+      <c r="S154" s="50"/>
+      <c r="T154" s="50"/>
+      <c r="U154" s="50"/>
+      <c r="V154" s="50"/>
+      <c r="W154" s="50"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="52" t="s">
+      <c r="A155" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="52"/>
-      <c r="C155" s="52"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="29">
         <v>30</v>
       </c>
@@ -7730,183 +7788,183 @@
       <c r="G155" s="29">
         <v>10</v>
       </c>
-      <c r="H155" s="45" t="s">
+      <c r="H155" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="I155" s="45"/>
+      <c r="I155" s="50"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
-      <c r="K155" s="45" t="s">
+      <c r="K155" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="L155" s="45"/>
-      <c r="M155" s="45"/>
-      <c r="N155" s="45"/>
-      <c r="O155" s="45"/>
-      <c r="P155" s="45"/>
-      <c r="Q155" s="45"/>
-      <c r="R155" s="45"/>
-      <c r="S155" s="45"/>
-      <c r="T155" s="45"/>
-      <c r="U155" s="45"/>
-      <c r="V155" s="45"/>
-      <c r="W155" s="45"/>
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
+      <c r="P155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="45"/>
+      <c r="A156" s="50"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
       <c r="G156" s="29"/>
-      <c r="H156" s="46" t="s">
+      <c r="H156" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="I156" s="46"/>
+      <c r="I156" s="49"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
-      <c r="K156" s="45" t="s">
+      <c r="K156" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="L156" s="45"/>
-      <c r="M156" s="45"/>
-      <c r="N156" s="45"/>
-      <c r="O156" s="45"/>
-      <c r="P156" s="45"/>
-      <c r="Q156" s="45"/>
-      <c r="R156" s="45"/>
-      <c r="S156" s="45"/>
-      <c r="T156" s="45"/>
-      <c r="U156" s="45"/>
-      <c r="V156" s="45"/>
-      <c r="W156" s="45"/>
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="45"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="45"/>
-      <c r="D157" s="45"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="45"/>
+      <c r="A157" s="50"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
       <c r="G157" s="29"/>
-      <c r="H157" s="46" t="s">
+      <c r="H157" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I157" s="46"/>
+      <c r="I157" s="49"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
-      <c r="K157" s="45" t="s">
+      <c r="K157" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="L157" s="45"/>
-      <c r="M157" s="45"/>
-      <c r="N157" s="45"/>
-      <c r="O157" s="45"/>
-      <c r="P157" s="45"/>
-      <c r="Q157" s="45"/>
-      <c r="R157" s="45"/>
-      <c r="S157" s="45"/>
-      <c r="T157" s="45"/>
-      <c r="U157" s="45"/>
-      <c r="V157" s="45"/>
-      <c r="W157" s="45"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="45"/>
-      <c r="B158" s="45"/>
-      <c r="C158" s="45"/>
-      <c r="D158" s="45"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="45"/>
+      <c r="A158" s="50"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="46" t="s">
+      <c r="H158" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="I158" s="46"/>
+      <c r="I158" s="49"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
-      <c r="K158" s="45" t="s">
+      <c r="K158" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="L158" s="45"/>
-      <c r="M158" s="45"/>
-      <c r="N158" s="45"/>
-      <c r="O158" s="45"/>
-      <c r="P158" s="45"/>
-      <c r="Q158" s="45"/>
-      <c r="R158" s="45"/>
-      <c r="S158" s="45"/>
-      <c r="T158" s="45"/>
-      <c r="U158" s="45"/>
-      <c r="V158" s="45"/>
-      <c r="W158" s="45"/>
+      <c r="L158" s="50"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="50"/>
+      <c r="O158" s="50"/>
+      <c r="P158" s="50"/>
+      <c r="Q158" s="50"/>
+      <c r="R158" s="50"/>
+      <c r="S158" s="50"/>
+      <c r="T158" s="50"/>
+      <c r="U158" s="50"/>
+      <c r="V158" s="50"/>
+      <c r="W158" s="50"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="45"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="45"/>
-      <c r="F159" s="45"/>
+      <c r="A159" s="50"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="46" t="s">
+      <c r="H159" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="I159" s="46"/>
+      <c r="I159" s="49"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
-      <c r="K159" s="45" t="s">
+      <c r="K159" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="L159" s="45"/>
-      <c r="M159" s="45"/>
-      <c r="N159" s="45"/>
-      <c r="O159" s="45"/>
-      <c r="P159" s="45"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="45"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="45"/>
-      <c r="U159" s="45"/>
-      <c r="V159" s="45"/>
-      <c r="W159" s="45"/>
+      <c r="L159" s="50"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="50"/>
+      <c r="P159" s="50"/>
+      <c r="Q159" s="50"/>
+      <c r="R159" s="50"/>
+      <c r="S159" s="50"/>
+      <c r="T159" s="50"/>
+      <c r="U159" s="50"/>
+      <c r="V159" s="50"/>
+      <c r="W159" s="50"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="45"/>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
+      <c r="A160" s="50"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="46" t="s">
+      <c r="H160" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="I160" s="46"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
-      <c r="K160" s="45" t="s">
+      <c r="K160" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="45"/>
-      <c r="M160" s="45"/>
-      <c r="N160" s="45"/>
-      <c r="O160" s="45"/>
-      <c r="P160" s="45"/>
-      <c r="Q160" s="45"/>
-      <c r="R160" s="45"/>
-      <c r="S160" s="45"/>
-      <c r="T160" s="45"/>
-      <c r="U160" s="45"/>
-      <c r="V160" s="45"/>
-      <c r="W160" s="45"/>
+      <c r="L160" s="50"/>
+      <c r="M160" s="50"/>
+      <c r="N160" s="50"/>
+      <c r="O160" s="50"/>
+      <c r="P160" s="50"/>
+      <c r="Q160" s="50"/>
+      <c r="R160" s="50"/>
+      <c r="S160" s="50"/>
+      <c r="T160" s="50"/>
+      <c r="U160" s="50"/>
+      <c r="V160" s="50"/>
+      <c r="W160" s="50"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
@@ -7915,6 +7973,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="S147:W160"/>
+    <mergeCell ref="S139:W146"/>
+    <mergeCell ref="A134:D138"/>
+    <mergeCell ref="A140:D154"/>
+    <mergeCell ref="A156:F160"/>
+    <mergeCell ref="E148:F150"/>
+    <mergeCell ref="E144:F146"/>
+    <mergeCell ref="E140:F142"/>
+    <mergeCell ref="E152:F154"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="K159:R159"/>
+    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="S132:W132"/>
+    <mergeCell ref="S133:W136"/>
+    <mergeCell ref="S137:W138"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="K133:R133"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="H75:R75"/>
     <mergeCell ref="H77:R77"/>
     <mergeCell ref="H78:R78"/>
@@ -7939,129 +8120,6 @@
     <mergeCell ref="G46:O46"/>
     <mergeCell ref="E95:H95"/>
     <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="S132:W132"/>
-    <mergeCell ref="S133:W136"/>
-    <mergeCell ref="S137:W138"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="S147:W160"/>
-    <mergeCell ref="S139:W146"/>
-    <mergeCell ref="A134:D138"/>
-    <mergeCell ref="A140:D154"/>
-    <mergeCell ref="A156:F160"/>
-    <mergeCell ref="E148:F150"/>
-    <mergeCell ref="E144:F146"/>
-    <mergeCell ref="E140:F142"/>
-    <mergeCell ref="E152:F154"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="K159:R159"/>
-    <mergeCell ref="K160:R160"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8125,7 +8183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
   <dimension ref="B1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
@@ -8514,71 +8572,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="50">
         <v>6</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -8624,134 +8682,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="50">
         <v>0</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50">
         <v>0</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="50">
         <v>1</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50">
         <v>0</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -8827,73 +8885,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -8919,33 +8977,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -8971,60 +9029,62 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C74" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -9041,13 +9101,11 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9088,10 +9146,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:N126"/>
+  <dimension ref="B1:X128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9527,17 +9585,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="55" t="s">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="57"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9647,17 +9705,17 @@
       <c r="B26" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="57"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="36" t="s">
         <v>340</v>
       </c>
@@ -9666,17 +9724,17 @@
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="57"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="36" t="s">
         <v>386</v>
       </c>
@@ -9685,17 +9743,17 @@
       <c r="B28" s="36">
         <v>1</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="57"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="36">
         <v>0</v>
       </c>
@@ -9704,17 +9762,17 @@
       <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="36">
         <v>5</v>
       </c>
@@ -9723,17 +9781,17 @@
       <c r="B30" s="36">
         <v>3</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="57"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="36">
         <v>10</v>
       </c>
@@ -9742,17 +9800,17 @@
       <c r="B31" s="36">
         <v>4</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="57"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="36">
         <v>5</v>
       </c>
@@ -9761,17 +9819,17 @@
       <c r="B32" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="57"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="36">
         <v>10</v>
       </c>
@@ -9780,17 +9838,17 @@
       <c r="B33" s="36">
         <v>6</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="36">
         <v>5</v>
       </c>
@@ -9799,17 +9857,17 @@
       <c r="B34" s="36">
         <v>7</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="57"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="36">
         <v>10</v>
       </c>
@@ -9818,17 +9876,17 @@
       <c r="B35" s="36">
         <v>8</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="57"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="36">
         <v>20</v>
       </c>
@@ -9847,193 +9905,193 @@
       <c r="B39" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="40">
         <v>1</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="58"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="50">
         <v>1</v>
       </c>
-      <c r="G41" s="45"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="40">
         <v>2</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="58"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="50">
         <v>1</v>
       </c>
-      <c r="G42" s="45"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="40">
         <v>3</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="50">
         <v>2</v>
       </c>
-      <c r="G43" s="45"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="40">
         <v>4</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="50">
         <v>2</v>
       </c>
-      <c r="G44" s="45"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="40">
         <v>5</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="58"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="50">
         <v>2</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="40">
         <v>6</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="58"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="50">
         <v>3</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="58"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="50">
         <v>3</v>
       </c>
-      <c r="G47" s="45"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="40">
         <v>8</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="58"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="50">
         <v>3</v>
       </c>
-      <c r="G48" s="45"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="40">
         <v>9</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="58"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="50">
         <v>3</v>
       </c>
-      <c r="G49" s="45"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="40">
         <v>10</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="58"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="50">
         <v>3</v>
       </c>
-      <c r="G50" s="45"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -10183,15 +10241,15 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="45" t="s">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B65" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45" t="s">
+      <c r="C65" s="50"/>
+      <c r="D65" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="E65" s="45"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="33" t="s">
         <v>358</v>
       </c>
@@ -10205,15 +10263,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="45" t="s">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B66" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="E66" s="45"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="33" t="s">
         <v>359</v>
       </c>
@@ -10227,15 +10285,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="45">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B67" s="50">
         <v>1</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="45"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="33" t="s">
         <v>360</v>
       </c>
@@ -10249,15 +10307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="45">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B68" s="50">
         <v>2</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="45"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="33" t="s">
         <v>361</v>
       </c>
@@ -10271,15 +10329,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="45">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B69" s="50">
         <v>3</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="45"/>
+      <c r="E69" s="50"/>
       <c r="F69" s="33" t="s">
         <v>362</v>
       </c>
@@ -10293,7 +10351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
         <v>353</v>
       </c>
@@ -10304,1547 +10362,2442 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>418</v>
       </c>
-      <c r="F73" t="s">
+      <c r="R73" t="s">
         <v>427</v>
       </c>
-      <c r="J73" t="s">
+      <c r="V73" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="36" t="s">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B74" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="E74" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="G74" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="J74" s="49"/>
+      <c r="R74" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="S74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="T74" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="V74" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="W74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="L74" s="36" t="s">
+      <c r="X74" s="36" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B75" s="36" t="s">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B75" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="E75" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G75" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J75" s="49"/>
+      <c r="R75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="S75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="H75" s="36" t="s">
+      <c r="T75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="J75" s="36" t="s">
+      <c r="V75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="K75" s="36" t="s">
+      <c r="W75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="X75" s="36" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B76" s="36">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B76" s="44">
         <v>1</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="44">
         <v>1</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="44">
         <v>6</v>
       </c>
-      <c r="F76" s="36">
+      <c r="E76" s="28">
         <v>1</v>
       </c>
-      <c r="G76" s="36">
+      <c r="F76" s="44">
+        <v>2</v>
+      </c>
+      <c r="G76" s="49">
+        <v>6</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49">
+        <v>0</v>
+      </c>
+      <c r="J76" s="49"/>
+      <c r="R76" s="36">
         <v>1</v>
       </c>
-      <c r="H76" s="36">
+      <c r="S76" s="36">
+        <v>1</v>
+      </c>
+      <c r="T76" s="36">
         <v>0</v>
       </c>
-      <c r="J76" s="36">
+      <c r="V76" s="36">
         <v>1</v>
       </c>
-      <c r="K76" s="36">
+      <c r="W76" s="36">
         <v>1</v>
       </c>
-      <c r="L76" s="36">
+      <c r="X76" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B77" s="36">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B77" s="44">
         <v>2</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="44">
         <v>2</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="44">
         <v>10</v>
       </c>
-      <c r="F77" s="36">
+      <c r="E77" s="28">
+        <v>1</v>
+      </c>
+      <c r="F77" s="44">
         <v>2</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="49">
+        <v>10</v>
+      </c>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49">
+        <v>0</v>
+      </c>
+      <c r="J77" s="49"/>
+      <c r="R77" s="36">
         <v>2</v>
       </c>
-      <c r="H77" s="36">
+      <c r="S77" s="36">
+        <v>2</v>
+      </c>
+      <c r="T77" s="36">
         <v>0</v>
       </c>
-      <c r="J77" s="36">
+      <c r="V77" s="36">
         <v>2</v>
       </c>
-      <c r="K77" s="36">
+      <c r="W77" s="36">
         <v>2</v>
       </c>
-      <c r="L77" s="36">
+      <c r="X77" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="36">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B78" s="44">
         <v>3</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="44">
         <v>3</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D78" s="44">
         <v>14</v>
       </c>
-      <c r="F78" s="36">
+      <c r="E78" s="28">
+        <v>1</v>
+      </c>
+      <c r="F78" s="44">
+        <v>2</v>
+      </c>
+      <c r="G78" s="49">
+        <v>14</v>
+      </c>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49">
+        <v>0</v>
+      </c>
+      <c r="J78" s="49"/>
+      <c r="R78" s="36">
         <v>3</v>
       </c>
-      <c r="G78" s="36">
+      <c r="S78" s="36">
         <v>3</v>
       </c>
-      <c r="H78" s="36">
+      <c r="T78" s="36">
         <v>0</v>
       </c>
-      <c r="J78" s="36">
+      <c r="V78" s="36">
         <v>3</v>
       </c>
-      <c r="K78" s="36">
+      <c r="W78" s="36">
         <v>3</v>
       </c>
-      <c r="L78" s="36">
+      <c r="X78" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="36">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B79" s="44">
         <v>4</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="44">
         <v>4</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D79" s="44">
         <v>18</v>
       </c>
-      <c r="F79" s="36">
+      <c r="E79" s="28">
+        <v>1</v>
+      </c>
+      <c r="F79" s="44">
+        <v>2</v>
+      </c>
+      <c r="G79" s="49">
+        <v>18</v>
+      </c>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49">
+        <v>0</v>
+      </c>
+      <c r="J79" s="49"/>
+      <c r="R79" s="36">
         <v>4</v>
       </c>
-      <c r="G79" s="36">
+      <c r="S79" s="36">
         <v>4</v>
       </c>
-      <c r="H79" s="36">
+      <c r="T79" s="36">
         <v>0</v>
       </c>
-      <c r="J79" s="36">
+      <c r="V79" s="36">
         <v>4</v>
       </c>
-      <c r="K79" s="36">
+      <c r="W79" s="36">
         <v>4</v>
       </c>
-      <c r="L79" s="36">
+      <c r="X79" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B80" s="36">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B80" s="44">
         <v>5</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C80" s="44">
         <v>5</v>
       </c>
-      <c r="D80" s="36">
+      <c r="D80" s="44">
         <v>22</v>
       </c>
-      <c r="F80" s="36">
+      <c r="E80" s="28">
+        <v>1</v>
+      </c>
+      <c r="F80" s="44">
+        <v>2</v>
+      </c>
+      <c r="G80" s="49">
+        <v>22</v>
+      </c>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49">
+        <v>0</v>
+      </c>
+      <c r="J80" s="49"/>
+      <c r="R80" s="36">
         <v>5</v>
       </c>
-      <c r="G80" s="36">
+      <c r="S80" s="36">
         <v>5</v>
       </c>
-      <c r="H80" s="36">
+      <c r="T80" s="36">
         <v>0</v>
       </c>
-      <c r="J80" s="36">
+      <c r="V80" s="36">
         <v>5</v>
       </c>
-      <c r="K80" s="36">
+      <c r="W80" s="36">
         <v>5</v>
       </c>
-      <c r="L80" s="36">
+      <c r="X80" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B81" s="36">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B81" s="44">
         <v>6</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="44">
         <v>6</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D81" s="44">
         <v>26</v>
       </c>
-      <c r="F81" s="36">
+      <c r="E81" s="28">
+        <v>1</v>
+      </c>
+      <c r="F81" s="28">
+        <v>2</v>
+      </c>
+      <c r="G81" s="49">
+        <v>13</v>
+      </c>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49">
+        <v>13</v>
+      </c>
+      <c r="J81" s="49"/>
+      <c r="R81" s="36">
         <v>6</v>
       </c>
-      <c r="G81" s="36">
+      <c r="S81" s="36">
         <v>6</v>
       </c>
-      <c r="H81" s="36">
+      <c r="T81" s="36">
         <v>1</v>
       </c>
-      <c r="J81" s="36">
+      <c r="V81" s="36">
         <v>6</v>
       </c>
-      <c r="K81" s="36">
+      <c r="W81" s="36">
         <v>6</v>
       </c>
-      <c r="L81" s="36">
+      <c r="X81" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B82" s="36">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B82" s="44">
         <v>7</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="44">
         <v>7</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D82" s="44">
         <v>30</v>
       </c>
-      <c r="F82" s="36">
+      <c r="E82" s="28">
+        <v>1</v>
+      </c>
+      <c r="F82" s="28">
+        <v>2</v>
+      </c>
+      <c r="G82" s="49">
+        <v>15</v>
+      </c>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49">
+        <v>15</v>
+      </c>
+      <c r="J82" s="49"/>
+      <c r="R82" s="36">
         <v>7</v>
       </c>
-      <c r="G82" s="36">
+      <c r="S82" s="36">
         <v>7</v>
       </c>
-      <c r="H82" s="36">
+      <c r="T82" s="36">
         <v>1</v>
       </c>
-      <c r="J82" s="36">
+      <c r="V82" s="36">
         <v>7</v>
       </c>
-      <c r="K82" s="36">
+      <c r="W82" s="36">
         <v>7</v>
       </c>
-      <c r="L82" s="36">
+      <c r="X82" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B83" s="36">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B83" s="44">
         <v>8</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C83" s="44">
         <v>8</v>
       </c>
-      <c r="D83" s="36">
+      <c r="D83" s="44">
         <v>34</v>
       </c>
-      <c r="F83" s="36">
+      <c r="E83" s="28">
+        <v>1</v>
+      </c>
+      <c r="F83" s="28">
+        <v>2</v>
+      </c>
+      <c r="G83" s="49">
+        <v>17</v>
+      </c>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49">
+        <v>17</v>
+      </c>
+      <c r="J83" s="49"/>
+      <c r="R83" s="36">
         <v>8</v>
       </c>
-      <c r="G83" s="36">
+      <c r="S83" s="36">
         <v>8</v>
       </c>
-      <c r="H83" s="36">
+      <c r="T83" s="36">
         <v>1</v>
       </c>
-      <c r="J83" s="36">
+      <c r="V83" s="36">
         <v>8</v>
       </c>
-      <c r="K83" s="36">
+      <c r="W83" s="36">
         <v>8</v>
       </c>
-      <c r="L83" s="36">
+      <c r="X83" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B84" s="36">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B84" s="44">
         <v>9</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C84" s="44">
         <v>9</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="44">
         <v>38</v>
       </c>
-      <c r="F84" s="36">
+      <c r="E84" s="28">
+        <v>1</v>
+      </c>
+      <c r="F84" s="28">
+        <v>2</v>
+      </c>
+      <c r="G84" s="49">
+        <v>19</v>
+      </c>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49">
+        <v>19</v>
+      </c>
+      <c r="J84" s="49"/>
+      <c r="R84" s="36">
         <v>9</v>
       </c>
-      <c r="G84" s="36">
+      <c r="S84" s="36">
         <v>9</v>
       </c>
-      <c r="H84" s="36">
+      <c r="T84" s="36">
         <v>2</v>
       </c>
-      <c r="J84" s="36">
+      <c r="V84" s="36">
         <v>9</v>
       </c>
-      <c r="K84" s="36">
+      <c r="W84" s="36">
         <v>9</v>
       </c>
-      <c r="L84" s="36">
+      <c r="X84" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B85" s="36">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B85" s="44">
         <v>10</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C85" s="44">
         <v>10</v>
       </c>
-      <c r="D85" s="36">
+      <c r="D85" s="44">
         <v>42</v>
       </c>
-      <c r="F85" s="36">
+      <c r="E85" s="28">
+        <v>1</v>
+      </c>
+      <c r="F85" s="28">
+        <v>2</v>
+      </c>
+      <c r="G85" s="49">
+        <v>21</v>
+      </c>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49">
+        <v>21</v>
+      </c>
+      <c r="J85" s="49"/>
+      <c r="R85" s="36">
         <v>10</v>
       </c>
-      <c r="G85" s="36">
+      <c r="S85" s="36">
         <v>10</v>
       </c>
-      <c r="H85" s="36">
+      <c r="T85" s="36">
         <v>2</v>
       </c>
-      <c r="J85" s="36">
+      <c r="V85" s="36">
         <v>10</v>
       </c>
-      <c r="K85" s="36">
+      <c r="W85" s="36">
         <v>10</v>
       </c>
-      <c r="L85" s="36">
+      <c r="X85" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B86" s="36">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B86" s="44">
         <v>11</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C86" s="44">
         <v>11</v>
       </c>
-      <c r="D86" s="36">
+      <c r="D86" s="44">
         <v>46</v>
       </c>
-      <c r="F86" s="36">
+      <c r="E86" s="28">
+        <v>2</v>
+      </c>
+      <c r="F86" s="28">
+        <v>3</v>
+      </c>
+      <c r="G86" s="49">
+        <v>23</v>
+      </c>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49">
+        <v>23</v>
+      </c>
+      <c r="J86" s="49"/>
+      <c r="R86" s="36">
         <v>11</v>
       </c>
-      <c r="G86" s="36">
+      <c r="S86" s="36">
         <v>11</v>
       </c>
-      <c r="H86" s="36">
+      <c r="T86" s="36">
         <v>3</v>
       </c>
-      <c r="J86" s="36">
+      <c r="V86" s="36">
         <v>11</v>
       </c>
-      <c r="K86" s="36">
+      <c r="W86" s="36">
         <v>11</v>
       </c>
-      <c r="L86" s="36">
+      <c r="X86" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B87" s="36">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B87" s="44">
         <v>12</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="44">
         <v>12</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D87" s="44">
         <v>51</v>
       </c>
-      <c r="F87" s="36">
+      <c r="E87" s="28">
+        <v>2</v>
+      </c>
+      <c r="F87" s="28">
+        <v>3</v>
+      </c>
+      <c r="G87" s="49">
+        <v>26</v>
+      </c>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49">
+        <v>25</v>
+      </c>
+      <c r="J87" s="49"/>
+      <c r="R87" s="36">
         <v>12</v>
       </c>
-      <c r="G87" s="36">
+      <c r="S87" s="36">
         <v>12</v>
       </c>
-      <c r="H87" s="36">
+      <c r="T87" s="36">
         <v>3</v>
       </c>
-      <c r="J87" s="36">
+      <c r="V87" s="36">
         <v>12</v>
       </c>
-      <c r="K87" s="36">
+      <c r="W87" s="36">
         <v>12</v>
       </c>
-      <c r="L87" s="36">
+      <c r="X87" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B88" s="36">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B88" s="44">
         <v>13</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="44">
         <v>13</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D88" s="44">
         <v>56</v>
       </c>
-      <c r="F88" s="36">
+      <c r="E88" s="28">
+        <v>2</v>
+      </c>
+      <c r="F88" s="28">
+        <v>3</v>
+      </c>
+      <c r="G88" s="49">
+        <v>28</v>
+      </c>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49">
+        <v>28</v>
+      </c>
+      <c r="J88" s="49"/>
+      <c r="R88" s="36">
         <v>13</v>
       </c>
-      <c r="G88" s="36">
+      <c r="S88" s="36">
         <v>13</v>
       </c>
-      <c r="H88" s="36">
+      <c r="T88" s="36">
         <v>4</v>
       </c>
-      <c r="J88" s="36">
+      <c r="V88" s="36">
         <v>13</v>
       </c>
-      <c r="K88" s="36">
+      <c r="W88" s="36">
         <v>13</v>
       </c>
-      <c r="L88" s="36">
+      <c r="X88" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B89" s="36">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B89" s="44">
         <v>14</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="44">
         <v>14</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D89" s="44">
         <v>62</v>
       </c>
-      <c r="F89" s="36">
+      <c r="E89" s="28">
+        <v>2</v>
+      </c>
+      <c r="F89" s="28">
+        <v>3</v>
+      </c>
+      <c r="G89" s="49">
+        <v>31</v>
+      </c>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49">
+        <v>31</v>
+      </c>
+      <c r="J89" s="49"/>
+      <c r="R89" s="36">
         <v>14</v>
       </c>
-      <c r="G89" s="36">
+      <c r="S89" s="36">
         <v>14</v>
       </c>
-      <c r="H89" s="36">
+      <c r="T89" s="36">
         <v>4</v>
       </c>
-      <c r="J89" s="36">
+      <c r="V89" s="36">
         <v>14</v>
       </c>
-      <c r="K89" s="36">
+      <c r="W89" s="36">
         <v>14</v>
       </c>
-      <c r="L89" s="36">
+      <c r="X89" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B90" s="36">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B90" s="44">
         <v>15</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C90" s="44">
         <v>15</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D90" s="44">
         <v>68</v>
       </c>
-      <c r="F90" s="36">
+      <c r="E90" s="28">
+        <v>2</v>
+      </c>
+      <c r="F90" s="28">
+        <v>3</v>
+      </c>
+      <c r="G90" s="49">
+        <v>34</v>
+      </c>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49">
+        <v>34</v>
+      </c>
+      <c r="J90" s="49"/>
+      <c r="R90" s="36">
         <v>15</v>
       </c>
-      <c r="G90" s="36">
+      <c r="S90" s="36">
         <v>15</v>
       </c>
-      <c r="H90" s="36">
+      <c r="T90" s="36">
         <v>5</v>
       </c>
-      <c r="J90" s="36">
+      <c r="V90" s="36">
         <v>15</v>
       </c>
-      <c r="K90" s="36">
+      <c r="W90" s="36">
         <v>15</v>
       </c>
-      <c r="L90" s="36">
+      <c r="X90" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B91" s="36">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B91" s="44">
         <v>16</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C91" s="44">
         <v>16</v>
       </c>
-      <c r="D91" s="36">
+      <c r="D91" s="44">
         <v>75</v>
       </c>
-      <c r="F91" s="36">
+      <c r="E91" s="28">
+        <v>3</v>
+      </c>
+      <c r="F91" s="28">
+        <v>4</v>
+      </c>
+      <c r="G91" s="49">
+        <v>38</v>
+      </c>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49">
+        <v>37</v>
+      </c>
+      <c r="J91" s="49"/>
+      <c r="R91" s="36">
         <v>16</v>
       </c>
-      <c r="G91" s="36">
+      <c r="S91" s="36">
         <v>16</v>
       </c>
-      <c r="H91" s="36">
+      <c r="T91" s="36">
         <v>5</v>
       </c>
-      <c r="J91" s="36">
+      <c r="V91" s="36">
         <v>16</v>
       </c>
-      <c r="K91" s="36">
+      <c r="W91" s="36">
         <v>16</v>
       </c>
-      <c r="L91" s="36">
+      <c r="X91" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B92" s="36">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B92" s="44">
         <v>17</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="44">
         <v>17</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="44">
         <v>83</v>
       </c>
-      <c r="F92" s="36">
+      <c r="E92" s="28">
+        <v>3</v>
+      </c>
+      <c r="F92" s="28">
+        <v>4</v>
+      </c>
+      <c r="G92" s="49">
+        <v>42</v>
+      </c>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49">
+        <v>41</v>
+      </c>
+      <c r="J92" s="49"/>
+      <c r="R92" s="36">
         <v>17</v>
       </c>
-      <c r="G92" s="36">
+      <c r="S92" s="36">
         <v>17</v>
       </c>
-      <c r="H92" s="36">
+      <c r="T92" s="36">
         <v>6</v>
       </c>
-      <c r="J92" s="36">
+      <c r="V92" s="36">
         <v>17</v>
       </c>
-      <c r="K92" s="36">
+      <c r="W92" s="36">
         <v>17</v>
       </c>
-      <c r="L92" s="36">
+      <c r="X92" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B93" s="36">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B93" s="44">
         <v>18</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="44">
         <v>18</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D93" s="44">
         <v>91</v>
       </c>
-      <c r="F93" s="36">
+      <c r="E93" s="28">
+        <v>3</v>
+      </c>
+      <c r="F93" s="28">
+        <v>4</v>
+      </c>
+      <c r="G93" s="49">
+        <v>46</v>
+      </c>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
+        <v>45</v>
+      </c>
+      <c r="J93" s="49"/>
+      <c r="R93" s="36">
         <v>18</v>
       </c>
-      <c r="G93" s="36">
+      <c r="S93" s="36">
         <v>18</v>
       </c>
-      <c r="H93" s="36">
+      <c r="T93" s="36">
         <v>6</v>
       </c>
-      <c r="J93" s="36">
+      <c r="V93" s="36">
         <v>18</v>
       </c>
-      <c r="K93" s="36">
+      <c r="W93" s="36">
         <v>18</v>
       </c>
-      <c r="L93" s="36">
+      <c r="X93" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B94" s="36">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B94" s="44">
         <v>19</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="44">
         <v>19</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D94" s="44">
         <v>100</v>
       </c>
-      <c r="F94" s="36">
+      <c r="E94" s="28">
+        <v>3</v>
+      </c>
+      <c r="F94" s="28">
+        <v>4</v>
+      </c>
+      <c r="G94" s="49">
+        <v>50</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>50</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="R94" s="36">
         <v>19</v>
       </c>
-      <c r="G94" s="36">
+      <c r="S94" s="36">
         <v>19</v>
       </c>
-      <c r="H94" s="36">
+      <c r="T94" s="36">
         <v>7</v>
       </c>
-      <c r="J94" s="36">
+      <c r="V94" s="36">
         <v>19</v>
       </c>
-      <c r="K94" s="36">
+      <c r="W94" s="36">
         <v>19</v>
       </c>
-      <c r="L94" s="36">
+      <c r="X94" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B95" s="36">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B95" s="44">
         <v>20</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C95" s="44">
         <v>20</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="44">
         <v>110</v>
       </c>
-      <c r="F95" s="36">
+      <c r="E95" s="28">
+        <v>3</v>
+      </c>
+      <c r="F95" s="28">
+        <v>4</v>
+      </c>
+      <c r="G95" s="49">
+        <v>55</v>
+      </c>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
+        <v>55</v>
+      </c>
+      <c r="J95" s="49"/>
+      <c r="R95" s="36">
         <v>20</v>
       </c>
-      <c r="G95" s="36">
+      <c r="S95" s="36">
         <v>20</v>
       </c>
-      <c r="H95" s="36">
+      <c r="T95" s="36">
         <v>7</v>
       </c>
-      <c r="J95" s="36">
+      <c r="V95" s="36">
         <v>20</v>
       </c>
-      <c r="K95" s="36">
+      <c r="W95" s="36">
         <v>20</v>
       </c>
-      <c r="L95" s="36">
+      <c r="X95" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B96" s="36">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B96" s="44">
         <v>21</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="44">
         <v>21</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="44">
         <v>121</v>
       </c>
-      <c r="F96" s="36">
+      <c r="E96" s="28">
+        <v>4</v>
+      </c>
+      <c r="F96" s="28">
+        <v>5</v>
+      </c>
+      <c r="G96" s="49">
+        <v>61</v>
+      </c>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49">
+        <v>60</v>
+      </c>
+      <c r="J96" s="49"/>
+      <c r="R96" s="36">
         <v>21</v>
       </c>
-      <c r="G96" s="36">
+      <c r="S96" s="36">
         <v>21</v>
       </c>
-      <c r="H96" s="36">
+      <c r="T96" s="36">
         <v>8</v>
       </c>
-      <c r="J96" s="36">
+      <c r="V96" s="36">
         <v>21</v>
       </c>
-      <c r="K96" s="36">
+      <c r="W96" s="36">
         <v>21</v>
       </c>
-      <c r="L96" s="36">
+      <c r="X96" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B97" s="36">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B97" s="44">
         <v>22</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C97" s="44">
         <v>22</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D97" s="44">
         <v>133</v>
       </c>
-      <c r="F97" s="36">
+      <c r="E97" s="28">
+        <v>4</v>
+      </c>
+      <c r="F97" s="28">
+        <v>5</v>
+      </c>
+      <c r="G97" s="49">
+        <v>67</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>66</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="R97" s="36">
         <v>22</v>
       </c>
-      <c r="G97" s="36">
+      <c r="S97" s="36">
         <v>22</v>
       </c>
-      <c r="H97" s="36">
+      <c r="T97" s="36">
         <v>8</v>
       </c>
-      <c r="J97" s="36">
+      <c r="V97" s="36">
         <v>22</v>
       </c>
-      <c r="K97" s="36">
+      <c r="W97" s="36">
         <v>22</v>
       </c>
-      <c r="L97" s="36">
+      <c r="X97" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B98" s="36">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B98" s="44">
         <v>23</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="44">
         <v>23</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="44">
         <v>146</v>
       </c>
-      <c r="F98" s="36">
+      <c r="E98" s="28">
+        <v>4</v>
+      </c>
+      <c r="F98" s="28">
+        <v>5</v>
+      </c>
+      <c r="G98" s="49">
+        <v>73</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
+        <v>73</v>
+      </c>
+      <c r="J98" s="49"/>
+      <c r="R98" s="36">
         <v>23</v>
       </c>
-      <c r="G98" s="36">
+      <c r="S98" s="36">
         <v>23</v>
       </c>
-      <c r="H98" s="36">
+      <c r="T98" s="36">
         <v>9</v>
       </c>
-      <c r="J98" s="36">
+      <c r="V98" s="36">
         <v>23</v>
       </c>
-      <c r="K98" s="36">
+      <c r="W98" s="36">
         <v>23</v>
       </c>
-      <c r="L98" s="36">
+      <c r="X98" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B99" s="36">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B99" s="44">
         <v>24</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="44">
         <v>24</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D99" s="44">
         <v>161</v>
       </c>
-      <c r="F99" s="36">
+      <c r="E99" s="28">
+        <v>4</v>
+      </c>
+      <c r="F99" s="28">
+        <v>5</v>
+      </c>
+      <c r="G99" s="49">
+        <v>81</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
+        <v>80</v>
+      </c>
+      <c r="J99" s="49"/>
+      <c r="R99" s="36">
         <v>24</v>
       </c>
-      <c r="G99" s="36">
+      <c r="S99" s="36">
         <v>24</v>
       </c>
-      <c r="H99" s="36">
+      <c r="T99" s="36">
         <v>9</v>
       </c>
-      <c r="J99" s="36">
+      <c r="V99" s="36">
         <v>24</v>
       </c>
-      <c r="K99" s="36">
+      <c r="W99" s="36">
         <v>24</v>
       </c>
-      <c r="L99" s="36">
+      <c r="X99" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B100" s="36">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B100" s="44">
         <v>25</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="44">
         <v>25</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D100" s="44">
         <v>177</v>
       </c>
-      <c r="F100" s="36">
+      <c r="E100" s="28">
+        <v>4</v>
+      </c>
+      <c r="F100" s="28">
+        <v>5</v>
+      </c>
+      <c r="G100" s="49">
+        <v>89</v>
+      </c>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49">
+        <v>88</v>
+      </c>
+      <c r="J100" s="49"/>
+      <c r="R100" s="36">
         <v>25</v>
       </c>
-      <c r="G100" s="36">
+      <c r="S100" s="36">
         <v>25</v>
       </c>
-      <c r="H100" s="36">
+      <c r="T100" s="36">
         <v>10</v>
       </c>
-      <c r="J100" s="36">
+      <c r="V100" s="36">
         <v>25</v>
       </c>
-      <c r="K100" s="36">
+      <c r="W100" s="36">
         <v>25</v>
       </c>
-      <c r="L100" s="36">
+      <c r="X100" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B101" s="36">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B101" s="44">
         <v>26</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="44">
         <v>26</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D101" s="44">
         <v>195</v>
       </c>
-      <c r="F101" s="36">
+      <c r="E101" s="28">
+        <v>5</v>
+      </c>
+      <c r="F101" s="28">
+        <v>6</v>
+      </c>
+      <c r="G101" s="49">
+        <v>98</v>
+      </c>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49">
+        <v>97</v>
+      </c>
+      <c r="J101" s="49"/>
+      <c r="R101" s="36">
         <v>26</v>
       </c>
-      <c r="G101" s="36">
+      <c r="S101" s="36">
         <v>26</v>
       </c>
-      <c r="H101" s="36">
+      <c r="T101" s="36">
         <v>10</v>
       </c>
-      <c r="J101" s="36">
+      <c r="V101" s="36">
         <v>26</v>
       </c>
-      <c r="K101" s="36">
+      <c r="W101" s="36">
         <v>26</v>
       </c>
-      <c r="L101" s="36">
+      <c r="X101" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B102" s="36">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B102" s="44">
         <v>27</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="44">
         <v>27</v>
       </c>
-      <c r="D102" s="36">
+      <c r="D102" s="44">
         <v>215</v>
       </c>
-      <c r="F102" s="36">
+      <c r="E102" s="28">
+        <v>5</v>
+      </c>
+      <c r="F102" s="28">
+        <v>6</v>
+      </c>
+      <c r="G102" s="49">
+        <v>108</v>
+      </c>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49">
+        <v>107</v>
+      </c>
+      <c r="J102" s="49"/>
+      <c r="R102" s="36">
         <v>27</v>
       </c>
-      <c r="G102" s="36">
+      <c r="S102" s="36">
         <v>27</v>
       </c>
-      <c r="H102" s="36">
+      <c r="T102" s="36">
         <v>11</v>
       </c>
-      <c r="J102" s="36">
+      <c r="V102" s="36">
         <v>27</v>
       </c>
-      <c r="K102" s="36">
+      <c r="W102" s="36">
         <v>27</v>
       </c>
-      <c r="L102" s="36">
+      <c r="X102" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B103" s="36">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B103" s="44">
         <v>28</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="44">
         <v>28</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D103" s="44">
         <v>237</v>
       </c>
-      <c r="F103" s="36">
+      <c r="E103" s="28">
+        <v>5</v>
+      </c>
+      <c r="F103" s="28">
+        <v>6</v>
+      </c>
+      <c r="G103" s="49">
+        <v>119</v>
+      </c>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49">
+        <v>118</v>
+      </c>
+      <c r="J103" s="49"/>
+      <c r="R103" s="36">
         <v>28</v>
       </c>
-      <c r="G103" s="36">
+      <c r="S103" s="36">
         <v>28</v>
       </c>
-      <c r="H103" s="36">
+      <c r="T103" s="36">
         <v>11</v>
       </c>
-      <c r="J103" s="36">
+      <c r="V103" s="36">
         <v>28</v>
       </c>
-      <c r="K103" s="36">
+      <c r="W103" s="36">
         <v>28</v>
       </c>
-      <c r="L103" s="36">
+      <c r="X103" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B104" s="36">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B104" s="44">
         <v>29</v>
       </c>
-      <c r="C104" s="36">
+      <c r="C104" s="44">
         <v>29</v>
       </c>
-      <c r="D104" s="36">
+      <c r="D104" s="44">
         <v>261</v>
       </c>
-      <c r="F104" s="36">
+      <c r="E104" s="28">
+        <v>5</v>
+      </c>
+      <c r="F104" s="28">
+        <v>6</v>
+      </c>
+      <c r="G104" s="49">
+        <v>131</v>
+      </c>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49">
+        <v>130</v>
+      </c>
+      <c r="J104" s="49"/>
+      <c r="R104" s="36">
         <v>29</v>
       </c>
-      <c r="G104" s="36">
+      <c r="S104" s="36">
         <v>29</v>
       </c>
-      <c r="H104" s="36">
+      <c r="T104" s="36">
         <v>12</v>
       </c>
-      <c r="J104" s="36">
+      <c r="V104" s="36">
         <v>29</v>
       </c>
-      <c r="K104" s="36">
+      <c r="W104" s="36">
         <v>29</v>
       </c>
-      <c r="L104" s="36">
+      <c r="X104" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B105" s="36">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B105" s="44">
         <v>30</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C105" s="44">
         <v>30</v>
       </c>
-      <c r="D105" s="36">
+      <c r="D105" s="44">
         <v>287</v>
       </c>
-      <c r="F105" s="36">
+      <c r="E105" s="28">
+        <v>5</v>
+      </c>
+      <c r="F105" s="28">
+        <v>6</v>
+      </c>
+      <c r="G105" s="49">
+        <v>144</v>
+      </c>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49">
+        <v>143</v>
+      </c>
+      <c r="J105" s="49"/>
+      <c r="R105" s="36">
         <v>30</v>
       </c>
-      <c r="G105" s="36">
+      <c r="S105" s="36">
         <v>30</v>
       </c>
-      <c r="H105" s="36">
+      <c r="T105" s="36">
         <v>12</v>
       </c>
-      <c r="J105" s="36">
+      <c r="V105" s="36">
         <v>30</v>
       </c>
-      <c r="K105" s="36">
+      <c r="W105" s="36">
         <v>30</v>
       </c>
-      <c r="L105" s="36">
+      <c r="X105" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="36">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B106" s="44">
         <v>31</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C106" s="44">
         <v>31</v>
       </c>
-      <c r="D106" s="36">
+      <c r="D106" s="44">
         <v>316</v>
       </c>
-      <c r="F106" s="36">
+      <c r="E106" s="28">
+        <v>6</v>
+      </c>
+      <c r="F106" s="28">
+        <v>7</v>
+      </c>
+      <c r="G106" s="49">
+        <v>158</v>
+      </c>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49">
+        <v>158</v>
+      </c>
+      <c r="J106" s="49"/>
+      <c r="R106" s="36">
         <v>31</v>
       </c>
-      <c r="G106" s="36">
+      <c r="S106" s="36">
         <v>31</v>
       </c>
-      <c r="H106" s="36">
+      <c r="T106" s="36">
         <v>13</v>
       </c>
-      <c r="J106" s="36">
+      <c r="V106" s="36">
         <v>31</v>
       </c>
-      <c r="K106" s="36">
+      <c r="W106" s="36">
         <v>31</v>
       </c>
-      <c r="L106" s="36">
+      <c r="X106" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B107" s="36">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B107" s="44">
         <v>32</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="44">
         <v>32</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D107" s="44">
         <v>348</v>
       </c>
-      <c r="F107" s="36">
+      <c r="E107" s="28">
+        <v>6</v>
+      </c>
+      <c r="F107" s="28">
+        <v>7</v>
+      </c>
+      <c r="G107" s="49">
+        <v>174</v>
+      </c>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49">
+        <v>174</v>
+      </c>
+      <c r="J107" s="49"/>
+      <c r="R107" s="36">
         <v>32</v>
       </c>
-      <c r="G107" s="36">
+      <c r="S107" s="36">
         <v>32</v>
       </c>
-      <c r="H107" s="36">
+      <c r="T107" s="36">
         <v>14</v>
       </c>
-      <c r="J107" s="36">
+      <c r="V107" s="36">
         <v>32</v>
       </c>
-      <c r="K107" s="36">
+      <c r="W107" s="36">
         <v>32</v>
       </c>
-      <c r="L107" s="36">
+      <c r="X107" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B108" s="36">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B108" s="44">
         <v>33</v>
       </c>
-      <c r="C108" s="36">
+      <c r="C108" s="44">
         <v>33</v>
       </c>
-      <c r="D108" s="36">
+      <c r="D108" s="44">
         <v>383</v>
       </c>
-      <c r="F108" s="36">
+      <c r="E108" s="28">
+        <v>6</v>
+      </c>
+      <c r="F108" s="28">
+        <v>7</v>
+      </c>
+      <c r="G108" s="49">
+        <v>192</v>
+      </c>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49">
+        <v>191</v>
+      </c>
+      <c r="J108" s="49"/>
+      <c r="R108" s="36">
         <v>33</v>
       </c>
-      <c r="G108" s="36">
+      <c r="S108" s="36">
         <v>33</v>
       </c>
-      <c r="H108" s="36">
+      <c r="T108" s="36">
         <v>15</v>
       </c>
-      <c r="J108" s="36">
+      <c r="V108" s="36">
         <v>33</v>
       </c>
-      <c r="K108" s="36">
+      <c r="W108" s="36">
         <v>33</v>
       </c>
-      <c r="L108" s="36">
+      <c r="X108" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="36">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B109" s="44">
         <v>34</v>
       </c>
-      <c r="C109" s="36">
+      <c r="C109" s="44">
         <v>34</v>
       </c>
-      <c r="D109" s="36">
+      <c r="D109" s="44">
         <v>421</v>
       </c>
-      <c r="F109" s="36">
+      <c r="E109" s="28">
+        <v>6</v>
+      </c>
+      <c r="F109" s="28">
+        <v>7</v>
+      </c>
+      <c r="G109" s="49">
+        <v>211</v>
+      </c>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49">
+        <v>210</v>
+      </c>
+      <c r="J109" s="49"/>
+      <c r="R109" s="36">
         <v>34</v>
       </c>
-      <c r="G109" s="36">
+      <c r="S109" s="36">
         <v>34</v>
       </c>
-      <c r="H109" s="36">
+      <c r="T109" s="36">
         <v>16</v>
       </c>
-      <c r="J109" s="36">
+      <c r="V109" s="36">
         <v>34</v>
       </c>
-      <c r="K109" s="36">
+      <c r="W109" s="36">
         <v>34</v>
       </c>
-      <c r="L109" s="36">
+      <c r="X109" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B110" s="36">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B110" s="44">
         <v>35</v>
       </c>
-      <c r="C110" s="36">
+      <c r="C110" s="44">
         <v>35</v>
       </c>
-      <c r="D110" s="36">
+      <c r="D110" s="44">
         <v>463</v>
       </c>
-      <c r="F110" s="36">
+      <c r="E110" s="28">
+        <v>6</v>
+      </c>
+      <c r="F110" s="28">
+        <v>7</v>
+      </c>
+      <c r="G110" s="49">
+        <v>232</v>
+      </c>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49">
+        <v>231</v>
+      </c>
+      <c r="J110" s="49"/>
+      <c r="R110" s="36">
         <v>35</v>
       </c>
-      <c r="G110" s="36">
+      <c r="S110" s="36">
         <v>35</v>
       </c>
-      <c r="H110" s="36">
+      <c r="T110" s="36">
         <v>17</v>
       </c>
-      <c r="J110" s="36">
+      <c r="V110" s="36">
         <v>35</v>
       </c>
-      <c r="K110" s="36">
+      <c r="W110" s="36">
         <v>35</v>
       </c>
-      <c r="L110" s="36">
+      <c r="X110" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B111" s="36">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B111" s="44">
         <v>36</v>
       </c>
-      <c r="C111" s="36">
+      <c r="C111" s="44">
         <v>36</v>
       </c>
-      <c r="D111" s="36">
+      <c r="D111" s="44">
         <v>509</v>
       </c>
-      <c r="F111" s="36">
+      <c r="E111" s="28">
+        <v>7</v>
+      </c>
+      <c r="F111" s="28">
+        <v>8</v>
+      </c>
+      <c r="G111" s="49">
+        <v>255</v>
+      </c>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49">
+        <v>254</v>
+      </c>
+      <c r="J111" s="49"/>
+      <c r="R111" s="36">
         <v>36</v>
       </c>
-      <c r="G111" s="36">
+      <c r="S111" s="36">
         <v>36</v>
       </c>
-      <c r="H111" s="36">
+      <c r="T111" s="36">
         <v>18</v>
       </c>
-      <c r="J111" s="36">
+      <c r="V111" s="36">
         <v>36</v>
       </c>
-      <c r="K111" s="36">
+      <c r="W111" s="36">
         <v>36</v>
       </c>
-      <c r="L111" s="36">
+      <c r="X111" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B112" s="36">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B112" s="44">
         <v>37</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C112" s="44">
         <v>37</v>
       </c>
-      <c r="D112" s="36">
+      <c r="D112" s="44">
         <v>560</v>
       </c>
-      <c r="F112" s="36">
+      <c r="E112" s="28">
+        <v>7</v>
+      </c>
+      <c r="F112" s="28">
+        <v>8</v>
+      </c>
+      <c r="G112" s="49">
+        <v>280</v>
+      </c>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49">
+        <v>280</v>
+      </c>
+      <c r="J112" s="49"/>
+      <c r="R112" s="36">
         <v>37</v>
       </c>
-      <c r="G112" s="36">
+      <c r="S112" s="36">
         <v>37</v>
       </c>
-      <c r="H112" s="36">
+      <c r="T112" s="36">
         <v>19</v>
       </c>
-      <c r="J112" s="36">
+      <c r="V112" s="36">
         <v>37</v>
       </c>
-      <c r="K112" s="36">
+      <c r="W112" s="36">
         <v>37</v>
       </c>
-      <c r="L112" s="36">
+      <c r="X112" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B113" s="36">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B113" s="44">
         <v>38</v>
       </c>
-      <c r="C113" s="36">
+      <c r="C113" s="44">
         <v>38</v>
       </c>
-      <c r="D113" s="36">
+      <c r="D113" s="44">
         <v>616</v>
       </c>
-      <c r="F113" s="36">
+      <c r="E113" s="28">
+        <v>7</v>
+      </c>
+      <c r="F113" s="28">
+        <v>8</v>
+      </c>
+      <c r="G113" s="49">
+        <v>308</v>
+      </c>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49">
+        <v>308</v>
+      </c>
+      <c r="J113" s="49"/>
+      <c r="R113" s="36">
         <v>38</v>
       </c>
-      <c r="G113" s="36">
+      <c r="S113" s="36">
         <v>38</v>
       </c>
-      <c r="H113" s="36">
+      <c r="T113" s="36">
         <v>20</v>
       </c>
-      <c r="J113" s="36">
+      <c r="V113" s="36">
         <v>38</v>
       </c>
-      <c r="K113" s="36">
+      <c r="W113" s="36">
         <v>38</v>
       </c>
-      <c r="L113" s="36">
+      <c r="X113" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B114" s="36">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B114" s="44">
         <v>39</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C114" s="44">
         <v>39</v>
       </c>
-      <c r="D114" s="36">
+      <c r="D114" s="44">
         <v>678</v>
       </c>
-      <c r="F114" s="36">
+      <c r="E114" s="28">
+        <v>7</v>
+      </c>
+      <c r="F114" s="28">
+        <v>8</v>
+      </c>
+      <c r="G114" s="49">
+        <v>339</v>
+      </c>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49">
+        <v>339</v>
+      </c>
+      <c r="J114" s="49"/>
+      <c r="R114" s="36">
         <v>39</v>
       </c>
-      <c r="G114" s="36">
+      <c r="S114" s="36">
         <v>39</v>
       </c>
-      <c r="H114" s="36">
+      <c r="T114" s="36">
         <v>21</v>
       </c>
-      <c r="J114" s="36">
+      <c r="V114" s="36">
         <v>39</v>
       </c>
-      <c r="K114" s="36">
+      <c r="W114" s="36">
         <v>39</v>
       </c>
-      <c r="L114" s="36">
+      <c r="X114" s="36">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B115" s="36">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B115" s="44">
         <v>40</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C115" s="44">
         <v>40</v>
       </c>
-      <c r="D115" s="36">
+      <c r="D115" s="44">
         <v>746</v>
       </c>
-      <c r="F115" s="36">
+      <c r="E115" s="28">
+        <v>7</v>
+      </c>
+      <c r="F115" s="28">
+        <v>8</v>
+      </c>
+      <c r="G115" s="49">
+        <v>373</v>
+      </c>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49">
+        <v>373</v>
+      </c>
+      <c r="J115" s="49"/>
+      <c r="R115" s="36">
         <v>40</v>
       </c>
-      <c r="G115" s="36">
+      <c r="S115" s="36">
         <v>40</v>
       </c>
-      <c r="H115" s="36">
+      <c r="T115" s="36">
         <v>22</v>
       </c>
-      <c r="J115" s="36">
+      <c r="V115" s="36">
         <v>40</v>
       </c>
-      <c r="K115" s="36">
+      <c r="W115" s="36">
         <v>40</v>
       </c>
-      <c r="L115" s="36">
+      <c r="X115" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B116" s="36">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B116" s="44">
         <v>41</v>
       </c>
-      <c r="C116" s="36">
+      <c r="C116" s="44">
         <v>41</v>
       </c>
-      <c r="D116" s="36">
+      <c r="D116" s="44">
         <v>858</v>
       </c>
-      <c r="F116" s="36">
+      <c r="E116" s="28">
+        <v>8</v>
+      </c>
+      <c r="F116" s="28">
+        <v>9</v>
+      </c>
+      <c r="G116" s="49">
+        <v>429</v>
+      </c>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49">
+        <v>429</v>
+      </c>
+      <c r="J116" s="49"/>
+      <c r="R116" s="36">
         <v>41</v>
       </c>
-      <c r="G116" s="36">
+      <c r="S116" s="36">
         <v>41</v>
       </c>
-      <c r="H116" s="36">
+      <c r="T116" s="36">
         <v>24</v>
       </c>
-      <c r="J116" s="36">
+      <c r="V116" s="36">
         <v>41</v>
       </c>
-      <c r="K116" s="36">
+      <c r="W116" s="36">
         <v>41</v>
       </c>
-      <c r="L116" s="36">
+      <c r="X116" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B117" s="36">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B117" s="44">
         <v>42</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C117" s="44">
         <v>42</v>
       </c>
-      <c r="D117" s="36">
+      <c r="D117" s="44">
         <v>987</v>
       </c>
-      <c r="F117" s="36">
+      <c r="E117" s="28">
+        <v>8</v>
+      </c>
+      <c r="F117" s="28">
+        <v>9</v>
+      </c>
+      <c r="G117" s="49">
+        <v>494</v>
+      </c>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49">
+        <v>493</v>
+      </c>
+      <c r="J117" s="49"/>
+      <c r="R117" s="36">
         <v>42</v>
       </c>
-      <c r="G117" s="36">
+      <c r="S117" s="36">
         <v>42</v>
       </c>
-      <c r="H117" s="36">
+      <c r="T117" s="36">
         <v>26</v>
       </c>
-      <c r="J117" s="36">
+      <c r="V117" s="36">
         <v>42</v>
       </c>
-      <c r="K117" s="36">
+      <c r="W117" s="36">
         <v>42</v>
       </c>
-      <c r="L117" s="36">
+      <c r="X117" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B118" s="36">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B118" s="44">
         <v>43</v>
       </c>
-      <c r="C118" s="36">
+      <c r="C118" s="44">
         <v>43</v>
       </c>
-      <c r="D118" s="36">
+      <c r="D118" s="44">
         <v>1135</v>
       </c>
-      <c r="F118" s="36">
+      <c r="E118" s="28">
+        <v>8</v>
+      </c>
+      <c r="F118" s="28">
+        <v>9</v>
+      </c>
+      <c r="G118" s="49">
+        <v>568</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49">
+        <v>567</v>
+      </c>
+      <c r="J118" s="49"/>
+      <c r="R118" s="36">
         <v>43</v>
       </c>
-      <c r="G118" s="36">
+      <c r="S118" s="36">
         <v>43</v>
       </c>
-      <c r="H118" s="36">
+      <c r="T118" s="36">
         <v>28</v>
       </c>
-      <c r="J118" s="36">
+      <c r="V118" s="36">
         <v>43</v>
       </c>
-      <c r="K118" s="36">
+      <c r="W118" s="36">
         <v>43</v>
       </c>
-      <c r="L118" s="36">
+      <c r="X118" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B119" s="36">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B119" s="44">
         <v>44</v>
       </c>
-      <c r="C119" s="36">
+      <c r="C119" s="44">
         <v>44</v>
       </c>
-      <c r="D119" s="36">
+      <c r="D119" s="44">
         <v>1305</v>
       </c>
-      <c r="F119" s="36">
+      <c r="E119" s="28">
+        <v>8</v>
+      </c>
+      <c r="F119" s="28">
+        <v>9</v>
+      </c>
+      <c r="G119" s="49">
+        <v>653</v>
+      </c>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49">
+        <v>652</v>
+      </c>
+      <c r="J119" s="49"/>
+      <c r="R119" s="36">
         <v>44</v>
       </c>
-      <c r="G119" s="36">
+      <c r="S119" s="36">
         <v>44</v>
       </c>
-      <c r="H119" s="36">
+      <c r="T119" s="36">
         <v>30</v>
       </c>
-      <c r="J119" s="36">
+      <c r="V119" s="36">
         <v>44</v>
       </c>
-      <c r="K119" s="36">
+      <c r="W119" s="36">
         <v>44</v>
       </c>
-      <c r="L119" s="36">
+      <c r="X119" s="36">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B120" s="36">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B120" s="44">
         <v>45</v>
       </c>
-      <c r="C120" s="36">
+      <c r="C120" s="44">
         <v>45</v>
       </c>
-      <c r="D120" s="36">
+      <c r="D120" s="44">
         <v>1501</v>
       </c>
-      <c r="F120" s="36">
+      <c r="E120" s="28">
+        <v>8</v>
+      </c>
+      <c r="F120" s="28">
+        <v>9</v>
+      </c>
+      <c r="G120" s="49">
+        <v>751</v>
+      </c>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49">
+        <v>750</v>
+      </c>
+      <c r="J120" s="49"/>
+      <c r="R120" s="36">
         <v>45</v>
       </c>
-      <c r="G120" s="36">
+      <c r="S120" s="36">
         <v>45</v>
       </c>
-      <c r="H120" s="36">
+      <c r="T120" s="36">
         <v>32</v>
       </c>
-      <c r="J120" s="36">
+      <c r="V120" s="36">
         <v>45</v>
       </c>
-      <c r="K120" s="36">
+      <c r="W120" s="36">
         <v>45</v>
       </c>
-      <c r="L120" s="36">
+      <c r="X120" s="36">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B121" s="36">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B121" s="44">
         <v>46</v>
       </c>
-      <c r="C121" s="36">
+      <c r="C121" s="44">
         <v>46</v>
       </c>
-      <c r="D121" s="36">
+      <c r="D121" s="44">
         <v>1726</v>
       </c>
-      <c r="F121" s="36">
+      <c r="E121" s="28">
+        <v>9</v>
+      </c>
+      <c r="F121" s="28">
+        <v>3</v>
+      </c>
+      <c r="G121" s="49">
+        <v>863</v>
+      </c>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49">
+        <v>863</v>
+      </c>
+      <c r="J121" s="49"/>
+      <c r="R121" s="36">
         <v>46</v>
       </c>
-      <c r="G121" s="36">
+      <c r="S121" s="36">
         <v>46</v>
       </c>
-      <c r="H121" s="36">
+      <c r="T121" s="36">
         <v>36</v>
       </c>
-      <c r="J121" s="36">
+      <c r="V121" s="36">
         <v>46</v>
       </c>
-      <c r="K121" s="36">
+      <c r="W121" s="36">
         <v>46</v>
       </c>
-      <c r="L121" s="36">
+      <c r="X121" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B122" s="36">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B122" s="44">
         <v>47</v>
       </c>
-      <c r="C122" s="36">
+      <c r="C122" s="44">
         <v>47</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D122" s="44">
         <v>1985</v>
       </c>
-      <c r="F122" s="36">
+      <c r="E122" s="28">
+        <v>9</v>
+      </c>
+      <c r="F122" s="28">
+        <v>4</v>
+      </c>
+      <c r="G122" s="49">
+        <v>993</v>
+      </c>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49">
+        <v>992</v>
+      </c>
+      <c r="J122" s="49"/>
+      <c r="R122" s="36">
         <v>47</v>
       </c>
-      <c r="G122" s="36">
+      <c r="S122" s="36">
         <v>47</v>
       </c>
-      <c r="H122" s="36">
+      <c r="T122" s="36">
         <v>40</v>
       </c>
-      <c r="J122" s="36">
+      <c r="V122" s="36">
         <v>47</v>
       </c>
-      <c r="K122" s="36">
+      <c r="W122" s="36">
         <v>47</v>
       </c>
-      <c r="L122" s="36">
+      <c r="X122" s="36">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B123" s="36">
+    <row r="123" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B123" s="44">
         <v>48</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C123" s="44">
         <v>48</v>
       </c>
-      <c r="D123" s="36">
+      <c r="D123" s="44">
         <v>2283</v>
       </c>
-      <c r="F123" s="36">
+      <c r="E123" s="28">
+        <v>9</v>
+      </c>
+      <c r="F123" s="28">
+        <v>5</v>
+      </c>
+      <c r="G123" s="49">
+        <v>1142</v>
+      </c>
+      <c r="H123" s="49"/>
+      <c r="I123" s="49">
+        <v>1141</v>
+      </c>
+      <c r="J123" s="49"/>
+      <c r="R123" s="36">
         <v>48</v>
       </c>
-      <c r="G123" s="36">
+      <c r="S123" s="36">
         <v>48</v>
       </c>
-      <c r="H123" s="36">
+      <c r="T123" s="36">
         <v>44</v>
       </c>
-      <c r="J123" s="36">
+      <c r="V123" s="36">
         <v>48</v>
       </c>
-      <c r="K123" s="36">
+      <c r="W123" s="36">
         <v>48</v>
       </c>
-      <c r="L123" s="36">
+      <c r="X123" s="36">
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B124" s="36">
+    <row r="124" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B124" s="44">
         <v>49</v>
       </c>
-      <c r="C124" s="36">
+      <c r="C124" s="44">
         <v>49</v>
       </c>
-      <c r="D124" s="36">
+      <c r="D124" s="44">
         <v>2625</v>
       </c>
-      <c r="F124" s="36">
+      <c r="E124" s="28">
+        <v>9</v>
+      </c>
+      <c r="F124" s="28">
+        <v>6</v>
+      </c>
+      <c r="G124" s="49">
+        <v>1313</v>
+      </c>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49">
+        <v>1312</v>
+      </c>
+      <c r="J124" s="49"/>
+      <c r="R124" s="36">
         <v>49</v>
       </c>
-      <c r="G124" s="36">
+      <c r="S124" s="36">
         <v>49</v>
       </c>
-      <c r="H124" s="36">
+      <c r="T124" s="36">
         <v>48</v>
       </c>
-      <c r="J124" s="36">
+      <c r="V124" s="36">
         <v>49</v>
       </c>
-      <c r="K124" s="36">
+      <c r="W124" s="36">
         <v>49</v>
       </c>
-      <c r="L124" s="36">
+      <c r="X124" s="36">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B125" s="36">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B125" s="44">
         <v>50</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C125" s="44">
         <v>50</v>
       </c>
-      <c r="D125" s="36">
+      <c r="D125" s="44">
         <v>3019</v>
       </c>
-      <c r="F125" s="36">
+      <c r="E125" s="28">
+        <v>9</v>
+      </c>
+      <c r="F125" s="28">
+        <v>7</v>
+      </c>
+      <c r="G125" s="49">
+        <v>1510</v>
+      </c>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49">
+        <v>1509</v>
+      </c>
+      <c r="J125" s="49"/>
+      <c r="R125" s="36">
         <v>50</v>
       </c>
-      <c r="G125" s="36">
+      <c r="S125" s="36">
         <v>50</v>
       </c>
-      <c r="H125" s="36">
+      <c r="T125" s="36">
         <v>52</v>
       </c>
-      <c r="J125" s="36">
+      <c r="V125" s="36">
         <v>50</v>
       </c>
-      <c r="K125" s="36">
+      <c r="W125" s="36">
         <v>50</v>
       </c>
-      <c r="L125" s="36">
+      <c r="X125" s="36">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
         <v>445</v>
       </c>
       <c r="D126" t="s">
         <v>446</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="H126" s="61"/>
+      <c r="I126" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="J126" s="62"/>
+      <c r="S126" t="s">
         <v>445</v>
       </c>
-      <c r="H126" t="s">
+      <c r="T126" t="s">
         <v>447</v>
       </c>
-      <c r="K126" t="s">
+      <c r="W126" t="s">
         <v>445</v>
       </c>
-      <c r="L126" t="s">
+      <c r="X126" t="s">
         <v>447</v>
       </c>
     </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="E127" t="s">
+        <v>478</v>
+      </c>
+      <c r="F127" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="E128" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="162">
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="F39:G39"/>
@@ -11861,46 +12814,6 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE34751-C3E4-4B12-A52C-793A7E23AE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7676EB-96FD-4D29-827F-D28229BAEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
@@ -2246,6 +2246,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,10 +2264,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2270,31 +2285,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5609,14 +5609,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5632,14 +5632,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5655,14 +5655,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5678,14 +5678,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5719,10 +5719,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5734,10 +5734,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5747,26 +5747,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="53"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="58"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5776,24 +5776,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="48"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5803,24 +5803,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5830,24 +5830,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="51"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5857,24 +5857,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="51"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -5906,10 +5906,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -5923,10 +5923,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -5938,13 +5938,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -5953,10 +5953,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -5968,13 +5968,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="50" t="s">
+      <c r="H59" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -5983,10 +5983,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -5998,13 +5998,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6013,10 +6013,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -6028,13 +6028,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6043,10 +6043,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="50"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6058,13 +6058,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6073,10 +6073,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6088,13 +6088,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6103,10 +6103,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6118,13 +6118,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6133,10 +6133,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6148,13 +6148,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6163,10 +6163,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6190,10 +6190,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6205,10 +6205,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6219,19 +6219,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="48"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="51"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6246,10 +6246,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="50"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6260,19 +6260,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="48"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="51"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6287,10 +6287,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6301,19 +6301,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="48"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="51"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6328,10 +6328,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="24" t="s">
         <v>119</v>
       </c>
@@ -6342,19 +6342,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="48"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="51"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6369,10 +6369,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="6" t="s">
         <v>120</v>
       </c>
@@ -6383,19 +6383,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="48"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="51"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6410,10 +6410,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="6" t="s">
         <v>121</v>
       </c>
@@ -6424,19 +6424,19 @@
       <c r="G76" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="48"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="51"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6451,10 +6451,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="55"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
@@ -6465,19 +6465,19 @@
       <c r="G77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="48"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="51"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6492,10 +6492,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="55"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="6" t="s">
         <v>123</v>
       </c>
@@ -6506,19 +6506,19 @@
       <c r="G78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="46" t="s">
+      <c r="H78" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="48"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="51"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6533,10 +6533,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="55"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="6" t="s">
         <v>124</v>
       </c>
@@ -6547,19 +6547,19 @@
       <c r="G79" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="46" t="s">
+      <c r="H79" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="48"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="51"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6574,10 +6574,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="6" t="s">
         <v>125</v>
       </c>
@@ -6588,19 +6588,19 @@
       <c r="G80" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="46" t="s">
+      <c r="H80" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="48"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="51"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6615,10 +6615,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="55"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -6691,12 +6691,12 @@
       <c r="D91" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
@@ -6708,12 +6708,12 @@
       <c r="D92" s="6">
         <v>1</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
@@ -6725,12 +6725,12 @@
       <c r="D93" s="6">
         <v>2</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
@@ -6742,12 +6742,12 @@
       <c r="D94" s="6">
         <v>3</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
@@ -6759,12 +6759,12 @@
       <c r="D95" s="6">
         <v>4</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
@@ -6776,12 +6776,12 @@
       <c r="D96" s="6">
         <v>5</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
@@ -6824,21 +6824,21 @@
       <c r="D107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="50"/>
-      <c r="O107" s="50"/>
-      <c r="P107" s="50"/>
-      <c r="Q107" s="50"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
@@ -6850,21 +6850,21 @@
       <c r="D108" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="50"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="50"/>
-      <c r="O108" s="50"/>
-      <c r="P108" s="50"/>
-      <c r="Q108" s="50"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
@@ -6876,21 +6876,21 @@
       <c r="D109" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="50"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6902,21 +6902,21 @@
       <c r="D110" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="50"/>
-      <c r="O110" s="50"/>
-      <c r="P110" s="50"/>
-      <c r="Q110" s="50"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D111" s="14" t="s">
@@ -6942,37 +6942,37 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="50"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="50"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="50"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="50"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="6">
         <v>6</v>
       </c>
@@ -7008,123 +7008,123 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="E132" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="F132" s="57"/>
+      <c r="F132" s="52"/>
       <c r="G132" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="54" t="s">
+      <c r="H132" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="54"/>
+      <c r="I132" s="48"/>
       <c r="J132" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K132" s="54" t="s">
+      <c r="K132" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="54"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="54"/>
-      <c r="S132" s="54" t="s">
+      <c r="L132" s="48"/>
+      <c r="M132" s="48"/>
+      <c r="N132" s="48"/>
+      <c r="O132" s="48"/>
+      <c r="P132" s="48"/>
+      <c r="Q132" s="48"/>
+      <c r="R132" s="48"/>
+      <c r="S132" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="T132" s="54"/>
-      <c r="U132" s="54"/>
-      <c r="V132" s="54"/>
-      <c r="W132" s="54"/>
+      <c r="T132" s="48"/>
+      <c r="U132" s="48"/>
+      <c r="V132" s="48"/>
+      <c r="W132" s="48"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
       <c r="D133" s="29">
         <v>10</v>
       </c>
-      <c r="E133" s="58" t="s">
+      <c r="E133" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="F133" s="58"/>
+      <c r="F133" s="53"/>
       <c r="G133" s="29">
         <v>11</v>
       </c>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
       <c r="J133" s="29">
         <v>10</v>
       </c>
-      <c r="K133" s="50" t="s">
+      <c r="K133" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L133" s="50"/>
-      <c r="M133" s="50"/>
-      <c r="N133" s="50"/>
-      <c r="O133" s="50"/>
-      <c r="P133" s="50"/>
-      <c r="Q133" s="50"/>
-      <c r="R133" s="50"/>
-      <c r="S133" s="50" t="s">
+      <c r="L133" s="46"/>
+      <c r="M133" s="46"/>
+      <c r="N133" s="46"/>
+      <c r="O133" s="46"/>
+      <c r="P133" s="46"/>
+      <c r="Q133" s="46"/>
+      <c r="R133" s="46"/>
+      <c r="S133" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="T133" s="50"/>
-      <c r="U133" s="50"/>
-      <c r="V133" s="50"/>
-      <c r="W133" s="50"/>
+      <c r="T133" s="46"/>
+      <c r="U133" s="46"/>
+      <c r="V133" s="46"/>
+      <c r="W133" s="46"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="58" t="s">
+      <c r="A134" s="46"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="53"/>
       <c r="G134" s="29">
         <v>21</v>
       </c>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
       <c r="J134" s="29">
         <v>10</v>
       </c>
-      <c r="K134" s="50" t="s">
+      <c r="K134" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="L134" s="50"/>
-      <c r="M134" s="50"/>
-      <c r="N134" s="50"/>
-      <c r="O134" s="50"/>
-      <c r="P134" s="50"/>
-      <c r="Q134" s="50"/>
-      <c r="R134" s="50"/>
-      <c r="S134" s="50"/>
-      <c r="T134" s="50"/>
-      <c r="U134" s="50"/>
-      <c r="V134" s="50"/>
-      <c r="W134" s="50"/>
+      <c r="L134" s="46"/>
+      <c r="M134" s="46"/>
+      <c r="N134" s="46"/>
+      <c r="O134" s="46"/>
+      <c r="P134" s="46"/>
+      <c r="Q134" s="46"/>
+      <c r="R134" s="46"/>
+      <c r="S134" s="46"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="46"/>
+      <c r="V134" s="46"/>
+      <c r="W134" s="46"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="50"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="29" t="s">
         <v>238</v>
       </c>
@@ -7132,32 +7132,32 @@
       <c r="G135" s="29">
         <v>31</v>
       </c>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="50" t="s">
+      <c r="K135" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
-      <c r="N135" s="50"/>
-      <c r="O135" s="50"/>
-      <c r="P135" s="50"/>
-      <c r="Q135" s="50"/>
-      <c r="R135" s="50"/>
-      <c r="S135" s="50"/>
-      <c r="T135" s="50"/>
-      <c r="U135" s="50"/>
-      <c r="V135" s="50"/>
-      <c r="W135" s="50"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="46"/>
+      <c r="P135" s="46"/>
+      <c r="Q135" s="46"/>
+      <c r="R135" s="46"/>
+      <c r="S135" s="46"/>
+      <c r="T135" s="46"/>
+      <c r="U135" s="46"/>
+      <c r="V135" s="46"/>
+      <c r="W135" s="46"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="28" t="s">
         <v>240</v>
       </c>
@@ -7165,32 +7165,32 @@
       <c r="G136" s="29">
         <v>41</v>
       </c>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="49" t="s">
+      <c r="K136" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="L136" s="49"/>
-      <c r="M136" s="49"/>
-      <c r="N136" s="49"/>
-      <c r="O136" s="49"/>
-      <c r="P136" s="49"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="49"/>
-      <c r="S136" s="50"/>
-      <c r="T136" s="50"/>
-      <c r="U136" s="50"/>
-      <c r="V136" s="50"/>
-      <c r="W136" s="50"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="46"/>
+      <c r="T136" s="46"/>
+      <c r="U136" s="46"/>
+      <c r="V136" s="46"/>
+      <c r="W136" s="46"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
       <c r="E137" s="28" t="s">
         <v>242</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="G137" s="29">
         <v>51</v>
       </c>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="49" t="s">
+      <c r="K137" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="49"/>
-      <c r="M137" s="49"/>
-      <c r="N137" s="49"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="49"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="49"/>
-      <c r="S137" s="50" t="s">
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+      <c r="S137" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="T137" s="50"/>
-      <c r="U137" s="50"/>
-      <c r="V137" s="50"/>
-      <c r="W137" s="50"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="46"/>
+      <c r="V137" s="46"/>
+      <c r="W137" s="46"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="28" t="s">
         <v>244</v>
       </c>
@@ -7233,33 +7233,33 @@
       <c r="G138" s="29">
         <v>61</v>
       </c>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="49" t="s">
+      <c r="K138" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="L138" s="49"/>
-      <c r="M138" s="49"/>
-      <c r="N138" s="49"/>
-      <c r="O138" s="49"/>
-      <c r="P138" s="49"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="49"/>
-      <c r="S138" s="50"/>
-      <c r="T138" s="50"/>
-      <c r="U138" s="50"/>
-      <c r="V138" s="50"/>
-      <c r="W138" s="50"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="47"/>
+      <c r="Q138" s="47"/>
+      <c r="R138" s="47"/>
+      <c r="S138" s="46"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="46"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="46"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="58" t="s">
+      <c r="A139" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="58"/>
-      <c r="C139" s="58"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
       <c r="D139" s="29">
         <v>20</v>
       </c>
@@ -7270,129 +7270,129 @@
       <c r="G139" s="29">
         <v>11</v>
       </c>
-      <c r="H139" s="50" t="s">
+      <c r="H139" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="50"/>
+      <c r="I139" s="46"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
-      <c r="K139" s="50" t="s">
+      <c r="K139" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="L139" s="50"/>
-      <c r="M139" s="50"/>
-      <c r="N139" s="50"/>
-      <c r="O139" s="50"/>
-      <c r="P139" s="50"/>
-      <c r="Q139" s="50"/>
-      <c r="R139" s="50"/>
-      <c r="S139" s="50" t="s">
+      <c r="L139" s="46"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="46"/>
+      <c r="R139" s="46"/>
+      <c r="S139" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="T139" s="50"/>
-      <c r="U139" s="50"/>
-      <c r="V139" s="50"/>
-      <c r="W139" s="50"/>
+      <c r="T139" s="46"/>
+      <c r="U139" s="46"/>
+      <c r="V139" s="46"/>
+      <c r="W139" s="46"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="50" t="s">
+      <c r="H140" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I140" s="50"/>
+      <c r="I140" s="46"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
-      <c r="K140" s="50" t="s">
+      <c r="K140" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="L140" s="50"/>
-      <c r="M140" s="50"/>
-      <c r="N140" s="50"/>
-      <c r="O140" s="50"/>
-      <c r="P140" s="50"/>
-      <c r="Q140" s="50"/>
-      <c r="R140" s="50"/>
-      <c r="S140" s="50"/>
-      <c r="T140" s="50"/>
-      <c r="U140" s="50"/>
-      <c r="V140" s="50"/>
-      <c r="W140" s="50"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="46"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="46"/>
+      <c r="R140" s="46"/>
+      <c r="S140" s="46"/>
+      <c r="T140" s="46"/>
+      <c r="U140" s="46"/>
+      <c r="V140" s="46"/>
+      <c r="W140" s="46"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I141" s="50"/>
+      <c r="I141" s="46"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
-      <c r="K141" s="50" t="s">
+      <c r="K141" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
-      <c r="N141" s="50"/>
-      <c r="O141" s="50"/>
-      <c r="P141" s="50"/>
-      <c r="Q141" s="50"/>
-      <c r="R141" s="50"/>
-      <c r="S141" s="50"/>
-      <c r="T141" s="50"/>
-      <c r="U141" s="50"/>
-      <c r="V141" s="50"/>
-      <c r="W141" s="50"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="46"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="46"/>
+      <c r="R141" s="46"/>
+      <c r="S141" s="46"/>
+      <c r="T141" s="46"/>
+      <c r="U141" s="46"/>
+      <c r="V141" s="46"/>
+      <c r="W141" s="46"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="50"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="49" t="s">
+      <c r="H142" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="I142" s="49"/>
+      <c r="I142" s="47"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
-      <c r="K142" s="50" t="s">
+      <c r="K142" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
-      <c r="R142" s="50"/>
-      <c r="S142" s="50"/>
-      <c r="T142" s="50"/>
-      <c r="U142" s="50"/>
-      <c r="V142" s="50"/>
-      <c r="W142" s="50"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="46"/>
+      <c r="R142" s="46"/>
+      <c r="S142" s="46"/>
+      <c r="T142" s="46"/>
+      <c r="U142" s="46"/>
+      <c r="V142" s="46"/>
+      <c r="W142" s="46"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="50"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="28" t="s">
         <v>236</v>
       </c>
@@ -7400,127 +7400,127 @@
       <c r="G143" s="29">
         <v>21</v>
       </c>
-      <c r="H143" s="50" t="s">
+      <c r="H143" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="50"/>
+      <c r="I143" s="46"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
-      <c r="K143" s="50" t="s">
+      <c r="K143" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
-      <c r="R143" s="50"/>
-      <c r="S143" s="50"/>
-      <c r="T143" s="50"/>
-      <c r="U143" s="50"/>
-      <c r="V143" s="50"/>
-      <c r="W143" s="50"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="46"/>
+      <c r="R143" s="46"/>
+      <c r="S143" s="46"/>
+      <c r="T143" s="46"/>
+      <c r="U143" s="46"/>
+      <c r="V143" s="46"/>
+      <c r="W143" s="46"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
       <c r="G144" s="29"/>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="50"/>
+      <c r="I144" s="46"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
-      <c r="K144" s="50" t="s">
+      <c r="K144" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50"/>
-      <c r="S144" s="50"/>
-      <c r="T144" s="50"/>
-      <c r="U144" s="50"/>
-      <c r="V144" s="50"/>
-      <c r="W144" s="50"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="46"/>
+      <c r="R144" s="46"/>
+      <c r="S144" s="46"/>
+      <c r="T144" s="46"/>
+      <c r="U144" s="46"/>
+      <c r="V144" s="46"/>
+      <c r="W144" s="46"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="50"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
       <c r="G145" s="29"/>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="50"/>
+      <c r="I145" s="46"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
-      <c r="K145" s="50" t="s">
+      <c r="K145" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
-      <c r="R145" s="50"/>
-      <c r="S145" s="50"/>
-      <c r="T145" s="50"/>
-      <c r="U145" s="50"/>
-      <c r="V145" s="50"/>
-      <c r="W145" s="50"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="46"/>
+      <c r="R145" s="46"/>
+      <c r="S145" s="46"/>
+      <c r="T145" s="46"/>
+      <c r="U145" s="46"/>
+      <c r="V145" s="46"/>
+      <c r="W145" s="46"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="50"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="49" t="s">
+      <c r="H146" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="49"/>
+      <c r="I146" s="47"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
-      <c r="K146" s="50" t="s">
+      <c r="K146" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="L146" s="50"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="50"/>
-      <c r="O146" s="50"/>
-      <c r="P146" s="50"/>
-      <c r="Q146" s="50"/>
-      <c r="R146" s="50"/>
-      <c r="S146" s="50"/>
-      <c r="T146" s="50"/>
-      <c r="U146" s="50"/>
-      <c r="V146" s="50"/>
-      <c r="W146" s="50"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="46"/>
+      <c r="R146" s="46"/>
+      <c r="S146" s="46"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="46"/>
+      <c r="V146" s="46"/>
+      <c r="W146" s="46"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
       <c r="E147" s="28" t="s">
         <v>242</v>
       </c>
@@ -7528,129 +7528,129 @@
       <c r="G147" s="29">
         <v>31</v>
       </c>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="50"/>
+      <c r="I147" s="46"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
-      <c r="K147" s="50" t="s">
+      <c r="K147" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="50"/>
-      <c r="O147" s="50"/>
-      <c r="P147" s="50"/>
-      <c r="Q147" s="50"/>
-      <c r="R147" s="50"/>
-      <c r="S147" s="50" t="s">
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="46"/>
+      <c r="R147" s="46"/>
+      <c r="S147" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="T147" s="50"/>
-      <c r="U147" s="50"/>
-      <c r="V147" s="50"/>
-      <c r="W147" s="50"/>
+      <c r="T147" s="46"/>
+      <c r="U147" s="46"/>
+      <c r="V147" s="46"/>
+      <c r="W147" s="46"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="50"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="50"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I148" s="50"/>
+      <c r="I148" s="46"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
-      <c r="K148" s="50" t="s">
+      <c r="K148" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="50"/>
-      <c r="O148" s="50"/>
-      <c r="P148" s="50"/>
-      <c r="Q148" s="50"/>
-      <c r="R148" s="50"/>
-      <c r="S148" s="50"/>
-      <c r="T148" s="50"/>
-      <c r="U148" s="50"/>
-      <c r="V148" s="50"/>
-      <c r="W148" s="50"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="46"/>
+      <c r="R148" s="46"/>
+      <c r="S148" s="46"/>
+      <c r="T148" s="46"/>
+      <c r="U148" s="46"/>
+      <c r="V148" s="46"/>
+      <c r="W148" s="46"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="50"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="50"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
       <c r="G149" s="29"/>
-      <c r="H149" s="50" t="s">
+      <c r="H149" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="50"/>
+      <c r="I149" s="46"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
-      <c r="K149" s="50" t="s">
+      <c r="K149" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="50"/>
-      <c r="T149" s="50"/>
-      <c r="U149" s="50"/>
-      <c r="V149" s="50"/>
-      <c r="W149" s="50"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="46"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="46"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="46"/>
+      <c r="R149" s="46"/>
+      <c r="S149" s="46"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="46"/>
+      <c r="V149" s="46"/>
+      <c r="W149" s="46"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="50"/>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="46"/>
+      <c r="F150" s="46"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="49" t="s">
+      <c r="H150" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I150" s="49"/>
+      <c r="I150" s="47"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
-      <c r="K150" s="50" t="s">
+      <c r="K150" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="50"/>
-      <c r="O150" s="50"/>
-      <c r="P150" s="50"/>
-      <c r="Q150" s="50"/>
-      <c r="R150" s="50"/>
-      <c r="S150" s="50"/>
-      <c r="T150" s="50"/>
-      <c r="U150" s="50"/>
-      <c r="V150" s="50"/>
-      <c r="W150" s="50"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="46"/>
+      <c r="P150" s="46"/>
+      <c r="Q150" s="46"/>
+      <c r="R150" s="46"/>
+      <c r="S150" s="46"/>
+      <c r="T150" s="46"/>
+      <c r="U150" s="46"/>
+      <c r="V150" s="46"/>
+      <c r="W150" s="46"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="50"/>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46"/>
       <c r="E151" s="28" t="s">
         <v>244</v>
       </c>
@@ -7658,128 +7658,128 @@
       <c r="G151" s="29">
         <v>41</v>
       </c>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="50"/>
+      <c r="I151" s="46"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
-      <c r="K151" s="50" t="s">
+      <c r="K151" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="50"/>
-      <c r="O151" s="50"/>
-      <c r="P151" s="50"/>
-      <c r="Q151" s="50"/>
-      <c r="R151" s="50"/>
-      <c r="S151" s="50"/>
-      <c r="T151" s="50"/>
-      <c r="U151" s="50"/>
-      <c r="V151" s="50"/>
-      <c r="W151" s="50"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="46"/>
+      <c r="R151" s="46"/>
+      <c r="S151" s="46"/>
+      <c r="T151" s="46"/>
+      <c r="U151" s="46"/>
+      <c r="V151" s="46"/>
+      <c r="W151" s="46"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="50"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="50" t="s">
+      <c r="H152" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I152" s="50"/>
+      <c r="I152" s="46"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
-      <c r="K152" s="50" t="s">
+      <c r="K152" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
-      <c r="N152" s="50"/>
-      <c r="O152" s="50"/>
-      <c r="P152" s="50"/>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="50"/>
-      <c r="S152" s="50"/>
-      <c r="T152" s="50"/>
-      <c r="U152" s="50"/>
-      <c r="V152" s="50"/>
-      <c r="W152" s="50"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="46"/>
+      <c r="R152" s="46"/>
+      <c r="S152" s="46"/>
+      <c r="T152" s="46"/>
+      <c r="U152" s="46"/>
+      <c r="V152" s="46"/>
+      <c r="W152" s="46"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="50" t="s">
+      <c r="H153" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I153" s="50"/>
+      <c r="I153" s="46"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
-      <c r="K153" s="50" t="s">
+      <c r="K153" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
-      <c r="N153" s="50"/>
-      <c r="O153" s="50"/>
-      <c r="P153" s="50"/>
-      <c r="Q153" s="50"/>
-      <c r="R153" s="50"/>
-      <c r="S153" s="50"/>
-      <c r="T153" s="50"/>
-      <c r="U153" s="50"/>
-      <c r="V153" s="50"/>
-      <c r="W153" s="50"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="46"/>
+      <c r="R153" s="46"/>
+      <c r="S153" s="46"/>
+      <c r="T153" s="46"/>
+      <c r="U153" s="46"/>
+      <c r="V153" s="46"/>
+      <c r="W153" s="46"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="50"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="49" t="s">
+      <c r="H154" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I154" s="49"/>
+      <c r="I154" s="47"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
-      <c r="K154" s="50" t="s">
+      <c r="K154" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="50"/>
-      <c r="P154" s="50"/>
-      <c r="Q154" s="50"/>
-      <c r="R154" s="50"/>
-      <c r="S154" s="50"/>
-      <c r="T154" s="50"/>
-      <c r="U154" s="50"/>
-      <c r="V154" s="50"/>
-      <c r="W154" s="50"/>
+      <c r="L154" s="46"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="46"/>
+      <c r="R154" s="46"/>
+      <c r="S154" s="46"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="46"/>
+      <c r="V154" s="46"/>
+      <c r="W154" s="46"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="58" t="s">
+      <c r="A155" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
       <c r="D155" s="29">
         <v>30</v>
       </c>
@@ -7788,183 +7788,183 @@
       <c r="G155" s="29">
         <v>10</v>
       </c>
-      <c r="H155" s="50" t="s">
+      <c r="H155" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="I155" s="50"/>
+      <c r="I155" s="46"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
-      <c r="K155" s="50" t="s">
+      <c r="K155" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="50"/>
-      <c r="P155" s="50"/>
-      <c r="Q155" s="50"/>
-      <c r="R155" s="50"/>
-      <c r="S155" s="50"/>
-      <c r="T155" s="50"/>
-      <c r="U155" s="50"/>
-      <c r="V155" s="50"/>
-      <c r="W155" s="50"/>
+      <c r="L155" s="46"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="46"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="46"/>
+      <c r="R155" s="46"/>
+      <c r="S155" s="46"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="46"/>
+      <c r="V155" s="46"/>
+      <c r="W155" s="46"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="50"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50"/>
+      <c r="A156" s="46"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
       <c r="G156" s="29"/>
-      <c r="H156" s="49" t="s">
+      <c r="H156" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="I156" s="49"/>
+      <c r="I156" s="47"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
-      <c r="K156" s="50" t="s">
+      <c r="K156" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="L156" s="50"/>
-      <c r="M156" s="50"/>
-      <c r="N156" s="50"/>
-      <c r="O156" s="50"/>
-      <c r="P156" s="50"/>
-      <c r="Q156" s="50"/>
-      <c r="R156" s="50"/>
-      <c r="S156" s="50"/>
-      <c r="T156" s="50"/>
-      <c r="U156" s="50"/>
-      <c r="V156" s="50"/>
-      <c r="W156" s="50"/>
+      <c r="L156" s="46"/>
+      <c r="M156" s="46"/>
+      <c r="N156" s="46"/>
+      <c r="O156" s="46"/>
+      <c r="P156" s="46"/>
+      <c r="Q156" s="46"/>
+      <c r="R156" s="46"/>
+      <c r="S156" s="46"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="46"/>
+      <c r="V156" s="46"/>
+      <c r="W156" s="46"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="50"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="50"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="50"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
       <c r="G157" s="29"/>
-      <c r="H157" s="49" t="s">
+      <c r="H157" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="I157" s="49"/>
+      <c r="I157" s="47"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
-      <c r="K157" s="50" t="s">
+      <c r="K157" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="50"/>
-      <c r="P157" s="50"/>
-      <c r="Q157" s="50"/>
-      <c r="R157" s="50"/>
-      <c r="S157" s="50"/>
-      <c r="T157" s="50"/>
-      <c r="U157" s="50"/>
-      <c r="V157" s="50"/>
-      <c r="W157" s="50"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="46"/>
+      <c r="R157" s="46"/>
+      <c r="S157" s="46"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="46"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="46"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="50"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="49" t="s">
+      <c r="H158" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="I158" s="49"/>
+      <c r="I158" s="47"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
-      <c r="K158" s="50" t="s">
+      <c r="K158" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="L158" s="50"/>
-      <c r="M158" s="50"/>
-      <c r="N158" s="50"/>
-      <c r="O158" s="50"/>
-      <c r="P158" s="50"/>
-      <c r="Q158" s="50"/>
-      <c r="R158" s="50"/>
-      <c r="S158" s="50"/>
-      <c r="T158" s="50"/>
-      <c r="U158" s="50"/>
-      <c r="V158" s="50"/>
-      <c r="W158" s="50"/>
+      <c r="L158" s="46"/>
+      <c r="M158" s="46"/>
+      <c r="N158" s="46"/>
+      <c r="O158" s="46"/>
+      <c r="P158" s="46"/>
+      <c r="Q158" s="46"/>
+      <c r="R158" s="46"/>
+      <c r="S158" s="46"/>
+      <c r="T158" s="46"/>
+      <c r="U158" s="46"/>
+      <c r="V158" s="46"/>
+      <c r="W158" s="46"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="50"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="49" t="s">
+      <c r="H159" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="I159" s="49"/>
+      <c r="I159" s="47"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
-      <c r="K159" s="50" t="s">
+      <c r="K159" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="50"/>
-      <c r="P159" s="50"/>
-      <c r="Q159" s="50"/>
-      <c r="R159" s="50"/>
-      <c r="S159" s="50"/>
-      <c r="T159" s="50"/>
-      <c r="U159" s="50"/>
-      <c r="V159" s="50"/>
-      <c r="W159" s="50"/>
+      <c r="L159" s="46"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="46"/>
+      <c r="R159" s="46"/>
+      <c r="S159" s="46"/>
+      <c r="T159" s="46"/>
+      <c r="U159" s="46"/>
+      <c r="V159" s="46"/>
+      <c r="W159" s="46"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="49" t="s">
+      <c r="H160" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="47"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
-      <c r="K160" s="50" t="s">
+      <c r="K160" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="50"/>
-      <c r="P160" s="50"/>
-      <c r="Q160" s="50"/>
-      <c r="R160" s="50"/>
-      <c r="S160" s="50"/>
-      <c r="T160" s="50"/>
-      <c r="U160" s="50"/>
-      <c r="V160" s="50"/>
-      <c r="W160" s="50"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="46"/>
+      <c r="R160" s="46"/>
+      <c r="S160" s="46"/>
+      <c r="T160" s="46"/>
+      <c r="U160" s="46"/>
+      <c r="V160" s="46"/>
+      <c r="W160" s="46"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
@@ -7973,6 +7973,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="K133:R133"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="S132:W132"/>
+    <mergeCell ref="S133:W136"/>
+    <mergeCell ref="S137:W138"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
     <mergeCell ref="S147:W160"/>
     <mergeCell ref="S139:W146"/>
     <mergeCell ref="A134:D138"/>
@@ -7997,129 +8120,6 @@
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H149:I149"/>
-    <mergeCell ref="S132:W132"/>
-    <mergeCell ref="S133:W136"/>
-    <mergeCell ref="S137:W138"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E109:Q109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8572,71 +8572,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="46">
         <v>6</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -8682,134 +8682,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="46">
         <v>0</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50">
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46">
         <v>0</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="46">
         <v>1</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50">
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46">
         <v>0</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -8885,73 +8885,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -8977,33 +8977,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -9029,62 +9029,60 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -9101,11 +9099,13 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9146,10 +9146,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:X128"/>
+  <dimension ref="B1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9585,17 +9585,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="51" t="s">
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9705,17 +9705,17 @@
       <c r="B26" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="36" t="s">
         <v>340</v>
       </c>
@@ -9724,17 +9724,17 @@
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="36" t="s">
         <v>386</v>
       </c>
@@ -9743,17 +9743,17 @@
       <c r="B28" s="36">
         <v>1</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="36">
         <v>0</v>
       </c>
@@ -9762,17 +9762,17 @@
       <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="36">
         <v>5</v>
       </c>
@@ -9781,17 +9781,17 @@
       <c r="B30" s="36">
         <v>3</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="36">
         <v>10</v>
       </c>
@@ -9800,17 +9800,17 @@
       <c r="B31" s="36">
         <v>4</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="36">
         <v>5</v>
       </c>
@@ -9819,17 +9819,17 @@
       <c r="B32" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="36">
         <v>10</v>
       </c>
@@ -9838,17 +9838,17 @@
       <c r="B33" s="36">
         <v>6</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="36">
         <v>5</v>
       </c>
@@ -9857,17 +9857,17 @@
       <c r="B34" s="36">
         <v>7</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="36">
         <v>10</v>
       </c>
@@ -9876,17 +9876,17 @@
       <c r="B35" s="36">
         <v>8</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="36">
         <v>20</v>
       </c>
@@ -9905,193 +9905,193 @@
       <c r="B39" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="40">
         <v>1</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="46">
         <v>1</v>
       </c>
-      <c r="G41" s="50"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="40">
         <v>2</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="46">
         <v>1</v>
       </c>
-      <c r="G42" s="50"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="40">
         <v>3</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="60"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="46">
         <v>2</v>
       </c>
-      <c r="G43" s="50"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="40">
         <v>4</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="46">
         <v>2</v>
       </c>
-      <c r="G44" s="50"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="40">
         <v>5</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="59"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="46">
         <v>2</v>
       </c>
-      <c r="G45" s="50"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="40">
         <v>6</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="46">
         <v>3</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="46">
         <v>3</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="40">
         <v>8</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="59"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="46">
         <v>3</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="40">
         <v>9</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="59"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="46">
         <v>3</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="40">
         <v>10</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="59"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="46">
         <v>3</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -10241,15 +10241,15 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B65" s="50" t="s">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B65" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50" t="s">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="33" t="s">
         <v>358</v>
       </c>
@@ -10263,15 +10263,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B66" s="50" t="s">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B66" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50" t="s">
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="E66" s="50"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="33" t="s">
         <v>359</v>
       </c>
@@ -10285,15 +10285,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B67" s="50">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B67" s="46">
         <v>1</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="50"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="33" t="s">
         <v>360</v>
       </c>
@@ -10307,15 +10307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B68" s="50">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B68" s="46">
         <v>2</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50" t="s">
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="50"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="33" t="s">
         <v>361</v>
       </c>
@@ -10329,15 +10329,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B69" s="50">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B69" s="46">
         <v>3</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50" t="s">
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="50"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="33" t="s">
         <v>362</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
         <v>353</v>
       </c>
@@ -10362,18 +10362,18 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>418</v>
       </c>
-      <c r="R73" t="s">
+      <c r="M73" t="s">
         <v>427</v>
       </c>
-      <c r="V73" t="s">
+      <c r="Q73" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B74" s="44" t="s">
         <v>419</v>
       </c>
@@ -10389,34 +10389,34 @@
       <c r="F74" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="G74" s="49" t="s">
+      <c r="G74" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49" t="s">
+      <c r="H74" s="47"/>
+      <c r="I74" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="J74" s="49"/>
+      <c r="J74" s="47"/>
+      <c r="M74" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>419</v>
+      </c>
       <c r="R74" s="36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S74" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="T74" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="V74" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="W74" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="X74" s="36" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B75" s="44" t="s">
         <v>420</v>
       </c>
@@ -10432,34 +10432,34 @@
       <c r="F75" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49" t="s">
+      <c r="H75" s="47"/>
+      <c r="I75" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="J75" s="49"/>
+      <c r="J75" s="47"/>
+      <c r="M75" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>420</v>
+      </c>
       <c r="R75" s="36" t="s">
         <v>420</v>
       </c>
       <c r="S75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="T75" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="V75" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="W75" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="X75" s="36" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B76" s="44">
         <v>1</v>
       </c>
@@ -10475,34 +10475,34 @@
       <c r="F76" s="44">
         <v>2</v>
       </c>
-      <c r="G76" s="49">
+      <c r="G76" s="47">
         <v>6</v>
       </c>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49">
+      <c r="H76" s="47"/>
+      <c r="I76" s="47">
         <v>0</v>
       </c>
-      <c r="J76" s="49"/>
+      <c r="J76" s="47"/>
+      <c r="M76" s="36">
+        <v>1</v>
+      </c>
+      <c r="N76" s="36">
+        <v>1</v>
+      </c>
+      <c r="O76" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="36">
+        <v>1</v>
+      </c>
       <c r="R76" s="36">
         <v>1</v>
       </c>
       <c r="S76" s="36">
-        <v>1</v>
-      </c>
-      <c r="T76" s="36">
         <v>0</v>
       </c>
-      <c r="V76" s="36">
-        <v>1</v>
-      </c>
-      <c r="W76" s="36">
-        <v>1</v>
-      </c>
-      <c r="X76" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B77" s="44">
         <v>2</v>
       </c>
@@ -10518,34 +10518,34 @@
       <c r="F77" s="44">
         <v>2</v>
       </c>
-      <c r="G77" s="49">
+      <c r="G77" s="47">
         <v>10</v>
       </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49">
+      <c r="H77" s="47"/>
+      <c r="I77" s="47">
         <v>0</v>
       </c>
-      <c r="J77" s="49"/>
+      <c r="J77" s="47"/>
+      <c r="M77" s="36">
+        <v>2</v>
+      </c>
+      <c r="N77" s="36">
+        <v>2</v>
+      </c>
+      <c r="O77" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="36">
+        <v>2</v>
+      </c>
       <c r="R77" s="36">
         <v>2</v>
       </c>
       <c r="S77" s="36">
-        <v>2</v>
-      </c>
-      <c r="T77" s="36">
         <v>0</v>
       </c>
-      <c r="V77" s="36">
-        <v>2</v>
-      </c>
-      <c r="W77" s="36">
-        <v>2</v>
-      </c>
-      <c r="X77" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B78" s="44">
         <v>3</v>
       </c>
@@ -10561,34 +10561,34 @@
       <c r="F78" s="44">
         <v>2</v>
       </c>
-      <c r="G78" s="49">
+      <c r="G78" s="47">
         <v>14</v>
       </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49">
+      <c r="H78" s="47"/>
+      <c r="I78" s="47">
         <v>0</v>
       </c>
-      <c r="J78" s="49"/>
+      <c r="J78" s="47"/>
+      <c r="M78" s="36">
+        <v>3</v>
+      </c>
+      <c r="N78" s="36">
+        <v>3</v>
+      </c>
+      <c r="O78" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="36">
+        <v>3</v>
+      </c>
       <c r="R78" s="36">
         <v>3</v>
       </c>
       <c r="S78" s="36">
-        <v>3</v>
-      </c>
-      <c r="T78" s="36">
         <v>0</v>
       </c>
-      <c r="V78" s="36">
-        <v>3</v>
-      </c>
-      <c r="W78" s="36">
-        <v>3</v>
-      </c>
-      <c r="X78" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B79" s="44">
         <v>4</v>
       </c>
@@ -10604,34 +10604,34 @@
       <c r="F79" s="44">
         <v>2</v>
       </c>
-      <c r="G79" s="49">
+      <c r="G79" s="47">
         <v>18</v>
       </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49">
+      <c r="H79" s="47"/>
+      <c r="I79" s="47">
         <v>0</v>
       </c>
-      <c r="J79" s="49"/>
+      <c r="J79" s="47"/>
+      <c r="M79" s="36">
+        <v>4</v>
+      </c>
+      <c r="N79" s="36">
+        <v>4</v>
+      </c>
+      <c r="O79" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="36">
+        <v>4</v>
+      </c>
       <c r="R79" s="36">
         <v>4</v>
       </c>
       <c r="S79" s="36">
-        <v>4</v>
-      </c>
-      <c r="T79" s="36">
         <v>0</v>
       </c>
-      <c r="V79" s="36">
-        <v>4</v>
-      </c>
-      <c r="W79" s="36">
-        <v>4</v>
-      </c>
-      <c r="X79" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B80" s="44">
         <v>5</v>
       </c>
@@ -10647,34 +10647,34 @@
       <c r="F80" s="44">
         <v>2</v>
       </c>
-      <c r="G80" s="49">
+      <c r="G80" s="47">
         <v>22</v>
       </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49">
+      <c r="H80" s="47"/>
+      <c r="I80" s="47">
         <v>0</v>
       </c>
-      <c r="J80" s="49"/>
+      <c r="J80" s="47"/>
+      <c r="M80" s="36">
+        <v>5</v>
+      </c>
+      <c r="N80" s="36">
+        <v>5</v>
+      </c>
+      <c r="O80" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="36">
+        <v>5</v>
+      </c>
       <c r="R80" s="36">
         <v>5</v>
       </c>
       <c r="S80" s="36">
-        <v>5</v>
-      </c>
-      <c r="T80" s="36">
         <v>0</v>
       </c>
-      <c r="V80" s="36">
-        <v>5</v>
-      </c>
-      <c r="W80" s="36">
-        <v>5</v>
-      </c>
-      <c r="X80" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B81" s="44">
         <v>6</v>
       </c>
@@ -10690,34 +10690,34 @@
       <c r="F81" s="28">
         <v>2</v>
       </c>
-      <c r="G81" s="49">
+      <c r="G81" s="47">
         <v>13</v>
       </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49">
+      <c r="H81" s="47"/>
+      <c r="I81" s="47">
         <v>13</v>
       </c>
-      <c r="J81" s="49"/>
+      <c r="J81" s="47"/>
+      <c r="M81" s="36">
+        <v>6</v>
+      </c>
+      <c r="N81" s="36">
+        <v>6</v>
+      </c>
+      <c r="O81" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="36">
+        <v>6</v>
+      </c>
       <c r="R81" s="36">
         <v>6</v>
       </c>
       <c r="S81" s="36">
-        <v>6</v>
-      </c>
-      <c r="T81" s="36">
-        <v>1</v>
-      </c>
-      <c r="V81" s="36">
-        <v>6</v>
-      </c>
-      <c r="W81" s="36">
-        <v>6</v>
-      </c>
-      <c r="X81" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B82" s="44">
         <v>7</v>
       </c>
@@ -10733,34 +10733,34 @@
       <c r="F82" s="28">
         <v>2</v>
       </c>
-      <c r="G82" s="49">
+      <c r="G82" s="47">
         <v>15</v>
       </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49">
+      <c r="H82" s="47"/>
+      <c r="I82" s="47">
         <v>15</v>
       </c>
-      <c r="J82" s="49"/>
+      <c r="J82" s="47"/>
+      <c r="M82" s="36">
+        <v>7</v>
+      </c>
+      <c r="N82" s="36">
+        <v>7</v>
+      </c>
+      <c r="O82" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="36">
+        <v>7</v>
+      </c>
       <c r="R82" s="36">
         <v>7</v>
       </c>
       <c r="S82" s="36">
-        <v>7</v>
-      </c>
-      <c r="T82" s="36">
-        <v>1</v>
-      </c>
-      <c r="V82" s="36">
-        <v>7</v>
-      </c>
-      <c r="W82" s="36">
-        <v>7</v>
-      </c>
-      <c r="X82" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B83" s="44">
         <v>8</v>
       </c>
@@ -10776,34 +10776,34 @@
       <c r="F83" s="28">
         <v>2</v>
       </c>
-      <c r="G83" s="49">
+      <c r="G83" s="47">
         <v>17</v>
       </c>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49">
+      <c r="H83" s="47"/>
+      <c r="I83" s="47">
         <v>17</v>
       </c>
-      <c r="J83" s="49"/>
+      <c r="J83" s="47"/>
+      <c r="M83" s="36">
+        <v>8</v>
+      </c>
+      <c r="N83" s="36">
+        <v>8</v>
+      </c>
+      <c r="O83" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="36">
+        <v>8</v>
+      </c>
       <c r="R83" s="36">
         <v>8</v>
       </c>
       <c r="S83" s="36">
-        <v>8</v>
-      </c>
-      <c r="T83" s="36">
-        <v>1</v>
-      </c>
-      <c r="V83" s="36">
-        <v>8</v>
-      </c>
-      <c r="W83" s="36">
-        <v>8</v>
-      </c>
-      <c r="X83" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B84" s="44">
         <v>9</v>
       </c>
@@ -10819,34 +10819,34 @@
       <c r="F84" s="28">
         <v>2</v>
       </c>
-      <c r="G84" s="49">
+      <c r="G84" s="47">
         <v>19</v>
       </c>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49">
+      <c r="H84" s="47"/>
+      <c r="I84" s="47">
         <v>19</v>
       </c>
-      <c r="J84" s="49"/>
+      <c r="J84" s="47"/>
+      <c r="M84" s="36">
+        <v>9</v>
+      </c>
+      <c r="N84" s="36">
+        <v>9</v>
+      </c>
+      <c r="O84" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="36">
+        <v>9</v>
+      </c>
       <c r="R84" s="36">
         <v>9</v>
       </c>
       <c r="S84" s="36">
-        <v>9</v>
-      </c>
-      <c r="T84" s="36">
-        <v>2</v>
-      </c>
-      <c r="V84" s="36">
-        <v>9</v>
-      </c>
-      <c r="W84" s="36">
-        <v>9</v>
-      </c>
-      <c r="X84" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B85" s="44">
         <v>10</v>
       </c>
@@ -10862,34 +10862,34 @@
       <c r="F85" s="28">
         <v>2</v>
       </c>
-      <c r="G85" s="49">
+      <c r="G85" s="47">
         <v>21</v>
       </c>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49">
+      <c r="H85" s="47"/>
+      <c r="I85" s="47">
         <v>21</v>
       </c>
-      <c r="J85" s="49"/>
+      <c r="J85" s="47"/>
+      <c r="M85" s="36">
+        <v>10</v>
+      </c>
+      <c r="N85" s="36">
+        <v>10</v>
+      </c>
+      <c r="O85" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="36">
+        <v>10</v>
+      </c>
       <c r="R85" s="36">
         <v>10</v>
       </c>
       <c r="S85" s="36">
-        <v>10</v>
-      </c>
-      <c r="T85" s="36">
         <v>2</v>
       </c>
-      <c r="V85" s="36">
-        <v>10</v>
-      </c>
-      <c r="W85" s="36">
-        <v>10</v>
-      </c>
-      <c r="X85" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B86" s="44">
         <v>11</v>
       </c>
@@ -10905,34 +10905,34 @@
       <c r="F86" s="28">
         <v>3</v>
       </c>
-      <c r="G86" s="49">
+      <c r="G86" s="47">
         <v>23</v>
       </c>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49">
+      <c r="H86" s="47"/>
+      <c r="I86" s="47">
         <v>23</v>
       </c>
-      <c r="J86" s="49"/>
+      <c r="J86" s="47"/>
+      <c r="M86" s="36">
+        <v>11</v>
+      </c>
+      <c r="N86" s="36">
+        <v>11</v>
+      </c>
+      <c r="O86" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="36">
+        <v>11</v>
+      </c>
       <c r="R86" s="36">
         <v>11</v>
       </c>
       <c r="S86" s="36">
-        <v>11</v>
-      </c>
-      <c r="T86" s="36">
-        <v>3</v>
-      </c>
-      <c r="V86" s="36">
-        <v>11</v>
-      </c>
-      <c r="W86" s="36">
-        <v>11</v>
-      </c>
-      <c r="X86" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B87" s="44">
         <v>12</v>
       </c>
@@ -10948,34 +10948,34 @@
       <c r="F87" s="28">
         <v>3</v>
       </c>
-      <c r="G87" s="49">
+      <c r="G87" s="47">
         <v>26</v>
       </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49">
+      <c r="H87" s="47"/>
+      <c r="I87" s="47">
         <v>25</v>
       </c>
-      <c r="J87" s="49"/>
+      <c r="J87" s="47"/>
+      <c r="M87" s="36">
+        <v>12</v>
+      </c>
+      <c r="N87" s="36">
+        <v>12</v>
+      </c>
+      <c r="O87" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="36">
+        <v>12</v>
+      </c>
       <c r="R87" s="36">
         <v>12</v>
       </c>
       <c r="S87" s="36">
-        <v>12</v>
-      </c>
-      <c r="T87" s="36">
-        <v>3</v>
-      </c>
-      <c r="V87" s="36">
-        <v>12</v>
-      </c>
-      <c r="W87" s="36">
-        <v>12</v>
-      </c>
-      <c r="X87" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B88" s="44">
         <v>13</v>
       </c>
@@ -10991,34 +10991,34 @@
       <c r="F88" s="28">
         <v>3</v>
       </c>
-      <c r="G88" s="49">
+      <c r="G88" s="47">
         <v>28</v>
       </c>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49">
+      <c r="H88" s="47"/>
+      <c r="I88" s="47">
         <v>28</v>
       </c>
-      <c r="J88" s="49"/>
+      <c r="J88" s="47"/>
+      <c r="M88" s="36">
+        <v>13</v>
+      </c>
+      <c r="N88" s="36">
+        <v>13</v>
+      </c>
+      <c r="O88" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="36">
+        <v>13</v>
+      </c>
       <c r="R88" s="36">
         <v>13</v>
       </c>
       <c r="S88" s="36">
-        <v>13</v>
-      </c>
-      <c r="T88" s="36">
-        <v>4</v>
-      </c>
-      <c r="V88" s="36">
-        <v>13</v>
-      </c>
-      <c r="W88" s="36">
-        <v>13</v>
-      </c>
-      <c r="X88" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B89" s="44">
         <v>14</v>
       </c>
@@ -11034,34 +11034,34 @@
       <c r="F89" s="28">
         <v>3</v>
       </c>
-      <c r="G89" s="49">
+      <c r="G89" s="47">
         <v>31</v>
       </c>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49">
+      <c r="H89" s="47"/>
+      <c r="I89" s="47">
         <v>31</v>
       </c>
-      <c r="J89" s="49"/>
+      <c r="J89" s="47"/>
+      <c r="M89" s="36">
+        <v>14</v>
+      </c>
+      <c r="N89" s="36">
+        <v>14</v>
+      </c>
+      <c r="O89" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="36">
+        <v>14</v>
+      </c>
       <c r="R89" s="36">
         <v>14</v>
       </c>
       <c r="S89" s="36">
-        <v>14</v>
-      </c>
-      <c r="T89" s="36">
-        <v>4</v>
-      </c>
-      <c r="V89" s="36">
-        <v>14</v>
-      </c>
-      <c r="W89" s="36">
-        <v>14</v>
-      </c>
-      <c r="X89" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B90" s="44">
         <v>15</v>
       </c>
@@ -11077,34 +11077,34 @@
       <c r="F90" s="28">
         <v>3</v>
       </c>
-      <c r="G90" s="49">
+      <c r="G90" s="47">
         <v>34</v>
       </c>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49">
+      <c r="H90" s="47"/>
+      <c r="I90" s="47">
         <v>34</v>
       </c>
-      <c r="J90" s="49"/>
+      <c r="J90" s="47"/>
+      <c r="M90" s="36">
+        <v>15</v>
+      </c>
+      <c r="N90" s="36">
+        <v>15</v>
+      </c>
+      <c r="O90" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="36">
+        <v>15</v>
+      </c>
       <c r="R90" s="36">
         <v>15</v>
       </c>
       <c r="S90" s="36">
-        <v>15</v>
-      </c>
-      <c r="T90" s="36">
-        <v>5</v>
-      </c>
-      <c r="V90" s="36">
-        <v>15</v>
-      </c>
-      <c r="W90" s="36">
-        <v>15</v>
-      </c>
-      <c r="X90" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B91" s="44">
         <v>16</v>
       </c>
@@ -11120,34 +11120,34 @@
       <c r="F91" s="28">
         <v>4</v>
       </c>
-      <c r="G91" s="49">
+      <c r="G91" s="47">
         <v>38</v>
       </c>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49">
+      <c r="H91" s="47"/>
+      <c r="I91" s="47">
         <v>37</v>
       </c>
-      <c r="J91" s="49"/>
+      <c r="J91" s="47"/>
+      <c r="M91" s="36">
+        <v>16</v>
+      </c>
+      <c r="N91" s="36">
+        <v>16</v>
+      </c>
+      <c r="O91" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="36">
+        <v>16</v>
+      </c>
       <c r="R91" s="36">
         <v>16</v>
       </c>
       <c r="S91" s="36">
-        <v>16</v>
-      </c>
-      <c r="T91" s="36">
-        <v>5</v>
-      </c>
-      <c r="V91" s="36">
-        <v>16</v>
-      </c>
-      <c r="W91" s="36">
-        <v>16</v>
-      </c>
-      <c r="X91" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B92" s="44">
         <v>17</v>
       </c>
@@ -11163,34 +11163,34 @@
       <c r="F92" s="28">
         <v>4</v>
       </c>
-      <c r="G92" s="49">
+      <c r="G92" s="47">
         <v>42</v>
       </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>41</v>
       </c>
-      <c r="J92" s="49"/>
+      <c r="J92" s="47"/>
+      <c r="M92" s="36">
+        <v>17</v>
+      </c>
+      <c r="N92" s="36">
+        <v>17</v>
+      </c>
+      <c r="O92" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="36">
+        <v>17</v>
+      </c>
       <c r="R92" s="36">
         <v>17</v>
       </c>
       <c r="S92" s="36">
-        <v>17</v>
-      </c>
-      <c r="T92" s="36">
-        <v>6</v>
-      </c>
-      <c r="V92" s="36">
-        <v>17</v>
-      </c>
-      <c r="W92" s="36">
-        <v>17</v>
-      </c>
-      <c r="X92" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B93" s="44">
         <v>18</v>
       </c>
@@ -11206,34 +11206,34 @@
       <c r="F93" s="28">
         <v>4</v>
       </c>
-      <c r="G93" s="49">
+      <c r="G93" s="47">
         <v>46</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>45</v>
       </c>
-      <c r="J93" s="49"/>
+      <c r="J93" s="47"/>
+      <c r="M93" s="36">
+        <v>18</v>
+      </c>
+      <c r="N93" s="36">
+        <v>18</v>
+      </c>
+      <c r="O93" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q93" s="36">
+        <v>18</v>
+      </c>
       <c r="R93" s="36">
         <v>18</v>
       </c>
       <c r="S93" s="36">
-        <v>18</v>
-      </c>
-      <c r="T93" s="36">
-        <v>6</v>
-      </c>
-      <c r="V93" s="36">
-        <v>18</v>
-      </c>
-      <c r="W93" s="36">
-        <v>18</v>
-      </c>
-      <c r="X93" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B94" s="44">
         <v>19</v>
       </c>
@@ -11249,34 +11249,34 @@
       <c r="F94" s="28">
         <v>4</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="47">
         <v>50</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>50</v>
       </c>
-      <c r="J94" s="49"/>
+      <c r="J94" s="47"/>
+      <c r="M94" s="36">
+        <v>19</v>
+      </c>
+      <c r="N94" s="36">
+        <v>19</v>
+      </c>
+      <c r="O94" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q94" s="36">
+        <v>19</v>
+      </c>
       <c r="R94" s="36">
         <v>19</v>
       </c>
       <c r="S94" s="36">
-        <v>19</v>
-      </c>
-      <c r="T94" s="36">
-        <v>7</v>
-      </c>
-      <c r="V94" s="36">
-        <v>19</v>
-      </c>
-      <c r="W94" s="36">
-        <v>19</v>
-      </c>
-      <c r="X94" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B95" s="44">
         <v>20</v>
       </c>
@@ -11292,34 +11292,34 @@
       <c r="F95" s="28">
         <v>4</v>
       </c>
-      <c r="G95" s="49">
+      <c r="G95" s="47">
         <v>55</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47">
         <v>55</v>
       </c>
-      <c r="J95" s="49"/>
+      <c r="J95" s="47"/>
+      <c r="M95" s="36">
+        <v>20</v>
+      </c>
+      <c r="N95" s="36">
+        <v>20</v>
+      </c>
+      <c r="O95" s="36">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="36">
+        <v>20</v>
+      </c>
       <c r="R95" s="36">
         <v>20</v>
       </c>
       <c r="S95" s="36">
-        <v>20</v>
-      </c>
-      <c r="T95" s="36">
-        <v>7</v>
-      </c>
-      <c r="V95" s="36">
-        <v>20</v>
-      </c>
-      <c r="W95" s="36">
-        <v>20</v>
-      </c>
-      <c r="X95" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B96" s="44">
         <v>21</v>
       </c>
@@ -11335,34 +11335,34 @@
       <c r="F96" s="28">
         <v>5</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G96" s="47">
         <v>61</v>
       </c>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>60</v>
       </c>
-      <c r="J96" s="49"/>
+      <c r="J96" s="47"/>
+      <c r="M96" s="36">
+        <v>21</v>
+      </c>
+      <c r="N96" s="36">
+        <v>21</v>
+      </c>
+      <c r="O96" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q96" s="36">
+        <v>21</v>
+      </c>
       <c r="R96" s="36">
         <v>21</v>
       </c>
       <c r="S96" s="36">
-        <v>21</v>
-      </c>
-      <c r="T96" s="36">
-        <v>8</v>
-      </c>
-      <c r="V96" s="36">
-        <v>21</v>
-      </c>
-      <c r="W96" s="36">
-        <v>21</v>
-      </c>
-      <c r="X96" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B97" s="44">
         <v>22</v>
       </c>
@@ -11378,34 +11378,34 @@
       <c r="F97" s="28">
         <v>5</v>
       </c>
-      <c r="G97" s="49">
+      <c r="G97" s="47">
         <v>67</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>66</v>
       </c>
-      <c r="J97" s="49"/>
+      <c r="J97" s="47"/>
+      <c r="M97" s="36">
+        <v>22</v>
+      </c>
+      <c r="N97" s="36">
+        <v>22</v>
+      </c>
+      <c r="O97" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q97" s="36">
+        <v>22</v>
+      </c>
       <c r="R97" s="36">
         <v>22</v>
       </c>
       <c r="S97" s="36">
-        <v>22</v>
-      </c>
-      <c r="T97" s="36">
-        <v>8</v>
-      </c>
-      <c r="V97" s="36">
-        <v>22</v>
-      </c>
-      <c r="W97" s="36">
-        <v>22</v>
-      </c>
-      <c r="X97" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B98" s="44">
         <v>23</v>
       </c>
@@ -11421,34 +11421,34 @@
       <c r="F98" s="28">
         <v>5</v>
       </c>
-      <c r="G98" s="49">
+      <c r="G98" s="47">
         <v>73</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>73</v>
       </c>
-      <c r="J98" s="49"/>
+      <c r="J98" s="47"/>
+      <c r="M98" s="36">
+        <v>23</v>
+      </c>
+      <c r="N98" s="36">
+        <v>23</v>
+      </c>
+      <c r="O98" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q98" s="36">
+        <v>23</v>
+      </c>
       <c r="R98" s="36">
         <v>23</v>
       </c>
       <c r="S98" s="36">
-        <v>23</v>
-      </c>
-      <c r="T98" s="36">
-        <v>9</v>
-      </c>
-      <c r="V98" s="36">
-        <v>23</v>
-      </c>
-      <c r="W98" s="36">
-        <v>23</v>
-      </c>
-      <c r="X98" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B99" s="44">
         <v>24</v>
       </c>
@@ -11464,34 +11464,34 @@
       <c r="F99" s="28">
         <v>5</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G99" s="47">
         <v>81</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47">
         <v>80</v>
       </c>
-      <c r="J99" s="49"/>
+      <c r="J99" s="47"/>
+      <c r="M99" s="36">
+        <v>24</v>
+      </c>
+      <c r="N99" s="36">
+        <v>24</v>
+      </c>
+      <c r="O99" s="36">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="36">
+        <v>24</v>
+      </c>
       <c r="R99" s="36">
         <v>24</v>
       </c>
       <c r="S99" s="36">
-        <v>24</v>
-      </c>
-      <c r="T99" s="36">
-        <v>9</v>
-      </c>
-      <c r="V99" s="36">
-        <v>24</v>
-      </c>
-      <c r="W99" s="36">
-        <v>24</v>
-      </c>
-      <c r="X99" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B100" s="44">
         <v>25</v>
       </c>
@@ -11507,34 +11507,34 @@
       <c r="F100" s="28">
         <v>5</v>
       </c>
-      <c r="G100" s="49">
+      <c r="G100" s="47">
         <v>89</v>
       </c>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49">
+      <c r="H100" s="47"/>
+      <c r="I100" s="47">
         <v>88</v>
       </c>
-      <c r="J100" s="49"/>
+      <c r="J100" s="47"/>
+      <c r="M100" s="36">
+        <v>25</v>
+      </c>
+      <c r="N100" s="36">
+        <v>25</v>
+      </c>
+      <c r="O100" s="36">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="36">
+        <v>25</v>
+      </c>
       <c r="R100" s="36">
         <v>25</v>
       </c>
       <c r="S100" s="36">
-        <v>25</v>
-      </c>
-      <c r="T100" s="36">
-        <v>10</v>
-      </c>
-      <c r="V100" s="36">
-        <v>25</v>
-      </c>
-      <c r="W100" s="36">
-        <v>25</v>
-      </c>
-      <c r="X100" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B101" s="44">
         <v>26</v>
       </c>
@@ -11550,34 +11550,34 @@
       <c r="F101" s="28">
         <v>6</v>
       </c>
-      <c r="G101" s="49">
+      <c r="G101" s="47">
         <v>98</v>
       </c>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49">
+      <c r="H101" s="47"/>
+      <c r="I101" s="47">
         <v>97</v>
       </c>
-      <c r="J101" s="49"/>
+      <c r="J101" s="47"/>
+      <c r="M101" s="36">
+        <v>26</v>
+      </c>
+      <c r="N101" s="36">
+        <v>26</v>
+      </c>
+      <c r="O101" s="36">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="36">
+        <v>26</v>
+      </c>
       <c r="R101" s="36">
         <v>26</v>
       </c>
       <c r="S101" s="36">
-        <v>26</v>
-      </c>
-      <c r="T101" s="36">
-        <v>10</v>
-      </c>
-      <c r="V101" s="36">
-        <v>26</v>
-      </c>
-      <c r="W101" s="36">
-        <v>26</v>
-      </c>
-      <c r="X101" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B102" s="44">
         <v>27</v>
       </c>
@@ -11593,34 +11593,34 @@
       <c r="F102" s="28">
         <v>6</v>
       </c>
-      <c r="G102" s="49">
+      <c r="G102" s="47">
         <v>108</v>
       </c>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49">
+      <c r="H102" s="47"/>
+      <c r="I102" s="47">
         <v>107</v>
       </c>
-      <c r="J102" s="49"/>
+      <c r="J102" s="47"/>
+      <c r="M102" s="36">
+        <v>27</v>
+      </c>
+      <c r="N102" s="36">
+        <v>27</v>
+      </c>
+      <c r="O102" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q102" s="36">
+        <v>27</v>
+      </c>
       <c r="R102" s="36">
         <v>27</v>
       </c>
       <c r="S102" s="36">
-        <v>27</v>
-      </c>
-      <c r="T102" s="36">
-        <v>11</v>
-      </c>
-      <c r="V102" s="36">
-        <v>27</v>
-      </c>
-      <c r="W102" s="36">
-        <v>27</v>
-      </c>
-      <c r="X102" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B103" s="44">
         <v>28</v>
       </c>
@@ -11636,34 +11636,34 @@
       <c r="F103" s="28">
         <v>6</v>
       </c>
-      <c r="G103" s="49">
+      <c r="G103" s="47">
         <v>119</v>
       </c>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49">
+      <c r="H103" s="47"/>
+      <c r="I103" s="47">
         <v>118</v>
       </c>
-      <c r="J103" s="49"/>
+      <c r="J103" s="47"/>
+      <c r="M103" s="36">
+        <v>28</v>
+      </c>
+      <c r="N103" s="36">
+        <v>28</v>
+      </c>
+      <c r="O103" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q103" s="36">
+        <v>28</v>
+      </c>
       <c r="R103" s="36">
         <v>28</v>
       </c>
       <c r="S103" s="36">
-        <v>28</v>
-      </c>
-      <c r="T103" s="36">
-        <v>11</v>
-      </c>
-      <c r="V103" s="36">
-        <v>28</v>
-      </c>
-      <c r="W103" s="36">
-        <v>28</v>
-      </c>
-      <c r="X103" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B104" s="44">
         <v>29</v>
       </c>
@@ -11679,34 +11679,34 @@
       <c r="F104" s="28">
         <v>6</v>
       </c>
-      <c r="G104" s="49">
+      <c r="G104" s="47">
         <v>131</v>
       </c>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49">
+      <c r="H104" s="47"/>
+      <c r="I104" s="47">
         <v>130</v>
       </c>
-      <c r="J104" s="49"/>
+      <c r="J104" s="47"/>
+      <c r="M104" s="36">
+        <v>29</v>
+      </c>
+      <c r="N104" s="36">
+        <v>29</v>
+      </c>
+      <c r="O104" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q104" s="36">
+        <v>29</v>
+      </c>
       <c r="R104" s="36">
         <v>29</v>
       </c>
       <c r="S104" s="36">
-        <v>29</v>
-      </c>
-      <c r="T104" s="36">
-        <v>12</v>
-      </c>
-      <c r="V104" s="36">
-        <v>29</v>
-      </c>
-      <c r="W104" s="36">
-        <v>29</v>
-      </c>
-      <c r="X104" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B105" s="44">
         <v>30</v>
       </c>
@@ -11722,34 +11722,34 @@
       <c r="F105" s="28">
         <v>6</v>
       </c>
-      <c r="G105" s="49">
+      <c r="G105" s="47">
         <v>144</v>
       </c>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49">
+      <c r="H105" s="47"/>
+      <c r="I105" s="47">
         <v>143</v>
       </c>
-      <c r="J105" s="49"/>
+      <c r="J105" s="47"/>
+      <c r="M105" s="36">
+        <v>30</v>
+      </c>
+      <c r="N105" s="36">
+        <v>30</v>
+      </c>
+      <c r="O105" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q105" s="36">
+        <v>30</v>
+      </c>
       <c r="R105" s="36">
         <v>30</v>
       </c>
       <c r="S105" s="36">
-        <v>30</v>
-      </c>
-      <c r="T105" s="36">
-        <v>12</v>
-      </c>
-      <c r="V105" s="36">
-        <v>30</v>
-      </c>
-      <c r="W105" s="36">
-        <v>30</v>
-      </c>
-      <c r="X105" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B106" s="44">
         <v>31</v>
       </c>
@@ -11765,34 +11765,34 @@
       <c r="F106" s="28">
         <v>7</v>
       </c>
-      <c r="G106" s="49">
+      <c r="G106" s="47">
         <v>158</v>
       </c>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49">
+      <c r="H106" s="47"/>
+      <c r="I106" s="47">
         <v>158</v>
       </c>
-      <c r="J106" s="49"/>
+      <c r="J106" s="47"/>
+      <c r="M106" s="36">
+        <v>31</v>
+      </c>
+      <c r="N106" s="36">
+        <v>31</v>
+      </c>
+      <c r="O106" s="36">
+        <v>13</v>
+      </c>
+      <c r="Q106" s="36">
+        <v>31</v>
+      </c>
       <c r="R106" s="36">
         <v>31</v>
       </c>
       <c r="S106" s="36">
-        <v>31</v>
-      </c>
-      <c r="T106" s="36">
-        <v>13</v>
-      </c>
-      <c r="V106" s="36">
-        <v>31</v>
-      </c>
-      <c r="W106" s="36">
-        <v>31</v>
-      </c>
-      <c r="X106" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B107" s="44">
         <v>32</v>
       </c>
@@ -11808,34 +11808,34 @@
       <c r="F107" s="28">
         <v>7</v>
       </c>
-      <c r="G107" s="49">
+      <c r="G107" s="47">
         <v>174</v>
       </c>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49">
+      <c r="H107" s="47"/>
+      <c r="I107" s="47">
         <v>174</v>
       </c>
-      <c r="J107" s="49"/>
+      <c r="J107" s="47"/>
+      <c r="M107" s="36">
+        <v>32</v>
+      </c>
+      <c r="N107" s="36">
+        <v>32</v>
+      </c>
+      <c r="O107" s="36">
+        <v>14</v>
+      </c>
+      <c r="Q107" s="36">
+        <v>32</v>
+      </c>
       <c r="R107" s="36">
         <v>32</v>
       </c>
       <c r="S107" s="36">
-        <v>32</v>
-      </c>
-      <c r="T107" s="36">
-        <v>14</v>
-      </c>
-      <c r="V107" s="36">
-        <v>32</v>
-      </c>
-      <c r="W107" s="36">
-        <v>32</v>
-      </c>
-      <c r="X107" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B108" s="44">
         <v>33</v>
       </c>
@@ -11851,34 +11851,34 @@
       <c r="F108" s="28">
         <v>7</v>
       </c>
-      <c r="G108" s="49">
+      <c r="G108" s="47">
         <v>192</v>
       </c>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49">
+      <c r="H108" s="47"/>
+      <c r="I108" s="47">
         <v>191</v>
       </c>
-      <c r="J108" s="49"/>
+      <c r="J108" s="47"/>
+      <c r="M108" s="36">
+        <v>33</v>
+      </c>
+      <c r="N108" s="36">
+        <v>33</v>
+      </c>
+      <c r="O108" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q108" s="36">
+        <v>33</v>
+      </c>
       <c r="R108" s="36">
         <v>33</v>
       </c>
       <c r="S108" s="36">
-        <v>33</v>
-      </c>
-      <c r="T108" s="36">
-        <v>15</v>
-      </c>
-      <c r="V108" s="36">
-        <v>33</v>
-      </c>
-      <c r="W108" s="36">
-        <v>33</v>
-      </c>
-      <c r="X108" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B109" s="44">
         <v>34</v>
       </c>
@@ -11894,34 +11894,34 @@
       <c r="F109" s="28">
         <v>7</v>
       </c>
-      <c r="G109" s="49">
+      <c r="G109" s="47">
         <v>211</v>
       </c>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49">
+      <c r="H109" s="47"/>
+      <c r="I109" s="47">
         <v>210</v>
       </c>
-      <c r="J109" s="49"/>
+      <c r="J109" s="47"/>
+      <c r="M109" s="36">
+        <v>34</v>
+      </c>
+      <c r="N109" s="36">
+        <v>34</v>
+      </c>
+      <c r="O109" s="36">
+        <v>16</v>
+      </c>
+      <c r="Q109" s="36">
+        <v>34</v>
+      </c>
       <c r="R109" s="36">
         <v>34</v>
       </c>
       <c r="S109" s="36">
-        <v>34</v>
-      </c>
-      <c r="T109" s="36">
-        <v>16</v>
-      </c>
-      <c r="V109" s="36">
-        <v>34</v>
-      </c>
-      <c r="W109" s="36">
-        <v>34</v>
-      </c>
-      <c r="X109" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B110" s="44">
         <v>35</v>
       </c>
@@ -11937,34 +11937,34 @@
       <c r="F110" s="28">
         <v>7</v>
       </c>
-      <c r="G110" s="49">
+      <c r="G110" s="47">
         <v>232</v>
       </c>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49">
+      <c r="H110" s="47"/>
+      <c r="I110" s="47">
         <v>231</v>
       </c>
-      <c r="J110" s="49"/>
+      <c r="J110" s="47"/>
+      <c r="M110" s="36">
+        <v>35</v>
+      </c>
+      <c r="N110" s="36">
+        <v>35</v>
+      </c>
+      <c r="O110" s="36">
+        <v>17</v>
+      </c>
+      <c r="Q110" s="36">
+        <v>35</v>
+      </c>
       <c r="R110" s="36">
         <v>35</v>
       </c>
       <c r="S110" s="36">
-        <v>35</v>
-      </c>
-      <c r="T110" s="36">
-        <v>17</v>
-      </c>
-      <c r="V110" s="36">
-        <v>35</v>
-      </c>
-      <c r="W110" s="36">
-        <v>35</v>
-      </c>
-      <c r="X110" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B111" s="44">
         <v>36</v>
       </c>
@@ -11980,34 +11980,34 @@
       <c r="F111" s="28">
         <v>8</v>
       </c>
-      <c r="G111" s="49">
+      <c r="G111" s="47">
         <v>255</v>
       </c>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49">
+      <c r="H111" s="47"/>
+      <c r="I111" s="47">
         <v>254</v>
       </c>
-      <c r="J111" s="49"/>
+      <c r="J111" s="47"/>
+      <c r="M111" s="36">
+        <v>36</v>
+      </c>
+      <c r="N111" s="36">
+        <v>36</v>
+      </c>
+      <c r="O111" s="36">
+        <v>18</v>
+      </c>
+      <c r="Q111" s="36">
+        <v>36</v>
+      </c>
       <c r="R111" s="36">
         <v>36</v>
       </c>
       <c r="S111" s="36">
-        <v>36</v>
-      </c>
-      <c r="T111" s="36">
-        <v>18</v>
-      </c>
-      <c r="V111" s="36">
-        <v>36</v>
-      </c>
-      <c r="W111" s="36">
-        <v>36</v>
-      </c>
-      <c r="X111" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B112" s="44">
         <v>37</v>
       </c>
@@ -12023,34 +12023,34 @@
       <c r="F112" s="28">
         <v>8</v>
       </c>
-      <c r="G112" s="49">
+      <c r="G112" s="47">
         <v>280</v>
       </c>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49">
+      <c r="H112" s="47"/>
+      <c r="I112" s="47">
         <v>280</v>
       </c>
-      <c r="J112" s="49"/>
+      <c r="J112" s="47"/>
+      <c r="M112" s="36">
+        <v>37</v>
+      </c>
+      <c r="N112" s="36">
+        <v>37</v>
+      </c>
+      <c r="O112" s="36">
+        <v>19</v>
+      </c>
+      <c r="Q112" s="36">
+        <v>37</v>
+      </c>
       <c r="R112" s="36">
         <v>37</v>
       </c>
       <c r="S112" s="36">
-        <v>37</v>
-      </c>
-      <c r="T112" s="36">
-        <v>19</v>
-      </c>
-      <c r="V112" s="36">
-        <v>37</v>
-      </c>
-      <c r="W112" s="36">
-        <v>37</v>
-      </c>
-      <c r="X112" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B113" s="44">
         <v>38</v>
       </c>
@@ -12066,34 +12066,34 @@
       <c r="F113" s="28">
         <v>8</v>
       </c>
-      <c r="G113" s="49">
+      <c r="G113" s="47">
         <v>308</v>
       </c>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49">
+      <c r="H113" s="47"/>
+      <c r="I113" s="47">
         <v>308</v>
       </c>
-      <c r="J113" s="49"/>
+      <c r="J113" s="47"/>
+      <c r="M113" s="36">
+        <v>38</v>
+      </c>
+      <c r="N113" s="36">
+        <v>38</v>
+      </c>
+      <c r="O113" s="36">
+        <v>20</v>
+      </c>
+      <c r="Q113" s="36">
+        <v>38</v>
+      </c>
       <c r="R113" s="36">
         <v>38</v>
       </c>
       <c r="S113" s="36">
-        <v>38</v>
-      </c>
-      <c r="T113" s="36">
-        <v>20</v>
-      </c>
-      <c r="V113" s="36">
-        <v>38</v>
-      </c>
-      <c r="W113" s="36">
-        <v>38</v>
-      </c>
-      <c r="X113" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B114" s="44">
         <v>39</v>
       </c>
@@ -12109,34 +12109,34 @@
       <c r="F114" s="28">
         <v>8</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="47">
         <v>339</v>
       </c>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49">
+      <c r="H114" s="47"/>
+      <c r="I114" s="47">
         <v>339</v>
       </c>
-      <c r="J114" s="49"/>
+      <c r="J114" s="47"/>
+      <c r="M114" s="36">
+        <v>39</v>
+      </c>
+      <c r="N114" s="36">
+        <v>39</v>
+      </c>
+      <c r="O114" s="36">
+        <v>21</v>
+      </c>
+      <c r="Q114" s="36">
+        <v>39</v>
+      </c>
       <c r="R114" s="36">
         <v>39</v>
       </c>
       <c r="S114" s="36">
-        <v>39</v>
-      </c>
-      <c r="T114" s="36">
-        <v>21</v>
-      </c>
-      <c r="V114" s="36">
-        <v>39</v>
-      </c>
-      <c r="W114" s="36">
-        <v>39</v>
-      </c>
-      <c r="X114" s="36">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B115" s="44">
         <v>40</v>
       </c>
@@ -12152,34 +12152,34 @@
       <c r="F115" s="28">
         <v>8</v>
       </c>
-      <c r="G115" s="49">
+      <c r="G115" s="47">
         <v>373</v>
       </c>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49">
+      <c r="H115" s="47"/>
+      <c r="I115" s="47">
         <v>373</v>
       </c>
-      <c r="J115" s="49"/>
+      <c r="J115" s="47"/>
+      <c r="M115" s="36">
+        <v>40</v>
+      </c>
+      <c r="N115" s="36">
+        <v>40</v>
+      </c>
+      <c r="O115" s="36">
+        <v>22</v>
+      </c>
+      <c r="Q115" s="36">
+        <v>40</v>
+      </c>
       <c r="R115" s="36">
         <v>40</v>
       </c>
       <c r="S115" s="36">
-        <v>40</v>
-      </c>
-      <c r="T115" s="36">
-        <v>22</v>
-      </c>
-      <c r="V115" s="36">
-        <v>40</v>
-      </c>
-      <c r="W115" s="36">
-        <v>40</v>
-      </c>
-      <c r="X115" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B116" s="44">
         <v>41</v>
       </c>
@@ -12195,34 +12195,34 @@
       <c r="F116" s="28">
         <v>9</v>
       </c>
-      <c r="G116" s="49">
+      <c r="G116" s="47">
         <v>429</v>
       </c>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49">
+      <c r="H116" s="47"/>
+      <c r="I116" s="47">
         <v>429</v>
       </c>
-      <c r="J116" s="49"/>
+      <c r="J116" s="47"/>
+      <c r="M116" s="36">
+        <v>41</v>
+      </c>
+      <c r="N116" s="36">
+        <v>41</v>
+      </c>
+      <c r="O116" s="36">
+        <v>24</v>
+      </c>
+      <c r="Q116" s="36">
+        <v>41</v>
+      </c>
       <c r="R116" s="36">
         <v>41</v>
       </c>
       <c r="S116" s="36">
-        <v>41</v>
-      </c>
-      <c r="T116" s="36">
-        <v>24</v>
-      </c>
-      <c r="V116" s="36">
-        <v>41</v>
-      </c>
-      <c r="W116" s="36">
-        <v>41</v>
-      </c>
-      <c r="X116" s="36">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B117" s="44">
         <v>42</v>
       </c>
@@ -12238,34 +12238,34 @@
       <c r="F117" s="28">
         <v>9</v>
       </c>
-      <c r="G117" s="49">
+      <c r="G117" s="47">
         <v>494</v>
       </c>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49">
+      <c r="H117" s="47"/>
+      <c r="I117" s="47">
         <v>493</v>
       </c>
-      <c r="J117" s="49"/>
+      <c r="J117" s="47"/>
+      <c r="M117" s="36">
+        <v>42</v>
+      </c>
+      <c r="N117" s="36">
+        <v>42</v>
+      </c>
+      <c r="O117" s="36">
+        <v>26</v>
+      </c>
+      <c r="Q117" s="36">
+        <v>42</v>
+      </c>
       <c r="R117" s="36">
         <v>42</v>
       </c>
       <c r="S117" s="36">
-        <v>42</v>
-      </c>
-      <c r="T117" s="36">
-        <v>26</v>
-      </c>
-      <c r="V117" s="36">
-        <v>42</v>
-      </c>
-      <c r="W117" s="36">
-        <v>42</v>
-      </c>
-      <c r="X117" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B118" s="44">
         <v>43</v>
       </c>
@@ -12281,34 +12281,34 @@
       <c r="F118" s="28">
         <v>9</v>
       </c>
-      <c r="G118" s="49">
+      <c r="G118" s="47">
         <v>568</v>
       </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49">
+      <c r="H118" s="47"/>
+      <c r="I118" s="47">
         <v>567</v>
       </c>
-      <c r="J118" s="49"/>
+      <c r="J118" s="47"/>
+      <c r="M118" s="36">
+        <v>43</v>
+      </c>
+      <c r="N118" s="36">
+        <v>43</v>
+      </c>
+      <c r="O118" s="36">
+        <v>28</v>
+      </c>
+      <c r="Q118" s="36">
+        <v>43</v>
+      </c>
       <c r="R118" s="36">
         <v>43</v>
       </c>
       <c r="S118" s="36">
-        <v>43</v>
-      </c>
-      <c r="T118" s="36">
-        <v>28</v>
-      </c>
-      <c r="V118" s="36">
-        <v>43</v>
-      </c>
-      <c r="W118" s="36">
-        <v>43</v>
-      </c>
-      <c r="X118" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B119" s="44">
         <v>44</v>
       </c>
@@ -12324,34 +12324,34 @@
       <c r="F119" s="28">
         <v>9</v>
       </c>
-      <c r="G119" s="49">
+      <c r="G119" s="47">
         <v>653</v>
       </c>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49">
+      <c r="H119" s="47"/>
+      <c r="I119" s="47">
         <v>652</v>
       </c>
-      <c r="J119" s="49"/>
+      <c r="J119" s="47"/>
+      <c r="M119" s="36">
+        <v>44</v>
+      </c>
+      <c r="N119" s="36">
+        <v>44</v>
+      </c>
+      <c r="O119" s="36">
+        <v>30</v>
+      </c>
+      <c r="Q119" s="36">
+        <v>44</v>
+      </c>
       <c r="R119" s="36">
         <v>44</v>
       </c>
       <c r="S119" s="36">
-        <v>44</v>
-      </c>
-      <c r="T119" s="36">
-        <v>30</v>
-      </c>
-      <c r="V119" s="36">
-        <v>44</v>
-      </c>
-      <c r="W119" s="36">
-        <v>44</v>
-      </c>
-      <c r="X119" s="36">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B120" s="44">
         <v>45</v>
       </c>
@@ -12367,34 +12367,34 @@
       <c r="F120" s="28">
         <v>9</v>
       </c>
-      <c r="G120" s="49">
+      <c r="G120" s="47">
         <v>751</v>
       </c>
-      <c r="H120" s="49"/>
-      <c r="I120" s="49">
+      <c r="H120" s="47"/>
+      <c r="I120" s="47">
         <v>750</v>
       </c>
-      <c r="J120" s="49"/>
+      <c r="J120" s="47"/>
+      <c r="M120" s="36">
+        <v>45</v>
+      </c>
+      <c r="N120" s="36">
+        <v>45</v>
+      </c>
+      <c r="O120" s="36">
+        <v>32</v>
+      </c>
+      <c r="Q120" s="36">
+        <v>45</v>
+      </c>
       <c r="R120" s="36">
         <v>45</v>
       </c>
       <c r="S120" s="36">
-        <v>45</v>
-      </c>
-      <c r="T120" s="36">
-        <v>32</v>
-      </c>
-      <c r="V120" s="36">
-        <v>45</v>
-      </c>
-      <c r="W120" s="36">
-        <v>45</v>
-      </c>
-      <c r="X120" s="36">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B121" s="44">
         <v>46</v>
       </c>
@@ -12410,34 +12410,34 @@
       <c r="F121" s="28">
         <v>3</v>
       </c>
-      <c r="G121" s="49">
+      <c r="G121" s="47">
         <v>863</v>
       </c>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49">
+      <c r="H121" s="47"/>
+      <c r="I121" s="47">
         <v>863</v>
       </c>
-      <c r="J121" s="49"/>
+      <c r="J121" s="47"/>
+      <c r="M121" s="36">
+        <v>46</v>
+      </c>
+      <c r="N121" s="36">
+        <v>46</v>
+      </c>
+      <c r="O121" s="36">
+        <v>36</v>
+      </c>
+      <c r="Q121" s="36">
+        <v>46</v>
+      </c>
       <c r="R121" s="36">
         <v>46</v>
       </c>
       <c r="S121" s="36">
-        <v>46</v>
-      </c>
-      <c r="T121" s="36">
-        <v>36</v>
-      </c>
-      <c r="V121" s="36">
-        <v>46</v>
-      </c>
-      <c r="W121" s="36">
-        <v>46</v>
-      </c>
-      <c r="X121" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B122" s="44">
         <v>47</v>
       </c>
@@ -12453,34 +12453,34 @@
       <c r="F122" s="28">
         <v>4</v>
       </c>
-      <c r="G122" s="49">
+      <c r="G122" s="47">
         <v>993</v>
       </c>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49">
+      <c r="H122" s="47"/>
+      <c r="I122" s="47">
         <v>992</v>
       </c>
-      <c r="J122" s="49"/>
+      <c r="J122" s="47"/>
+      <c r="M122" s="36">
+        <v>47</v>
+      </c>
+      <c r="N122" s="36">
+        <v>47</v>
+      </c>
+      <c r="O122" s="36">
+        <v>40</v>
+      </c>
+      <c r="Q122" s="36">
+        <v>47</v>
+      </c>
       <c r="R122" s="36">
         <v>47</v>
       </c>
       <c r="S122" s="36">
-        <v>47</v>
-      </c>
-      <c r="T122" s="36">
-        <v>40</v>
-      </c>
-      <c r="V122" s="36">
-        <v>47</v>
-      </c>
-      <c r="W122" s="36">
-        <v>47</v>
-      </c>
-      <c r="X122" s="36">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B123" s="44">
         <v>48</v>
       </c>
@@ -12496,34 +12496,34 @@
       <c r="F123" s="28">
         <v>5</v>
       </c>
-      <c r="G123" s="49">
+      <c r="G123" s="47">
         <v>1142</v>
       </c>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49">
+      <c r="H123" s="47"/>
+      <c r="I123" s="47">
         <v>1141</v>
       </c>
-      <c r="J123" s="49"/>
+      <c r="J123" s="47"/>
+      <c r="M123" s="36">
+        <v>48</v>
+      </c>
+      <c r="N123" s="36">
+        <v>48</v>
+      </c>
+      <c r="O123" s="36">
+        <v>44</v>
+      </c>
+      <c r="Q123" s="36">
+        <v>48</v>
+      </c>
       <c r="R123" s="36">
         <v>48</v>
       </c>
       <c r="S123" s="36">
-        <v>48</v>
-      </c>
-      <c r="T123" s="36">
-        <v>44</v>
-      </c>
-      <c r="V123" s="36">
-        <v>48</v>
-      </c>
-      <c r="W123" s="36">
-        <v>48</v>
-      </c>
-      <c r="X123" s="36">
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B124" s="44">
         <v>49</v>
       </c>
@@ -12539,34 +12539,34 @@
       <c r="F124" s="28">
         <v>6</v>
       </c>
-      <c r="G124" s="49">
+      <c r="G124" s="47">
         <v>1313</v>
       </c>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49">
+      <c r="H124" s="47"/>
+      <c r="I124" s="47">
         <v>1312</v>
       </c>
-      <c r="J124" s="49"/>
+      <c r="J124" s="47"/>
+      <c r="M124" s="36">
+        <v>49</v>
+      </c>
+      <c r="N124" s="36">
+        <v>49</v>
+      </c>
+      <c r="O124" s="36">
+        <v>48</v>
+      </c>
+      <c r="Q124" s="36">
+        <v>49</v>
+      </c>
       <c r="R124" s="36">
         <v>49</v>
       </c>
       <c r="S124" s="36">
-        <v>49</v>
-      </c>
-      <c r="T124" s="36">
-        <v>48</v>
-      </c>
-      <c r="V124" s="36">
-        <v>49</v>
-      </c>
-      <c r="W124" s="36">
-        <v>49</v>
-      </c>
-      <c r="X124" s="36">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B125" s="44">
         <v>50</v>
       </c>
@@ -12582,62 +12582,62 @@
       <c r="F125" s="28">
         <v>7</v>
       </c>
-      <c r="G125" s="49">
+      <c r="G125" s="47">
         <v>1510</v>
       </c>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49">
+      <c r="H125" s="47"/>
+      <c r="I125" s="47">
         <v>1509</v>
       </c>
-      <c r="J125" s="49"/>
+      <c r="J125" s="47"/>
+      <c r="M125" s="36">
+        <v>50</v>
+      </c>
+      <c r="N125" s="36">
+        <v>50</v>
+      </c>
+      <c r="O125" s="36">
+        <v>52</v>
+      </c>
+      <c r="Q125" s="36">
+        <v>50</v>
+      </c>
       <c r="R125" s="36">
         <v>50</v>
       </c>
       <c r="S125" s="36">
-        <v>50</v>
-      </c>
-      <c r="T125" s="36">
-        <v>52</v>
-      </c>
-      <c r="V125" s="36">
-        <v>50</v>
-      </c>
-      <c r="W125" s="36">
-        <v>50</v>
-      </c>
-      <c r="X125" s="36">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
         <v>445</v>
       </c>
       <c r="D126" t="s">
         <v>446</v>
       </c>
-      <c r="G126" s="61" t="s">
+      <c r="G126" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="H126" s="61"/>
-      <c r="I126" s="62" t="s">
+      <c r="H126" s="59"/>
+      <c r="I126" s="60" t="s">
         <v>477</v>
       </c>
-      <c r="J126" s="62"/>
+      <c r="J126" s="60"/>
+      <c r="N126" t="s">
+        <v>445</v>
+      </c>
+      <c r="O126" t="s">
+        <v>447</v>
+      </c>
+      <c r="R126" t="s">
+        <v>445</v>
+      </c>
       <c r="S126" t="s">
-        <v>445</v>
-      </c>
-      <c r="T126" t="s">
         <v>447</v>
       </c>
-      <c r="W126" t="s">
-        <v>445</v>
-      </c>
-      <c r="X126" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E127" t="s">
         <v>478</v>
       </c>
@@ -12645,128 +12645,24 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E128" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D65:E65"/>
@@ -12791,15 +12687,16 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F40:G40"/>
@@ -12812,8 +12709,111 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7676EB-96FD-4D29-827F-D28229BAEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78736303-2D66-4385-8D4A-5FB7ACE3E1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
@@ -2246,15 +2246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2264,16 +2255,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2285,16 +2270,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5439,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -5609,14 +5609,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5632,14 +5632,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5655,14 +5655,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5678,14 +5678,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5719,10 +5719,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5734,10 +5734,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5747,26 +5747,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5776,24 +5776,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="51"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5803,24 +5803,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="51"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5830,24 +5830,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="51"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5857,24 +5857,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="51"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -5906,10 +5906,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -5923,10 +5923,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -5938,13 +5938,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -5953,10 +5953,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="46"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -5968,13 +5968,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -5983,10 +5983,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -5998,13 +5998,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6013,10 +6013,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="46"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -6028,13 +6028,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6043,10 +6043,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="46"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6058,13 +6058,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6073,10 +6073,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6088,13 +6088,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6103,10 +6103,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6118,13 +6118,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6133,10 +6133,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6148,13 +6148,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6163,10 +6163,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6190,10 +6190,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6205,10 +6205,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="46"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6219,19 +6219,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="49" t="s">
+      <c r="H71" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="51"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="48"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6246,10 +6246,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="46"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6260,19 +6260,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="49" t="s">
+      <c r="H72" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="51"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="48"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6287,10 +6287,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="46"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6301,19 +6301,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="51"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="48"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6328,10 +6328,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="55"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="24" t="s">
         <v>119</v>
       </c>
@@ -6342,19 +6342,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="49" t="s">
+      <c r="H74" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="51"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="48"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6369,10 +6369,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="55"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="6" t="s">
         <v>120</v>
       </c>
@@ -6383,19 +6383,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="49" t="s">
+      <c r="H75" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
-      <c r="R75" s="51"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6410,10 +6410,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="55"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="6" t="s">
         <v>121</v>
       </c>
@@ -6424,19 +6424,19 @@
       <c r="G76" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="49" t="s">
+      <c r="H76" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="51"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6451,10 +6451,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="54"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
@@ -6465,19 +6465,19 @@
       <c r="G77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="49" t="s">
+      <c r="H77" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
-      <c r="R77" s="51"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="48"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6492,10 +6492,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="54"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="6" t="s">
         <v>123</v>
       </c>
@@ -6506,19 +6506,19 @@
       <c r="G78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="51"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6533,10 +6533,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="6" t="s">
         <v>124</v>
       </c>
@@ -6547,19 +6547,19 @@
       <c r="G79" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="49" t="s">
+      <c r="H79" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="51"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="48"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6574,10 +6574,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="6" t="s">
         <v>125</v>
       </c>
@@ -6588,19 +6588,19 @@
       <c r="G80" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="49" t="s">
+      <c r="H80" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="51"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="48"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6615,10 +6615,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="54"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -6691,12 +6691,12 @@
       <c r="D91" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
@@ -6708,12 +6708,12 @@
       <c r="D92" s="6">
         <v>1</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
@@ -6725,12 +6725,12 @@
       <c r="D93" s="6">
         <v>2</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E93" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
@@ -6742,12 +6742,12 @@
       <c r="D94" s="6">
         <v>3</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
@@ -6759,12 +6759,12 @@
       <c r="D95" s="6">
         <v>4</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E95" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
@@ -6776,12 +6776,12 @@
       <c r="D96" s="6">
         <v>5</v>
       </c>
-      <c r="E96" s="46" t="s">
+      <c r="E96" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
@@ -6824,21 +6824,21 @@
       <c r="D107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E107" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
+      <c r="Q107" s="50"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
@@ -6850,21 +6850,21 @@
       <c r="D108" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="46" t="s">
+      <c r="E108" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="46"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
@@ -6876,21 +6876,21 @@
       <c r="D109" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="46" t="s">
+      <c r="E109" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6902,21 +6902,21 @@
       <c r="D110" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="46" t="s">
+      <c r="E110" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="50"/>
+      <c r="P110" s="50"/>
+      <c r="Q110" s="50"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D111" s="14" t="s">
@@ -6942,37 +6942,37 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="46"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="46"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="46"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="46"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="6">
         <v>6</v>
       </c>
@@ -7008,123 +7008,123 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E132" s="52" t="s">
+      <c r="E132" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F132" s="52"/>
+      <c r="F132" s="57"/>
       <c r="G132" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="H132" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="48"/>
+      <c r="I132" s="54"/>
       <c r="J132" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K132" s="48" t="s">
+      <c r="K132" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L132" s="48"/>
-      <c r="M132" s="48"/>
-      <c r="N132" s="48"/>
-      <c r="O132" s="48"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="48"/>
-      <c r="R132" s="48"/>
-      <c r="S132" s="48" t="s">
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
+      <c r="P132" s="54"/>
+      <c r="Q132" s="54"/>
+      <c r="R132" s="54"/>
+      <c r="S132" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="T132" s="48"/>
-      <c r="U132" s="48"/>
-      <c r="V132" s="48"/>
-      <c r="W132" s="48"/>
+      <c r="T132" s="54"/>
+      <c r="U132" s="54"/>
+      <c r="V132" s="54"/>
+      <c r="W132" s="54"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="29">
         <v>10</v>
       </c>
-      <c r="E133" s="53" t="s">
+      <c r="E133" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="F133" s="53"/>
+      <c r="F133" s="58"/>
       <c r="G133" s="29">
         <v>11</v>
       </c>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
       <c r="J133" s="29">
         <v>10</v>
       </c>
-      <c r="K133" s="46" t="s">
+      <c r="K133" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
-      <c r="S133" s="46" t="s">
+      <c r="L133" s="50"/>
+      <c r="M133" s="50"/>
+      <c r="N133" s="50"/>
+      <c r="O133" s="50"/>
+      <c r="P133" s="50"/>
+      <c r="Q133" s="50"/>
+      <c r="R133" s="50"/>
+      <c r="S133" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="T133" s="46"/>
-      <c r="U133" s="46"/>
-      <c r="V133" s="46"/>
-      <c r="W133" s="46"/>
+      <c r="T133" s="50"/>
+      <c r="U133" s="50"/>
+      <c r="V133" s="50"/>
+      <c r="W133" s="50"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="46"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="53" t="s">
+      <c r="A134" s="50"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="F134" s="53"/>
+      <c r="F134" s="58"/>
       <c r="G134" s="29">
         <v>21</v>
       </c>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
       <c r="J134" s="29">
         <v>10</v>
       </c>
-      <c r="K134" s="46" t="s">
+      <c r="K134" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="46"/>
-      <c r="R134" s="46"/>
-      <c r="S134" s="46"/>
-      <c r="T134" s="46"/>
-      <c r="U134" s="46"/>
-      <c r="V134" s="46"/>
-      <c r="W134" s="46"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="46"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
+      <c r="A135" s="50"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
       <c r="E135" s="29" t="s">
         <v>238</v>
       </c>
@@ -7132,32 +7132,32 @@
       <c r="G135" s="29">
         <v>31</v>
       </c>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="46" t="s">
+      <c r="K135" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="46"/>
-      <c r="R135" s="46"/>
-      <c r="S135" s="46"/>
-      <c r="T135" s="46"/>
-      <c r="U135" s="46"/>
-      <c r="V135" s="46"/>
-      <c r="W135" s="46"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
+      <c r="Q135" s="50"/>
+      <c r="R135" s="50"/>
+      <c r="S135" s="50"/>
+      <c r="T135" s="50"/>
+      <c r="U135" s="50"/>
+      <c r="V135" s="50"/>
+      <c r="W135" s="50"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="46"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
       <c r="E136" s="28" t="s">
         <v>240</v>
       </c>
@@ -7165,32 +7165,32 @@
       <c r="G136" s="29">
         <v>41</v>
       </c>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="47" t="s">
+      <c r="K136" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="47"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="47"/>
-      <c r="Q136" s="47"/>
-      <c r="R136" s="47"/>
-      <c r="S136" s="46"/>
-      <c r="T136" s="46"/>
-      <c r="U136" s="46"/>
-      <c r="V136" s="46"/>
-      <c r="W136" s="46"/>
+      <c r="L136" s="49"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="49"/>
+      <c r="O136" s="49"/>
+      <c r="P136" s="49"/>
+      <c r="Q136" s="49"/>
+      <c r="R136" s="49"/>
+      <c r="S136" s="50"/>
+      <c r="T136" s="50"/>
+      <c r="U136" s="50"/>
+      <c r="V136" s="50"/>
+      <c r="W136" s="50"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="46"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
       <c r="E137" s="28" t="s">
         <v>242</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="G137" s="29">
         <v>51</v>
       </c>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="47" t="s">
+      <c r="K137" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-      <c r="N137" s="47"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="47"/>
-      <c r="Q137" s="47"/>
-      <c r="R137" s="47"/>
-      <c r="S137" s="46" t="s">
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="49"/>
+      <c r="R137" s="49"/>
+      <c r="S137" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="T137" s="46"/>
-      <c r="U137" s="46"/>
-      <c r="V137" s="46"/>
-      <c r="W137" s="46"/>
+      <c r="T137" s="50"/>
+      <c r="U137" s="50"/>
+      <c r="V137" s="50"/>
+      <c r="W137" s="50"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="46"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
+      <c r="A138" s="50"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
       <c r="E138" s="28" t="s">
         <v>244</v>
       </c>
@@ -7233,33 +7233,33 @@
       <c r="G138" s="29">
         <v>61</v>
       </c>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="47" t="s">
+      <c r="K138" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="L138" s="47"/>
-      <c r="M138" s="47"/>
-      <c r="N138" s="47"/>
-      <c r="O138" s="47"/>
-      <c r="P138" s="47"/>
-      <c r="Q138" s="47"/>
-      <c r="R138" s="47"/>
-      <c r="S138" s="46"/>
-      <c r="T138" s="46"/>
-      <c r="U138" s="46"/>
-      <c r="V138" s="46"/>
-      <c r="W138" s="46"/>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+      <c r="O138" s="49"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="49"/>
+      <c r="S138" s="50"/>
+      <c r="T138" s="50"/>
+      <c r="U138" s="50"/>
+      <c r="V138" s="50"/>
+      <c r="W138" s="50"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="53" t="s">
+      <c r="A139" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="53"/>
-      <c r="C139" s="53"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="58"/>
       <c r="D139" s="29">
         <v>20</v>
       </c>
@@ -7270,129 +7270,129 @@
       <c r="G139" s="29">
         <v>11</v>
       </c>
-      <c r="H139" s="46" t="s">
+      <c r="H139" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="46"/>
+      <c r="I139" s="50"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
-      <c r="K139" s="46" t="s">
+      <c r="K139" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
-      <c r="Q139" s="46"/>
-      <c r="R139" s="46"/>
-      <c r="S139" s="46" t="s">
+      <c r="L139" s="50"/>
+      <c r="M139" s="50"/>
+      <c r="N139" s="50"/>
+      <c r="O139" s="50"/>
+      <c r="P139" s="50"/>
+      <c r="Q139" s="50"/>
+      <c r="R139" s="50"/>
+      <c r="S139" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="T139" s="46"/>
-      <c r="U139" s="46"/>
-      <c r="V139" s="46"/>
-      <c r="W139" s="46"/>
+      <c r="T139" s="50"/>
+      <c r="U139" s="50"/>
+      <c r="V139" s="50"/>
+      <c r="W139" s="50"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="46"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="46" t="s">
+      <c r="H140" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I140" s="46"/>
+      <c r="I140" s="50"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
-      <c r="K140" s="46" t="s">
+      <c r="K140" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
-      <c r="S140" s="46"/>
-      <c r="T140" s="46"/>
-      <c r="U140" s="46"/>
-      <c r="V140" s="46"/>
-      <c r="W140" s="46"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="50"/>
+      <c r="N140" s="50"/>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="50"/>
+      <c r="S140" s="50"/>
+      <c r="T140" s="50"/>
+      <c r="U140" s="50"/>
+      <c r="V140" s="50"/>
+      <c r="W140" s="50"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="46"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="46" t="s">
+      <c r="H141" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I141" s="46"/>
+      <c r="I141" s="50"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
-      <c r="K141" s="46" t="s">
+      <c r="K141" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="L141" s="46"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="46"/>
-      <c r="R141" s="46"/>
-      <c r="S141" s="46"/>
-      <c r="T141" s="46"/>
-      <c r="U141" s="46"/>
-      <c r="V141" s="46"/>
-      <c r="W141" s="46"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="50"/>
+      <c r="S141" s="50"/>
+      <c r="T141" s="50"/>
+      <c r="U141" s="50"/>
+      <c r="V141" s="50"/>
+      <c r="W141" s="50"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="46"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="47" t="s">
+      <c r="H142" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="I142" s="47"/>
+      <c r="I142" s="49"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
-      <c r="K142" s="46" t="s">
+      <c r="K142" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="46"/>
-      <c r="U142" s="46"/>
-      <c r="V142" s="46"/>
-      <c r="W142" s="46"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="50"/>
+      <c r="S142" s="50"/>
+      <c r="T142" s="50"/>
+      <c r="U142" s="50"/>
+      <c r="V142" s="50"/>
+      <c r="W142" s="50"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
+      <c r="A143" s="50"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
       <c r="E143" s="28" t="s">
         <v>236</v>
       </c>
@@ -7400,127 +7400,127 @@
       <c r="G143" s="29">
         <v>21</v>
       </c>
-      <c r="H143" s="46" t="s">
+      <c r="H143" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="46"/>
+      <c r="I143" s="50"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
-      <c r="K143" s="46" t="s">
+      <c r="K143" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="46"/>
-      <c r="R143" s="46"/>
-      <c r="S143" s="46"/>
-      <c r="T143" s="46"/>
-      <c r="U143" s="46"/>
-      <c r="V143" s="46"/>
-      <c r="W143" s="46"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="50"/>
+      <c r="P143" s="50"/>
+      <c r="Q143" s="50"/>
+      <c r="R143" s="50"/>
+      <c r="S143" s="50"/>
+      <c r="T143" s="50"/>
+      <c r="U143" s="50"/>
+      <c r="V143" s="50"/>
+      <c r="W143" s="50"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
-      <c r="F144" s="46"/>
+      <c r="A144" s="50"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
       <c r="G144" s="29"/>
-      <c r="H144" s="46" t="s">
+      <c r="H144" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="46"/>
+      <c r="I144" s="50"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
-      <c r="K144" s="46" t="s">
+      <c r="K144" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="46"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="46"/>
-      <c r="T144" s="46"/>
-      <c r="U144" s="46"/>
-      <c r="V144" s="46"/>
-      <c r="W144" s="46"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
+      <c r="Q144" s="50"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="50"/>
+      <c r="T144" s="50"/>
+      <c r="U144" s="50"/>
+      <c r="V144" s="50"/>
+      <c r="W144" s="50"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
+      <c r="A145" s="50"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
       <c r="G145" s="29"/>
-      <c r="H145" s="46" t="s">
+      <c r="H145" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="46"/>
+      <c r="I145" s="50"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
-      <c r="K145" s="46" t="s">
+      <c r="K145" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="46"/>
-      <c r="R145" s="46"/>
-      <c r="S145" s="46"/>
-      <c r="T145" s="46"/>
-      <c r="U145" s="46"/>
-      <c r="V145" s="46"/>
-      <c r="W145" s="46"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+      <c r="N145" s="50"/>
+      <c r="O145" s="50"/>
+      <c r="P145" s="50"/>
+      <c r="Q145" s="50"/>
+      <c r="R145" s="50"/>
+      <c r="S145" s="50"/>
+      <c r="T145" s="50"/>
+      <c r="U145" s="50"/>
+      <c r="V145" s="50"/>
+      <c r="W145" s="50"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46"/>
+      <c r="A146" s="50"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="47" t="s">
+      <c r="H146" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="47"/>
+      <c r="I146" s="49"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
-      <c r="K146" s="46" t="s">
+      <c r="K146" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
-      <c r="Q146" s="46"/>
-      <c r="R146" s="46"/>
-      <c r="S146" s="46"/>
-      <c r="T146" s="46"/>
-      <c r="U146" s="46"/>
-      <c r="V146" s="46"/>
-      <c r="W146" s="46"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
+      <c r="P146" s="50"/>
+      <c r="Q146" s="50"/>
+      <c r="R146" s="50"/>
+      <c r="S146" s="50"/>
+      <c r="T146" s="50"/>
+      <c r="U146" s="50"/>
+      <c r="V146" s="50"/>
+      <c r="W146" s="50"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="46"/>
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
       <c r="E147" s="28" t="s">
         <v>242</v>
       </c>
@@ -7528,129 +7528,129 @@
       <c r="G147" s="29">
         <v>31</v>
       </c>
-      <c r="H147" s="46" t="s">
+      <c r="H147" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="46"/>
+      <c r="I147" s="50"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
-      <c r="K147" s="46" t="s">
+      <c r="K147" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
-      <c r="Q147" s="46"/>
-      <c r="R147" s="46"/>
-      <c r="S147" s="46" t="s">
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
+      <c r="P147" s="50"/>
+      <c r="Q147" s="50"/>
+      <c r="R147" s="50"/>
+      <c r="S147" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="T147" s="46"/>
-      <c r="U147" s="46"/>
-      <c r="V147" s="46"/>
-      <c r="W147" s="46"/>
+      <c r="T147" s="50"/>
+      <c r="U147" s="50"/>
+      <c r="V147" s="50"/>
+      <c r="W147" s="50"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="46" t="s">
+      <c r="H148" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I148" s="46"/>
+      <c r="I148" s="50"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
-      <c r="K148" s="46" t="s">
+      <c r="K148" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="46"/>
-      <c r="R148" s="46"/>
-      <c r="S148" s="46"/>
-      <c r="T148" s="46"/>
-      <c r="U148" s="46"/>
-      <c r="V148" s="46"/>
-      <c r="W148" s="46"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
+      <c r="P148" s="50"/>
+      <c r="Q148" s="50"/>
+      <c r="R148" s="50"/>
+      <c r="S148" s="50"/>
+      <c r="T148" s="50"/>
+      <c r="U148" s="50"/>
+      <c r="V148" s="50"/>
+      <c r="W148" s="50"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="46"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
+      <c r="A149" s="50"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
       <c r="G149" s="29"/>
-      <c r="H149" s="46" t="s">
+      <c r="H149" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="46"/>
+      <c r="I149" s="50"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
-      <c r="K149" s="46" t="s">
+      <c r="K149" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
-      <c r="Q149" s="46"/>
-      <c r="R149" s="46"/>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
-      <c r="U149" s="46"/>
-      <c r="V149" s="46"/>
-      <c r="W149" s="46"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50"/>
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
+      <c r="W149" s="50"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="46"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
+      <c r="A150" s="50"/>
+      <c r="B150" s="50"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="47" t="s">
+      <c r="H150" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I150" s="47"/>
+      <c r="I150" s="49"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
-      <c r="K150" s="46" t="s">
+      <c r="K150" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="46"/>
-      <c r="R150" s="46"/>
-      <c r="S150" s="46"/>
-      <c r="T150" s="46"/>
-      <c r="U150" s="46"/>
-      <c r="V150" s="46"/>
-      <c r="W150" s="46"/>
+      <c r="L150" s="50"/>
+      <c r="M150" s="50"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="50"/>
+      <c r="P150" s="50"/>
+      <c r="Q150" s="50"/>
+      <c r="R150" s="50"/>
+      <c r="S150" s="50"/>
+      <c r="T150" s="50"/>
+      <c r="U150" s="50"/>
+      <c r="V150" s="50"/>
+      <c r="W150" s="50"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="46"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="46"/>
+      <c r="A151" s="50"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="28" t="s">
         <v>244</v>
       </c>
@@ -7658,128 +7658,128 @@
       <c r="G151" s="29">
         <v>41</v>
       </c>
-      <c r="H151" s="46" t="s">
+      <c r="H151" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="46"/>
+      <c r="I151" s="50"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
-      <c r="K151" s="46" t="s">
+      <c r="K151" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
-      <c r="Q151" s="46"/>
-      <c r="R151" s="46"/>
-      <c r="S151" s="46"/>
-      <c r="T151" s="46"/>
-      <c r="U151" s="46"/>
-      <c r="V151" s="46"/>
-      <c r="W151" s="46"/>
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="50"/>
+      <c r="P151" s="50"/>
+      <c r="Q151" s="50"/>
+      <c r="R151" s="50"/>
+      <c r="S151" s="50"/>
+      <c r="T151" s="50"/>
+      <c r="U151" s="50"/>
+      <c r="V151" s="50"/>
+      <c r="W151" s="50"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="46"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
+      <c r="A152" s="50"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="46" t="s">
+      <c r="H152" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I152" s="46"/>
+      <c r="I152" s="50"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
-      <c r="K152" s="46" t="s">
+      <c r="K152" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="46"/>
-      <c r="R152" s="46"/>
-      <c r="S152" s="46"/>
-      <c r="T152" s="46"/>
-      <c r="U152" s="46"/>
-      <c r="V152" s="46"/>
-      <c r="W152" s="46"/>
+      <c r="L152" s="50"/>
+      <c r="M152" s="50"/>
+      <c r="N152" s="50"/>
+      <c r="O152" s="50"/>
+      <c r="P152" s="50"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="50"/>
+      <c r="S152" s="50"/>
+      <c r="T152" s="50"/>
+      <c r="U152" s="50"/>
+      <c r="V152" s="50"/>
+      <c r="W152" s="50"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="46"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
+      <c r="A153" s="50"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="46" t="s">
+      <c r="H153" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I153" s="46"/>
+      <c r="I153" s="50"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
-      <c r="K153" s="46" t="s">
+      <c r="K153" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="46"/>
-      <c r="S153" s="46"/>
-      <c r="T153" s="46"/>
-      <c r="U153" s="46"/>
-      <c r="V153" s="46"/>
-      <c r="W153" s="46"/>
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
+      <c r="O153" s="50"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="50"/>
+      <c r="R153" s="50"/>
+      <c r="S153" s="50"/>
+      <c r="T153" s="50"/>
+      <c r="U153" s="50"/>
+      <c r="V153" s="50"/>
+      <c r="W153" s="50"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="46"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
+      <c r="A154" s="50"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="47" t="s">
+      <c r="H154" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I154" s="47"/>
+      <c r="I154" s="49"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
-      <c r="K154" s="46" t="s">
+      <c r="K154" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
-      <c r="Q154" s="46"/>
-      <c r="R154" s="46"/>
-      <c r="S154" s="46"/>
-      <c r="T154" s="46"/>
-      <c r="U154" s="46"/>
-      <c r="V154" s="46"/>
-      <c r="W154" s="46"/>
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="50"/>
+      <c r="P154" s="50"/>
+      <c r="Q154" s="50"/>
+      <c r="R154" s="50"/>
+      <c r="S154" s="50"/>
+      <c r="T154" s="50"/>
+      <c r="U154" s="50"/>
+      <c r="V154" s="50"/>
+      <c r="W154" s="50"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="53" t="s">
+      <c r="A155" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="53"/>
-      <c r="C155" s="53"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="29">
         <v>30</v>
       </c>
@@ -7788,183 +7788,183 @@
       <c r="G155" s="29">
         <v>10</v>
       </c>
-      <c r="H155" s="46" t="s">
+      <c r="H155" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="I155" s="46"/>
+      <c r="I155" s="50"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
-      <c r="K155" s="46" t="s">
+      <c r="K155" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
-      <c r="Q155" s="46"/>
-      <c r="R155" s="46"/>
-      <c r="S155" s="46"/>
-      <c r="T155" s="46"/>
-      <c r="U155" s="46"/>
-      <c r="V155" s="46"/>
-      <c r="W155" s="46"/>
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
+      <c r="P155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="46"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
-      <c r="E156" s="46"/>
-      <c r="F156" s="46"/>
+      <c r="A156" s="50"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
       <c r="G156" s="29"/>
-      <c r="H156" s="47" t="s">
+      <c r="H156" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="I156" s="47"/>
+      <c r="I156" s="49"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
-      <c r="K156" s="46" t="s">
+      <c r="K156" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="L156" s="46"/>
-      <c r="M156" s="46"/>
-      <c r="N156" s="46"/>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
-      <c r="Q156" s="46"/>
-      <c r="R156" s="46"/>
-      <c r="S156" s="46"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="46"/>
-      <c r="V156" s="46"/>
-      <c r="W156" s="46"/>
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="46"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="46"/>
-      <c r="F157" s="46"/>
+      <c r="A157" s="50"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
       <c r="G157" s="29"/>
-      <c r="H157" s="47" t="s">
+      <c r="H157" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I157" s="47"/>
+      <c r="I157" s="49"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
-      <c r="K157" s="46" t="s">
+      <c r="K157" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
-      <c r="Q157" s="46"/>
-      <c r="R157" s="46"/>
-      <c r="S157" s="46"/>
-      <c r="T157" s="46"/>
-      <c r="U157" s="46"/>
-      <c r="V157" s="46"/>
-      <c r="W157" s="46"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="46"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="46"/>
-      <c r="E158" s="46"/>
-      <c r="F158" s="46"/>
+      <c r="A158" s="50"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="47" t="s">
+      <c r="H158" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="I158" s="47"/>
+      <c r="I158" s="49"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
-      <c r="K158" s="46" t="s">
+      <c r="K158" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="L158" s="46"/>
-      <c r="M158" s="46"/>
-      <c r="N158" s="46"/>
-      <c r="O158" s="46"/>
-      <c r="P158" s="46"/>
-      <c r="Q158" s="46"/>
-      <c r="R158" s="46"/>
-      <c r="S158" s="46"/>
-      <c r="T158" s="46"/>
-      <c r="U158" s="46"/>
-      <c r="V158" s="46"/>
-      <c r="W158" s="46"/>
+      <c r="L158" s="50"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="50"/>
+      <c r="O158" s="50"/>
+      <c r="P158" s="50"/>
+      <c r="Q158" s="50"/>
+      <c r="R158" s="50"/>
+      <c r="S158" s="50"/>
+      <c r="T158" s="50"/>
+      <c r="U158" s="50"/>
+      <c r="V158" s="50"/>
+      <c r="W158" s="50"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="46"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="46"/>
-      <c r="E159" s="46"/>
-      <c r="F159" s="46"/>
+      <c r="A159" s="50"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="47" t="s">
+      <c r="H159" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="I159" s="47"/>
+      <c r="I159" s="49"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
-      <c r="K159" s="46" t="s">
+      <c r="K159" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
-      <c r="Q159" s="46"/>
-      <c r="R159" s="46"/>
-      <c r="S159" s="46"/>
-      <c r="T159" s="46"/>
-      <c r="U159" s="46"/>
-      <c r="V159" s="46"/>
-      <c r="W159" s="46"/>
+      <c r="L159" s="50"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="50"/>
+      <c r="P159" s="50"/>
+      <c r="Q159" s="50"/>
+      <c r="R159" s="50"/>
+      <c r="S159" s="50"/>
+      <c r="T159" s="50"/>
+      <c r="U159" s="50"/>
+      <c r="V159" s="50"/>
+      <c r="W159" s="50"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="46"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
+      <c r="A160" s="50"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="47" t="s">
+      <c r="H160" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="I160" s="47"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
-      <c r="K160" s="46" t="s">
+      <c r="K160" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
-      <c r="U160" s="46"/>
-      <c r="V160" s="46"/>
-      <c r="W160" s="46"/>
+      <c r="L160" s="50"/>
+      <c r="M160" s="50"/>
+      <c r="N160" s="50"/>
+      <c r="O160" s="50"/>
+      <c r="P160" s="50"/>
+      <c r="Q160" s="50"/>
+      <c r="R160" s="50"/>
+      <c r="S160" s="50"/>
+      <c r="T160" s="50"/>
+      <c r="U160" s="50"/>
+      <c r="V160" s="50"/>
+      <c r="W160" s="50"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
@@ -7973,6 +7973,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="S147:W160"/>
+    <mergeCell ref="S139:W146"/>
+    <mergeCell ref="A134:D138"/>
+    <mergeCell ref="A140:D154"/>
+    <mergeCell ref="A156:F160"/>
+    <mergeCell ref="E148:F150"/>
+    <mergeCell ref="E144:F146"/>
+    <mergeCell ref="E140:F142"/>
+    <mergeCell ref="E152:F154"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="K159:R159"/>
+    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="S132:W132"/>
+    <mergeCell ref="S133:W136"/>
+    <mergeCell ref="S137:W138"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="K133:R133"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="H75:R75"/>
     <mergeCell ref="H77:R77"/>
     <mergeCell ref="H78:R78"/>
@@ -7997,129 +8120,6 @@
     <mergeCell ref="G46:O46"/>
     <mergeCell ref="E95:H95"/>
     <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="S132:W132"/>
-    <mergeCell ref="S133:W136"/>
-    <mergeCell ref="S137:W138"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="S147:W160"/>
-    <mergeCell ref="S139:W146"/>
-    <mergeCell ref="A134:D138"/>
-    <mergeCell ref="A140:D154"/>
-    <mergeCell ref="A156:F160"/>
-    <mergeCell ref="E148:F150"/>
-    <mergeCell ref="E144:F146"/>
-    <mergeCell ref="E140:F142"/>
-    <mergeCell ref="E152:F154"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="K159:R159"/>
-    <mergeCell ref="K160:R160"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8492,7 +8492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -8572,71 +8572,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="50">
         <v>6</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -8682,134 +8682,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="50">
         <v>0</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50">
         <v>0</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="50">
         <v>1</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50">
         <v>0</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -8885,73 +8885,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -8977,33 +8977,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -9029,60 +9029,62 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -9099,13 +9101,11 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9148,8 +9148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
   <dimension ref="B1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120:H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9585,17 +9585,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="56" t="s">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="58"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9705,17 +9705,17 @@
       <c r="B26" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="36" t="s">
         <v>340</v>
       </c>
@@ -9724,17 +9724,17 @@
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="58"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="36" t="s">
         <v>386</v>
       </c>
@@ -9743,17 +9743,17 @@
       <c r="B28" s="36">
         <v>1</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="58"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="36">
         <v>0</v>
       </c>
@@ -9762,17 +9762,17 @@
       <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="58"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="36">
         <v>5</v>
       </c>
@@ -9781,17 +9781,17 @@
       <c r="B30" s="36">
         <v>3</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="36">
         <v>10</v>
       </c>
@@ -9800,17 +9800,17 @@
       <c r="B31" s="36">
         <v>4</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="58"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="36">
         <v>5</v>
       </c>
@@ -9819,17 +9819,17 @@
       <c r="B32" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="58"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="36">
         <v>10</v>
       </c>
@@ -9838,17 +9838,17 @@
       <c r="B33" s="36">
         <v>6</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="58"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="36">
         <v>5</v>
       </c>
@@ -9857,17 +9857,17 @@
       <c r="B34" s="36">
         <v>7</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="36">
         <v>10</v>
       </c>
@@ -9876,17 +9876,17 @@
       <c r="B35" s="36">
         <v>8</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="58"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="36">
         <v>20</v>
       </c>
@@ -9905,193 +9905,193 @@
       <c r="B39" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="40">
         <v>1</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="50">
         <v>1</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="40">
         <v>2</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="50">
         <v>1</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="40">
         <v>3</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="50">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="40">
         <v>4</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="50">
         <v>2</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="40">
         <v>5</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="50">
         <v>2</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="40">
         <v>6</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="50">
         <v>3</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="61"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="50">
         <v>3</v>
       </c>
-      <c r="G47" s="46"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="40">
         <v>8</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="61"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="50">
         <v>3</v>
       </c>
-      <c r="G48" s="46"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="40">
         <v>9</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="61"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="50">
         <v>3</v>
       </c>
-      <c r="G49" s="46"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="40">
         <v>10</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="61"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="50">
         <v>3</v>
       </c>
-      <c r="G50" s="46"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -10242,14 +10242,14 @@
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46" t="s">
+      <c r="C65" s="50"/>
+      <c r="D65" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="33" t="s">
         <v>358</v>
       </c>
@@ -10264,14 +10264,14 @@
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="E66" s="46"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="33" t="s">
         <v>359</v>
       </c>
@@ -10286,14 +10286,14 @@
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B67" s="46">
+      <c r="B67" s="50">
         <v>1</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="33" t="s">
         <v>360</v>
       </c>
@@ -10308,14 +10308,14 @@
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B68" s="46">
+      <c r="B68" s="50">
         <v>2</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="50"/>
       <c r="F68" s="33" t="s">
         <v>361</v>
       </c>
@@ -10330,14 +10330,14 @@
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B69" s="46">
+      <c r="B69" s="50">
         <v>3</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="46"/>
+      <c r="E69" s="50"/>
       <c r="F69" s="33" t="s">
         <v>362</v>
       </c>
@@ -10389,14 +10389,14 @@
       <c r="F74" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G74" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47" t="s">
+      <c r="H74" s="49"/>
+      <c r="I74" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="J74" s="47"/>
+      <c r="J74" s="49"/>
       <c r="M74" s="36" t="s">
         <v>419</v>
       </c>
@@ -10432,14 +10432,14 @@
       <c r="F75" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="G75" s="47" t="s">
+      <c r="G75" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47" t="s">
+      <c r="H75" s="49"/>
+      <c r="I75" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="J75" s="47"/>
+      <c r="J75" s="49"/>
       <c r="M75" s="36" t="s">
         <v>420</v>
       </c>
@@ -10475,14 +10475,14 @@
       <c r="F76" s="44">
         <v>2</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="49">
         <v>6</v>
       </c>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47">
+      <c r="H76" s="49"/>
+      <c r="I76" s="49">
         <v>0</v>
       </c>
-      <c r="J76" s="47"/>
+      <c r="J76" s="49"/>
       <c r="M76" s="36">
         <v>1</v>
       </c>
@@ -10518,14 +10518,14 @@
       <c r="F77" s="44">
         <v>2</v>
       </c>
-      <c r="G77" s="47">
+      <c r="G77" s="49">
         <v>10</v>
       </c>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47">
+      <c r="H77" s="49"/>
+      <c r="I77" s="49">
         <v>0</v>
       </c>
-      <c r="J77" s="47"/>
+      <c r="J77" s="49"/>
       <c r="M77" s="36">
         <v>2</v>
       </c>
@@ -10561,14 +10561,14 @@
       <c r="F78" s="44">
         <v>2</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="49">
         <v>14</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47">
+      <c r="H78" s="49"/>
+      <c r="I78" s="49">
         <v>0</v>
       </c>
-      <c r="J78" s="47"/>
+      <c r="J78" s="49"/>
       <c r="M78" s="36">
         <v>3</v>
       </c>
@@ -10604,14 +10604,14 @@
       <c r="F79" s="44">
         <v>2</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="49">
         <v>18</v>
       </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47">
+      <c r="H79" s="49"/>
+      <c r="I79" s="49">
         <v>0</v>
       </c>
-      <c r="J79" s="47"/>
+      <c r="J79" s="49"/>
       <c r="M79" s="36">
         <v>4</v>
       </c>
@@ -10647,14 +10647,14 @@
       <c r="F80" s="44">
         <v>2</v>
       </c>
-      <c r="G80" s="47">
+      <c r="G80" s="49">
         <v>22</v>
       </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47">
+      <c r="H80" s="49"/>
+      <c r="I80" s="49">
         <v>0</v>
       </c>
-      <c r="J80" s="47"/>
+      <c r="J80" s="49"/>
       <c r="M80" s="36">
         <v>5</v>
       </c>
@@ -10690,14 +10690,14 @@
       <c r="F81" s="28">
         <v>2</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="49">
         <v>13</v>
       </c>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47">
+      <c r="H81" s="49"/>
+      <c r="I81" s="49">
         <v>13</v>
       </c>
-      <c r="J81" s="47"/>
+      <c r="J81" s="49"/>
       <c r="M81" s="36">
         <v>6</v>
       </c>
@@ -10733,14 +10733,14 @@
       <c r="F82" s="28">
         <v>2</v>
       </c>
-      <c r="G82" s="47">
+      <c r="G82" s="49">
         <v>15</v>
       </c>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47">
+      <c r="H82" s="49"/>
+      <c r="I82" s="49">
         <v>15</v>
       </c>
-      <c r="J82" s="47"/>
+      <c r="J82" s="49"/>
       <c r="M82" s="36">
         <v>7</v>
       </c>
@@ -10776,14 +10776,14 @@
       <c r="F83" s="28">
         <v>2</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="49">
         <v>17</v>
       </c>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47">
+      <c r="H83" s="49"/>
+      <c r="I83" s="49">
         <v>17</v>
       </c>
-      <c r="J83" s="47"/>
+      <c r="J83" s="49"/>
       <c r="M83" s="36">
         <v>8</v>
       </c>
@@ -10819,14 +10819,14 @@
       <c r="F84" s="28">
         <v>2</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="49">
         <v>19</v>
       </c>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47">
+      <c r="H84" s="49"/>
+      <c r="I84" s="49">
         <v>19</v>
       </c>
-      <c r="J84" s="47"/>
+      <c r="J84" s="49"/>
       <c r="M84" s="36">
         <v>9</v>
       </c>
@@ -10862,14 +10862,14 @@
       <c r="F85" s="28">
         <v>2</v>
       </c>
-      <c r="G85" s="47">
+      <c r="G85" s="49">
         <v>21</v>
       </c>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47">
+      <c r="H85" s="49"/>
+      <c r="I85" s="49">
         <v>21</v>
       </c>
-      <c r="J85" s="47"/>
+      <c r="J85" s="49"/>
       <c r="M85" s="36">
         <v>10</v>
       </c>
@@ -10905,14 +10905,14 @@
       <c r="F86" s="28">
         <v>3</v>
       </c>
-      <c r="G86" s="47">
+      <c r="G86" s="49">
         <v>23</v>
       </c>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47">
+      <c r="H86" s="49"/>
+      <c r="I86" s="49">
         <v>23</v>
       </c>
-      <c r="J86" s="47"/>
+      <c r="J86" s="49"/>
       <c r="M86" s="36">
         <v>11</v>
       </c>
@@ -10948,14 +10948,14 @@
       <c r="F87" s="28">
         <v>3</v>
       </c>
-      <c r="G87" s="47">
+      <c r="G87" s="49">
         <v>26</v>
       </c>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47">
+      <c r="H87" s="49"/>
+      <c r="I87" s="49">
         <v>25</v>
       </c>
-      <c r="J87" s="47"/>
+      <c r="J87" s="49"/>
       <c r="M87" s="36">
         <v>12</v>
       </c>
@@ -10991,14 +10991,14 @@
       <c r="F88" s="28">
         <v>3</v>
       </c>
-      <c r="G88" s="47">
+      <c r="G88" s="49">
         <v>28</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47">
+      <c r="H88" s="49"/>
+      <c r="I88" s="49">
         <v>28</v>
       </c>
-      <c r="J88" s="47"/>
+      <c r="J88" s="49"/>
       <c r="M88" s="36">
         <v>13</v>
       </c>
@@ -11034,14 +11034,14 @@
       <c r="F89" s="28">
         <v>3</v>
       </c>
-      <c r="G89" s="47">
+      <c r="G89" s="49">
         <v>31</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47">
+      <c r="H89" s="49"/>
+      <c r="I89" s="49">
         <v>31</v>
       </c>
-      <c r="J89" s="47"/>
+      <c r="J89" s="49"/>
       <c r="M89" s="36">
         <v>14</v>
       </c>
@@ -11077,14 +11077,14 @@
       <c r="F90" s="28">
         <v>3</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="49">
         <v>34</v>
       </c>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47">
+      <c r="H90" s="49"/>
+      <c r="I90" s="49">
         <v>34</v>
       </c>
-      <c r="J90" s="47"/>
+      <c r="J90" s="49"/>
       <c r="M90" s="36">
         <v>15</v>
       </c>
@@ -11120,14 +11120,14 @@
       <c r="F91" s="28">
         <v>4</v>
       </c>
-      <c r="G91" s="47">
+      <c r="G91" s="49">
         <v>38</v>
       </c>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47">
+      <c r="H91" s="49"/>
+      <c r="I91" s="49">
         <v>37</v>
       </c>
-      <c r="J91" s="47"/>
+      <c r="J91" s="49"/>
       <c r="M91" s="36">
         <v>16</v>
       </c>
@@ -11163,14 +11163,14 @@
       <c r="F92" s="28">
         <v>4</v>
       </c>
-      <c r="G92" s="47">
+      <c r="G92" s="49">
         <v>42</v>
       </c>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47">
+      <c r="H92" s="49"/>
+      <c r="I92" s="49">
         <v>41</v>
       </c>
-      <c r="J92" s="47"/>
+      <c r="J92" s="49"/>
       <c r="M92" s="36">
         <v>17</v>
       </c>
@@ -11206,14 +11206,14 @@
       <c r="F93" s="28">
         <v>4</v>
       </c>
-      <c r="G93" s="47">
+      <c r="G93" s="49">
         <v>46</v>
       </c>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47">
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>45</v>
       </c>
-      <c r="J93" s="47"/>
+      <c r="J93" s="49"/>
       <c r="M93" s="36">
         <v>18</v>
       </c>
@@ -11249,14 +11249,14 @@
       <c r="F94" s="28">
         <v>4</v>
       </c>
-      <c r="G94" s="47">
+      <c r="G94" s="49">
         <v>50</v>
       </c>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47">
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
         <v>50</v>
       </c>
-      <c r="J94" s="47"/>
+      <c r="J94" s="49"/>
       <c r="M94" s="36">
         <v>19</v>
       </c>
@@ -11292,14 +11292,14 @@
       <c r="F95" s="28">
         <v>4</v>
       </c>
-      <c r="G95" s="47">
+      <c r="G95" s="49">
         <v>55</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47">
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>55</v>
       </c>
-      <c r="J95" s="47"/>
+      <c r="J95" s="49"/>
       <c r="M95" s="36">
         <v>20</v>
       </c>
@@ -11335,14 +11335,14 @@
       <c r="F96" s="28">
         <v>5</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="49">
         <v>61</v>
       </c>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47">
+      <c r="H96" s="49"/>
+      <c r="I96" s="49">
         <v>60</v>
       </c>
-      <c r="J96" s="47"/>
+      <c r="J96" s="49"/>
       <c r="M96" s="36">
         <v>21</v>
       </c>
@@ -11378,14 +11378,14 @@
       <c r="F97" s="28">
         <v>5</v>
       </c>
-      <c r="G97" s="47">
+      <c r="G97" s="49">
         <v>67</v>
       </c>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47">
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
         <v>66</v>
       </c>
-      <c r="J97" s="47"/>
+      <c r="J97" s="49"/>
       <c r="M97" s="36">
         <v>22</v>
       </c>
@@ -11421,14 +11421,14 @@
       <c r="F98" s="28">
         <v>5</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="49">
         <v>73</v>
       </c>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47">
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>73</v>
       </c>
-      <c r="J98" s="47"/>
+      <c r="J98" s="49"/>
       <c r="M98" s="36">
         <v>23</v>
       </c>
@@ -11464,14 +11464,14 @@
       <c r="F99" s="28">
         <v>5</v>
       </c>
-      <c r="G99" s="47">
+      <c r="G99" s="49">
         <v>81</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47">
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>80</v>
       </c>
-      <c r="J99" s="47"/>
+      <c r="J99" s="49"/>
       <c r="M99" s="36">
         <v>24</v>
       </c>
@@ -11507,14 +11507,14 @@
       <c r="F100" s="28">
         <v>5</v>
       </c>
-      <c r="G100" s="47">
+      <c r="G100" s="49">
         <v>89</v>
       </c>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47">
+      <c r="H100" s="49"/>
+      <c r="I100" s="49">
         <v>88</v>
       </c>
-      <c r="J100" s="47"/>
+      <c r="J100" s="49"/>
       <c r="M100" s="36">
         <v>25</v>
       </c>
@@ -11550,14 +11550,14 @@
       <c r="F101" s="28">
         <v>6</v>
       </c>
-      <c r="G101" s="47">
+      <c r="G101" s="49">
         <v>98</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47">
+      <c r="H101" s="49"/>
+      <c r="I101" s="49">
         <v>97</v>
       </c>
-      <c r="J101" s="47"/>
+      <c r="J101" s="49"/>
       <c r="M101" s="36">
         <v>26</v>
       </c>
@@ -11593,14 +11593,14 @@
       <c r="F102" s="28">
         <v>6</v>
       </c>
-      <c r="G102" s="47">
+      <c r="G102" s="49">
         <v>108</v>
       </c>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47">
+      <c r="H102" s="49"/>
+      <c r="I102" s="49">
         <v>107</v>
       </c>
-      <c r="J102" s="47"/>
+      <c r="J102" s="49"/>
       <c r="M102" s="36">
         <v>27</v>
       </c>
@@ -11636,14 +11636,14 @@
       <c r="F103" s="28">
         <v>6</v>
       </c>
-      <c r="G103" s="47">
+      <c r="G103" s="49">
         <v>119</v>
       </c>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47">
+      <c r="H103" s="49"/>
+      <c r="I103" s="49">
         <v>118</v>
       </c>
-      <c r="J103" s="47"/>
+      <c r="J103" s="49"/>
       <c r="M103" s="36">
         <v>28</v>
       </c>
@@ -11679,14 +11679,14 @@
       <c r="F104" s="28">
         <v>6</v>
       </c>
-      <c r="G104" s="47">
+      <c r="G104" s="49">
         <v>131</v>
       </c>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47">
+      <c r="H104" s="49"/>
+      <c r="I104" s="49">
         <v>130</v>
       </c>
-      <c r="J104" s="47"/>
+      <c r="J104" s="49"/>
       <c r="M104" s="36">
         <v>29</v>
       </c>
@@ -11722,14 +11722,14 @@
       <c r="F105" s="28">
         <v>6</v>
       </c>
-      <c r="G105" s="47">
+      <c r="G105" s="49">
         <v>144</v>
       </c>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47">
+      <c r="H105" s="49"/>
+      <c r="I105" s="49">
         <v>143</v>
       </c>
-      <c r="J105" s="47"/>
+      <c r="J105" s="49"/>
       <c r="M105" s="36">
         <v>30</v>
       </c>
@@ -11765,14 +11765,14 @@
       <c r="F106" s="28">
         <v>7</v>
       </c>
-      <c r="G106" s="47">
+      <c r="G106" s="49">
         <v>158</v>
       </c>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47">
+      <c r="H106" s="49"/>
+      <c r="I106" s="49">
         <v>158</v>
       </c>
-      <c r="J106" s="47"/>
+      <c r="J106" s="49"/>
       <c r="M106" s="36">
         <v>31</v>
       </c>
@@ -11808,14 +11808,14 @@
       <c r="F107" s="28">
         <v>7</v>
       </c>
-      <c r="G107" s="47">
+      <c r="G107" s="49">
         <v>174</v>
       </c>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47">
+      <c r="H107" s="49"/>
+      <c r="I107" s="49">
         <v>174</v>
       </c>
-      <c r="J107" s="47"/>
+      <c r="J107" s="49"/>
       <c r="M107" s="36">
         <v>32</v>
       </c>
@@ -11851,14 +11851,14 @@
       <c r="F108" s="28">
         <v>7</v>
       </c>
-      <c r="G108" s="47">
+      <c r="G108" s="49">
         <v>192</v>
       </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47">
+      <c r="H108" s="49"/>
+      <c r="I108" s="49">
         <v>191</v>
       </c>
-      <c r="J108" s="47"/>
+      <c r="J108" s="49"/>
       <c r="M108" s="36">
         <v>33</v>
       </c>
@@ -11894,14 +11894,14 @@
       <c r="F109" s="28">
         <v>7</v>
       </c>
-      <c r="G109" s="47">
+      <c r="G109" s="49">
         <v>211</v>
       </c>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47">
+      <c r="H109" s="49"/>
+      <c r="I109" s="49">
         <v>210</v>
       </c>
-      <c r="J109" s="47"/>
+      <c r="J109" s="49"/>
       <c r="M109" s="36">
         <v>34</v>
       </c>
@@ -11937,14 +11937,14 @@
       <c r="F110" s="28">
         <v>7</v>
       </c>
-      <c r="G110" s="47">
+      <c r="G110" s="49">
         <v>232</v>
       </c>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47">
+      <c r="H110" s="49"/>
+      <c r="I110" s="49">
         <v>231</v>
       </c>
-      <c r="J110" s="47"/>
+      <c r="J110" s="49"/>
       <c r="M110" s="36">
         <v>35</v>
       </c>
@@ -11980,14 +11980,14 @@
       <c r="F111" s="28">
         <v>8</v>
       </c>
-      <c r="G111" s="47">
+      <c r="G111" s="49">
         <v>255</v>
       </c>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47">
+      <c r="H111" s="49"/>
+      <c r="I111" s="49">
         <v>254</v>
       </c>
-      <c r="J111" s="47"/>
+      <c r="J111" s="49"/>
       <c r="M111" s="36">
         <v>36</v>
       </c>
@@ -12023,14 +12023,14 @@
       <c r="F112" s="28">
         <v>8</v>
       </c>
-      <c r="G112" s="47">
+      <c r="G112" s="49">
         <v>280</v>
       </c>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47">
+      <c r="H112" s="49"/>
+      <c r="I112" s="49">
         <v>280</v>
       </c>
-      <c r="J112" s="47"/>
+      <c r="J112" s="49"/>
       <c r="M112" s="36">
         <v>37</v>
       </c>
@@ -12066,14 +12066,14 @@
       <c r="F113" s="28">
         <v>8</v>
       </c>
-      <c r="G113" s="47">
+      <c r="G113" s="49">
         <v>308</v>
       </c>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47">
+      <c r="H113" s="49"/>
+      <c r="I113" s="49">
         <v>308</v>
       </c>
-      <c r="J113" s="47"/>
+      <c r="J113" s="49"/>
       <c r="M113" s="36">
         <v>38</v>
       </c>
@@ -12109,14 +12109,14 @@
       <c r="F114" s="28">
         <v>8</v>
       </c>
-      <c r="G114" s="47">
+      <c r="G114" s="49">
         <v>339</v>
       </c>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47">
+      <c r="H114" s="49"/>
+      <c r="I114" s="49">
         <v>339</v>
       </c>
-      <c r="J114" s="47"/>
+      <c r="J114" s="49"/>
       <c r="M114" s="36">
         <v>39</v>
       </c>
@@ -12152,14 +12152,14 @@
       <c r="F115" s="28">
         <v>8</v>
       </c>
-      <c r="G115" s="47">
+      <c r="G115" s="49">
         <v>373</v>
       </c>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47">
+      <c r="H115" s="49"/>
+      <c r="I115" s="49">
         <v>373</v>
       </c>
-      <c r="J115" s="47"/>
+      <c r="J115" s="49"/>
       <c r="M115" s="36">
         <v>40</v>
       </c>
@@ -12192,17 +12192,13 @@
       <c r="E116" s="28">
         <v>8</v>
       </c>
-      <c r="F116" s="28">
-        <v>9</v>
-      </c>
-      <c r="G116" s="47">
-        <v>429</v>
-      </c>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47">
-        <v>429</v>
-      </c>
-      <c r="J116" s="47"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="49">
+        <v>858</v>
+      </c>
+      <c r="H116" s="49"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
       <c r="M116" s="36">
         <v>41</v>
       </c>
@@ -12235,17 +12231,13 @@
       <c r="E117" s="28">
         <v>8</v>
       </c>
-      <c r="F117" s="28">
-        <v>9</v>
-      </c>
-      <c r="G117" s="47">
-        <v>494</v>
-      </c>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47">
-        <v>493</v>
-      </c>
-      <c r="J117" s="47"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="49">
+        <v>987</v>
+      </c>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
       <c r="M117" s="36">
         <v>42</v>
       </c>
@@ -12278,17 +12270,13 @@
       <c r="E118" s="28">
         <v>8</v>
       </c>
-      <c r="F118" s="28">
-        <v>9</v>
-      </c>
-      <c r="G118" s="47">
-        <v>568</v>
-      </c>
-      <c r="H118" s="47"/>
-      <c r="I118" s="47">
-        <v>567</v>
-      </c>
-      <c r="J118" s="47"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="49">
+        <v>1135</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
       <c r="M118" s="36">
         <v>43</v>
       </c>
@@ -12321,17 +12309,13 @@
       <c r="E119" s="28">
         <v>8</v>
       </c>
-      <c r="F119" s="28">
-        <v>9</v>
-      </c>
-      <c r="G119" s="47">
-        <v>653</v>
-      </c>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47">
-        <v>652</v>
-      </c>
-      <c r="J119" s="47"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="49">
+        <v>1305</v>
+      </c>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
       <c r="M119" s="36">
         <v>44</v>
       </c>
@@ -12364,17 +12348,13 @@
       <c r="E120" s="28">
         <v>8</v>
       </c>
-      <c r="F120" s="28">
-        <v>9</v>
-      </c>
-      <c r="G120" s="47">
-        <v>751</v>
-      </c>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47">
-        <v>750</v>
-      </c>
-      <c r="J120" s="47"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="49">
+        <v>1501</v>
+      </c>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
       <c r="M120" s="36">
         <v>45</v>
       </c>
@@ -12405,19 +12385,19 @@
         <v>1726</v>
       </c>
       <c r="E121" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" s="28">
         <v>3</v>
       </c>
-      <c r="G121" s="47">
+      <c r="G121" s="49">
         <v>863</v>
       </c>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47">
+      <c r="H121" s="49"/>
+      <c r="I121" s="49">
         <v>863</v>
       </c>
-      <c r="J121" s="47"/>
+      <c r="J121" s="49"/>
       <c r="M121" s="36">
         <v>46</v>
       </c>
@@ -12448,19 +12428,19 @@
         <v>1985</v>
       </c>
       <c r="E122" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" s="28">
         <v>4</v>
       </c>
-      <c r="G122" s="47">
+      <c r="G122" s="49">
         <v>993</v>
       </c>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47">
+      <c r="H122" s="49"/>
+      <c r="I122" s="49">
         <v>992</v>
       </c>
-      <c r="J122" s="47"/>
+      <c r="J122" s="49"/>
       <c r="M122" s="36">
         <v>47</v>
       </c>
@@ -12491,19 +12471,19 @@
         <v>2283</v>
       </c>
       <c r="E123" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" s="28">
         <v>5</v>
       </c>
-      <c r="G123" s="47">
+      <c r="G123" s="49">
         <v>1142</v>
       </c>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47">
+      <c r="H123" s="49"/>
+      <c r="I123" s="49">
         <v>1141</v>
       </c>
-      <c r="J123" s="47"/>
+      <c r="J123" s="49"/>
       <c r="M123" s="36">
         <v>48</v>
       </c>
@@ -12534,19 +12514,19 @@
         <v>2625</v>
       </c>
       <c r="E124" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" s="28">
         <v>6</v>
       </c>
-      <c r="G124" s="47">
+      <c r="G124" s="49">
         <v>1313</v>
       </c>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47">
+      <c r="H124" s="49"/>
+      <c r="I124" s="49">
         <v>1312</v>
       </c>
-      <c r="J124" s="47"/>
+      <c r="J124" s="49"/>
       <c r="M124" s="36">
         <v>49</v>
       </c>
@@ -12577,19 +12557,19 @@
         <v>3019</v>
       </c>
       <c r="E125" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" s="28">
         <v>7</v>
       </c>
-      <c r="G125" s="47">
+      <c r="G125" s="49">
         <v>1510</v>
       </c>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47">
+      <c r="H125" s="49"/>
+      <c r="I125" s="49">
         <v>1509</v>
       </c>
-      <c r="J125" s="47"/>
+      <c r="J125" s="49"/>
       <c r="M125" s="36">
         <v>50</v>
       </c>
@@ -12616,14 +12596,14 @@
       <c r="D126" t="s">
         <v>446</v>
       </c>
-      <c r="G126" s="59" t="s">
+      <c r="G126" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="H126" s="59"/>
-      <c r="I126" s="60" t="s">
+      <c r="H126" s="61"/>
+      <c r="I126" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="J126" s="60"/>
+      <c r="J126" s="62"/>
       <c r="N126" t="s">
         <v>445</v>
       </c>
@@ -12652,17 +12632,133 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D65:E65"/>
@@ -12687,133 +12783,17 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78736303-2D66-4385-8D4A-5FB7ACE3E1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6987A8-B707-460A-A2E5-52A105CBFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="510">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1862,43 +1862,159 @@
     <t>속성 : 전기(40%), 불(30%), 흙(20%), 물(10%)</t>
   </si>
   <si>
-    <t>Monster1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster1Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster2Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터1 마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터2 마리수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(*해당 웨이브에 등장하는 몬스터 종류를 의미한다.)</t>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 10%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 체력 중 7%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 모든 몬스터의 전체 방어구 중 5%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 8초간 몬스터의 방어력이 10% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 13%가 회복됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 물 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 흙 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 불 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 전기 속성 몬스터의 전체 체력 중 10%가 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 물 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 흙 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 불 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 15초간 전기 속성 몬스터의 방어력이 7% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 화살타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나는 동안 이동속도가 5% 감소함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 초당 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 드래곤타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 레이저타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 타일을 지나면 3초간 미사일타워에서 받는 데미지가 5% 증가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성별 기믹 적용가능 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증감량(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2107,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2246,6 +2362,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,10 +2383,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2270,31 +2404,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5437,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
-  <dimension ref="A1:AE162"/>
+  <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5609,14 +5722,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5632,14 +5745,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5655,14 +5768,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5678,14 +5791,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5719,10 +5832,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5734,10 +5847,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5747,26 +5860,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="53"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="59"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5776,24 +5889,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="48"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5803,24 +5916,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5830,24 +5943,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5857,24 +5970,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -5906,10 +6019,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -5923,10 +6036,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -5938,13 +6051,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -5953,10 +6066,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -5968,13 +6081,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="50" t="s">
+      <c r="H59" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -5983,10 +6096,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -5998,13 +6111,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6013,10 +6126,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -6028,13 +6141,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6043,10 +6156,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="50"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6058,13 +6171,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6073,10 +6186,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6088,13 +6201,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6103,10 +6216,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6118,13 +6231,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6133,10 +6246,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6148,13 +6261,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6163,10 +6276,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6190,10 +6303,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6205,10 +6318,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6219,19 +6332,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="48"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="52"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6246,10 +6359,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="50"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6260,19 +6373,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="48"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="52"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6287,10 +6400,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6301,19 +6414,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="48"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="52"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6342,19 +6455,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="48"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="52"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6383,19 +6496,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="48"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="52"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6424,19 +6537,19 @@
       <c r="G76" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="48"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="52"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6465,19 +6578,19 @@
       <c r="G77" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="48"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="52"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6506,19 +6619,19 @@
       <c r="G78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="46" t="s">
+      <c r="H78" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="48"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="52"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6547,19 +6660,19 @@
       <c r="G79" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="46" t="s">
+      <c r="H79" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="48"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="52"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6588,19 +6701,19 @@
       <c r="G80" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="46" t="s">
+      <c r="H80" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="48"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="52"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6691,12 +6804,12 @@
       <c r="D91" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
@@ -6708,12 +6821,12 @@
       <c r="D92" s="6">
         <v>1</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
@@ -6725,12 +6838,12 @@
       <c r="D93" s="6">
         <v>2</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
@@ -6742,12 +6855,12 @@
       <c r="D94" s="6">
         <v>3</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
@@ -6759,12 +6872,12 @@
       <c r="D95" s="6">
         <v>4</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
@@ -6776,12 +6889,12 @@
       <c r="D96" s="6">
         <v>5</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D97" t="s">
@@ -6824,21 +6937,21 @@
       <c r="D107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="50"/>
-      <c r="J107" s="50"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="50"/>
-      <c r="O107" s="50"/>
-      <c r="P107" s="50"/>
-      <c r="Q107" s="50"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
@@ -6850,21 +6963,21 @@
       <c r="D108" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="50"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="50"/>
-      <c r="O108" s="50"/>
-      <c r="P108" s="50"/>
-      <c r="Q108" s="50"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
@@ -6876,21 +6989,21 @@
       <c r="D109" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="50"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6902,21 +7015,21 @@
       <c r="D110" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="50"/>
-      <c r="O110" s="50"/>
-      <c r="P110" s="50"/>
-      <c r="Q110" s="50"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D111" s="14" t="s">
@@ -6942,37 +7055,37 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="50"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="50"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="50"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="50"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="6">
         <v>6</v>
       </c>
@@ -7008,123 +7121,123 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
       <c r="D132" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="E132" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="F132" s="57"/>
+      <c r="F132" s="53"/>
       <c r="G132" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="54" t="s">
+      <c r="H132" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="54"/>
+      <c r="I132" s="49"/>
       <c r="J132" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K132" s="54" t="s">
+      <c r="K132" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="54"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="54"/>
-      <c r="S132" s="54" t="s">
+      <c r="L132" s="49"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="49"/>
+      <c r="O132" s="49"/>
+      <c r="P132" s="49"/>
+      <c r="Q132" s="49"/>
+      <c r="R132" s="49"/>
+      <c r="S132" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="T132" s="54"/>
-      <c r="U132" s="54"/>
-      <c r="V132" s="54"/>
-      <c r="W132" s="54"/>
+      <c r="T132" s="49"/>
+      <c r="U132" s="49"/>
+      <c r="V132" s="49"/>
+      <c r="W132" s="49"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="29">
         <v>10</v>
       </c>
-      <c r="E133" s="58" t="s">
+      <c r="E133" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F133" s="58"/>
+      <c r="F133" s="54"/>
       <c r="G133" s="29">
         <v>11</v>
       </c>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
       <c r="J133" s="29">
         <v>10</v>
       </c>
-      <c r="K133" s="50" t="s">
+      <c r="K133" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L133" s="50"/>
-      <c r="M133" s="50"/>
-      <c r="N133" s="50"/>
-      <c r="O133" s="50"/>
-      <c r="P133" s="50"/>
-      <c r="Q133" s="50"/>
-      <c r="R133" s="50"/>
-      <c r="S133" s="50" t="s">
+      <c r="L133" s="46"/>
+      <c r="M133" s="46"/>
+      <c r="N133" s="46"/>
+      <c r="O133" s="46"/>
+      <c r="P133" s="46"/>
+      <c r="Q133" s="46"/>
+      <c r="R133" s="46"/>
+      <c r="S133" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="T133" s="50"/>
-      <c r="U133" s="50"/>
-      <c r="V133" s="50"/>
-      <c r="W133" s="50"/>
+      <c r="T133" s="46"/>
+      <c r="U133" s="46"/>
+      <c r="V133" s="46"/>
+      <c r="W133" s="46"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="58" t="s">
+      <c r="A134" s="46"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="54"/>
       <c r="G134" s="29">
         <v>21</v>
       </c>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
       <c r="J134" s="29">
         <v>10</v>
       </c>
-      <c r="K134" s="50" t="s">
+      <c r="K134" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="L134" s="50"/>
-      <c r="M134" s="50"/>
-      <c r="N134" s="50"/>
-      <c r="O134" s="50"/>
-      <c r="P134" s="50"/>
-      <c r="Q134" s="50"/>
-      <c r="R134" s="50"/>
-      <c r="S134" s="50"/>
-      <c r="T134" s="50"/>
-      <c r="U134" s="50"/>
-      <c r="V134" s="50"/>
-      <c r="W134" s="50"/>
+      <c r="L134" s="46"/>
+      <c r="M134" s="46"/>
+      <c r="N134" s="46"/>
+      <c r="O134" s="46"/>
+      <c r="P134" s="46"/>
+      <c r="Q134" s="46"/>
+      <c r="R134" s="46"/>
+      <c r="S134" s="46"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="46"/>
+      <c r="V134" s="46"/>
+      <c r="W134" s="46"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="50"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="29" t="s">
         <v>238</v>
       </c>
@@ -7132,32 +7245,32 @@
       <c r="G135" s="29">
         <v>31</v>
       </c>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="50" t="s">
+      <c r="K135" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
-      <c r="N135" s="50"/>
-      <c r="O135" s="50"/>
-      <c r="P135" s="50"/>
-      <c r="Q135" s="50"/>
-      <c r="R135" s="50"/>
-      <c r="S135" s="50"/>
-      <c r="T135" s="50"/>
-      <c r="U135" s="50"/>
-      <c r="V135" s="50"/>
-      <c r="W135" s="50"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="46"/>
+      <c r="P135" s="46"/>
+      <c r="Q135" s="46"/>
+      <c r="R135" s="46"/>
+      <c r="S135" s="46"/>
+      <c r="T135" s="46"/>
+      <c r="U135" s="46"/>
+      <c r="V135" s="46"/>
+      <c r="W135" s="46"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="28" t="s">
         <v>240</v>
       </c>
@@ -7165,32 +7278,32 @@
       <c r="G136" s="29">
         <v>41</v>
       </c>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="49" t="s">
+      <c r="K136" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="L136" s="49"/>
-      <c r="M136" s="49"/>
-      <c r="N136" s="49"/>
-      <c r="O136" s="49"/>
-      <c r="P136" s="49"/>
-      <c r="Q136" s="49"/>
-      <c r="R136" s="49"/>
-      <c r="S136" s="50"/>
-      <c r="T136" s="50"/>
-      <c r="U136" s="50"/>
-      <c r="V136" s="50"/>
-      <c r="W136" s="50"/>
+      <c r="L136" s="48"/>
+      <c r="M136" s="48"/>
+      <c r="N136" s="48"/>
+      <c r="O136" s="48"/>
+      <c r="P136" s="48"/>
+      <c r="Q136" s="48"/>
+      <c r="R136" s="48"/>
+      <c r="S136" s="46"/>
+      <c r="T136" s="46"/>
+      <c r="U136" s="46"/>
+      <c r="V136" s="46"/>
+      <c r="W136" s="46"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
       <c r="E137" s="28" t="s">
         <v>242</v>
       </c>
@@ -7198,34 +7311,34 @@
       <c r="G137" s="29">
         <v>51</v>
       </c>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="49" t="s">
+      <c r="K137" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="49"/>
-      <c r="M137" s="49"/>
-      <c r="N137" s="49"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="49"/>
-      <c r="Q137" s="49"/>
-      <c r="R137" s="49"/>
-      <c r="S137" s="50" t="s">
+      <c r="L137" s="48"/>
+      <c r="M137" s="48"/>
+      <c r="N137" s="48"/>
+      <c r="O137" s="48"/>
+      <c r="P137" s="48"/>
+      <c r="Q137" s="48"/>
+      <c r="R137" s="48"/>
+      <c r="S137" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="T137" s="50"/>
-      <c r="U137" s="50"/>
-      <c r="V137" s="50"/>
-      <c r="W137" s="50"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="46"/>
+      <c r="V137" s="46"/>
+      <c r="W137" s="46"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="28" t="s">
         <v>244</v>
       </c>
@@ -7233,33 +7346,33 @@
       <c r="G138" s="29">
         <v>61</v>
       </c>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="49" t="s">
+      <c r="K138" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="L138" s="49"/>
-      <c r="M138" s="49"/>
-      <c r="N138" s="49"/>
-      <c r="O138" s="49"/>
-      <c r="P138" s="49"/>
-      <c r="Q138" s="49"/>
-      <c r="R138" s="49"/>
-      <c r="S138" s="50"/>
-      <c r="T138" s="50"/>
-      <c r="U138" s="50"/>
-      <c r="V138" s="50"/>
-      <c r="W138" s="50"/>
+      <c r="L138" s="48"/>
+      <c r="M138" s="48"/>
+      <c r="N138" s="48"/>
+      <c r="O138" s="48"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="48"/>
+      <c r="R138" s="48"/>
+      <c r="S138" s="46"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="46"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="46"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="58" t="s">
+      <c r="A139" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="58"/>
-      <c r="C139" s="58"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="29">
         <v>20</v>
       </c>
@@ -7270,129 +7383,129 @@
       <c r="G139" s="29">
         <v>11</v>
       </c>
-      <c r="H139" s="50" t="s">
+      <c r="H139" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="50"/>
+      <c r="I139" s="46"/>
       <c r="J139" s="29">
         <v>11</v>
       </c>
-      <c r="K139" s="50" t="s">
+      <c r="K139" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="L139" s="50"/>
-      <c r="M139" s="50"/>
-      <c r="N139" s="50"/>
-      <c r="O139" s="50"/>
-      <c r="P139" s="50"/>
-      <c r="Q139" s="50"/>
-      <c r="R139" s="50"/>
-      <c r="S139" s="50" t="s">
+      <c r="L139" s="46"/>
+      <c r="M139" s="46"/>
+      <c r="N139" s="46"/>
+      <c r="O139" s="46"/>
+      <c r="P139" s="46"/>
+      <c r="Q139" s="46"/>
+      <c r="R139" s="46"/>
+      <c r="S139" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="T139" s="50"/>
-      <c r="U139" s="50"/>
-      <c r="V139" s="50"/>
-      <c r="W139" s="50"/>
+      <c r="T139" s="46"/>
+      <c r="U139" s="46"/>
+      <c r="V139" s="46"/>
+      <c r="W139" s="46"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="50" t="s">
+      <c r="H140" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I140" s="50"/>
+      <c r="I140" s="46"/>
       <c r="J140" s="29">
         <v>21</v>
       </c>
-      <c r="K140" s="50" t="s">
+      <c r="K140" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="L140" s="50"/>
-      <c r="M140" s="50"/>
-      <c r="N140" s="50"/>
-      <c r="O140" s="50"/>
-      <c r="P140" s="50"/>
-      <c r="Q140" s="50"/>
-      <c r="R140" s="50"/>
-      <c r="S140" s="50"/>
-      <c r="T140" s="50"/>
-      <c r="U140" s="50"/>
-      <c r="V140" s="50"/>
-      <c r="W140" s="50"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="46"/>
+      <c r="N140" s="46"/>
+      <c r="O140" s="46"/>
+      <c r="P140" s="46"/>
+      <c r="Q140" s="46"/>
+      <c r="R140" s="46"/>
+      <c r="S140" s="46"/>
+      <c r="T140" s="46"/>
+      <c r="U140" s="46"/>
+      <c r="V140" s="46"/>
+      <c r="W140" s="46"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I141" s="50"/>
+      <c r="I141" s="46"/>
       <c r="J141" s="29">
         <v>31</v>
       </c>
-      <c r="K141" s="50" t="s">
+      <c r="K141" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
-      <c r="N141" s="50"/>
-      <c r="O141" s="50"/>
-      <c r="P141" s="50"/>
-      <c r="Q141" s="50"/>
-      <c r="R141" s="50"/>
-      <c r="S141" s="50"/>
-      <c r="T141" s="50"/>
-      <c r="U141" s="50"/>
-      <c r="V141" s="50"/>
-      <c r="W141" s="50"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="46"/>
+      <c r="N141" s="46"/>
+      <c r="O141" s="46"/>
+      <c r="P141" s="46"/>
+      <c r="Q141" s="46"/>
+      <c r="R141" s="46"/>
+      <c r="S141" s="46"/>
+      <c r="T141" s="46"/>
+      <c r="U141" s="46"/>
+      <c r="V141" s="46"/>
+      <c r="W141" s="46"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="50"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="49" t="s">
+      <c r="H142" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="I142" s="49"/>
+      <c r="I142" s="48"/>
       <c r="J142" s="29">
         <v>41</v>
       </c>
-      <c r="K142" s="50" t="s">
+      <c r="K142" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
-      <c r="R142" s="50"/>
-      <c r="S142" s="50"/>
-      <c r="T142" s="50"/>
-      <c r="U142" s="50"/>
-      <c r="V142" s="50"/>
-      <c r="W142" s="50"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="46"/>
+      <c r="N142" s="46"/>
+      <c r="O142" s="46"/>
+      <c r="P142" s="46"/>
+      <c r="Q142" s="46"/>
+      <c r="R142" s="46"/>
+      <c r="S142" s="46"/>
+      <c r="T142" s="46"/>
+      <c r="U142" s="46"/>
+      <c r="V142" s="46"/>
+      <c r="W142" s="46"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="50"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
+      <c r="A143" s="46"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="28" t="s">
         <v>236</v>
       </c>
@@ -7400,127 +7513,127 @@
       <c r="G143" s="29">
         <v>21</v>
       </c>
-      <c r="H143" s="50" t="s">
+      <c r="H143" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="50"/>
+      <c r="I143" s="46"/>
       <c r="J143" s="29">
         <v>11</v>
       </c>
-      <c r="K143" s="50" t="s">
+      <c r="K143" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
-      <c r="R143" s="50"/>
-      <c r="S143" s="50"/>
-      <c r="T143" s="50"/>
-      <c r="U143" s="50"/>
-      <c r="V143" s="50"/>
-      <c r="W143" s="50"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="46"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="46"/>
+      <c r="P143" s="46"/>
+      <c r="Q143" s="46"/>
+      <c r="R143" s="46"/>
+      <c r="S143" s="46"/>
+      <c r="T143" s="46"/>
+      <c r="U143" s="46"/>
+      <c r="V143" s="46"/>
+      <c r="W143" s="46"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
       <c r="G144" s="29"/>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="50"/>
+      <c r="I144" s="46"/>
       <c r="J144" s="29">
         <v>21</v>
       </c>
-      <c r="K144" s="50" t="s">
+      <c r="K144" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50"/>
-      <c r="S144" s="50"/>
-      <c r="T144" s="50"/>
-      <c r="U144" s="50"/>
-      <c r="V144" s="50"/>
-      <c r="W144" s="50"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="46"/>
+      <c r="O144" s="46"/>
+      <c r="P144" s="46"/>
+      <c r="Q144" s="46"/>
+      <c r="R144" s="46"/>
+      <c r="S144" s="46"/>
+      <c r="T144" s="46"/>
+      <c r="U144" s="46"/>
+      <c r="V144" s="46"/>
+      <c r="W144" s="46"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="50"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
       <c r="G145" s="29"/>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="50"/>
+      <c r="I145" s="46"/>
       <c r="J145" s="29">
         <v>31</v>
       </c>
-      <c r="K145" s="50" t="s">
+      <c r="K145" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
-      <c r="R145" s="50"/>
-      <c r="S145" s="50"/>
-      <c r="T145" s="50"/>
-      <c r="U145" s="50"/>
-      <c r="V145" s="50"/>
-      <c r="W145" s="50"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="46"/>
+      <c r="P145" s="46"/>
+      <c r="Q145" s="46"/>
+      <c r="R145" s="46"/>
+      <c r="S145" s="46"/>
+      <c r="T145" s="46"/>
+      <c r="U145" s="46"/>
+      <c r="V145" s="46"/>
+      <c r="W145" s="46"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="50"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="49" t="s">
+      <c r="H146" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="49"/>
+      <c r="I146" s="48"/>
       <c r="J146" s="29">
         <v>41</v>
       </c>
-      <c r="K146" s="50" t="s">
+      <c r="K146" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="L146" s="50"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="50"/>
-      <c r="O146" s="50"/>
-      <c r="P146" s="50"/>
-      <c r="Q146" s="50"/>
-      <c r="R146" s="50"/>
-      <c r="S146" s="50"/>
-      <c r="T146" s="50"/>
-      <c r="U146" s="50"/>
-      <c r="V146" s="50"/>
-      <c r="W146" s="50"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
+      <c r="P146" s="46"/>
+      <c r="Q146" s="46"/>
+      <c r="R146" s="46"/>
+      <c r="S146" s="46"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="46"/>
+      <c r="V146" s="46"/>
+      <c r="W146" s="46"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
+      <c r="A147" s="46"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
       <c r="E147" s="28" t="s">
         <v>242</v>
       </c>
@@ -7528,129 +7641,129 @@
       <c r="G147" s="29">
         <v>31</v>
       </c>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="50"/>
+      <c r="I147" s="46"/>
       <c r="J147" s="29">
         <v>11</v>
       </c>
-      <c r="K147" s="50" t="s">
+      <c r="K147" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="50"/>
-      <c r="O147" s="50"/>
-      <c r="P147" s="50"/>
-      <c r="Q147" s="50"/>
-      <c r="R147" s="50"/>
-      <c r="S147" s="50" t="s">
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="46"/>
+      <c r="P147" s="46"/>
+      <c r="Q147" s="46"/>
+      <c r="R147" s="46"/>
+      <c r="S147" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="T147" s="50"/>
-      <c r="U147" s="50"/>
-      <c r="V147" s="50"/>
-      <c r="W147" s="50"/>
+      <c r="T147" s="46"/>
+      <c r="U147" s="46"/>
+      <c r="V147" s="46"/>
+      <c r="W147" s="46"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="50"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="50"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I148" s="50"/>
+      <c r="I148" s="46"/>
       <c r="J148" s="29">
         <v>21</v>
       </c>
-      <c r="K148" s="50" t="s">
+      <c r="K148" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="50"/>
-      <c r="O148" s="50"/>
-      <c r="P148" s="50"/>
-      <c r="Q148" s="50"/>
-      <c r="R148" s="50"/>
-      <c r="S148" s="50"/>
-      <c r="T148" s="50"/>
-      <c r="U148" s="50"/>
-      <c r="V148" s="50"/>
-      <c r="W148" s="50"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="46"/>
+      <c r="P148" s="46"/>
+      <c r="Q148" s="46"/>
+      <c r="R148" s="46"/>
+      <c r="S148" s="46"/>
+      <c r="T148" s="46"/>
+      <c r="U148" s="46"/>
+      <c r="V148" s="46"/>
+      <c r="W148" s="46"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="50"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="50"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
       <c r="G149" s="29"/>
-      <c r="H149" s="50" t="s">
+      <c r="H149" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="50"/>
+      <c r="I149" s="46"/>
       <c r="J149" s="29">
         <v>31</v>
       </c>
-      <c r="K149" s="50" t="s">
+      <c r="K149" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="50"/>
-      <c r="T149" s="50"/>
-      <c r="U149" s="50"/>
-      <c r="V149" s="50"/>
-      <c r="W149" s="50"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="46"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="46"/>
+      <c r="P149" s="46"/>
+      <c r="Q149" s="46"/>
+      <c r="R149" s="46"/>
+      <c r="S149" s="46"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="46"/>
+      <c r="V149" s="46"/>
+      <c r="W149" s="46"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="50"/>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="46"/>
+      <c r="F150" s="46"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="49" t="s">
+      <c r="H150" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="I150" s="49"/>
+      <c r="I150" s="48"/>
       <c r="J150" s="29">
         <v>41</v>
       </c>
-      <c r="K150" s="50" t="s">
+      <c r="K150" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="50"/>
-      <c r="O150" s="50"/>
-      <c r="P150" s="50"/>
-      <c r="Q150" s="50"/>
-      <c r="R150" s="50"/>
-      <c r="S150" s="50"/>
-      <c r="T150" s="50"/>
-      <c r="U150" s="50"/>
-      <c r="V150" s="50"/>
-      <c r="W150" s="50"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="46"/>
+      <c r="P150" s="46"/>
+      <c r="Q150" s="46"/>
+      <c r="R150" s="46"/>
+      <c r="S150" s="46"/>
+      <c r="T150" s="46"/>
+      <c r="U150" s="46"/>
+      <c r="V150" s="46"/>
+      <c r="W150" s="46"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="50"/>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46"/>
       <c r="E151" s="28" t="s">
         <v>244</v>
       </c>
@@ -7658,128 +7771,128 @@
       <c r="G151" s="29">
         <v>41</v>
       </c>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="50"/>
+      <c r="I151" s="46"/>
       <c r="J151" s="29">
         <v>11</v>
       </c>
-      <c r="K151" s="50" t="s">
+      <c r="K151" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="50"/>
-      <c r="O151" s="50"/>
-      <c r="P151" s="50"/>
-      <c r="Q151" s="50"/>
-      <c r="R151" s="50"/>
-      <c r="S151" s="50"/>
-      <c r="T151" s="50"/>
-      <c r="U151" s="50"/>
-      <c r="V151" s="50"/>
-      <c r="W151" s="50"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="46"/>
+      <c r="R151" s="46"/>
+      <c r="S151" s="46"/>
+      <c r="T151" s="46"/>
+      <c r="U151" s="46"/>
+      <c r="V151" s="46"/>
+      <c r="W151" s="46"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="50"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="50" t="s">
+      <c r="H152" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="I152" s="50"/>
+      <c r="I152" s="46"/>
       <c r="J152" s="29">
         <v>21</v>
       </c>
-      <c r="K152" s="50" t="s">
+      <c r="K152" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
-      <c r="N152" s="50"/>
-      <c r="O152" s="50"/>
-      <c r="P152" s="50"/>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="50"/>
-      <c r="S152" s="50"/>
-      <c r="T152" s="50"/>
-      <c r="U152" s="50"/>
-      <c r="V152" s="50"/>
-      <c r="W152" s="50"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="46"/>
+      <c r="R152" s="46"/>
+      <c r="S152" s="46"/>
+      <c r="T152" s="46"/>
+      <c r="U152" s="46"/>
+      <c r="V152" s="46"/>
+      <c r="W152" s="46"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="50" t="s">
+      <c r="H153" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="I153" s="50"/>
+      <c r="I153" s="46"/>
       <c r="J153" s="29">
         <v>31</v>
       </c>
-      <c r="K153" s="50" t="s">
+      <c r="K153" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
-      <c r="N153" s="50"/>
-      <c r="O153" s="50"/>
-      <c r="P153" s="50"/>
-      <c r="Q153" s="50"/>
-      <c r="R153" s="50"/>
-      <c r="S153" s="50"/>
-      <c r="T153" s="50"/>
-      <c r="U153" s="50"/>
-      <c r="V153" s="50"/>
-      <c r="W153" s="50"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
+      <c r="P153" s="46"/>
+      <c r="Q153" s="46"/>
+      <c r="R153" s="46"/>
+      <c r="S153" s="46"/>
+      <c r="T153" s="46"/>
+      <c r="U153" s="46"/>
+      <c r="V153" s="46"/>
+      <c r="W153" s="46"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="50"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="49" t="s">
+      <c r="H154" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="I154" s="49"/>
+      <c r="I154" s="48"/>
       <c r="J154" s="29">
         <v>41</v>
       </c>
-      <c r="K154" s="50" t="s">
+      <c r="K154" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="50"/>
-      <c r="P154" s="50"/>
-      <c r="Q154" s="50"/>
-      <c r="R154" s="50"/>
-      <c r="S154" s="50"/>
-      <c r="T154" s="50"/>
-      <c r="U154" s="50"/>
-      <c r="V154" s="50"/>
-      <c r="W154" s="50"/>
+      <c r="L154" s="46"/>
+      <c r="M154" s="46"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
+      <c r="P154" s="46"/>
+      <c r="Q154" s="46"/>
+      <c r="R154" s="46"/>
+      <c r="S154" s="46"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="46"/>
+      <c r="V154" s="46"/>
+      <c r="W154" s="46"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="58" t="s">
+      <c r="A155" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="29">
         <v>30</v>
       </c>
@@ -7788,191 +7901,1367 @@
       <c r="G155" s="29">
         <v>10</v>
       </c>
-      <c r="H155" s="50" t="s">
+      <c r="H155" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="I155" s="50"/>
+      <c r="I155" s="46"/>
       <c r="J155" s="29">
         <v>11</v>
       </c>
-      <c r="K155" s="50" t="s">
+      <c r="K155" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="50"/>
-      <c r="P155" s="50"/>
-      <c r="Q155" s="50"/>
-      <c r="R155" s="50"/>
-      <c r="S155" s="50"/>
-      <c r="T155" s="50"/>
-      <c r="U155" s="50"/>
-      <c r="V155" s="50"/>
-      <c r="W155" s="50"/>
+      <c r="L155" s="46"/>
+      <c r="M155" s="46"/>
+      <c r="N155" s="46"/>
+      <c r="O155" s="46"/>
+      <c r="P155" s="46"/>
+      <c r="Q155" s="46"/>
+      <c r="R155" s="46"/>
+      <c r="S155" s="46"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="46"/>
+      <c r="V155" s="46"/>
+      <c r="W155" s="46"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="50"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50"/>
+      <c r="A156" s="46"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
       <c r="G156" s="29"/>
-      <c r="H156" s="49" t="s">
+      <c r="H156" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="I156" s="49"/>
+      <c r="I156" s="48"/>
       <c r="J156" s="28">
         <v>21</v>
       </c>
-      <c r="K156" s="50" t="s">
+      <c r="K156" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="L156" s="50"/>
-      <c r="M156" s="50"/>
-      <c r="N156" s="50"/>
-      <c r="O156" s="50"/>
-      <c r="P156" s="50"/>
-      <c r="Q156" s="50"/>
-      <c r="R156" s="50"/>
-      <c r="S156" s="50"/>
-      <c r="T156" s="50"/>
-      <c r="U156" s="50"/>
-      <c r="V156" s="50"/>
-      <c r="W156" s="50"/>
+      <c r="L156" s="46"/>
+      <c r="M156" s="46"/>
+      <c r="N156" s="46"/>
+      <c r="O156" s="46"/>
+      <c r="P156" s="46"/>
+      <c r="Q156" s="46"/>
+      <c r="R156" s="46"/>
+      <c r="S156" s="46"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="46"/>
+      <c r="V156" s="46"/>
+      <c r="W156" s="46"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="50"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="50"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="50"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
       <c r="G157" s="29"/>
-      <c r="H157" s="49" t="s">
+      <c r="H157" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="I157" s="49"/>
+      <c r="I157" s="48"/>
       <c r="J157" s="28">
         <v>31</v>
       </c>
-      <c r="K157" s="50" t="s">
+      <c r="K157" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="50"/>
-      <c r="P157" s="50"/>
-      <c r="Q157" s="50"/>
-      <c r="R157" s="50"/>
-      <c r="S157" s="50"/>
-      <c r="T157" s="50"/>
-      <c r="U157" s="50"/>
-      <c r="V157" s="50"/>
-      <c r="W157" s="50"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="46"/>
+      <c r="R157" s="46"/>
+      <c r="S157" s="46"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="46"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="46"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="50"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="49" t="s">
+      <c r="H158" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="I158" s="49"/>
+      <c r="I158" s="48"/>
       <c r="J158" s="28">
         <v>41</v>
       </c>
-      <c r="K158" s="50" t="s">
+      <c r="K158" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="L158" s="50"/>
-      <c r="M158" s="50"/>
-      <c r="N158" s="50"/>
-      <c r="O158" s="50"/>
-      <c r="P158" s="50"/>
-      <c r="Q158" s="50"/>
-      <c r="R158" s="50"/>
-      <c r="S158" s="50"/>
-      <c r="T158" s="50"/>
-      <c r="U158" s="50"/>
-      <c r="V158" s="50"/>
-      <c r="W158" s="50"/>
+      <c r="L158" s="46"/>
+      <c r="M158" s="46"/>
+      <c r="N158" s="46"/>
+      <c r="O158" s="46"/>
+      <c r="P158" s="46"/>
+      <c r="Q158" s="46"/>
+      <c r="R158" s="46"/>
+      <c r="S158" s="46"/>
+      <c r="T158" s="46"/>
+      <c r="U158" s="46"/>
+      <c r="V158" s="46"/>
+      <c r="W158" s="46"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="50"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="49" t="s">
+      <c r="H159" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="I159" s="49"/>
+      <c r="I159" s="48"/>
       <c r="J159" s="28">
         <v>51</v>
       </c>
-      <c r="K159" s="50" t="s">
+      <c r="K159" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="50"/>
-      <c r="P159" s="50"/>
-      <c r="Q159" s="50"/>
-      <c r="R159" s="50"/>
-      <c r="S159" s="50"/>
-      <c r="T159" s="50"/>
-      <c r="U159" s="50"/>
-      <c r="V159" s="50"/>
-      <c r="W159" s="50"/>
+      <c r="L159" s="46"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="46"/>
+      <c r="O159" s="46"/>
+      <c r="P159" s="46"/>
+      <c r="Q159" s="46"/>
+      <c r="R159" s="46"/>
+      <c r="S159" s="46"/>
+      <c r="T159" s="46"/>
+      <c r="U159" s="46"/>
+      <c r="V159" s="46"/>
+      <c r="W159" s="46"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="49" t="s">
+      <c r="H160" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="48"/>
       <c r="J160" s="28">
         <v>61</v>
       </c>
-      <c r="K160" s="50" t="s">
+      <c r="K160" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="50"/>
-      <c r="P160" s="50"/>
-      <c r="Q160" s="50"/>
-      <c r="R160" s="50"/>
-      <c r="S160" s="50"/>
-      <c r="T160" s="50"/>
-      <c r="U160" s="50"/>
-      <c r="V160" s="50"/>
-      <c r="W160" s="50"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="46"/>
+      <c r="R160" s="46"/>
+      <c r="S160" s="46"/>
+      <c r="T160" s="46"/>
+      <c r="U160" s="46"/>
+      <c r="V160" s="46"/>
+      <c r="W160" s="46"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>301</v>
       </c>
     </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A165" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C165" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="D165" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E165" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="F165" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G165" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="I165" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="J165" s="46"/>
+      <c r="K165" s="46"/>
+      <c r="L165" s="46"/>
+      <c r="M165" s="46"/>
+      <c r="N165" s="46"/>
+      <c r="O165" s="46"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A166" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C166" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D166" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="E166" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="F166" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="G166" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="H166" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="I166" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J166" s="46"/>
+      <c r="K166" s="46"/>
+      <c r="L166" s="46"/>
+      <c r="M166" s="46"/>
+      <c r="N166" s="46"/>
+      <c r="O166" s="46"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A167" s="44">
+        <v>101110</v>
+      </c>
+      <c r="B167" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C167" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H167" s="44">
+        <v>10</v>
+      </c>
+      <c r="I167" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="J167" s="46"/>
+      <c r="K167" s="46"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="46"/>
+      <c r="O167" s="46"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A168" s="44">
+        <v>102110</v>
+      </c>
+      <c r="B168" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H168" s="44">
+        <v>-7</v>
+      </c>
+      <c r="I168" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="J168" s="46"/>
+      <c r="K168" s="46"/>
+      <c r="L168" s="46"/>
+      <c r="M168" s="46"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="46"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A169" s="44">
+        <v>103110</v>
+      </c>
+      <c r="B169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H169" s="44">
+        <v>5</v>
+      </c>
+      <c r="I169" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="J169" s="46"/>
+      <c r="K169" s="46"/>
+      <c r="L169" s="46"/>
+      <c r="M169" s="46"/>
+      <c r="N169" s="46"/>
+      <c r="O169" s="46"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A170" s="44">
+        <v>104110</v>
+      </c>
+      <c r="B170" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H170" s="44">
+        <v>-5</v>
+      </c>
+      <c r="I170" s="46" t="s">
+        <v>483</v>
+      </c>
+      <c r="J170" s="46"/>
+      <c r="K170" s="46"/>
+      <c r="L170" s="46"/>
+      <c r="M170" s="46"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="46"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A171" s="44">
+        <v>105110</v>
+      </c>
+      <c r="B171" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H171" s="44">
+        <v>10</v>
+      </c>
+      <c r="I171" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="J171" s="46"/>
+      <c r="K171" s="46"/>
+      <c r="L171" s="46"/>
+      <c r="M171" s="46"/>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A172" s="44">
+        <v>106110</v>
+      </c>
+      <c r="B172" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H172" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I172" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="J172" s="46"/>
+      <c r="K172" s="46"/>
+      <c r="L172" s="46"/>
+      <c r="M172" s="46"/>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A173" s="44">
+        <v>201111</v>
+      </c>
+      <c r="B173" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H173" s="44">
+        <v>13</v>
+      </c>
+      <c r="I173" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="J173" s="46"/>
+      <c r="K173" s="46"/>
+      <c r="L173" s="46"/>
+      <c r="M173" s="46"/>
+      <c r="N173" s="46"/>
+      <c r="O173" s="46"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A174" s="44">
+        <v>201121</v>
+      </c>
+      <c r="B174" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H174" s="44">
+        <v>13</v>
+      </c>
+      <c r="I174" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="J174" s="46"/>
+      <c r="K174" s="46"/>
+      <c r="L174" s="46"/>
+      <c r="M174" s="46"/>
+      <c r="N174" s="46"/>
+      <c r="O174" s="46"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A175" s="44">
+        <v>201131</v>
+      </c>
+      <c r="B175" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H175" s="44">
+        <v>13</v>
+      </c>
+      <c r="I175" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="J175" s="46"/>
+      <c r="K175" s="46"/>
+      <c r="L175" s="46"/>
+      <c r="M175" s="46"/>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A176" s="44">
+        <v>201141</v>
+      </c>
+      <c r="B176" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" s="44">
+        <v>13</v>
+      </c>
+      <c r="I176" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="J176" s="46"/>
+      <c r="K176" s="46"/>
+      <c r="L176" s="46"/>
+      <c r="M176" s="46"/>
+      <c r="N176" s="46"/>
+      <c r="O176" s="46"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A177" s="44">
+        <v>202111</v>
+      </c>
+      <c r="B177" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H177" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I177" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="J177" s="46"/>
+      <c r="K177" s="46"/>
+      <c r="L177" s="46"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="46"/>
+      <c r="O177" s="46"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A178" s="44">
+        <v>202121</v>
+      </c>
+      <c r="B178" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C178" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H178" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I178" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="J178" s="46"/>
+      <c r="K178" s="46"/>
+      <c r="L178" s="46"/>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="46"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A179" s="44">
+        <v>202131</v>
+      </c>
+      <c r="B179" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C179" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H179" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I179" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="J179" s="46"/>
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="46"/>
+      <c r="O179" s="46"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A180" s="44">
+        <v>202141</v>
+      </c>
+      <c r="B180" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H180" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I180" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="J180" s="46"/>
+      <c r="K180" s="46"/>
+      <c r="L180" s="46"/>
+      <c r="M180" s="46"/>
+      <c r="N180" s="46"/>
+      <c r="O180" s="46"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A181" s="44">
+        <v>203111</v>
+      </c>
+      <c r="B181" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C181" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H181" s="44">
+        <v>7</v>
+      </c>
+      <c r="I181" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="J181" s="46"/>
+      <c r="K181" s="46"/>
+      <c r="L181" s="46"/>
+      <c r="M181" s="46"/>
+      <c r="N181" s="46"/>
+      <c r="O181" s="46"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A182" s="44">
+        <v>203121</v>
+      </c>
+      <c r="B182" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C182" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D182" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H182" s="44">
+        <v>7</v>
+      </c>
+      <c r="I182" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="J182" s="46"/>
+      <c r="K182" s="46"/>
+      <c r="L182" s="46"/>
+      <c r="M182" s="46"/>
+      <c r="N182" s="46"/>
+      <c r="O182" s="46"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A183" s="44">
+        <v>203131</v>
+      </c>
+      <c r="B183" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H183" s="44">
+        <v>7</v>
+      </c>
+      <c r="I183" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="J183" s="46"/>
+      <c r="K183" s="46"/>
+      <c r="L183" s="46"/>
+      <c r="M183" s="46"/>
+      <c r="N183" s="46"/>
+      <c r="O183" s="46"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A184" s="44">
+        <v>203141</v>
+      </c>
+      <c r="B184" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H184" s="44">
+        <v>7</v>
+      </c>
+      <c r="I184" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="J184" s="46"/>
+      <c r="K184" s="46"/>
+      <c r="L184" s="46"/>
+      <c r="M184" s="46"/>
+      <c r="N184" s="46"/>
+      <c r="O184" s="46"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A185" s="44">
+        <v>204111</v>
+      </c>
+      <c r="B185" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C185" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H185" s="44">
+        <v>-7</v>
+      </c>
+      <c r="I185" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="J185" s="46"/>
+      <c r="K185" s="46"/>
+      <c r="L185" s="46"/>
+      <c r="M185" s="46"/>
+      <c r="N185" s="46"/>
+      <c r="O185" s="46"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A186" s="44">
+        <v>204121</v>
+      </c>
+      <c r="B186" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D186" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H186" s="44">
+        <v>-7</v>
+      </c>
+      <c r="I186" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="J186" s="46"/>
+      <c r="K186" s="46"/>
+      <c r="L186" s="46"/>
+      <c r="M186" s="46"/>
+      <c r="N186" s="46"/>
+      <c r="O186" s="46"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A187" s="44">
+        <v>204131</v>
+      </c>
+      <c r="B187" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D187" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H187" s="44">
+        <v>-7</v>
+      </c>
+      <c r="I187" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="J187" s="46"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="46"/>
+      <c r="M187" s="46"/>
+      <c r="N187" s="46"/>
+      <c r="O187" s="46"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A188" s="44">
+        <v>204141</v>
+      </c>
+      <c r="B188" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C188" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H188" s="44">
+        <v>-7</v>
+      </c>
+      <c r="I188" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="J188" s="46"/>
+      <c r="K188" s="46"/>
+      <c r="L188" s="46"/>
+      <c r="M188" s="46"/>
+      <c r="N188" s="46"/>
+      <c r="O188" s="46"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A189" s="44">
+        <v>301011</v>
+      </c>
+      <c r="B189" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C189" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" s="44"/>
+      <c r="H189" s="44">
+        <v>5</v>
+      </c>
+      <c r="I189" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="J189" s="46"/>
+      <c r="K189" s="46"/>
+      <c r="L189" s="46"/>
+      <c r="M189" s="46"/>
+      <c r="N189" s="46"/>
+      <c r="O189" s="46"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A190" s="44">
+        <v>301021</v>
+      </c>
+      <c r="B190" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190" s="44"/>
+      <c r="H190" s="44">
+        <v>-5</v>
+      </c>
+      <c r="I190" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="J190" s="46"/>
+      <c r="K190" s="46"/>
+      <c r="L190" s="46"/>
+      <c r="M190" s="46"/>
+      <c r="N190" s="46"/>
+      <c r="O190" s="46"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A191" s="44">
+        <v>301031</v>
+      </c>
+      <c r="B191" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44">
+        <v>5</v>
+      </c>
+      <c r="I191" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="J191" s="46"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="O191" s="46"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A192" s="44">
+        <v>301041</v>
+      </c>
+      <c r="B192" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192" s="44"/>
+      <c r="H192" s="44">
+        <v>5</v>
+      </c>
+      <c r="I192" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="J192" s="46"/>
+      <c r="K192" s="46"/>
+      <c r="L192" s="46"/>
+      <c r="M192" s="46"/>
+      <c r="N192" s="46"/>
+      <c r="O192" s="46"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A193" s="44">
+        <v>301051</v>
+      </c>
+      <c r="B193" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193" s="44"/>
+      <c r="H193" s="44">
+        <v>5</v>
+      </c>
+      <c r="I193" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="J193" s="46"/>
+      <c r="K193" s="46"/>
+      <c r="L193" s="46"/>
+      <c r="M193" s="46"/>
+      <c r="N193" s="46"/>
+      <c r="O193" s="46"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A194" s="44">
+        <v>301061</v>
+      </c>
+      <c r="B194" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" s="44"/>
+      <c r="H194" s="44">
+        <v>5</v>
+      </c>
+      <c r="I194" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="J194" s="46"/>
+      <c r="K194" s="46"/>
+      <c r="L194" s="46"/>
+      <c r="M194" s="46"/>
+      <c r="N194" s="46"/>
+      <c r="O194" s="46"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B195" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="C195" s="47"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="47"/>
+      <c r="G195" t="s">
+        <v>508</v>
+      </c>
+      <c r="H195" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="178">
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="K132:R132"/>
+    <mergeCell ref="K133:R133"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="S132:W132"/>
+    <mergeCell ref="S133:W136"/>
+    <mergeCell ref="S137:W138"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
     <mergeCell ref="S147:W160"/>
     <mergeCell ref="S139:W146"/>
     <mergeCell ref="A134:D138"/>
@@ -7997,129 +9286,37 @@
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H149:I149"/>
-    <mergeCell ref="S132:W132"/>
-    <mergeCell ref="S133:W136"/>
-    <mergeCell ref="S137:W138"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="I165:O165"/>
+    <mergeCell ref="I166:O166"/>
+    <mergeCell ref="I167:O167"/>
+    <mergeCell ref="I168:O168"/>
+    <mergeCell ref="I169:O169"/>
+    <mergeCell ref="I170:O170"/>
+    <mergeCell ref="I171:O171"/>
+    <mergeCell ref="I172:O172"/>
+    <mergeCell ref="I173:O173"/>
+    <mergeCell ref="I174:O174"/>
+    <mergeCell ref="I175:O175"/>
+    <mergeCell ref="I176:O176"/>
+    <mergeCell ref="I177:O177"/>
+    <mergeCell ref="I178:O178"/>
+    <mergeCell ref="I179:O179"/>
+    <mergeCell ref="I180:O180"/>
+    <mergeCell ref="I181:O181"/>
+    <mergeCell ref="I182:O182"/>
+    <mergeCell ref="I192:O192"/>
+    <mergeCell ref="I193:O193"/>
+    <mergeCell ref="I194:O194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="I183:O183"/>
+    <mergeCell ref="I184:O184"/>
+    <mergeCell ref="I185:O185"/>
+    <mergeCell ref="I186:O186"/>
+    <mergeCell ref="I187:O187"/>
+    <mergeCell ref="I188:O188"/>
+    <mergeCell ref="I189:O189"/>
+    <mergeCell ref="I190:O190"/>
+    <mergeCell ref="I191:O191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8183,7 +9380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
   <dimension ref="B1:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
@@ -8492,7 +9689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -8572,71 +9769,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="46">
         <v>6</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -8682,134 +9879,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="46">
         <v>0</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50">
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46">
         <v>0</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="46">
         <v>1</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50">
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46">
         <v>0</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -8885,73 +10082,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -8977,33 +10174,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -9029,62 +10226,60 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -9101,11 +10296,13 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9146,10 +10343,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:S128"/>
+  <dimension ref="B1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120:H120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9264,10 +10461,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="29">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G4" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" s="29">
         <v>60</v>
@@ -9299,16 +10496,16 @@
         <v>131</v>
       </c>
       <c r="D5" s="29">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E5" s="29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F5" s="29">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G5" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5" s="29">
         <v>50</v>
@@ -9340,16 +10537,16 @@
         <v>130</v>
       </c>
       <c r="D6" s="29">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E6" s="29">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F6" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G6" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" s="29">
         <v>50</v>
@@ -9381,16 +10578,16 @@
         <v>129</v>
       </c>
       <c r="D7" s="29">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E7" s="29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G7" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7" s="29">
         <v>41</v>
@@ -9422,16 +10619,16 @@
         <v>133</v>
       </c>
       <c r="D8" s="29">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E8" s="29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F8" s="29">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G8" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="29">
         <v>24</v>
@@ -9463,16 +10660,16 @@
         <v>132</v>
       </c>
       <c r="D9" s="29">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="E9" s="29">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="F9" s="29">
         <v>50</v>
       </c>
       <c r="G9" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H9" s="29">
         <v>25</v>
@@ -9504,16 +10701,16 @@
         <v>147</v>
       </c>
       <c r="D10" s="29">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E10" s="29">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="F10" s="29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="29">
         <v>15</v>
@@ -9545,16 +10742,16 @@
         <v>127</v>
       </c>
       <c r="D11" s="29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E11" s="29">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="F11" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G11" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
@@ -9585,17 +10782,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="51" t="s">
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9705,17 +10902,17 @@
       <c r="B26" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="36" t="s">
         <v>340</v>
       </c>
@@ -9724,17 +10921,17 @@
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="36" t="s">
         <v>386</v>
       </c>
@@ -9743,17 +10940,17 @@
       <c r="B28" s="36">
         <v>1</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="36">
         <v>0</v>
       </c>
@@ -9762,17 +10959,17 @@
       <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="36">
         <v>5</v>
       </c>
@@ -9781,17 +10978,17 @@
       <c r="B30" s="36">
         <v>3</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="36">
         <v>10</v>
       </c>
@@ -9800,17 +10997,17 @@
       <c r="B31" s="36">
         <v>4</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="36">
         <v>5</v>
       </c>
@@ -9819,17 +11016,17 @@
       <c r="B32" s="36">
         <v>5</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="36">
         <v>10</v>
       </c>
@@ -9838,17 +11035,17 @@
       <c r="B33" s="36">
         <v>6</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="36">
         <v>5</v>
       </c>
@@ -9857,17 +11054,17 @@
       <c r="B34" s="36">
         <v>7</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="36">
         <v>10</v>
       </c>
@@ -9876,17 +11073,17 @@
       <c r="B35" s="36">
         <v>8</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="36">
         <v>20</v>
       </c>
@@ -9905,193 +11102,193 @@
       <c r="B39" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="40">
         <v>1</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="46">
         <v>1</v>
       </c>
-      <c r="G41" s="50"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="40">
         <v>2</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="46">
         <v>1</v>
       </c>
-      <c r="G42" s="50"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="40">
         <v>3</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="60"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="46">
         <v>2</v>
       </c>
-      <c r="G43" s="50"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="40">
         <v>4</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="46">
         <v>2</v>
       </c>
-      <c r="G44" s="50"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="40">
         <v>5</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="46">
         <v>2</v>
       </c>
-      <c r="G45" s="50"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="40">
         <v>6</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="46">
         <v>3</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="40">
         <v>7</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="46">
         <v>3</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="40">
         <v>8</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="59"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="46">
         <v>3</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="40">
         <v>9</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="59"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="46">
         <v>3</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="40">
         <v>10</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="59"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="46">
         <v>3</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -10241,15 +11438,15 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B65" s="50" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50" t="s">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="E65" s="50"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="33" t="s">
         <v>358</v>
       </c>
@@ -10263,15 +11460,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B66" s="50" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50" t="s">
+      <c r="C66" s="46"/>
+      <c r="D66" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="E66" s="50"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="33" t="s">
         <v>359</v>
       </c>
@@ -10285,15 +11482,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B67" s="50">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="46">
         <v>1</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="50"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="33" t="s">
         <v>360</v>
       </c>
@@ -10307,15 +11504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B68" s="50">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="46">
         <v>2</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50" t="s">
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="50"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="33" t="s">
         <v>361</v>
       </c>
@@ -10329,15 +11526,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B69" s="50">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="46">
         <v>3</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50" t="s">
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="50"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="33" t="s">
         <v>362</v>
       </c>
@@ -10351,7 +11548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
         <v>353</v>
       </c>
@@ -10362,2391 +11559,1549 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>418</v>
       </c>
-      <c r="M73" t="s">
+      <c r="F73" t="s">
         <v>427</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="J73" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B74" s="44" t="s">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="G74" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="M74" s="36" t="s">
+      <c r="F74" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="N74" s="36" t="s">
+      <c r="G74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="O74" s="36" t="s">
+      <c r="H74" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="Q74" s="36" t="s">
+      <c r="J74" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="R74" s="36" t="s">
+      <c r="K74" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="S74" s="36" t="s">
+      <c r="L74" s="36" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B75" s="44" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="E75" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="J75" s="49"/>
-      <c r="M75" s="36" t="s">
+      <c r="F75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="N75" s="36" t="s">
+      <c r="G75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="O75" s="36" t="s">
+      <c r="H75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="Q75" s="36" t="s">
+      <c r="J75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="R75" s="36" t="s">
+      <c r="K75" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="S75" s="36" t="s">
+      <c r="L75" s="36" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B76" s="44">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="36">
         <v>1</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="36">
         <v>1</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="36">
         <v>6</v>
       </c>
-      <c r="E76" s="28">
+      <c r="F76" s="36">
         <v>1</v>
       </c>
-      <c r="F76" s="44">
+      <c r="G76" s="36">
+        <v>1</v>
+      </c>
+      <c r="H76" s="36">
+        <v>0</v>
+      </c>
+      <c r="J76" s="36">
+        <v>1</v>
+      </c>
+      <c r="K76" s="36">
+        <v>1</v>
+      </c>
+      <c r="L76" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="36">
         <v>2</v>
       </c>
-      <c r="G76" s="49">
+      <c r="C77" s="36">
+        <v>2</v>
+      </c>
+      <c r="D77" s="36">
+        <v>10</v>
+      </c>
+      <c r="F77" s="36">
+        <v>2</v>
+      </c>
+      <c r="G77" s="36">
+        <v>2</v>
+      </c>
+      <c r="H77" s="36">
+        <v>0</v>
+      </c>
+      <c r="J77" s="36">
+        <v>2</v>
+      </c>
+      <c r="K77" s="36">
+        <v>2</v>
+      </c>
+      <c r="L77" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="36">
+        <v>3</v>
+      </c>
+      <c r="C78" s="36">
+        <v>3</v>
+      </c>
+      <c r="D78" s="36">
+        <v>14</v>
+      </c>
+      <c r="F78" s="36">
+        <v>3</v>
+      </c>
+      <c r="G78" s="36">
+        <v>3</v>
+      </c>
+      <c r="H78" s="36">
+        <v>0</v>
+      </c>
+      <c r="J78" s="36">
+        <v>3</v>
+      </c>
+      <c r="K78" s="36">
+        <v>3</v>
+      </c>
+      <c r="L78" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="36">
+        <v>4</v>
+      </c>
+      <c r="C79" s="36">
+        <v>4</v>
+      </c>
+      <c r="D79" s="36">
+        <v>18</v>
+      </c>
+      <c r="F79" s="36">
+        <v>4</v>
+      </c>
+      <c r="G79" s="36">
+        <v>4</v>
+      </c>
+      <c r="H79" s="36">
+        <v>0</v>
+      </c>
+      <c r="J79" s="36">
+        <v>4</v>
+      </c>
+      <c r="K79" s="36">
+        <v>4</v>
+      </c>
+      <c r="L79" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="36">
+        <v>5</v>
+      </c>
+      <c r="C80" s="36">
+        <v>5</v>
+      </c>
+      <c r="D80" s="36">
+        <v>22</v>
+      </c>
+      <c r="F80" s="36">
+        <v>5</v>
+      </c>
+      <c r="G80" s="36">
+        <v>5</v>
+      </c>
+      <c r="H80" s="36">
+        <v>0</v>
+      </c>
+      <c r="J80" s="36">
+        <v>5</v>
+      </c>
+      <c r="K80" s="36">
+        <v>5</v>
+      </c>
+      <c r="L80" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B81" s="36">
         <v>6</v>
       </c>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49">
+      <c r="C81" s="36">
+        <v>6</v>
+      </c>
+      <c r="D81" s="36">
+        <v>26</v>
+      </c>
+      <c r="F81" s="36">
+        <v>6</v>
+      </c>
+      <c r="G81" s="36">
+        <v>6</v>
+      </c>
+      <c r="H81" s="36">
+        <v>1</v>
+      </c>
+      <c r="J81" s="36">
+        <v>6</v>
+      </c>
+      <c r="K81" s="36">
+        <v>6</v>
+      </c>
+      <c r="L81" s="36">
         <v>0</v>
       </c>
-      <c r="J76" s="49"/>
-      <c r="M76" s="36">
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B82" s="36">
+        <v>7</v>
+      </c>
+      <c r="C82" s="36">
+        <v>7</v>
+      </c>
+      <c r="D82" s="36">
+        <v>30</v>
+      </c>
+      <c r="F82" s="36">
+        <v>7</v>
+      </c>
+      <c r="G82" s="36">
+        <v>7</v>
+      </c>
+      <c r="H82" s="36">
         <v>1</v>
       </c>
-      <c r="N76" s="36">
+      <c r="J82" s="36">
+        <v>7</v>
+      </c>
+      <c r="K82" s="36">
+        <v>7</v>
+      </c>
+      <c r="L82" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B83" s="36">
+        <v>8</v>
+      </c>
+      <c r="C83" s="36">
+        <v>8</v>
+      </c>
+      <c r="D83" s="36">
+        <v>34</v>
+      </c>
+      <c r="F83" s="36">
+        <v>8</v>
+      </c>
+      <c r="G83" s="36">
+        <v>8</v>
+      </c>
+      <c r="H83" s="36">
         <v>1</v>
       </c>
-      <c r="O76" s="36">
+      <c r="J83" s="36">
+        <v>8</v>
+      </c>
+      <c r="K83" s="36">
+        <v>8</v>
+      </c>
+      <c r="L83" s="36">
         <v>0</v>
       </c>
-      <c r="Q76" s="36">
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B84" s="36">
+        <v>9</v>
+      </c>
+      <c r="C84" s="36">
+        <v>9</v>
+      </c>
+      <c r="D84" s="36">
+        <v>38</v>
+      </c>
+      <c r="F84" s="36">
+        <v>9</v>
+      </c>
+      <c r="G84" s="36">
+        <v>9</v>
+      </c>
+      <c r="H84" s="36">
+        <v>2</v>
+      </c>
+      <c r="J84" s="36">
+        <v>9</v>
+      </c>
+      <c r="K84" s="36">
+        <v>9</v>
+      </c>
+      <c r="L84" s="36">
         <v>1</v>
       </c>
-      <c r="R76" s="36">
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B85" s="36">
+        <v>10</v>
+      </c>
+      <c r="C85" s="36">
+        <v>10</v>
+      </c>
+      <c r="D85" s="36">
+        <v>42</v>
+      </c>
+      <c r="F85" s="36">
+        <v>10</v>
+      </c>
+      <c r="G85" s="36">
+        <v>10</v>
+      </c>
+      <c r="H85" s="36">
+        <v>2</v>
+      </c>
+      <c r="J85" s="36">
+        <v>10</v>
+      </c>
+      <c r="K85" s="36">
+        <v>10</v>
+      </c>
+      <c r="L85" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B86" s="36">
+        <v>11</v>
+      </c>
+      <c r="C86" s="36">
+        <v>11</v>
+      </c>
+      <c r="D86" s="36">
+        <v>46</v>
+      </c>
+      <c r="F86" s="36">
+        <v>11</v>
+      </c>
+      <c r="G86" s="36">
+        <v>11</v>
+      </c>
+      <c r="H86" s="36">
+        <v>3</v>
+      </c>
+      <c r="J86" s="36">
+        <v>11</v>
+      </c>
+      <c r="K86" s="36">
+        <v>11</v>
+      </c>
+      <c r="L86" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B87" s="36">
+        <v>12</v>
+      </c>
+      <c r="C87" s="36">
+        <v>12</v>
+      </c>
+      <c r="D87" s="36">
+        <v>51</v>
+      </c>
+      <c r="F87" s="36">
+        <v>12</v>
+      </c>
+      <c r="G87" s="36">
+        <v>12</v>
+      </c>
+      <c r="H87" s="36">
+        <v>3</v>
+      </c>
+      <c r="J87" s="36">
+        <v>12</v>
+      </c>
+      <c r="K87" s="36">
+        <v>12</v>
+      </c>
+      <c r="L87" s="36">
         <v>1</v>
       </c>
-      <c r="S76" s="36">
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B88" s="36">
+        <v>13</v>
+      </c>
+      <c r="C88" s="36">
+        <v>13</v>
+      </c>
+      <c r="D88" s="36">
+        <v>56</v>
+      </c>
+      <c r="F88" s="36">
+        <v>13</v>
+      </c>
+      <c r="G88" s="36">
+        <v>13</v>
+      </c>
+      <c r="H88" s="36">
+        <v>4</v>
+      </c>
+      <c r="J88" s="36">
+        <v>13</v>
+      </c>
+      <c r="K88" s="36">
+        <v>13</v>
+      </c>
+      <c r="L88" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B77" s="44">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B89" s="36">
+        <v>14</v>
+      </c>
+      <c r="C89" s="36">
+        <v>14</v>
+      </c>
+      <c r="D89" s="36">
+        <v>62</v>
+      </c>
+      <c r="F89" s="36">
+        <v>14</v>
+      </c>
+      <c r="G89" s="36">
+        <v>14</v>
+      </c>
+      <c r="H89" s="36">
+        <v>4</v>
+      </c>
+      <c r="J89" s="36">
+        <v>14</v>
+      </c>
+      <c r="K89" s="36">
+        <v>14</v>
+      </c>
+      <c r="L89" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B90" s="36">
+        <v>15</v>
+      </c>
+      <c r="C90" s="36">
+        <v>15</v>
+      </c>
+      <c r="D90" s="36">
+        <v>68</v>
+      </c>
+      <c r="F90" s="36">
+        <v>15</v>
+      </c>
+      <c r="G90" s="36">
+        <v>15</v>
+      </c>
+      <c r="H90" s="36">
+        <v>5</v>
+      </c>
+      <c r="J90" s="36">
+        <v>15</v>
+      </c>
+      <c r="K90" s="36">
+        <v>15</v>
+      </c>
+      <c r="L90" s="36">
         <v>2</v>
       </c>
-      <c r="C77" s="44">
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B91" s="36">
+        <v>16</v>
+      </c>
+      <c r="C91" s="36">
+        <v>16</v>
+      </c>
+      <c r="D91" s="36">
+        <v>75</v>
+      </c>
+      <c r="F91" s="36">
+        <v>16</v>
+      </c>
+      <c r="G91" s="36">
+        <v>16</v>
+      </c>
+      <c r="H91" s="36">
+        <v>5</v>
+      </c>
+      <c r="J91" s="36">
+        <v>16</v>
+      </c>
+      <c r="K91" s="36">
+        <v>16</v>
+      </c>
+      <c r="L91" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B92" s="36">
+        <v>17</v>
+      </c>
+      <c r="C92" s="36">
+        <v>17</v>
+      </c>
+      <c r="D92" s="36">
+        <v>83</v>
+      </c>
+      <c r="F92" s="36">
+        <v>17</v>
+      </c>
+      <c r="G92" s="36">
+        <v>17</v>
+      </c>
+      <c r="H92" s="36">
+        <v>6</v>
+      </c>
+      <c r="J92" s="36">
+        <v>17</v>
+      </c>
+      <c r="K92" s="36">
+        <v>17</v>
+      </c>
+      <c r="L92" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B93" s="36">
+        <v>18</v>
+      </c>
+      <c r="C93" s="36">
+        <v>18</v>
+      </c>
+      <c r="D93" s="36">
+        <v>91</v>
+      </c>
+      <c r="F93" s="36">
+        <v>18</v>
+      </c>
+      <c r="G93" s="36">
+        <v>18</v>
+      </c>
+      <c r="H93" s="36">
+        <v>6</v>
+      </c>
+      <c r="J93" s="36">
+        <v>18</v>
+      </c>
+      <c r="K93" s="36">
+        <v>18</v>
+      </c>
+      <c r="L93" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B94" s="36">
+        <v>19</v>
+      </c>
+      <c r="C94" s="36">
+        <v>19</v>
+      </c>
+      <c r="D94" s="36">
+        <v>100</v>
+      </c>
+      <c r="F94" s="36">
+        <v>19</v>
+      </c>
+      <c r="G94" s="36">
+        <v>19</v>
+      </c>
+      <c r="H94" s="36">
+        <v>7</v>
+      </c>
+      <c r="J94" s="36">
+        <v>19</v>
+      </c>
+      <c r="K94" s="36">
+        <v>19</v>
+      </c>
+      <c r="L94" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B95" s="36">
+        <v>20</v>
+      </c>
+      <c r="C95" s="36">
+        <v>20</v>
+      </c>
+      <c r="D95" s="36">
+        <v>110</v>
+      </c>
+      <c r="F95" s="36">
+        <v>20</v>
+      </c>
+      <c r="G95" s="36">
+        <v>20</v>
+      </c>
+      <c r="H95" s="36">
+        <v>7</v>
+      </c>
+      <c r="J95" s="36">
+        <v>20</v>
+      </c>
+      <c r="K95" s="36">
+        <v>20</v>
+      </c>
+      <c r="L95" s="36">
         <v>2</v>
       </c>
-      <c r="D77" s="44">
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B96" s="36">
+        <v>21</v>
+      </c>
+      <c r="C96" s="36">
+        <v>21</v>
+      </c>
+      <c r="D96" s="36">
+        <v>121</v>
+      </c>
+      <c r="F96" s="36">
+        <v>21</v>
+      </c>
+      <c r="G96" s="36">
+        <v>21</v>
+      </c>
+      <c r="H96" s="36">
+        <v>8</v>
+      </c>
+      <c r="J96" s="36">
+        <v>21</v>
+      </c>
+      <c r="K96" s="36">
+        <v>21</v>
+      </c>
+      <c r="L96" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B97" s="36">
+        <v>22</v>
+      </c>
+      <c r="C97" s="36">
+        <v>22</v>
+      </c>
+      <c r="D97" s="36">
+        <v>133</v>
+      </c>
+      <c r="F97" s="36">
+        <v>22</v>
+      </c>
+      <c r="G97" s="36">
+        <v>22</v>
+      </c>
+      <c r="H97" s="36">
+        <v>8</v>
+      </c>
+      <c r="J97" s="36">
+        <v>22</v>
+      </c>
+      <c r="K97" s="36">
+        <v>22</v>
+      </c>
+      <c r="L97" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B98" s="36">
+        <v>23</v>
+      </c>
+      <c r="C98" s="36">
+        <v>23</v>
+      </c>
+      <c r="D98" s="36">
+        <v>146</v>
+      </c>
+      <c r="F98" s="36">
+        <v>23</v>
+      </c>
+      <c r="G98" s="36">
+        <v>23</v>
+      </c>
+      <c r="H98" s="36">
+        <v>9</v>
+      </c>
+      <c r="J98" s="36">
+        <v>23</v>
+      </c>
+      <c r="K98" s="36">
+        <v>23</v>
+      </c>
+      <c r="L98" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B99" s="36">
+        <v>24</v>
+      </c>
+      <c r="C99" s="36">
+        <v>24</v>
+      </c>
+      <c r="D99" s="36">
+        <v>161</v>
+      </c>
+      <c r="F99" s="36">
+        <v>24</v>
+      </c>
+      <c r="G99" s="36">
+        <v>24</v>
+      </c>
+      <c r="H99" s="36">
+        <v>9</v>
+      </c>
+      <c r="J99" s="36">
+        <v>24</v>
+      </c>
+      <c r="K99" s="36">
+        <v>24</v>
+      </c>
+      <c r="L99" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B100" s="36">
+        <v>25</v>
+      </c>
+      <c r="C100" s="36">
+        <v>25</v>
+      </c>
+      <c r="D100" s="36">
+        <v>177</v>
+      </c>
+      <c r="F100" s="36">
+        <v>25</v>
+      </c>
+      <c r="G100" s="36">
+        <v>25</v>
+      </c>
+      <c r="H100" s="36">
         <v>10</v>
       </c>
-      <c r="E77" s="28">
+      <c r="J100" s="36">
+        <v>25</v>
+      </c>
+      <c r="K100" s="36">
+        <v>25</v>
+      </c>
+      <c r="L100" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B101" s="36">
+        <v>26</v>
+      </c>
+      <c r="C101" s="36">
+        <v>26</v>
+      </c>
+      <c r="D101" s="36">
+        <v>195</v>
+      </c>
+      <c r="F101" s="36">
+        <v>26</v>
+      </c>
+      <c r="G101" s="36">
+        <v>26</v>
+      </c>
+      <c r="H101" s="36">
+        <v>10</v>
+      </c>
+      <c r="J101" s="36">
+        <v>26</v>
+      </c>
+      <c r="K101" s="36">
+        <v>26</v>
+      </c>
+      <c r="L101" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B102" s="36">
+        <v>27</v>
+      </c>
+      <c r="C102" s="36">
+        <v>27</v>
+      </c>
+      <c r="D102" s="36">
+        <v>215</v>
+      </c>
+      <c r="F102" s="36">
+        <v>27</v>
+      </c>
+      <c r="G102" s="36">
+        <v>27</v>
+      </c>
+      <c r="H102" s="36">
+        <v>11</v>
+      </c>
+      <c r="J102" s="36">
+        <v>27</v>
+      </c>
+      <c r="K102" s="36">
+        <v>27</v>
+      </c>
+      <c r="L102" s="36">
         <v>1</v>
       </c>
-      <c r="F77" s="44">
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B103" s="36">
+        <v>28</v>
+      </c>
+      <c r="C103" s="36">
+        <v>28</v>
+      </c>
+      <c r="D103" s="36">
+        <v>237</v>
+      </c>
+      <c r="F103" s="36">
+        <v>28</v>
+      </c>
+      <c r="G103" s="36">
+        <v>28</v>
+      </c>
+      <c r="H103" s="36">
+        <v>11</v>
+      </c>
+      <c r="J103" s="36">
+        <v>28</v>
+      </c>
+      <c r="K103" s="36">
+        <v>28</v>
+      </c>
+      <c r="L103" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B104" s="36">
+        <v>29</v>
+      </c>
+      <c r="C104" s="36">
+        <v>29</v>
+      </c>
+      <c r="D104" s="36">
+        <v>261</v>
+      </c>
+      <c r="F104" s="36">
+        <v>29</v>
+      </c>
+      <c r="G104" s="36">
+        <v>29</v>
+      </c>
+      <c r="H104" s="36">
+        <v>12</v>
+      </c>
+      <c r="J104" s="36">
+        <v>29</v>
+      </c>
+      <c r="K104" s="36">
+        <v>29</v>
+      </c>
+      <c r="L104" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B105" s="36">
+        <v>30</v>
+      </c>
+      <c r="C105" s="36">
+        <v>30</v>
+      </c>
+      <c r="D105" s="36">
+        <v>287</v>
+      </c>
+      <c r="F105" s="36">
+        <v>30</v>
+      </c>
+      <c r="G105" s="36">
+        <v>30</v>
+      </c>
+      <c r="H105" s="36">
+        <v>12</v>
+      </c>
+      <c r="J105" s="36">
+        <v>30</v>
+      </c>
+      <c r="K105" s="36">
+        <v>30</v>
+      </c>
+      <c r="L105" s="36">
         <v>2</v>
       </c>
-      <c r="G77" s="49">
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B106" s="36">
+        <v>31</v>
+      </c>
+      <c r="C106" s="36">
+        <v>31</v>
+      </c>
+      <c r="D106" s="36">
+        <v>316</v>
+      </c>
+      <c r="F106" s="36">
+        <v>31</v>
+      </c>
+      <c r="G106" s="36">
+        <v>31</v>
+      </c>
+      <c r="H106" s="36">
+        <v>13</v>
+      </c>
+      <c r="J106" s="36">
+        <v>31</v>
+      </c>
+      <c r="K106" s="36">
+        <v>31</v>
+      </c>
+      <c r="L106" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B107" s="36">
+        <v>32</v>
+      </c>
+      <c r="C107" s="36">
+        <v>32</v>
+      </c>
+      <c r="D107" s="36">
+        <v>348</v>
+      </c>
+      <c r="F107" s="36">
+        <v>32</v>
+      </c>
+      <c r="G107" s="36">
+        <v>32</v>
+      </c>
+      <c r="H107" s="36">
+        <v>14</v>
+      </c>
+      <c r="J107" s="36">
+        <v>32</v>
+      </c>
+      <c r="K107" s="36">
+        <v>32</v>
+      </c>
+      <c r="L107" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B108" s="36">
+        <v>33</v>
+      </c>
+      <c r="C108" s="36">
+        <v>33</v>
+      </c>
+      <c r="D108" s="36">
+        <v>383</v>
+      </c>
+      <c r="F108" s="36">
+        <v>33</v>
+      </c>
+      <c r="G108" s="36">
+        <v>33</v>
+      </c>
+      <c r="H108" s="36">
+        <v>15</v>
+      </c>
+      <c r="J108" s="36">
+        <v>33</v>
+      </c>
+      <c r="K108" s="36">
+        <v>33</v>
+      </c>
+      <c r="L108" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B109" s="36">
+        <v>34</v>
+      </c>
+      <c r="C109" s="36">
+        <v>34</v>
+      </c>
+      <c r="D109" s="36">
+        <v>421</v>
+      </c>
+      <c r="F109" s="36">
+        <v>34</v>
+      </c>
+      <c r="G109" s="36">
+        <v>34</v>
+      </c>
+      <c r="H109" s="36">
+        <v>16</v>
+      </c>
+      <c r="J109" s="36">
+        <v>34</v>
+      </c>
+      <c r="K109" s="36">
+        <v>34</v>
+      </c>
+      <c r="L109" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B110" s="36">
+        <v>35</v>
+      </c>
+      <c r="C110" s="36">
+        <v>35</v>
+      </c>
+      <c r="D110" s="36">
+        <v>463</v>
+      </c>
+      <c r="F110" s="36">
+        <v>35</v>
+      </c>
+      <c r="G110" s="36">
+        <v>35</v>
+      </c>
+      <c r="H110" s="36">
+        <v>17</v>
+      </c>
+      <c r="J110" s="36">
+        <v>35</v>
+      </c>
+      <c r="K110" s="36">
+        <v>35</v>
+      </c>
+      <c r="L110" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B111" s="36">
+        <v>36</v>
+      </c>
+      <c r="C111" s="36">
+        <v>36</v>
+      </c>
+      <c r="D111" s="36">
+        <v>509</v>
+      </c>
+      <c r="F111" s="36">
+        <v>36</v>
+      </c>
+      <c r="G111" s="36">
+        <v>36</v>
+      </c>
+      <c r="H111" s="36">
+        <v>18</v>
+      </c>
+      <c r="J111" s="36">
+        <v>36</v>
+      </c>
+      <c r="K111" s="36">
+        <v>36</v>
+      </c>
+      <c r="L111" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B112" s="36">
+        <v>37</v>
+      </c>
+      <c r="C112" s="36">
+        <v>37</v>
+      </c>
+      <c r="D112" s="36">
+        <v>560</v>
+      </c>
+      <c r="F112" s="36">
+        <v>37</v>
+      </c>
+      <c r="G112" s="36">
+        <v>37</v>
+      </c>
+      <c r="H112" s="36">
+        <v>19</v>
+      </c>
+      <c r="J112" s="36">
+        <v>37</v>
+      </c>
+      <c r="K112" s="36">
+        <v>37</v>
+      </c>
+      <c r="L112" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B113" s="36">
+        <v>38</v>
+      </c>
+      <c r="C113" s="36">
+        <v>38</v>
+      </c>
+      <c r="D113" s="36">
+        <v>616</v>
+      </c>
+      <c r="F113" s="36">
+        <v>38</v>
+      </c>
+      <c r="G113" s="36">
+        <v>38</v>
+      </c>
+      <c r="H113" s="36">
+        <v>20</v>
+      </c>
+      <c r="J113" s="36">
+        <v>38</v>
+      </c>
+      <c r="K113" s="36">
+        <v>38</v>
+      </c>
+      <c r="L113" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B114" s="36">
+        <v>39</v>
+      </c>
+      <c r="C114" s="36">
+        <v>39</v>
+      </c>
+      <c r="D114" s="36">
+        <v>678</v>
+      </c>
+      <c r="F114" s="36">
+        <v>39</v>
+      </c>
+      <c r="G114" s="36">
+        <v>39</v>
+      </c>
+      <c r="H114" s="36">
+        <v>21</v>
+      </c>
+      <c r="J114" s="36">
+        <v>39</v>
+      </c>
+      <c r="K114" s="36">
+        <v>39</v>
+      </c>
+      <c r="L114" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B115" s="36">
+        <v>40</v>
+      </c>
+      <c r="C115" s="36">
+        <v>40</v>
+      </c>
+      <c r="D115" s="36">
+        <v>746</v>
+      </c>
+      <c r="F115" s="36">
+        <v>40</v>
+      </c>
+      <c r="G115" s="36">
+        <v>40</v>
+      </c>
+      <c r="H115" s="36">
+        <v>22</v>
+      </c>
+      <c r="J115" s="36">
+        <v>40</v>
+      </c>
+      <c r="K115" s="36">
+        <v>40</v>
+      </c>
+      <c r="L115" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B116" s="36">
+        <v>41</v>
+      </c>
+      <c r="C116" s="36">
+        <v>41</v>
+      </c>
+      <c r="D116" s="36">
+        <v>858</v>
+      </c>
+      <c r="F116" s="36">
+        <v>41</v>
+      </c>
+      <c r="G116" s="36">
+        <v>41</v>
+      </c>
+      <c r="H116" s="36">
+        <v>24</v>
+      </c>
+      <c r="J116" s="36">
+        <v>41</v>
+      </c>
+      <c r="K116" s="36">
+        <v>41</v>
+      </c>
+      <c r="L116" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B117" s="36">
+        <v>42</v>
+      </c>
+      <c r="C117" s="36">
+        <v>42</v>
+      </c>
+      <c r="D117" s="36">
+        <v>987</v>
+      </c>
+      <c r="F117" s="36">
+        <v>42</v>
+      </c>
+      <c r="G117" s="36">
+        <v>42</v>
+      </c>
+      <c r="H117" s="36">
+        <v>26</v>
+      </c>
+      <c r="J117" s="36">
+        <v>42</v>
+      </c>
+      <c r="K117" s="36">
+        <v>42</v>
+      </c>
+      <c r="L117" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B118" s="36">
+        <v>43</v>
+      </c>
+      <c r="C118" s="36">
+        <v>43</v>
+      </c>
+      <c r="D118" s="36">
+        <v>1135</v>
+      </c>
+      <c r="F118" s="36">
+        <v>43</v>
+      </c>
+      <c r="G118" s="36">
+        <v>43</v>
+      </c>
+      <c r="H118" s="36">
+        <v>28</v>
+      </c>
+      <c r="J118" s="36">
+        <v>43</v>
+      </c>
+      <c r="K118" s="36">
+        <v>43</v>
+      </c>
+      <c r="L118" s="36">
         <v>10</v>
       </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49">
-        <v>0</v>
-      </c>
-      <c r="J77" s="49"/>
-      <c r="M77" s="36">
-        <v>2</v>
-      </c>
-      <c r="N77" s="36">
-        <v>2</v>
-      </c>
-      <c r="O77" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="36">
-        <v>2</v>
-      </c>
-      <c r="R77" s="36">
-        <v>2</v>
-      </c>
-      <c r="S77" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B78" s="44">
-        <v>3</v>
-      </c>
-      <c r="C78" s="44">
-        <v>3</v>
-      </c>
-      <c r="D78" s="44">
-        <v>14</v>
-      </c>
-      <c r="E78" s="28">
-        <v>1</v>
-      </c>
-      <c r="F78" s="44">
-        <v>2</v>
-      </c>
-      <c r="G78" s="49">
-        <v>14</v>
-      </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49">
-        <v>0</v>
-      </c>
-      <c r="J78" s="49"/>
-      <c r="M78" s="36">
-        <v>3</v>
-      </c>
-      <c r="N78" s="36">
-        <v>3</v>
-      </c>
-      <c r="O78" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="36">
-        <v>3</v>
-      </c>
-      <c r="R78" s="36">
-        <v>3</v>
-      </c>
-      <c r="S78" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B79" s="44">
-        <v>4</v>
-      </c>
-      <c r="C79" s="44">
-        <v>4</v>
-      </c>
-      <c r="D79" s="44">
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B119" s="36">
+        <v>44</v>
+      </c>
+      <c r="C119" s="36">
+        <v>44</v>
+      </c>
+      <c r="D119" s="36">
+        <v>1305</v>
+      </c>
+      <c r="F119" s="36">
+        <v>44</v>
+      </c>
+      <c r="G119" s="36">
+        <v>44</v>
+      </c>
+      <c r="H119" s="36">
+        <v>30</v>
+      </c>
+      <c r="J119" s="36">
+        <v>44</v>
+      </c>
+      <c r="K119" s="36">
+        <v>44</v>
+      </c>
+      <c r="L119" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B120" s="36">
+        <v>45</v>
+      </c>
+      <c r="C120" s="36">
+        <v>45</v>
+      </c>
+      <c r="D120" s="36">
+        <v>1501</v>
+      </c>
+      <c r="F120" s="36">
+        <v>45</v>
+      </c>
+      <c r="G120" s="36">
+        <v>45</v>
+      </c>
+      <c r="H120" s="36">
+        <v>32</v>
+      </c>
+      <c r="J120" s="36">
+        <v>45</v>
+      </c>
+      <c r="K120" s="36">
+        <v>45</v>
+      </c>
+      <c r="L120" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B121" s="36">
+        <v>46</v>
+      </c>
+      <c r="C121" s="36">
+        <v>46</v>
+      </c>
+      <c r="D121" s="36">
+        <v>1726</v>
+      </c>
+      <c r="F121" s="36">
+        <v>46</v>
+      </c>
+      <c r="G121" s="36">
+        <v>46</v>
+      </c>
+      <c r="H121" s="36">
+        <v>36</v>
+      </c>
+      <c r="J121" s="36">
+        <v>46</v>
+      </c>
+      <c r="K121" s="36">
+        <v>46</v>
+      </c>
+      <c r="L121" s="36">
         <v>18</v>
       </c>
-      <c r="E79" s="28">
-        <v>1</v>
-      </c>
-      <c r="F79" s="44">
-        <v>2</v>
-      </c>
-      <c r="G79" s="49">
-        <v>18</v>
-      </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49">
-        <v>0</v>
-      </c>
-      <c r="J79" s="49"/>
-      <c r="M79" s="36">
-        <v>4</v>
-      </c>
-      <c r="N79" s="36">
-        <v>4</v>
-      </c>
-      <c r="O79" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="36">
-        <v>4</v>
-      </c>
-      <c r="R79" s="36">
-        <v>4</v>
-      </c>
-      <c r="S79" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B80" s="44">
-        <v>5</v>
-      </c>
-      <c r="C80" s="44">
-        <v>5</v>
-      </c>
-      <c r="D80" s="44">
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B122" s="36">
+        <v>47</v>
+      </c>
+      <c r="C122" s="36">
+        <v>47</v>
+      </c>
+      <c r="D122" s="36">
+        <v>1985</v>
+      </c>
+      <c r="F122" s="36">
+        <v>47</v>
+      </c>
+      <c r="G122" s="36">
+        <v>47</v>
+      </c>
+      <c r="H122" s="36">
+        <v>40</v>
+      </c>
+      <c r="J122" s="36">
+        <v>47</v>
+      </c>
+      <c r="K122" s="36">
+        <v>47</v>
+      </c>
+      <c r="L122" s="36">
         <v>22</v>
       </c>
-      <c r="E80" s="28">
-        <v>1</v>
-      </c>
-      <c r="F80" s="44">
-        <v>2</v>
-      </c>
-      <c r="G80" s="49">
-        <v>22</v>
-      </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49">
-        <v>0</v>
-      </c>
-      <c r="J80" s="49"/>
-      <c r="M80" s="36">
-        <v>5</v>
-      </c>
-      <c r="N80" s="36">
-        <v>5</v>
-      </c>
-      <c r="O80" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="36">
-        <v>5</v>
-      </c>
-      <c r="R80" s="36">
-        <v>5</v>
-      </c>
-      <c r="S80" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B81" s="44">
-        <v>6</v>
-      </c>
-      <c r="C81" s="44">
-        <v>6</v>
-      </c>
-      <c r="D81" s="44">
-        <v>26</v>
-      </c>
-      <c r="E81" s="28">
-        <v>1</v>
-      </c>
-      <c r="F81" s="28">
-        <v>2</v>
-      </c>
-      <c r="G81" s="49">
-        <v>13</v>
-      </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49">
-        <v>13</v>
-      </c>
-      <c r="J81" s="49"/>
-      <c r="M81" s="36">
-        <v>6</v>
-      </c>
-      <c r="N81" s="36">
-        <v>6</v>
-      </c>
-      <c r="O81" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="36">
-        <v>6</v>
-      </c>
-      <c r="R81" s="36">
-        <v>6</v>
-      </c>
-      <c r="S81" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B82" s="44">
-        <v>7</v>
-      </c>
-      <c r="C82" s="44">
-        <v>7</v>
-      </c>
-      <c r="D82" s="44">
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B123" s="36">
+        <v>48</v>
+      </c>
+      <c r="C123" s="36">
+        <v>48</v>
+      </c>
+      <c r="D123" s="36">
+        <v>2283</v>
+      </c>
+      <c r="F123" s="36">
+        <v>48</v>
+      </c>
+      <c r="G123" s="36">
+        <v>48</v>
+      </c>
+      <c r="H123" s="36">
+        <v>44</v>
+      </c>
+      <c r="J123" s="36">
+        <v>48</v>
+      </c>
+      <c r="K123" s="36">
+        <v>48</v>
+      </c>
+      <c r="L123" s="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B124" s="36">
+        <v>49</v>
+      </c>
+      <c r="C124" s="36">
+        <v>49</v>
+      </c>
+      <c r="D124" s="36">
+        <v>2625</v>
+      </c>
+      <c r="F124" s="36">
+        <v>49</v>
+      </c>
+      <c r="G124" s="36">
+        <v>49</v>
+      </c>
+      <c r="H124" s="36">
+        <v>48</v>
+      </c>
+      <c r="J124" s="36">
+        <v>49</v>
+      </c>
+      <c r="K124" s="36">
+        <v>49</v>
+      </c>
+      <c r="L124" s="36">
         <v>30</v>
       </c>
-      <c r="E82" s="28">
-        <v>1</v>
-      </c>
-      <c r="F82" s="28">
-        <v>2</v>
-      </c>
-      <c r="G82" s="49">
-        <v>15</v>
-      </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49">
-        <v>15</v>
-      </c>
-      <c r="J82" s="49"/>
-      <c r="M82" s="36">
-        <v>7</v>
-      </c>
-      <c r="N82" s="36">
-        <v>7</v>
-      </c>
-      <c r="O82" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="36">
-        <v>7</v>
-      </c>
-      <c r="R82" s="36">
-        <v>7</v>
-      </c>
-      <c r="S82" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B83" s="44">
-        <v>8</v>
-      </c>
-      <c r="C83" s="44">
-        <v>8</v>
-      </c>
-      <c r="D83" s="44">
-        <v>34</v>
-      </c>
-      <c r="E83" s="28">
-        <v>1</v>
-      </c>
-      <c r="F83" s="28">
-        <v>2</v>
-      </c>
-      <c r="G83" s="49">
-        <v>17</v>
-      </c>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49">
-        <v>17</v>
-      </c>
-      <c r="J83" s="49"/>
-      <c r="M83" s="36">
-        <v>8</v>
-      </c>
-      <c r="N83" s="36">
-        <v>8</v>
-      </c>
-      <c r="O83" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="36">
-        <v>8</v>
-      </c>
-      <c r="R83" s="36">
-        <v>8</v>
-      </c>
-      <c r="S83" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B84" s="44">
-        <v>9</v>
-      </c>
-      <c r="C84" s="44">
-        <v>9</v>
-      </c>
-      <c r="D84" s="44">
-        <v>38</v>
-      </c>
-      <c r="E84" s="28">
-        <v>1</v>
-      </c>
-      <c r="F84" s="28">
-        <v>2</v>
-      </c>
-      <c r="G84" s="49">
-        <v>19</v>
-      </c>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49">
-        <v>19</v>
-      </c>
-      <c r="J84" s="49"/>
-      <c r="M84" s="36">
-        <v>9</v>
-      </c>
-      <c r="N84" s="36">
-        <v>9</v>
-      </c>
-      <c r="O84" s="36">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="36">
-        <v>9</v>
-      </c>
-      <c r="R84" s="36">
-        <v>9</v>
-      </c>
-      <c r="S84" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B85" s="44">
-        <v>10</v>
-      </c>
-      <c r="C85" s="44">
-        <v>10</v>
-      </c>
-      <c r="D85" s="44">
-        <v>42</v>
-      </c>
-      <c r="E85" s="28">
-        <v>1</v>
-      </c>
-      <c r="F85" s="28">
-        <v>2</v>
-      </c>
-      <c r="G85" s="49">
-        <v>21</v>
-      </c>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49">
-        <v>21</v>
-      </c>
-      <c r="J85" s="49"/>
-      <c r="M85" s="36">
-        <v>10</v>
-      </c>
-      <c r="N85" s="36">
-        <v>10</v>
-      </c>
-      <c r="O85" s="36">
-        <v>2</v>
-      </c>
-      <c r="Q85" s="36">
-        <v>10</v>
-      </c>
-      <c r="R85" s="36">
-        <v>10</v>
-      </c>
-      <c r="S85" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B86" s="44">
-        <v>11</v>
-      </c>
-      <c r="C86" s="44">
-        <v>11</v>
-      </c>
-      <c r="D86" s="44">
-        <v>46</v>
-      </c>
-      <c r="E86" s="28">
-        <v>2</v>
-      </c>
-      <c r="F86" s="28">
-        <v>3</v>
-      </c>
-      <c r="G86" s="49">
-        <v>23</v>
-      </c>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49">
-        <v>23</v>
-      </c>
-      <c r="J86" s="49"/>
-      <c r="M86" s="36">
-        <v>11</v>
-      </c>
-      <c r="N86" s="36">
-        <v>11</v>
-      </c>
-      <c r="O86" s="36">
-        <v>3</v>
-      </c>
-      <c r="Q86" s="36">
-        <v>11</v>
-      </c>
-      <c r="R86" s="36">
-        <v>11</v>
-      </c>
-      <c r="S86" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B87" s="44">
-        <v>12</v>
-      </c>
-      <c r="C87" s="44">
-        <v>12</v>
-      </c>
-      <c r="D87" s="44">
-        <v>51</v>
-      </c>
-      <c r="E87" s="28">
-        <v>2</v>
-      </c>
-      <c r="F87" s="28">
-        <v>3</v>
-      </c>
-      <c r="G87" s="49">
-        <v>26</v>
-      </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49">
-        <v>25</v>
-      </c>
-      <c r="J87" s="49"/>
-      <c r="M87" s="36">
-        <v>12</v>
-      </c>
-      <c r="N87" s="36">
-        <v>12</v>
-      </c>
-      <c r="O87" s="36">
-        <v>3</v>
-      </c>
-      <c r="Q87" s="36">
-        <v>12</v>
-      </c>
-      <c r="R87" s="36">
-        <v>12</v>
-      </c>
-      <c r="S87" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B88" s="44">
-        <v>13</v>
-      </c>
-      <c r="C88" s="44">
-        <v>13</v>
-      </c>
-      <c r="D88" s="44">
-        <v>56</v>
-      </c>
-      <c r="E88" s="28">
-        <v>2</v>
-      </c>
-      <c r="F88" s="28">
-        <v>3</v>
-      </c>
-      <c r="G88" s="49">
-        <v>28</v>
-      </c>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49">
-        <v>28</v>
-      </c>
-      <c r="J88" s="49"/>
-      <c r="M88" s="36">
-        <v>13</v>
-      </c>
-      <c r="N88" s="36">
-        <v>13</v>
-      </c>
-      <c r="O88" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q88" s="36">
-        <v>13</v>
-      </c>
-      <c r="R88" s="36">
-        <v>13</v>
-      </c>
-      <c r="S88" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B89" s="44">
-        <v>14</v>
-      </c>
-      <c r="C89" s="44">
-        <v>14</v>
-      </c>
-      <c r="D89" s="44">
-        <v>62</v>
-      </c>
-      <c r="E89" s="28">
-        <v>2</v>
-      </c>
-      <c r="F89" s="28">
-        <v>3</v>
-      </c>
-      <c r="G89" s="49">
-        <v>31</v>
-      </c>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49">
-        <v>31</v>
-      </c>
-      <c r="J89" s="49"/>
-      <c r="M89" s="36">
-        <v>14</v>
-      </c>
-      <c r="N89" s="36">
-        <v>14</v>
-      </c>
-      <c r="O89" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="36">
-        <v>14</v>
-      </c>
-      <c r="R89" s="36">
-        <v>14</v>
-      </c>
-      <c r="S89" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B90" s="44">
-        <v>15</v>
-      </c>
-      <c r="C90" s="44">
-        <v>15</v>
-      </c>
-      <c r="D90" s="44">
-        <v>68</v>
-      </c>
-      <c r="E90" s="28">
-        <v>2</v>
-      </c>
-      <c r="F90" s="28">
-        <v>3</v>
-      </c>
-      <c r="G90" s="49">
-        <v>34</v>
-      </c>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49">
-        <v>34</v>
-      </c>
-      <c r="J90" s="49"/>
-      <c r="M90" s="36">
-        <v>15</v>
-      </c>
-      <c r="N90" s="36">
-        <v>15</v>
-      </c>
-      <c r="O90" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q90" s="36">
-        <v>15</v>
-      </c>
-      <c r="R90" s="36">
-        <v>15</v>
-      </c>
-      <c r="S90" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B91" s="44">
-        <v>16</v>
-      </c>
-      <c r="C91" s="44">
-        <v>16</v>
-      </c>
-      <c r="D91" s="44">
-        <v>75</v>
-      </c>
-      <c r="E91" s="28">
-        <v>3</v>
-      </c>
-      <c r="F91" s="28">
-        <v>4</v>
-      </c>
-      <c r="G91" s="49">
-        <v>38</v>
-      </c>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49">
-        <v>37</v>
-      </c>
-      <c r="J91" s="49"/>
-      <c r="M91" s="36">
-        <v>16</v>
-      </c>
-      <c r="N91" s="36">
-        <v>16</v>
-      </c>
-      <c r="O91" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="36">
-        <v>16</v>
-      </c>
-      <c r="R91" s="36">
-        <v>16</v>
-      </c>
-      <c r="S91" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B92" s="44">
-        <v>17</v>
-      </c>
-      <c r="C92" s="44">
-        <v>17</v>
-      </c>
-      <c r="D92" s="44">
-        <v>83</v>
-      </c>
-      <c r="E92" s="28">
-        <v>3</v>
-      </c>
-      <c r="F92" s="28">
-        <v>4</v>
-      </c>
-      <c r="G92" s="49">
-        <v>42</v>
-      </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49">
-        <v>41</v>
-      </c>
-      <c r="J92" s="49"/>
-      <c r="M92" s="36">
-        <v>17</v>
-      </c>
-      <c r="N92" s="36">
-        <v>17</v>
-      </c>
-      <c r="O92" s="36">
-        <v>6</v>
-      </c>
-      <c r="Q92" s="36">
-        <v>17</v>
-      </c>
-      <c r="R92" s="36">
-        <v>17</v>
-      </c>
-      <c r="S92" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B93" s="44">
-        <v>18</v>
-      </c>
-      <c r="C93" s="44">
-        <v>18</v>
-      </c>
-      <c r="D93" s="44">
-        <v>91</v>
-      </c>
-      <c r="E93" s="28">
-        <v>3</v>
-      </c>
-      <c r="F93" s="28">
-        <v>4</v>
-      </c>
-      <c r="G93" s="49">
-        <v>46</v>
-      </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
-        <v>45</v>
-      </c>
-      <c r="J93" s="49"/>
-      <c r="M93" s="36">
-        <v>18</v>
-      </c>
-      <c r="N93" s="36">
-        <v>18</v>
-      </c>
-      <c r="O93" s="36">
-        <v>6</v>
-      </c>
-      <c r="Q93" s="36">
-        <v>18</v>
-      </c>
-      <c r="R93" s="36">
-        <v>18</v>
-      </c>
-      <c r="S93" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B94" s="44">
-        <v>19</v>
-      </c>
-      <c r="C94" s="44">
-        <v>19</v>
-      </c>
-      <c r="D94" s="44">
-        <v>100</v>
-      </c>
-      <c r="E94" s="28">
-        <v>3</v>
-      </c>
-      <c r="F94" s="28">
-        <v>4</v>
-      </c>
-      <c r="G94" s="49">
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B125" s="36">
         <v>50</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="C125" s="36">
         <v>50</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="M94" s="36">
-        <v>19</v>
-      </c>
-      <c r="N94" s="36">
-        <v>19</v>
-      </c>
-      <c r="O94" s="36">
-        <v>7</v>
-      </c>
-      <c r="Q94" s="36">
-        <v>19</v>
-      </c>
-      <c r="R94" s="36">
-        <v>19</v>
-      </c>
-      <c r="S94" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B95" s="44">
-        <v>20</v>
-      </c>
-      <c r="C95" s="44">
-        <v>20</v>
-      </c>
-      <c r="D95" s="44">
-        <v>110</v>
-      </c>
-      <c r="E95" s="28">
-        <v>3</v>
-      </c>
-      <c r="F95" s="28">
-        <v>4</v>
-      </c>
-      <c r="G95" s="49">
-        <v>55</v>
-      </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
-        <v>55</v>
-      </c>
-      <c r="J95" s="49"/>
-      <c r="M95" s="36">
-        <v>20</v>
-      </c>
-      <c r="N95" s="36">
-        <v>20</v>
-      </c>
-      <c r="O95" s="36">
-        <v>7</v>
-      </c>
-      <c r="Q95" s="36">
-        <v>20</v>
-      </c>
-      <c r="R95" s="36">
-        <v>20</v>
-      </c>
-      <c r="S95" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B96" s="44">
-        <v>21</v>
-      </c>
-      <c r="C96" s="44">
-        <v>21</v>
-      </c>
-      <c r="D96" s="44">
-        <v>121</v>
-      </c>
-      <c r="E96" s="28">
-        <v>4</v>
-      </c>
-      <c r="F96" s="28">
-        <v>5</v>
-      </c>
-      <c r="G96" s="49">
-        <v>61</v>
-      </c>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49">
-        <v>60</v>
-      </c>
-      <c r="J96" s="49"/>
-      <c r="M96" s="36">
-        <v>21</v>
-      </c>
-      <c r="N96" s="36">
-        <v>21</v>
-      </c>
-      <c r="O96" s="36">
-        <v>8</v>
-      </c>
-      <c r="Q96" s="36">
-        <v>21</v>
-      </c>
-      <c r="R96" s="36">
-        <v>21</v>
-      </c>
-      <c r="S96" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B97" s="44">
-        <v>22</v>
-      </c>
-      <c r="C97" s="44">
-        <v>22</v>
-      </c>
-      <c r="D97" s="44">
-        <v>133</v>
-      </c>
-      <c r="E97" s="28">
-        <v>4</v>
-      </c>
-      <c r="F97" s="28">
-        <v>5</v>
-      </c>
-      <c r="G97" s="49">
-        <v>67</v>
-      </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
-        <v>66</v>
-      </c>
-      <c r="J97" s="49"/>
-      <c r="M97" s="36">
-        <v>22</v>
-      </c>
-      <c r="N97" s="36">
-        <v>22</v>
-      </c>
-      <c r="O97" s="36">
-        <v>8</v>
-      </c>
-      <c r="Q97" s="36">
-        <v>22</v>
-      </c>
-      <c r="R97" s="36">
-        <v>22</v>
-      </c>
-      <c r="S97" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B98" s="44">
-        <v>23</v>
-      </c>
-      <c r="C98" s="44">
-        <v>23</v>
-      </c>
-      <c r="D98" s="44">
-        <v>146</v>
-      </c>
-      <c r="E98" s="28">
-        <v>4</v>
-      </c>
-      <c r="F98" s="28">
-        <v>5</v>
-      </c>
-      <c r="G98" s="49">
-        <v>73</v>
-      </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
-        <v>73</v>
-      </c>
-      <c r="J98" s="49"/>
-      <c r="M98" s="36">
-        <v>23</v>
-      </c>
-      <c r="N98" s="36">
-        <v>23</v>
-      </c>
-      <c r="O98" s="36">
-        <v>9</v>
-      </c>
-      <c r="Q98" s="36">
-        <v>23</v>
-      </c>
-      <c r="R98" s="36">
-        <v>23</v>
-      </c>
-      <c r="S98" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B99" s="44">
-        <v>24</v>
-      </c>
-      <c r="C99" s="44">
-        <v>24</v>
-      </c>
-      <c r="D99" s="44">
-        <v>161</v>
-      </c>
-      <c r="E99" s="28">
-        <v>4</v>
-      </c>
-      <c r="F99" s="28">
-        <v>5</v>
-      </c>
-      <c r="G99" s="49">
-        <v>81</v>
-      </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
-        <v>80</v>
-      </c>
-      <c r="J99" s="49"/>
-      <c r="M99" s="36">
-        <v>24</v>
-      </c>
-      <c r="N99" s="36">
-        <v>24</v>
-      </c>
-      <c r="O99" s="36">
-        <v>9</v>
-      </c>
-      <c r="Q99" s="36">
-        <v>24</v>
-      </c>
-      <c r="R99" s="36">
-        <v>24</v>
-      </c>
-      <c r="S99" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B100" s="44">
-        <v>25</v>
-      </c>
-      <c r="C100" s="44">
-        <v>25</v>
-      </c>
-      <c r="D100" s="44">
-        <v>177</v>
-      </c>
-      <c r="E100" s="28">
-        <v>4</v>
-      </c>
-      <c r="F100" s="28">
-        <v>5</v>
-      </c>
-      <c r="G100" s="49">
-        <v>89</v>
-      </c>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49">
-        <v>88</v>
-      </c>
-      <c r="J100" s="49"/>
-      <c r="M100" s="36">
-        <v>25</v>
-      </c>
-      <c r="N100" s="36">
-        <v>25</v>
-      </c>
-      <c r="O100" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q100" s="36">
-        <v>25</v>
-      </c>
-      <c r="R100" s="36">
-        <v>25</v>
-      </c>
-      <c r="S100" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B101" s="44">
-        <v>26</v>
-      </c>
-      <c r="C101" s="44">
-        <v>26</v>
-      </c>
-      <c r="D101" s="44">
-        <v>195</v>
-      </c>
-      <c r="E101" s="28">
-        <v>5</v>
-      </c>
-      <c r="F101" s="28">
-        <v>6</v>
-      </c>
-      <c r="G101" s="49">
-        <v>98</v>
-      </c>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49">
-        <v>97</v>
-      </c>
-      <c r="J101" s="49"/>
-      <c r="M101" s="36">
-        <v>26</v>
-      </c>
-      <c r="N101" s="36">
-        <v>26</v>
-      </c>
-      <c r="O101" s="36">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="36">
-        <v>26</v>
-      </c>
-      <c r="R101" s="36">
-        <v>26</v>
-      </c>
-      <c r="S101" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B102" s="44">
-        <v>27</v>
-      </c>
-      <c r="C102" s="44">
-        <v>27</v>
-      </c>
-      <c r="D102" s="44">
-        <v>215</v>
-      </c>
-      <c r="E102" s="28">
-        <v>5</v>
-      </c>
-      <c r="F102" s="28">
-        <v>6</v>
-      </c>
-      <c r="G102" s="49">
-        <v>108</v>
-      </c>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49">
-        <v>107</v>
-      </c>
-      <c r="J102" s="49"/>
-      <c r="M102" s="36">
-        <v>27</v>
-      </c>
-      <c r="N102" s="36">
-        <v>27</v>
-      </c>
-      <c r="O102" s="36">
-        <v>11</v>
-      </c>
-      <c r="Q102" s="36">
-        <v>27</v>
-      </c>
-      <c r="R102" s="36">
-        <v>27</v>
-      </c>
-      <c r="S102" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B103" s="44">
-        <v>28</v>
-      </c>
-      <c r="C103" s="44">
-        <v>28</v>
-      </c>
-      <c r="D103" s="44">
-        <v>237</v>
-      </c>
-      <c r="E103" s="28">
-        <v>5</v>
-      </c>
-      <c r="F103" s="28">
-        <v>6</v>
-      </c>
-      <c r="G103" s="49">
-        <v>119</v>
-      </c>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49">
-        <v>118</v>
-      </c>
-      <c r="J103" s="49"/>
-      <c r="M103" s="36">
-        <v>28</v>
-      </c>
-      <c r="N103" s="36">
-        <v>28</v>
-      </c>
-      <c r="O103" s="36">
-        <v>11</v>
-      </c>
-      <c r="Q103" s="36">
-        <v>28</v>
-      </c>
-      <c r="R103" s="36">
-        <v>28</v>
-      </c>
-      <c r="S103" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B104" s="44">
-        <v>29</v>
-      </c>
-      <c r="C104" s="44">
-        <v>29</v>
-      </c>
-      <c r="D104" s="44">
-        <v>261</v>
-      </c>
-      <c r="E104" s="28">
-        <v>5</v>
-      </c>
-      <c r="F104" s="28">
-        <v>6</v>
-      </c>
-      <c r="G104" s="49">
-        <v>131</v>
-      </c>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49">
-        <v>130</v>
-      </c>
-      <c r="J104" s="49"/>
-      <c r="M104" s="36">
-        <v>29</v>
-      </c>
-      <c r="N104" s="36">
-        <v>29</v>
-      </c>
-      <c r="O104" s="36">
-        <v>12</v>
-      </c>
-      <c r="Q104" s="36">
-        <v>29</v>
-      </c>
-      <c r="R104" s="36">
-        <v>29</v>
-      </c>
-      <c r="S104" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B105" s="44">
-        <v>30</v>
-      </c>
-      <c r="C105" s="44">
-        <v>30</v>
-      </c>
-      <c r="D105" s="44">
-        <v>287</v>
-      </c>
-      <c r="E105" s="28">
-        <v>5</v>
-      </c>
-      <c r="F105" s="28">
-        <v>6</v>
-      </c>
-      <c r="G105" s="49">
-        <v>144</v>
-      </c>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49">
-        <v>143</v>
-      </c>
-      <c r="J105" s="49"/>
-      <c r="M105" s="36">
-        <v>30</v>
-      </c>
-      <c r="N105" s="36">
-        <v>30</v>
-      </c>
-      <c r="O105" s="36">
-        <v>12</v>
-      </c>
-      <c r="Q105" s="36">
-        <v>30</v>
-      </c>
-      <c r="R105" s="36">
-        <v>30</v>
-      </c>
-      <c r="S105" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B106" s="44">
-        <v>31</v>
-      </c>
-      <c r="C106" s="44">
-        <v>31</v>
-      </c>
-      <c r="D106" s="44">
-        <v>316</v>
-      </c>
-      <c r="E106" s="28">
-        <v>6</v>
-      </c>
-      <c r="F106" s="28">
-        <v>7</v>
-      </c>
-      <c r="G106" s="49">
-        <v>158</v>
-      </c>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49">
-        <v>158</v>
-      </c>
-      <c r="J106" s="49"/>
-      <c r="M106" s="36">
-        <v>31</v>
-      </c>
-      <c r="N106" s="36">
-        <v>31</v>
-      </c>
-      <c r="O106" s="36">
-        <v>13</v>
-      </c>
-      <c r="Q106" s="36">
-        <v>31</v>
-      </c>
-      <c r="R106" s="36">
-        <v>31</v>
-      </c>
-      <c r="S106" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B107" s="44">
-        <v>32</v>
-      </c>
-      <c r="C107" s="44">
-        <v>32</v>
-      </c>
-      <c r="D107" s="44">
-        <v>348</v>
-      </c>
-      <c r="E107" s="28">
-        <v>6</v>
-      </c>
-      <c r="F107" s="28">
-        <v>7</v>
-      </c>
-      <c r="G107" s="49">
-        <v>174</v>
-      </c>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49">
-        <v>174</v>
-      </c>
-      <c r="J107" s="49"/>
-      <c r="M107" s="36">
-        <v>32</v>
-      </c>
-      <c r="N107" s="36">
-        <v>32</v>
-      </c>
-      <c r="O107" s="36">
-        <v>14</v>
-      </c>
-      <c r="Q107" s="36">
-        <v>32</v>
-      </c>
-      <c r="R107" s="36">
-        <v>32</v>
-      </c>
-      <c r="S107" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B108" s="44">
-        <v>33</v>
-      </c>
-      <c r="C108" s="44">
-        <v>33</v>
-      </c>
-      <c r="D108" s="44">
-        <v>383</v>
-      </c>
-      <c r="E108" s="28">
-        <v>6</v>
-      </c>
-      <c r="F108" s="28">
-        <v>7</v>
-      </c>
-      <c r="G108" s="49">
-        <v>192</v>
-      </c>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49">
-        <v>191</v>
-      </c>
-      <c r="J108" s="49"/>
-      <c r="M108" s="36">
-        <v>33</v>
-      </c>
-      <c r="N108" s="36">
-        <v>33</v>
-      </c>
-      <c r="O108" s="36">
-        <v>15</v>
-      </c>
-      <c r="Q108" s="36">
-        <v>33</v>
-      </c>
-      <c r="R108" s="36">
-        <v>33</v>
-      </c>
-      <c r="S108" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B109" s="44">
-        <v>34</v>
-      </c>
-      <c r="C109" s="44">
-        <v>34</v>
-      </c>
-      <c r="D109" s="44">
-        <v>421</v>
-      </c>
-      <c r="E109" s="28">
-        <v>6</v>
-      </c>
-      <c r="F109" s="28">
-        <v>7</v>
-      </c>
-      <c r="G109" s="49">
-        <v>211</v>
-      </c>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49">
-        <v>210</v>
-      </c>
-      <c r="J109" s="49"/>
-      <c r="M109" s="36">
-        <v>34</v>
-      </c>
-      <c r="N109" s="36">
-        <v>34</v>
-      </c>
-      <c r="O109" s="36">
-        <v>16</v>
-      </c>
-      <c r="Q109" s="36">
-        <v>34</v>
-      </c>
-      <c r="R109" s="36">
-        <v>34</v>
-      </c>
-      <c r="S109" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B110" s="44">
-        <v>35</v>
-      </c>
-      <c r="C110" s="44">
-        <v>35</v>
-      </c>
-      <c r="D110" s="44">
-        <v>463</v>
-      </c>
-      <c r="E110" s="28">
-        <v>6</v>
-      </c>
-      <c r="F110" s="28">
-        <v>7</v>
-      </c>
-      <c r="G110" s="49">
-        <v>232</v>
-      </c>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49">
-        <v>231</v>
-      </c>
-      <c r="J110" s="49"/>
-      <c r="M110" s="36">
-        <v>35</v>
-      </c>
-      <c r="N110" s="36">
-        <v>35</v>
-      </c>
-      <c r="O110" s="36">
-        <v>17</v>
-      </c>
-      <c r="Q110" s="36">
-        <v>35</v>
-      </c>
-      <c r="R110" s="36">
-        <v>35</v>
-      </c>
-      <c r="S110" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B111" s="44">
+      <c r="D125" s="36">
+        <v>3019</v>
+      </c>
+      <c r="F125" s="36">
+        <v>50</v>
+      </c>
+      <c r="G125" s="36">
+        <v>50</v>
+      </c>
+      <c r="H125" s="36">
+        <v>52</v>
+      </c>
+      <c r="J125" s="36">
+        <v>50</v>
+      </c>
+      <c r="K125" s="36">
+        <v>50</v>
+      </c>
+      <c r="L125" s="36">
         <v>36</v>
       </c>
-      <c r="C111" s="44">
-        <v>36</v>
-      </c>
-      <c r="D111" s="44">
-        <v>509</v>
-      </c>
-      <c r="E111" s="28">
-        <v>7</v>
-      </c>
-      <c r="F111" s="28">
-        <v>8</v>
-      </c>
-      <c r="G111" s="49">
-        <v>255</v>
-      </c>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49">
-        <v>254</v>
-      </c>
-      <c r="J111" s="49"/>
-      <c r="M111" s="36">
-        <v>36</v>
-      </c>
-      <c r="N111" s="36">
-        <v>36</v>
-      </c>
-      <c r="O111" s="36">
-        <v>18</v>
-      </c>
-      <c r="Q111" s="36">
-        <v>36</v>
-      </c>
-      <c r="R111" s="36">
-        <v>36</v>
-      </c>
-      <c r="S111" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B112" s="44">
-        <v>37</v>
-      </c>
-      <c r="C112" s="44">
-        <v>37</v>
-      </c>
-      <c r="D112" s="44">
-        <v>560</v>
-      </c>
-      <c r="E112" s="28">
-        <v>7</v>
-      </c>
-      <c r="F112" s="28">
-        <v>8</v>
-      </c>
-      <c r="G112" s="49">
-        <v>280</v>
-      </c>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49">
-        <v>280</v>
-      </c>
-      <c r="J112" s="49"/>
-      <c r="M112" s="36">
-        <v>37</v>
-      </c>
-      <c r="N112" s="36">
-        <v>37</v>
-      </c>
-      <c r="O112" s="36">
-        <v>19</v>
-      </c>
-      <c r="Q112" s="36">
-        <v>37</v>
-      </c>
-      <c r="R112" s="36">
-        <v>37</v>
-      </c>
-      <c r="S112" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B113" s="44">
-        <v>38</v>
-      </c>
-      <c r="C113" s="44">
-        <v>38</v>
-      </c>
-      <c r="D113" s="44">
-        <v>616</v>
-      </c>
-      <c r="E113" s="28">
-        <v>7</v>
-      </c>
-      <c r="F113" s="28">
-        <v>8</v>
-      </c>
-      <c r="G113" s="49">
-        <v>308</v>
-      </c>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49">
-        <v>308</v>
-      </c>
-      <c r="J113" s="49"/>
-      <c r="M113" s="36">
-        <v>38</v>
-      </c>
-      <c r="N113" s="36">
-        <v>38</v>
-      </c>
-      <c r="O113" s="36">
-        <v>20</v>
-      </c>
-      <c r="Q113" s="36">
-        <v>38</v>
-      </c>
-      <c r="R113" s="36">
-        <v>38</v>
-      </c>
-      <c r="S113" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B114" s="44">
-        <v>39</v>
-      </c>
-      <c r="C114" s="44">
-        <v>39</v>
-      </c>
-      <c r="D114" s="44">
-        <v>678</v>
-      </c>
-      <c r="E114" s="28">
-        <v>7</v>
-      </c>
-      <c r="F114" s="28">
-        <v>8</v>
-      </c>
-      <c r="G114" s="49">
-        <v>339</v>
-      </c>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49">
-        <v>339</v>
-      </c>
-      <c r="J114" s="49"/>
-      <c r="M114" s="36">
-        <v>39</v>
-      </c>
-      <c r="N114" s="36">
-        <v>39</v>
-      </c>
-      <c r="O114" s="36">
-        <v>21</v>
-      </c>
-      <c r="Q114" s="36">
-        <v>39</v>
-      </c>
-      <c r="R114" s="36">
-        <v>39</v>
-      </c>
-      <c r="S114" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B115" s="44">
-        <v>40</v>
-      </c>
-      <c r="C115" s="44">
-        <v>40</v>
-      </c>
-      <c r="D115" s="44">
-        <v>746</v>
-      </c>
-      <c r="E115" s="28">
-        <v>7</v>
-      </c>
-      <c r="F115" s="28">
-        <v>8</v>
-      </c>
-      <c r="G115" s="49">
-        <v>373</v>
-      </c>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49">
-        <v>373</v>
-      </c>
-      <c r="J115" s="49"/>
-      <c r="M115" s="36">
-        <v>40</v>
-      </c>
-      <c r="N115" s="36">
-        <v>40</v>
-      </c>
-      <c r="O115" s="36">
-        <v>22</v>
-      </c>
-      <c r="Q115" s="36">
-        <v>40</v>
-      </c>
-      <c r="R115" s="36">
-        <v>40</v>
-      </c>
-      <c r="S115" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B116" s="44">
-        <v>41</v>
-      </c>
-      <c r="C116" s="44">
-        <v>41</v>
-      </c>
-      <c r="D116" s="44">
-        <v>858</v>
-      </c>
-      <c r="E116" s="28">
-        <v>8</v>
-      </c>
-      <c r="F116" s="28"/>
-      <c r="G116" s="49">
-        <v>858</v>
-      </c>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="M116" s="36">
-        <v>41</v>
-      </c>
-      <c r="N116" s="36">
-        <v>41</v>
-      </c>
-      <c r="O116" s="36">
-        <v>24</v>
-      </c>
-      <c r="Q116" s="36">
-        <v>41</v>
-      </c>
-      <c r="R116" s="36">
-        <v>41</v>
-      </c>
-      <c r="S116" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B117" s="44">
-        <v>42</v>
-      </c>
-      <c r="C117" s="44">
-        <v>42</v>
-      </c>
-      <c r="D117" s="44">
-        <v>987</v>
-      </c>
-      <c r="E117" s="28">
-        <v>8</v>
-      </c>
-      <c r="F117" s="28"/>
-      <c r="G117" s="49">
-        <v>987</v>
-      </c>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="M117" s="36">
-        <v>42</v>
-      </c>
-      <c r="N117" s="36">
-        <v>42</v>
-      </c>
-      <c r="O117" s="36">
-        <v>26</v>
-      </c>
-      <c r="Q117" s="36">
-        <v>42</v>
-      </c>
-      <c r="R117" s="36">
-        <v>42</v>
-      </c>
-      <c r="S117" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B118" s="44">
-        <v>43</v>
-      </c>
-      <c r="C118" s="44">
-        <v>43</v>
-      </c>
-      <c r="D118" s="44">
-        <v>1135</v>
-      </c>
-      <c r="E118" s="28">
-        <v>8</v>
-      </c>
-      <c r="F118" s="28"/>
-      <c r="G118" s="49">
-        <v>1135</v>
-      </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="M118" s="36">
-        <v>43</v>
-      </c>
-      <c r="N118" s="36">
-        <v>43</v>
-      </c>
-      <c r="O118" s="36">
-        <v>28</v>
-      </c>
-      <c r="Q118" s="36">
-        <v>43</v>
-      </c>
-      <c r="R118" s="36">
-        <v>43</v>
-      </c>
-      <c r="S118" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B119" s="44">
-        <v>44</v>
-      </c>
-      <c r="C119" s="44">
-        <v>44</v>
-      </c>
-      <c r="D119" s="44">
-        <v>1305</v>
-      </c>
-      <c r="E119" s="28">
-        <v>8</v>
-      </c>
-      <c r="F119" s="28"/>
-      <c r="G119" s="49">
-        <v>1305</v>
-      </c>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="M119" s="36">
-        <v>44</v>
-      </c>
-      <c r="N119" s="36">
-        <v>44</v>
-      </c>
-      <c r="O119" s="36">
-        <v>30</v>
-      </c>
-      <c r="Q119" s="36">
-        <v>44</v>
-      </c>
-      <c r="R119" s="36">
-        <v>44</v>
-      </c>
-      <c r="S119" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B120" s="44">
-        <v>45</v>
-      </c>
-      <c r="C120" s="44">
-        <v>45</v>
-      </c>
-      <c r="D120" s="44">
-        <v>1501</v>
-      </c>
-      <c r="E120" s="28">
-        <v>8</v>
-      </c>
-      <c r="F120" s="28"/>
-      <c r="G120" s="49">
-        <v>1501</v>
-      </c>
-      <c r="H120" s="49"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
-      <c r="M120" s="36">
-        <v>45</v>
-      </c>
-      <c r="N120" s="36">
-        <v>45</v>
-      </c>
-      <c r="O120" s="36">
-        <v>32</v>
-      </c>
-      <c r="Q120" s="36">
-        <v>45</v>
-      </c>
-      <c r="R120" s="36">
-        <v>45</v>
-      </c>
-      <c r="S120" s="36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B121" s="44">
-        <v>46</v>
-      </c>
-      <c r="C121" s="44">
-        <v>46</v>
-      </c>
-      <c r="D121" s="44">
-        <v>1726</v>
-      </c>
-      <c r="E121" s="28">
-        <v>8</v>
-      </c>
-      <c r="F121" s="28">
-        <v>3</v>
-      </c>
-      <c r="G121" s="49">
-        <v>863</v>
-      </c>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49">
-        <v>863</v>
-      </c>
-      <c r="J121" s="49"/>
-      <c r="M121" s="36">
-        <v>46</v>
-      </c>
-      <c r="N121" s="36">
-        <v>46</v>
-      </c>
-      <c r="O121" s="36">
-        <v>36</v>
-      </c>
-      <c r="Q121" s="36">
-        <v>46</v>
-      </c>
-      <c r="R121" s="36">
-        <v>46</v>
-      </c>
-      <c r="S121" s="36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B122" s="44">
-        <v>47</v>
-      </c>
-      <c r="C122" s="44">
-        <v>47</v>
-      </c>
-      <c r="D122" s="44">
-        <v>1985</v>
-      </c>
-      <c r="E122" s="28">
-        <v>8</v>
-      </c>
-      <c r="F122" s="28">
-        <v>4</v>
-      </c>
-      <c r="G122" s="49">
-        <v>993</v>
-      </c>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49">
-        <v>992</v>
-      </c>
-      <c r="J122" s="49"/>
-      <c r="M122" s="36">
-        <v>47</v>
-      </c>
-      <c r="N122" s="36">
-        <v>47</v>
-      </c>
-      <c r="O122" s="36">
-        <v>40</v>
-      </c>
-      <c r="Q122" s="36">
-        <v>47</v>
-      </c>
-      <c r="R122" s="36">
-        <v>47</v>
-      </c>
-      <c r="S122" s="36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B123" s="44">
-        <v>48</v>
-      </c>
-      <c r="C123" s="44">
-        <v>48</v>
-      </c>
-      <c r="D123" s="44">
-        <v>2283</v>
-      </c>
-      <c r="E123" s="28">
-        <v>8</v>
-      </c>
-      <c r="F123" s="28">
-        <v>5</v>
-      </c>
-      <c r="G123" s="49">
-        <v>1142</v>
-      </c>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49">
-        <v>1141</v>
-      </c>
-      <c r="J123" s="49"/>
-      <c r="M123" s="36">
-        <v>48</v>
-      </c>
-      <c r="N123" s="36">
-        <v>48</v>
-      </c>
-      <c r="O123" s="36">
-        <v>44</v>
-      </c>
-      <c r="Q123" s="36">
-        <v>48</v>
-      </c>
-      <c r="R123" s="36">
-        <v>48</v>
-      </c>
-      <c r="S123" s="36">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B124" s="44">
-        <v>49</v>
-      </c>
-      <c r="C124" s="44">
-        <v>49</v>
-      </c>
-      <c r="D124" s="44">
-        <v>2625</v>
-      </c>
-      <c r="E124" s="28">
-        <v>8</v>
-      </c>
-      <c r="F124" s="28">
-        <v>6</v>
-      </c>
-      <c r="G124" s="49">
-        <v>1313</v>
-      </c>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49">
-        <v>1312</v>
-      </c>
-      <c r="J124" s="49"/>
-      <c r="M124" s="36">
-        <v>49</v>
-      </c>
-      <c r="N124" s="36">
-        <v>49</v>
-      </c>
-      <c r="O124" s="36">
-        <v>48</v>
-      </c>
-      <c r="Q124" s="36">
-        <v>49</v>
-      </c>
-      <c r="R124" s="36">
-        <v>49</v>
-      </c>
-      <c r="S124" s="36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B125" s="44">
-        <v>50</v>
-      </c>
-      <c r="C125" s="44">
-        <v>50</v>
-      </c>
-      <c r="D125" s="44">
-        <v>3019</v>
-      </c>
-      <c r="E125" s="28">
-        <v>8</v>
-      </c>
-      <c r="F125" s="28">
-        <v>7</v>
-      </c>
-      <c r="G125" s="49">
-        <v>1510</v>
-      </c>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49">
-        <v>1509</v>
-      </c>
-      <c r="J125" s="49"/>
-      <c r="M125" s="36">
-        <v>50</v>
-      </c>
-      <c r="N125" s="36">
-        <v>50</v>
-      </c>
-      <c r="O125" s="36">
-        <v>52</v>
-      </c>
-      <c r="Q125" s="36">
-        <v>50</v>
-      </c>
-      <c r="R125" s="36">
-        <v>50</v>
-      </c>
-      <c r="S125" s="36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C126" t="s">
         <v>445</v>
       </c>
       <c r="D126" t="s">
         <v>446</v>
       </c>
-      <c r="G126" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="H126" s="61"/>
-      <c r="I126" s="62" t="s">
-        <v>477</v>
-      </c>
-      <c r="J126" s="62"/>
-      <c r="N126" t="s">
+      <c r="G126" t="s">
         <v>445</v>
       </c>
-      <c r="O126" t="s">
+      <c r="H126" t="s">
         <v>447</v>
       </c>
-      <c r="R126" t="s">
+      <c r="K126" t="s">
         <v>445</v>
       </c>
-      <c r="S126" t="s">
+      <c r="L126" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E127" t="s">
-        <v>478</v>
-      </c>
-      <c r="F127" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="E128" t="s">
-        <v>480</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F40:G40"/>
@@ -12759,13 +13114,16 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="B65:C65"/>
@@ -12782,18 +13140,22 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6987A8-B707-460A-A2E5-52A105CBFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114F6AB-E9F9-455B-93BD-C6C0B9D1E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="513">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2015,6 +2015,18 @@
   </si>
   <si>
     <t>증감량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*10레벨은 45라운드 이후에서 곰 이외의 몬스터에게 한정적으로 적용된다.(밸런스 조절을 위해 레벨을 사용하여 스탯 버프)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 방어구 60% 증가, 방어력 20% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*레벨 10은 45라운드 이후에 출몰하는 기존 스탯치가 낮은 몬스터들을 강화하기 위한 레벨이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,9 +2344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2359,19 +2368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,16 +2383,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2402,6 +2396,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5487,7 +5499,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>409</v>
       </c>
       <c r="B9" s="2"/>
@@ -5550,10 +5562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
-  <dimension ref="A1:AE195"/>
+  <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5564,7 +5576,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5634,12 +5646,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="41" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5660,7 +5672,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5722,14 +5734,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5745,14 +5757,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5768,14 +5780,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5791,14 +5803,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5832,10 +5844,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5847,10 +5859,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5860,26 +5872,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5889,24 +5901,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="52"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5916,24 +5928,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="52"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5943,24 +5955,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="52"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5970,24 +5982,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="52"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -6019,10 +6031,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -6036,10 +6048,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -6051,13 +6063,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -6066,10 +6078,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="46"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -6081,13 +6093,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -6096,10 +6108,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="46"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -6111,13 +6123,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6126,10 +6138,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="46"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -6141,13 +6153,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6156,10 +6168,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="46"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6171,13 +6183,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6186,10 +6198,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6201,13 +6213,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6216,10 +6228,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6231,13 +6243,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6246,10 +6258,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6261,13 +6273,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6276,10 +6288,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6303,10 +6315,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6318,10 +6330,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="46"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6332,19 +6344,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="50" t="s">
+      <c r="H71" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="51"/>
-      <c r="R71" s="52"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="48"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6359,10 +6371,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="46"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6373,19 +6385,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="50" t="s">
+      <c r="H72" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="52"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="48"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6400,10 +6412,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="46"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6414,19 +6426,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="50" t="s">
+      <c r="H73" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="52"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="48"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6455,19 +6467,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="52"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="48"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6496,19 +6508,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="50" t="s">
+      <c r="H75" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="52"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6534,22 +6546,22 @@
         <v>5</v>
       </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="50" t="s">
+      <c r="H76" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="52"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6575,22 +6587,22 @@
         <v>6</v>
       </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="50" t="s">
+      <c r="H77" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="52"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="48"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6616,22 +6628,22 @@
         <v>7</v>
       </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="50" t="s">
+      <c r="H78" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="52"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6657,22 +6669,22 @@
         <v>8</v>
       </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="50" t="s">
+      <c r="H79" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="52"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="48"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6698,22 +6710,22 @@
         <v>9</v>
       </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="37" t="s">
+      <c r="G80" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="50" t="s">
+      <c r="H80" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="52"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="48"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6748,7 +6760,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="38"/>
+      <c r="A83" s="37"/>
       <c r="B83" t="s">
         <v>405</v>
       </c>
@@ -6762,7 +6774,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="39"/>
+      <c r="A85" s="38"/>
       <c r="B85" t="s">
         <v>406</v>
       </c>
@@ -6784,10 +6796,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D90" t="s">
@@ -6795,2374 +6807,2510 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A92" s="6">
+      <c r="A92" s="44">
         <v>1</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="44">
         <v>1</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="44">
         <v>1</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="6">
+      <c r="A93" s="44">
         <v>2</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="44">
         <v>2</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="44">
         <v>2</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E93" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="6">
+      <c r="A94" s="44">
         <v>3</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="44">
         <v>3</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="44">
         <v>3</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="6">
+      <c r="A95" s="44">
         <v>4</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="44">
         <v>4</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="44">
         <v>4</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E95" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="6">
+      <c r="A96" s="44">
         <v>5</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="44">
         <v>5</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="44">
         <v>5</v>
       </c>
-      <c r="E96" s="46" t="s">
+      <c r="E96" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D97" t="s">
+      <c r="A97" s="28">
+        <v>10</v>
+      </c>
+      <c r="B97" s="28">
+        <v>10</v>
+      </c>
+      <c r="D97" s="28">
+        <v>10</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D99" t="s">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A102" s="15" t="s">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D101" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A104" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A106" s="6" t="s">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A108" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A107" s="6" t="s">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A109" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="46" t="s">
+      <c r="E109" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A108" s="6">
-        <v>1</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="46"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A109" s="6">
-        <v>2</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E109" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
-      <c r="Q109" s="46"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="P109" s="50"/>
+      <c r="Q109" s="50"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
+        <v>1</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="50"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="50"/>
+      <c r="P110" s="50"/>
+      <c r="Q110" s="50"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A111" s="6">
+        <v>2</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="50"/>
+      <c r="N111" s="50"/>
+      <c r="O111" s="50"/>
+      <c r="P111" s="50"/>
+      <c r="Q111" s="50"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A112" s="6">
         <v>3</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="46" t="s">
+      <c r="E112" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
-      <c r="Q110" s="46"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D111" s="14" t="s">
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="50"/>
+      <c r="N112" s="50"/>
+      <c r="O112" s="50"/>
+      <c r="P112" s="50"/>
+      <c r="Q112" s="50"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D113" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D112" s="14" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D114" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D113" s="14"/>
-    </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="15" t="s">
+      <c r="D115" s="14"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="46" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B121" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="6" t="s">
+      <c r="C121" s="50"/>
+      <c r="D121" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B120" s="46" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B122" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="6">
+      <c r="C122" s="50"/>
+      <c r="D122" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="46" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B123" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="46"/>
-      <c r="D121" s="6">
+      <c r="C123" s="50"/>
+      <c r="D123" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="46" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B124" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="6">
+      <c r="C124" s="50"/>
+      <c r="D124" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="15" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="15" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A132" s="53" t="s">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A134" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="30" t="s">
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E134" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F132" s="53"/>
-      <c r="G132" s="30" t="s">
+      <c r="F134" s="57"/>
+      <c r="G134" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H132" s="49" t="s">
+      <c r="H134" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I132" s="49"/>
-      <c r="J132" s="30" t="s">
+      <c r="I134" s="54"/>
+      <c r="J134" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K132" s="49" t="s">
+      <c r="K134" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L132" s="49"/>
-      <c r="M132" s="49"/>
-      <c r="N132" s="49"/>
-      <c r="O132" s="49"/>
-      <c r="P132" s="49"/>
-      <c r="Q132" s="49"/>
-      <c r="R132" s="49"/>
-      <c r="S132" s="49" t="s">
+      <c r="L134" s="54"/>
+      <c r="M134" s="54"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="54"/>
+      <c r="P134" s="54"/>
+      <c r="Q134" s="54"/>
+      <c r="R134" s="54"/>
+      <c r="S134" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="T132" s="49"/>
-      <c r="U132" s="49"/>
-      <c r="V132" s="49"/>
-      <c r="W132" s="49"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A133" s="54" t="s">
+      <c r="T134" s="54"/>
+      <c r="U134" s="54"/>
+      <c r="V134" s="54"/>
+      <c r="W134" s="54"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A135" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="29">
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="29">
         <v>10</v>
       </c>
-      <c r="E133" s="54" t="s">
+      <c r="E135" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="F133" s="54"/>
-      <c r="G133" s="29">
+      <c r="F135" s="58"/>
+      <c r="G135" s="29">
         <v>11</v>
       </c>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="29">
-        <v>10</v>
-      </c>
-      <c r="K133" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="46"/>
-      <c r="R133" s="46"/>
-      <c r="S133" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="T133" s="46"/>
-      <c r="U133" s="46"/>
-      <c r="V133" s="46"/>
-      <c r="W133" s="46"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="46"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="F134" s="54"/>
-      <c r="G134" s="29">
-        <v>21</v>
-      </c>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="29">
-        <v>10</v>
-      </c>
-      <c r="K134" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="46"/>
-      <c r="R134" s="46"/>
-      <c r="S134" s="46"/>
-      <c r="T134" s="46"/>
-      <c r="U134" s="46"/>
-      <c r="V134" s="46"/>
-      <c r="W134" s="46"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="46"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29">
-        <v>31</v>
-      </c>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="46"/>
-      <c r="R135" s="46"/>
-      <c r="S135" s="46"/>
-      <c r="T135" s="46"/>
-      <c r="U135" s="46"/>
-      <c r="V135" s="46"/>
-      <c r="W135" s="46"/>
+      <c r="K135" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="50"/>
+      <c r="Q135" s="50"/>
+      <c r="R135" s="50"/>
+      <c r="S135" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="T135" s="50"/>
+      <c r="U135" s="50"/>
+      <c r="V135" s="50"/>
+      <c r="W135" s="50"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="46"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F136" s="28"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F136" s="58"/>
       <c r="G136" s="29">
-        <v>41</v>
-      </c>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="L136" s="48"/>
-      <c r="M136" s="48"/>
-      <c r="N136" s="48"/>
-      <c r="O136" s="48"/>
-      <c r="P136" s="48"/>
-      <c r="Q136" s="48"/>
-      <c r="R136" s="48"/>
-      <c r="S136" s="46"/>
-      <c r="T136" s="46"/>
-      <c r="U136" s="46"/>
-      <c r="V136" s="46"/>
-      <c r="W136" s="46"/>
+      <c r="K136" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="L136" s="50"/>
+      <c r="M136" s="50"/>
+      <c r="N136" s="50"/>
+      <c r="O136" s="50"/>
+      <c r="P136" s="50"/>
+      <c r="Q136" s="50"/>
+      <c r="R136" s="50"/>
+      <c r="S136" s="50"/>
+      <c r="T136" s="50"/>
+      <c r="U136" s="50"/>
+      <c r="V136" s="50"/>
+      <c r="W136" s="50"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="46"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F137" s="28"/>
+      <c r="A137" s="50"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F137" s="29"/>
       <c r="G137" s="29">
-        <v>51</v>
-      </c>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L137" s="48"/>
-      <c r="M137" s="48"/>
-      <c r="N137" s="48"/>
-      <c r="O137" s="48"/>
-      <c r="P137" s="48"/>
-      <c r="Q137" s="48"/>
-      <c r="R137" s="48"/>
-      <c r="S137" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="T137" s="46"/>
-      <c r="U137" s="46"/>
-      <c r="V137" s="46"/>
-      <c r="W137" s="46"/>
+      <c r="K137" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="L137" s="50"/>
+      <c r="M137" s="50"/>
+      <c r="N137" s="50"/>
+      <c r="O137" s="50"/>
+      <c r="P137" s="50"/>
+      <c r="Q137" s="50"/>
+      <c r="R137" s="50"/>
+      <c r="S137" s="50"/>
+      <c r="T137" s="50"/>
+      <c r="U137" s="50"/>
+      <c r="V137" s="50"/>
+      <c r="W137" s="50"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="46"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
+      <c r="A138" s="50"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
       <c r="E138" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="29">
-        <v>61</v>
-      </c>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
+        <v>41</v>
+      </c>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="L138" s="48"/>
-      <c r="M138" s="48"/>
-      <c r="N138" s="48"/>
-      <c r="O138" s="48"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="48"/>
-      <c r="R138" s="48"/>
-      <c r="S138" s="46"/>
-      <c r="T138" s="46"/>
-      <c r="U138" s="46"/>
-      <c r="V138" s="46"/>
-      <c r="W138" s="46"/>
+      <c r="K138" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+      <c r="O138" s="49"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="49"/>
+      <c r="S138" s="50"/>
+      <c r="T138" s="50"/>
+      <c r="U138" s="50"/>
+      <c r="V138" s="50"/>
+      <c r="W138" s="50"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="29">
-        <v>20</v>
-      </c>
+      <c r="A139" s="50"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
       <c r="E139" s="28" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="29">
+        <v>51</v>
+      </c>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="29">
+        <v>10</v>
+      </c>
+      <c r="K139" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="L139" s="49"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="49"/>
+      <c r="O139" s="49"/>
+      <c r="P139" s="49"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="49"/>
+      <c r="S139" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="T139" s="50"/>
+      <c r="U139" s="50"/>
+      <c r="V139" s="50"/>
+      <c r="W139" s="50"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" s="28"/>
+      <c r="G140" s="29">
+        <v>61</v>
+      </c>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="29">
+        <v>10</v>
+      </c>
+      <c r="K140" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="L140" s="49"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="49"/>
+      <c r="O140" s="49"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="49"/>
+      <c r="S140" s="50"/>
+      <c r="T140" s="50"/>
+      <c r="U140" s="50"/>
+      <c r="V140" s="50"/>
+      <c r="W140" s="50"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A141" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="29">
+        <v>20</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="29">
         <v>11</v>
       </c>
-      <c r="H139" s="46" t="s">
+      <c r="H141" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="46"/>
-      <c r="J139" s="29">
+      <c r="I141" s="50"/>
+      <c r="J141" s="29">
         <v>11</v>
       </c>
-      <c r="K139" s="46" t="s">
+      <c r="K141" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
-      <c r="Q139" s="46"/>
-      <c r="R139" s="46"/>
-      <c r="S139" s="46" t="s">
+      <c r="L141" s="50"/>
+      <c r="M141" s="50"/>
+      <c r="N141" s="50"/>
+      <c r="O141" s="50"/>
+      <c r="P141" s="50"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="50"/>
+      <c r="S141" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="T139" s="46"/>
-      <c r="U139" s="46"/>
-      <c r="V139" s="46"/>
-      <c r="W139" s="46"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="46"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="46" t="s">
+      <c r="T141" s="50"/>
+      <c r="U141" s="50"/>
+      <c r="V141" s="50"/>
+      <c r="W141" s="50"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A142" s="50"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I140" s="46"/>
-      <c r="J140" s="29">
+      <c r="I142" s="50"/>
+      <c r="J142" s="29">
         <v>21</v>
       </c>
-      <c r="K140" s="46" t="s">
+      <c r="K142" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
-      <c r="S140" s="46"/>
-      <c r="T140" s="46"/>
-      <c r="U140" s="46"/>
-      <c r="V140" s="46"/>
-      <c r="W140" s="46"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="46"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="46" t="s">
+      <c r="L142" s="50"/>
+      <c r="M142" s="50"/>
+      <c r="N142" s="50"/>
+      <c r="O142" s="50"/>
+      <c r="P142" s="50"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="50"/>
+      <c r="S142" s="50"/>
+      <c r="T142" s="50"/>
+      <c r="U142" s="50"/>
+      <c r="V142" s="50"/>
+      <c r="W142" s="50"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A143" s="50"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I141" s="46"/>
-      <c r="J141" s="29">
+      <c r="I143" s="50"/>
+      <c r="J143" s="29">
         <v>31</v>
       </c>
-      <c r="K141" s="46" t="s">
+      <c r="K143" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="L141" s="46"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="46"/>
-      <c r="R141" s="46"/>
-      <c r="S141" s="46"/>
-      <c r="T141" s="46"/>
-      <c r="U141" s="46"/>
-      <c r="V141" s="46"/>
-      <c r="W141" s="46"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="46"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="48" t="s">
+      <c r="L143" s="50"/>
+      <c r="M143" s="50"/>
+      <c r="N143" s="50"/>
+      <c r="O143" s="50"/>
+      <c r="P143" s="50"/>
+      <c r="Q143" s="50"/>
+      <c r="R143" s="50"/>
+      <c r="S143" s="50"/>
+      <c r="T143" s="50"/>
+      <c r="U143" s="50"/>
+      <c r="V143" s="50"/>
+      <c r="W143" s="50"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A144" s="50"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="I142" s="48"/>
-      <c r="J142" s="29">
+      <c r="I144" s="49"/>
+      <c r="J144" s="29">
         <v>41</v>
       </c>
-      <c r="K142" s="46" t="s">
+      <c r="K144" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="46"/>
-      <c r="U142" s="46"/>
-      <c r="V142" s="46"/>
-      <c r="W142" s="46"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="28" t="s">
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
+      <c r="Q144" s="50"/>
+      <c r="R144" s="50"/>
+      <c r="S144" s="50"/>
+      <c r="T144" s="50"/>
+      <c r="U144" s="50"/>
+      <c r="V144" s="50"/>
+      <c r="W144" s="50"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A145" s="50"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F143" s="28"/>
-      <c r="G143" s="29">
+      <c r="F145" s="28"/>
+      <c r="G145" s="29">
         <v>21</v>
       </c>
-      <c r="H143" s="46" t="s">
+      <c r="H145" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="46"/>
-      <c r="J143" s="29">
+      <c r="I145" s="50"/>
+      <c r="J145" s="29">
         <v>11</v>
       </c>
-      <c r="K143" s="46" t="s">
+      <c r="K145" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
-      <c r="Q143" s="46"/>
-      <c r="R143" s="46"/>
-      <c r="S143" s="46"/>
-      <c r="T143" s="46"/>
-      <c r="U143" s="46"/>
-      <c r="V143" s="46"/>
-      <c r="W143" s="46"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="46"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="46" t="s">
+      <c r="L145" s="50"/>
+      <c r="M145" s="50"/>
+      <c r="N145" s="50"/>
+      <c r="O145" s="50"/>
+      <c r="P145" s="50"/>
+      <c r="Q145" s="50"/>
+      <c r="R145" s="50"/>
+      <c r="S145" s="50"/>
+      <c r="T145" s="50"/>
+      <c r="U145" s="50"/>
+      <c r="V145" s="50"/>
+      <c r="W145" s="50"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A146" s="50"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="46"/>
-      <c r="J144" s="29">
+      <c r="I146" s="50"/>
+      <c r="J146" s="29">
         <v>21</v>
       </c>
-      <c r="K144" s="46" t="s">
+      <c r="K146" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
-      <c r="Q144" s="46"/>
-      <c r="R144" s="46"/>
-      <c r="S144" s="46"/>
-      <c r="T144" s="46"/>
-      <c r="U144" s="46"/>
-      <c r="V144" s="46"/>
-      <c r="W144" s="46"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="46" t="s">
+      <c r="L146" s="50"/>
+      <c r="M146" s="50"/>
+      <c r="N146" s="50"/>
+      <c r="O146" s="50"/>
+      <c r="P146" s="50"/>
+      <c r="Q146" s="50"/>
+      <c r="R146" s="50"/>
+      <c r="S146" s="50"/>
+      <c r="T146" s="50"/>
+      <c r="U146" s="50"/>
+      <c r="V146" s="50"/>
+      <c r="W146" s="50"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A147" s="50"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="46"/>
-      <c r="J145" s="29">
+      <c r="I147" s="50"/>
+      <c r="J147" s="29">
         <v>31</v>
       </c>
-      <c r="K145" s="46" t="s">
+      <c r="K147" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="46"/>
-      <c r="R145" s="46"/>
-      <c r="S145" s="46"/>
-      <c r="T145" s="46"/>
-      <c r="U145" s="46"/>
-      <c r="V145" s="46"/>
-      <c r="W145" s="46"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="46"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="48" t="s">
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
+      <c r="P147" s="50"/>
+      <c r="Q147" s="50"/>
+      <c r="R147" s="50"/>
+      <c r="S147" s="50"/>
+      <c r="T147" s="50"/>
+      <c r="U147" s="50"/>
+      <c r="V147" s="50"/>
+      <c r="W147" s="50"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="48"/>
-      <c r="J146" s="29">
+      <c r="I148" s="49"/>
+      <c r="J148" s="29">
         <v>41</v>
       </c>
-      <c r="K146" s="46" t="s">
+      <c r="K148" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
-      <c r="Q146" s="46"/>
-      <c r="R146" s="46"/>
-      <c r="S146" s="46"/>
-      <c r="T146" s="46"/>
-      <c r="U146" s="46"/>
-      <c r="V146" s="46"/>
-      <c r="W146" s="46"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="46"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="46"/>
-      <c r="E147" s="28" t="s">
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
+      <c r="P148" s="50"/>
+      <c r="Q148" s="50"/>
+      <c r="R148" s="50"/>
+      <c r="S148" s="50"/>
+      <c r="T148" s="50"/>
+      <c r="U148" s="50"/>
+      <c r="V148" s="50"/>
+      <c r="W148" s="50"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A149" s="50"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F147" s="28"/>
-      <c r="G147" s="29">
+      <c r="F149" s="28"/>
+      <c r="G149" s="29">
         <v>31</v>
       </c>
-      <c r="H147" s="46" t="s">
+      <c r="H149" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="46"/>
-      <c r="J147" s="29">
+      <c r="I149" s="50"/>
+      <c r="J149" s="29">
         <v>11</v>
       </c>
-      <c r="K147" s="46" t="s">
+      <c r="K149" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
-      <c r="Q147" s="46"/>
-      <c r="R147" s="46"/>
-      <c r="S147" s="46" t="s">
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="T147" s="46"/>
-      <c r="U147" s="46"/>
-      <c r="V147" s="46"/>
-      <c r="W147" s="46"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="46"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="46" t="s">
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
+      <c r="W149" s="50"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A150" s="50"/>
+      <c r="B150" s="50"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I148" s="46"/>
-      <c r="J148" s="29">
+      <c r="I150" s="50"/>
+      <c r="J150" s="29">
         <v>21</v>
       </c>
-      <c r="K148" s="46" t="s">
+      <c r="K150" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
-      <c r="Q148" s="46"/>
-      <c r="R148" s="46"/>
-      <c r="S148" s="46"/>
-      <c r="T148" s="46"/>
-      <c r="U148" s="46"/>
-      <c r="V148" s="46"/>
-      <c r="W148" s="46"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="46"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="46" t="s">
+      <c r="L150" s="50"/>
+      <c r="M150" s="50"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="50"/>
+      <c r="P150" s="50"/>
+      <c r="Q150" s="50"/>
+      <c r="R150" s="50"/>
+      <c r="S150" s="50"/>
+      <c r="T150" s="50"/>
+      <c r="U150" s="50"/>
+      <c r="V150" s="50"/>
+      <c r="W150" s="50"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A151" s="50"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I149" s="46"/>
-      <c r="J149" s="29">
+      <c r="I151" s="50"/>
+      <c r="J151" s="29">
         <v>31</v>
       </c>
-      <c r="K149" s="46" t="s">
+      <c r="K151" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
-      <c r="Q149" s="46"/>
-      <c r="R149" s="46"/>
-      <c r="S149" s="46"/>
-      <c r="T149" s="46"/>
-      <c r="U149" s="46"/>
-      <c r="V149" s="46"/>
-      <c r="W149" s="46"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="46"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="48" t="s">
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="50"/>
+      <c r="P151" s="50"/>
+      <c r="Q151" s="50"/>
+      <c r="R151" s="50"/>
+      <c r="S151" s="50"/>
+      <c r="T151" s="50"/>
+      <c r="U151" s="50"/>
+      <c r="V151" s="50"/>
+      <c r="W151" s="50"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A152" s="50"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I150" s="48"/>
-      <c r="J150" s="29">
+      <c r="I152" s="49"/>
+      <c r="J152" s="29">
         <v>41</v>
       </c>
-      <c r="K150" s="46" t="s">
+      <c r="K152" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="46"/>
-      <c r="R150" s="46"/>
-      <c r="S150" s="46"/>
-      <c r="T150" s="46"/>
-      <c r="U150" s="46"/>
-      <c r="V150" s="46"/>
-      <c r="W150" s="46"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="46"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="46"/>
-      <c r="E151" s="28" t="s">
+      <c r="L152" s="50"/>
+      <c r="M152" s="50"/>
+      <c r="N152" s="50"/>
+      <c r="O152" s="50"/>
+      <c r="P152" s="50"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="50"/>
+      <c r="S152" s="50"/>
+      <c r="T152" s="50"/>
+      <c r="U152" s="50"/>
+      <c r="V152" s="50"/>
+      <c r="W152" s="50"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A153" s="50"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="F151" s="28"/>
-      <c r="G151" s="29">
+      <c r="F153" s="28"/>
+      <c r="G153" s="29">
         <v>41</v>
       </c>
-      <c r="H151" s="46" t="s">
+      <c r="H153" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="46"/>
-      <c r="J151" s="29">
+      <c r="I153" s="50"/>
+      <c r="J153" s="29">
         <v>11</v>
       </c>
-      <c r="K151" s="46" t="s">
+      <c r="K153" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
-      <c r="Q151" s="46"/>
-      <c r="R151" s="46"/>
-      <c r="S151" s="46"/>
-      <c r="T151" s="46"/>
-      <c r="U151" s="46"/>
-      <c r="V151" s="46"/>
-      <c r="W151" s="46"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="46"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="46" t="s">
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
+      <c r="O153" s="50"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="50"/>
+      <c r="R153" s="50"/>
+      <c r="S153" s="50"/>
+      <c r="T153" s="50"/>
+      <c r="U153" s="50"/>
+      <c r="V153" s="50"/>
+      <c r="W153" s="50"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A154" s="50"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="I152" s="46"/>
-      <c r="J152" s="29">
+      <c r="I154" s="50"/>
+      <c r="J154" s="29">
         <v>21</v>
       </c>
-      <c r="K152" s="46" t="s">
+      <c r="K154" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="46"/>
-      <c r="R152" s="46"/>
-      <c r="S152" s="46"/>
-      <c r="T152" s="46"/>
-      <c r="U152" s="46"/>
-      <c r="V152" s="46"/>
-      <c r="W152" s="46"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="46"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="46" t="s">
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="50"/>
+      <c r="P154" s="50"/>
+      <c r="Q154" s="50"/>
+      <c r="R154" s="50"/>
+      <c r="S154" s="50"/>
+      <c r="T154" s="50"/>
+      <c r="U154" s="50"/>
+      <c r="V154" s="50"/>
+      <c r="W154" s="50"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A155" s="50"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="49"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I153" s="46"/>
-      <c r="J153" s="29">
+      <c r="I155" s="50"/>
+      <c r="J155" s="29">
         <v>31</v>
       </c>
-      <c r="K153" s="46" t="s">
+      <c r="K155" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="46"/>
-      <c r="S153" s="46"/>
-      <c r="T153" s="46"/>
-      <c r="U153" s="46"/>
-      <c r="V153" s="46"/>
-      <c r="W153" s="46"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="46"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="48" t="s">
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
+      <c r="P155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A156" s="50"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="I154" s="48"/>
-      <c r="J154" s="29">
+      <c r="I156" s="49"/>
+      <c r="J156" s="29">
         <v>41</v>
       </c>
-      <c r="K154" s="46" t="s">
+      <c r="K156" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
-      <c r="Q154" s="46"/>
-      <c r="R154" s="46"/>
-      <c r="S154" s="46"/>
-      <c r="T154" s="46"/>
-      <c r="U154" s="46"/>
-      <c r="V154" s="46"/>
-      <c r="W154" s="46"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="54" t="s">
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A157" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="54"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="29">
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="29">
         <v>30</v>
       </c>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="29">
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="29">
         <v>10</v>
       </c>
-      <c r="H155" s="46" t="s">
+      <c r="H157" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="I155" s="46"/>
-      <c r="J155" s="29">
+      <c r="I157" s="50"/>
+      <c r="J157" s="29">
         <v>11</v>
       </c>
-      <c r="K155" s="46" t="s">
+      <c r="K157" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
-      <c r="Q155" s="46"/>
-      <c r="R155" s="46"/>
-      <c r="S155" s="46"/>
-      <c r="T155" s="46"/>
-      <c r="U155" s="46"/>
-      <c r="V155" s="46"/>
-      <c r="W155" s="46"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="46"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
-      <c r="E156" s="46"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="48" t="s">
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A158" s="50"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="I156" s="48"/>
-      <c r="J156" s="28">
+      <c r="I158" s="49"/>
+      <c r="J158" s="28">
         <v>21</v>
       </c>
-      <c r="K156" s="46" t="s">
+      <c r="K158" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="L156" s="46"/>
-      <c r="M156" s="46"/>
-      <c r="N156" s="46"/>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
-      <c r="Q156" s="46"/>
-      <c r="R156" s="46"/>
-      <c r="S156" s="46"/>
-      <c r="T156" s="46"/>
-      <c r="U156" s="46"/>
-      <c r="V156" s="46"/>
-      <c r="W156" s="46"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="46"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="46"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="48" t="s">
+      <c r="L158" s="50"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="50"/>
+      <c r="O158" s="50"/>
+      <c r="P158" s="50"/>
+      <c r="Q158" s="50"/>
+      <c r="R158" s="50"/>
+      <c r="S158" s="50"/>
+      <c r="T158" s="50"/>
+      <c r="U158" s="50"/>
+      <c r="V158" s="50"/>
+      <c r="W158" s="50"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A159" s="50"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I157" s="48"/>
-      <c r="J157" s="28">
+      <c r="I159" s="49"/>
+      <c r="J159" s="28">
         <v>31</v>
       </c>
-      <c r="K157" s="46" t="s">
+      <c r="K159" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
-      <c r="Q157" s="46"/>
-      <c r="R157" s="46"/>
-      <c r="S157" s="46"/>
-      <c r="T157" s="46"/>
-      <c r="U157" s="46"/>
-      <c r="V157" s="46"/>
-      <c r="W157" s="46"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="46"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="46"/>
-      <c r="E158" s="46"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="48" t="s">
+      <c r="L159" s="50"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="50"/>
+      <c r="P159" s="50"/>
+      <c r="Q159" s="50"/>
+      <c r="R159" s="50"/>
+      <c r="S159" s="50"/>
+      <c r="T159" s="50"/>
+      <c r="U159" s="50"/>
+      <c r="V159" s="50"/>
+      <c r="W159" s="50"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A160" s="50"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="I158" s="48"/>
-      <c r="J158" s="28">
+      <c r="I160" s="49"/>
+      <c r="J160" s="28">
         <v>41</v>
       </c>
-      <c r="K158" s="46" t="s">
+      <c r="K160" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="L158" s="46"/>
-      <c r="M158" s="46"/>
-      <c r="N158" s="46"/>
-      <c r="O158" s="46"/>
-      <c r="P158" s="46"/>
-      <c r="Q158" s="46"/>
-      <c r="R158" s="46"/>
-      <c r="S158" s="46"/>
-      <c r="T158" s="46"/>
-      <c r="U158" s="46"/>
-      <c r="V158" s="46"/>
-      <c r="W158" s="46"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="46"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="46"/>
-      <c r="E159" s="46"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="48" t="s">
+      <c r="L160" s="50"/>
+      <c r="M160" s="50"/>
+      <c r="N160" s="50"/>
+      <c r="O160" s="50"/>
+      <c r="P160" s="50"/>
+      <c r="Q160" s="50"/>
+      <c r="R160" s="50"/>
+      <c r="S160" s="50"/>
+      <c r="T160" s="50"/>
+      <c r="U160" s="50"/>
+      <c r="V160" s="50"/>
+      <c r="W160" s="50"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A161" s="50"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="I159" s="48"/>
-      <c r="J159" s="28">
+      <c r="I161" s="49"/>
+      <c r="J161" s="28">
         <v>51</v>
       </c>
-      <c r="K159" s="46" t="s">
+      <c r="K161" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
-      <c r="Q159" s="46"/>
-      <c r="R159" s="46"/>
-      <c r="S159" s="46"/>
-      <c r="T159" s="46"/>
-      <c r="U159" s="46"/>
-      <c r="V159" s="46"/>
-      <c r="W159" s="46"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="46"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="48" t="s">
+      <c r="L161" s="50"/>
+      <c r="M161" s="50"/>
+      <c r="N161" s="50"/>
+      <c r="O161" s="50"/>
+      <c r="P161" s="50"/>
+      <c r="Q161" s="50"/>
+      <c r="R161" s="50"/>
+      <c r="S161" s="50"/>
+      <c r="T161" s="50"/>
+      <c r="U161" s="50"/>
+      <c r="V161" s="50"/>
+      <c r="W161" s="50"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A162" s="50"/>
+      <c r="B162" s="50"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="I160" s="48"/>
-      <c r="J160" s="28">
+      <c r="I162" s="49"/>
+      <c r="J162" s="28">
         <v>61</v>
       </c>
-      <c r="K160" s="46" t="s">
+      <c r="K162" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
-      <c r="U160" s="46"/>
-      <c r="V160" s="46"/>
-      <c r="W160" s="46"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
+      <c r="L162" s="50"/>
+      <c r="M162" s="50"/>
+      <c r="N162" s="50"/>
+      <c r="O162" s="50"/>
+      <c r="P162" s="50"/>
+      <c r="Q162" s="50"/>
+      <c r="R162" s="50"/>
+      <c r="S162" s="50"/>
+      <c r="T162" s="50"/>
+      <c r="U162" s="50"/>
+      <c r="V162" s="50"/>
+      <c r="W162" s="50"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A165" s="44" t="s">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A167" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="B165" s="44" t="s">
+      <c r="B167" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C167" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="D165" s="44" t="s">
+      <c r="D167" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="E165" s="44" t="s">
+      <c r="E167" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="F165" s="44" t="s">
+      <c r="F167" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="G165" s="44" t="s">
+      <c r="G167" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="44" t="s">
+      <c r="H167" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="I165" s="46" t="s">
+      <c r="I167" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="J165" s="46"/>
-      <c r="K165" s="46"/>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A166" s="44" t="s">
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A168" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B166" s="44" t="s">
+      <c r="B168" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="C168" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="D166" s="44" t="s">
+      <c r="D168" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="E166" s="44" t="s">
+      <c r="E168" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="F166" s="44" t="s">
+      <c r="F168" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="G166" s="44" t="s">
+      <c r="G168" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="H166" s="44" t="s">
+      <c r="H168" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="I166" s="46" t="s">
+      <c r="I168" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J166" s="46"/>
-      <c r="K166" s="46"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A167" s="44">
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="50"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A169" s="43">
         <v>101110</v>
       </c>
-      <c r="B167" s="44" t="b">
+      <c r="B169" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C167" s="44" t="b">
+      <c r="C169" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D167" s="44" t="b">
+      <c r="D169" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E167" s="44" t="b">
+      <c r="E169" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F167" s="44" t="b">
+      <c r="F169" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G167" s="44" t="s">
+      <c r="G169" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H167" s="44">
+      <c r="H169" s="43">
         <v>10</v>
       </c>
-      <c r="I167" s="46" t="s">
+      <c r="I169" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="J167" s="46"/>
-      <c r="K167" s="46"/>
-      <c r="L167" s="46"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A168" s="44">
+      <c r="J169" s="50"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="50"/>
+      <c r="M169" s="50"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="50"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A170" s="43">
         <v>102110</v>
       </c>
-      <c r="B168" s="44" t="b">
+      <c r="B170" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C168" s="44" t="b">
+      <c r="C170" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D168" s="44" t="b">
+      <c r="D170" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E168" s="44" t="b">
+      <c r="E170" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F168" s="44" t="b">
+      <c r="F170" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G168" s="44" t="s">
+      <c r="G170" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H168" s="44">
+      <c r="H170" s="43">
         <v>-7</v>
       </c>
-      <c r="I168" s="46" t="s">
+      <c r="I170" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="J168" s="46"/>
-      <c r="K168" s="46"/>
-      <c r="L168" s="46"/>
-      <c r="M168" s="46"/>
-      <c r="N168" s="46"/>
-      <c r="O168" s="46"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A169" s="44">
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="50"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A171" s="43">
         <v>103110</v>
       </c>
-      <c r="B169" s="44" t="b">
+      <c r="B171" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C169" s="44" t="b">
+      <c r="C171" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D169" s="44" t="b">
+      <c r="D171" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E169" s="44" t="b">
+      <c r="E171" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F169" s="44" t="b">
+      <c r="F171" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G169" s="44" t="s">
+      <c r="G171" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="H169" s="44">
+      <c r="H171" s="43">
         <v>5</v>
       </c>
-      <c r="I169" s="46" t="s">
+      <c r="I171" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="J169" s="46"/>
-      <c r="K169" s="46"/>
-      <c r="L169" s="46"/>
-      <c r="M169" s="46"/>
-      <c r="N169" s="46"/>
-      <c r="O169" s="46"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A170" s="44">
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
+      <c r="M171" s="50"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="50"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A172" s="43">
         <v>104110</v>
       </c>
-      <c r="B170" s="44" t="b">
+      <c r="B172" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C170" s="44" t="b">
+      <c r="C172" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D170" s="44" t="b">
+      <c r="D172" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E170" s="44" t="b">
+      <c r="E172" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F170" s="44" t="b">
+      <c r="F172" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G170" s="44" t="s">
+      <c r="G172" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="H170" s="44">
+      <c r="H172" s="43">
         <v>-5</v>
       </c>
-      <c r="I170" s="46" t="s">
+      <c r="I172" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="J170" s="46"/>
-      <c r="K170" s="46"/>
-      <c r="L170" s="46"/>
-      <c r="M170" s="46"/>
-      <c r="N170" s="46"/>
-      <c r="O170" s="46"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A171" s="44">
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
+      <c r="M172" s="50"/>
+      <c r="N172" s="50"/>
+      <c r="O172" s="50"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A173" s="43">
         <v>105110</v>
       </c>
-      <c r="B171" s="44" t="b">
+      <c r="B173" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C171" s="44" t="b">
+      <c r="C173" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D171" s="44" t="b">
+      <c r="D173" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E171" s="44" t="b">
+      <c r="E173" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F171" s="44" t="b">
+      <c r="F173" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G171" s="44" t="s">
+      <c r="G173" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H171" s="44">
+      <c r="H173" s="43">
         <v>10</v>
       </c>
-      <c r="I171" s="46" t="s">
+      <c r="I173" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="46"/>
-      <c r="O171" s="46"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A172" s="44">
+      <c r="J173" s="50"/>
+      <c r="K173" s="50"/>
+      <c r="L173" s="50"/>
+      <c r="M173" s="50"/>
+      <c r="N173" s="50"/>
+      <c r="O173" s="50"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A174" s="43">
         <v>106110</v>
       </c>
-      <c r="B172" s="44" t="b">
+      <c r="B174" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C172" s="44" t="b">
+      <c r="C174" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D172" s="44" t="b">
+      <c r="D174" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E172" s="44" t="b">
+      <c r="E174" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F172" s="44" t="b">
+      <c r="F174" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G172" s="44" t="s">
+      <c r="G174" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H172" s="44">
+      <c r="H174" s="43">
         <v>-10</v>
       </c>
-      <c r="I172" s="46" t="s">
+      <c r="I174" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="J172" s="46"/>
-      <c r="K172" s="46"/>
-      <c r="L172" s="46"/>
-      <c r="M172" s="46"/>
-      <c r="N172" s="46"/>
-      <c r="O172" s="46"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A173" s="44">
+      <c r="J174" s="50"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="50"/>
+      <c r="M174" s="50"/>
+      <c r="N174" s="50"/>
+      <c r="O174" s="50"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A175" s="43">
         <v>201111</v>
       </c>
-      <c r="B173" s="44" t="b">
+      <c r="B175" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C173" s="44" t="b">
+      <c r="C175" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D173" s="44" t="b">
+      <c r="D175" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E173" s="44" t="b">
+      <c r="E175" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F173" s="44" t="b">
+      <c r="F175" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G173" s="44" t="s">
+      <c r="G175" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H173" s="44">
+      <c r="H175" s="43">
         <v>13</v>
       </c>
-      <c r="I173" s="46" t="s">
+      <c r="I175" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="J173" s="46"/>
-      <c r="K173" s="46"/>
-      <c r="L173" s="46"/>
-      <c r="M173" s="46"/>
-      <c r="N173" s="46"/>
-      <c r="O173" s="46"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A174" s="44">
+      <c r="J175" s="50"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="50"/>
+      <c r="M175" s="50"/>
+      <c r="N175" s="50"/>
+      <c r="O175" s="50"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A176" s="43">
         <v>201121</v>
       </c>
-      <c r="B174" s="44" t="b">
+      <c r="B176" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C174" s="44" t="b">
+      <c r="C176" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D174" s="44" t="b">
+      <c r="D176" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E174" s="44" t="b">
+      <c r="E176" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F174" s="44" t="b">
+      <c r="F176" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G174" s="44" t="s">
+      <c r="G176" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H174" s="44">
+      <c r="H176" s="43">
         <v>13</v>
       </c>
-      <c r="I174" s="46" t="s">
+      <c r="I176" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="J174" s="46"/>
-      <c r="K174" s="46"/>
-      <c r="L174" s="46"/>
-      <c r="M174" s="46"/>
-      <c r="N174" s="46"/>
-      <c r="O174" s="46"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A175" s="44">
+      <c r="J176" s="50"/>
+      <c r="K176" s="50"/>
+      <c r="L176" s="50"/>
+      <c r="M176" s="50"/>
+      <c r="N176" s="50"/>
+      <c r="O176" s="50"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A177" s="43">
         <v>201131</v>
       </c>
-      <c r="B175" s="44" t="b">
+      <c r="B177" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C175" s="44" t="b">
+      <c r="C177" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D175" s="44" t="b">
+      <c r="D177" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E175" s="44" t="b">
+      <c r="E177" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F175" s="44" t="b">
+      <c r="F177" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G175" s="44" t="s">
+      <c r="G177" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H175" s="44">
+      <c r="H177" s="43">
         <v>13</v>
       </c>
-      <c r="I175" s="46" t="s">
+      <c r="I177" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="J175" s="46"/>
-      <c r="K175" s="46"/>
-      <c r="L175" s="46"/>
-      <c r="M175" s="46"/>
-      <c r="N175" s="46"/>
-      <c r="O175" s="46"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A176" s="44">
+      <c r="J177" s="50"/>
+      <c r="K177" s="50"/>
+      <c r="L177" s="50"/>
+      <c r="M177" s="50"/>
+      <c r="N177" s="50"/>
+      <c r="O177" s="50"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A178" s="43">
         <v>201141</v>
       </c>
-      <c r="B176" s="44" t="b">
+      <c r="B178" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C176" s="44" t="b">
+      <c r="C178" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D176" s="44" t="b">
+      <c r="D178" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E176" s="44" t="b">
+      <c r="E178" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F176" s="44" t="b">
+      <c r="F178" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G176" s="44" t="s">
+      <c r="G178" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H176" s="44">
+      <c r="H178" s="43">
         <v>13</v>
       </c>
-      <c r="I176" s="46" t="s">
+      <c r="I178" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="J176" s="46"/>
-      <c r="K176" s="46"/>
-      <c r="L176" s="46"/>
-      <c r="M176" s="46"/>
-      <c r="N176" s="46"/>
-      <c r="O176" s="46"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A177" s="44">
+      <c r="J178" s="50"/>
+      <c r="K178" s="50"/>
+      <c r="L178" s="50"/>
+      <c r="M178" s="50"/>
+      <c r="N178" s="50"/>
+      <c r="O178" s="50"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A179" s="43">
         <v>202111</v>
       </c>
-      <c r="B177" s="44" t="b">
+      <c r="B179" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C177" s="44" t="b">
+      <c r="C179" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D177" s="44" t="b">
+      <c r="D179" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E177" s="44" t="b">
+      <c r="E179" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F177" s="44" t="b">
+      <c r="F179" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G177" s="44" t="s">
+      <c r="G179" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H177" s="44">
+      <c r="H179" s="43">
         <v>-10</v>
       </c>
-      <c r="I177" s="46" t="s">
+      <c r="I179" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="J177" s="46"/>
-      <c r="K177" s="46"/>
-      <c r="L177" s="46"/>
-      <c r="M177" s="46"/>
-      <c r="N177" s="46"/>
-      <c r="O177" s="46"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A178" s="44">
+      <c r="J179" s="50"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="50"/>
+      <c r="M179" s="50"/>
+      <c r="N179" s="50"/>
+      <c r="O179" s="50"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A180" s="43">
         <v>202121</v>
       </c>
-      <c r="B178" s="44" t="b">
+      <c r="B180" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C178" s="44" t="b">
+      <c r="C180" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D178" s="44" t="b">
+      <c r="D180" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E178" s="44" t="b">
+      <c r="E180" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F178" s="44" t="b">
+      <c r="F180" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G178" s="44" t="s">
+      <c r="G180" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H178" s="44">
+      <c r="H180" s="43">
         <v>-10</v>
       </c>
-      <c r="I178" s="46" t="s">
+      <c r="I180" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="J178" s="46"/>
-      <c r="K178" s="46"/>
-      <c r="L178" s="46"/>
-      <c r="M178" s="46"/>
-      <c r="N178" s="46"/>
-      <c r="O178" s="46"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A179" s="44">
+      <c r="J180" s="50"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="50"/>
+      <c r="M180" s="50"/>
+      <c r="N180" s="50"/>
+      <c r="O180" s="50"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A181" s="43">
         <v>202131</v>
       </c>
-      <c r="B179" s="44" t="b">
+      <c r="B181" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C179" s="44" t="b">
+      <c r="C181" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D179" s="44" t="b">
+      <c r="D181" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E179" s="44" t="b">
+      <c r="E181" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F179" s="44" t="b">
+      <c r="F181" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G179" s="44" t="s">
+      <c r="G181" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H179" s="44">
+      <c r="H181" s="43">
         <v>-10</v>
       </c>
-      <c r="I179" s="46" t="s">
+      <c r="I181" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="46"/>
-      <c r="M179" s="46"/>
-      <c r="N179" s="46"/>
-      <c r="O179" s="46"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A180" s="44">
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="50"/>
+      <c r="M181" s="50"/>
+      <c r="N181" s="50"/>
+      <c r="O181" s="50"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A182" s="43">
         <v>202141</v>
       </c>
-      <c r="B180" s="44" t="b">
+      <c r="B182" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C180" s="44" t="b">
+      <c r="C182" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D180" s="44" t="b">
+      <c r="D182" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E180" s="44" t="b">
+      <c r="E182" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F180" s="44" t="b">
+      <c r="F182" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G180" s="44" t="s">
+      <c r="G182" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="H180" s="44">
+      <c r="H182" s="43">
         <v>-10</v>
       </c>
-      <c r="I180" s="46" t="s">
+      <c r="I182" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="J180" s="46"/>
-      <c r="K180" s="46"/>
-      <c r="L180" s="46"/>
-      <c r="M180" s="46"/>
-      <c r="N180" s="46"/>
-      <c r="O180" s="46"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A181" s="44">
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="50"/>
+      <c r="M182" s="50"/>
+      <c r="N182" s="50"/>
+      <c r="O182" s="50"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A183" s="43">
         <v>203111</v>
       </c>
-      <c r="B181" s="44" t="b">
+      <c r="B183" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C181" s="44" t="b">
+      <c r="C183" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D181" s="44" t="b">
+      <c r="D183" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E181" s="44" t="b">
+      <c r="E183" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F181" s="44" t="b">
+      <c r="F183" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G181" s="44" t="s">
+      <c r="G183" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H181" s="44">
+      <c r="H183" s="43">
         <v>7</v>
       </c>
-      <c r="I181" s="46" t="s">
+      <c r="I183" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="J181" s="46"/>
-      <c r="K181" s="46"/>
-      <c r="L181" s="46"/>
-      <c r="M181" s="46"/>
-      <c r="N181" s="46"/>
-      <c r="O181" s="46"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A182" s="44">
+      <c r="J183" s="50"/>
+      <c r="K183" s="50"/>
+      <c r="L183" s="50"/>
+      <c r="M183" s="50"/>
+      <c r="N183" s="50"/>
+      <c r="O183" s="50"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A184" s="43">
         <v>203121</v>
       </c>
-      <c r="B182" s="44" t="b">
+      <c r="B184" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C182" s="44" t="b">
+      <c r="C184" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D182" s="44" t="b">
+      <c r="D184" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E182" s="44" t="b">
+      <c r="E184" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F182" s="44" t="b">
+      <c r="F184" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G182" s="44" t="s">
+      <c r="G184" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H182" s="44">
+      <c r="H184" s="43">
         <v>7</v>
       </c>
-      <c r="I182" s="46" t="s">
+      <c r="I184" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="J182" s="46"/>
-      <c r="K182" s="46"/>
-      <c r="L182" s="46"/>
-      <c r="M182" s="46"/>
-      <c r="N182" s="46"/>
-      <c r="O182" s="46"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A183" s="44">
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
+      <c r="M184" s="50"/>
+      <c r="N184" s="50"/>
+      <c r="O184" s="50"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A185" s="43">
         <v>203131</v>
       </c>
-      <c r="B183" s="44" t="b">
+      <c r="B185" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C183" s="44" t="b">
+      <c r="C185" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D183" s="44" t="b">
+      <c r="D185" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E183" s="44" t="b">
+      <c r="E185" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F183" s="44" t="b">
+      <c r="F185" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G183" s="44" t="s">
+      <c r="G185" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H183" s="44">
+      <c r="H185" s="43">
         <v>7</v>
       </c>
-      <c r="I183" s="46" t="s">
+      <c r="I185" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="J183" s="46"/>
-      <c r="K183" s="46"/>
-      <c r="L183" s="46"/>
-      <c r="M183" s="46"/>
-      <c r="N183" s="46"/>
-      <c r="O183" s="46"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A184" s="44">
+      <c r="J185" s="50"/>
+      <c r="K185" s="50"/>
+      <c r="L185" s="50"/>
+      <c r="M185" s="50"/>
+      <c r="N185" s="50"/>
+      <c r="O185" s="50"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A186" s="43">
         <v>203141</v>
       </c>
-      <c r="B184" s="44" t="b">
+      <c r="B186" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C184" s="44" t="b">
+      <c r="C186" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D184" s="44" t="b">
+      <c r="D186" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E184" s="44" t="b">
+      <c r="E186" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F184" s="44" t="b">
+      <c r="F186" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G184" s="44" t="s">
+      <c r="G186" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H184" s="44">
+      <c r="H186" s="43">
         <v>7</v>
       </c>
-      <c r="I184" s="46" t="s">
+      <c r="I186" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="J184" s="46"/>
-      <c r="K184" s="46"/>
-      <c r="L184" s="46"/>
-      <c r="M184" s="46"/>
-      <c r="N184" s="46"/>
-      <c r="O184" s="46"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A185" s="44">
+      <c r="J186" s="50"/>
+      <c r="K186" s="50"/>
+      <c r="L186" s="50"/>
+      <c r="M186" s="50"/>
+      <c r="N186" s="50"/>
+      <c r="O186" s="50"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A187" s="43">
         <v>204111</v>
       </c>
-      <c r="B185" s="44" t="b">
+      <c r="B187" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C185" s="44" t="b">
+      <c r="C187" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D185" s="44" t="b">
+      <c r="D187" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E185" s="44" t="b">
+      <c r="E187" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F185" s="44" t="b">
+      <c r="F187" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G185" s="44" t="s">
+      <c r="G187" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H185" s="44">
+      <c r="H187" s="43">
         <v>-7</v>
       </c>
-      <c r="I185" s="46" t="s">
+      <c r="I187" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="J185" s="46"/>
-      <c r="K185" s="46"/>
-      <c r="L185" s="46"/>
-      <c r="M185" s="46"/>
-      <c r="N185" s="46"/>
-      <c r="O185" s="46"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A186" s="44">
+      <c r="J187" s="50"/>
+      <c r="K187" s="50"/>
+      <c r="L187" s="50"/>
+      <c r="M187" s="50"/>
+      <c r="N187" s="50"/>
+      <c r="O187" s="50"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A188" s="43">
         <v>204121</v>
       </c>
-      <c r="B186" s="44" t="b">
+      <c r="B188" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C186" s="44" t="b">
+      <c r="C188" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D186" s="44" t="b">
+      <c r="D188" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E186" s="44" t="b">
+      <c r="E188" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F186" s="44" t="b">
+      <c r="F188" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G186" s="44" t="s">
+      <c r="G188" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H186" s="44">
+      <c r="H188" s="43">
         <v>-7</v>
       </c>
-      <c r="I186" s="46" t="s">
+      <c r="I188" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="J186" s="46"/>
-      <c r="K186" s="46"/>
-      <c r="L186" s="46"/>
-      <c r="M186" s="46"/>
-      <c r="N186" s="46"/>
-      <c r="O186" s="46"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A187" s="44">
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="50"/>
+      <c r="M188" s="50"/>
+      <c r="N188" s="50"/>
+      <c r="O188" s="50"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A189" s="43">
         <v>204131</v>
       </c>
-      <c r="B187" s="44" t="b">
+      <c r="B189" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C187" s="44" t="b">
+      <c r="C189" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D187" s="44" t="b">
+      <c r="D189" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E187" s="44" t="b">
+      <c r="E189" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F187" s="44" t="b">
+      <c r="F189" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G187" s="44" t="s">
+      <c r="G189" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H187" s="44">
+      <c r="H189" s="43">
         <v>-7</v>
       </c>
-      <c r="I187" s="46" t="s">
+      <c r="I189" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="J187" s="46"/>
-      <c r="K187" s="46"/>
-      <c r="L187" s="46"/>
-      <c r="M187" s="46"/>
-      <c r="N187" s="46"/>
-      <c r="O187" s="46"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A188" s="44">
+      <c r="J189" s="50"/>
+      <c r="K189" s="50"/>
+      <c r="L189" s="50"/>
+      <c r="M189" s="50"/>
+      <c r="N189" s="50"/>
+      <c r="O189" s="50"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A190" s="43">
         <v>204141</v>
       </c>
-      <c r="B188" s="44" t="b">
+      <c r="B190" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="C188" s="44" t="b">
+      <c r="C190" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D188" s="44" t="b">
+      <c r="D190" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E188" s="44" t="b">
+      <c r="E190" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F188" s="44" t="b">
+      <c r="F190" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G188" s="44" t="s">
+      <c r="G190" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="H188" s="44">
+      <c r="H190" s="43">
         <v>-7</v>
       </c>
-      <c r="I188" s="46" t="s">
+      <c r="I190" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="J188" s="46"/>
-      <c r="K188" s="46"/>
-      <c r="L188" s="46"/>
-      <c r="M188" s="46"/>
-      <c r="N188" s="46"/>
-      <c r="O188" s="46"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A189" s="44">
+      <c r="J190" s="50"/>
+      <c r="K190" s="50"/>
+      <c r="L190" s="50"/>
+      <c r="M190" s="50"/>
+      <c r="N190" s="50"/>
+      <c r="O190" s="50"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A191" s="43">
         <v>301011</v>
       </c>
-      <c r="B189" s="44" t="b">
+      <c r="B191" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C189" s="44" t="b">
+      <c r="C191" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D189" s="44" t="b">
+      <c r="D191" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E189" s="44" t="b">
+      <c r="E191" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F189" s="44" t="b">
+      <c r="F191" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G189" s="44"/>
-      <c r="H189" s="44">
+      <c r="G191" s="43"/>
+      <c r="H191" s="43">
         <v>5</v>
       </c>
-      <c r="I189" s="46" t="s">
+      <c r="I191" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="J189" s="46"/>
-      <c r="K189" s="46"/>
-      <c r="L189" s="46"/>
-      <c r="M189" s="46"/>
-      <c r="N189" s="46"/>
-      <c r="O189" s="46"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A190" s="44">
+      <c r="J191" s="50"/>
+      <c r="K191" s="50"/>
+      <c r="L191" s="50"/>
+      <c r="M191" s="50"/>
+      <c r="N191" s="50"/>
+      <c r="O191" s="50"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A192" s="43">
         <v>301021</v>
       </c>
-      <c r="B190" s="44" t="b">
+      <c r="B192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C190" s="44" t="b">
+      <c r="C192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D190" s="44" t="b">
+      <c r="D192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E190" s="44" t="b">
+      <c r="E192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F190" s="44" t="b">
+      <c r="F192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G190" s="44"/>
-      <c r="H190" s="44">
+      <c r="G192" s="43"/>
+      <c r="H192" s="43">
         <v>-5</v>
       </c>
-      <c r="I190" s="46" t="s">
+      <c r="I192" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="J190" s="46"/>
-      <c r="K190" s="46"/>
-      <c r="L190" s="46"/>
-      <c r="M190" s="46"/>
-      <c r="N190" s="46"/>
-      <c r="O190" s="46"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A191" s="44">
+      <c r="J192" s="50"/>
+      <c r="K192" s="50"/>
+      <c r="L192" s="50"/>
+      <c r="M192" s="50"/>
+      <c r="N192" s="50"/>
+      <c r="O192" s="50"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A193" s="43">
         <v>301031</v>
       </c>
-      <c r="B191" s="44" t="b">
+      <c r="B193" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C191" s="44" t="b">
+      <c r="C193" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D191" s="44" t="b">
+      <c r="D193" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E191" s="44" t="b">
+      <c r="E193" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F191" s="44" t="b">
+      <c r="F193" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G191" s="44"/>
-      <c r="H191" s="44">
+      <c r="G193" s="43"/>
+      <c r="H193" s="43">
         <v>5</v>
       </c>
-      <c r="I191" s="46" t="s">
+      <c r="I193" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="J191" s="46"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="46"/>
-      <c r="O191" s="46"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A192" s="44">
+      <c r="J193" s="50"/>
+      <c r="K193" s="50"/>
+      <c r="L193" s="50"/>
+      <c r="M193" s="50"/>
+      <c r="N193" s="50"/>
+      <c r="O193" s="50"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A194" s="43">
         <v>301041</v>
       </c>
-      <c r="B192" s="44" t="b">
+      <c r="B194" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C192" s="44" t="b">
+      <c r="C194" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D192" s="44" t="b">
+      <c r="D194" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E192" s="44" t="b">
+      <c r="E194" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F192" s="44" t="b">
+      <c r="F194" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G192" s="44"/>
-      <c r="H192" s="44">
+      <c r="G194" s="43"/>
+      <c r="H194" s="43">
         <v>5</v>
       </c>
-      <c r="I192" s="46" t="s">
+      <c r="I194" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
-      <c r="L192" s="46"/>
-      <c r="M192" s="46"/>
-      <c r="N192" s="46"/>
-      <c r="O192" s="46"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A193" s="44">
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="50"/>
+      <c r="M194" s="50"/>
+      <c r="N194" s="50"/>
+      <c r="O194" s="50"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A195" s="43">
         <v>301051</v>
       </c>
-      <c r="B193" s="44" t="b">
+      <c r="B195" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C193" s="44" t="b">
+      <c r="C195" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D193" s="44" t="b">
+      <c r="D195" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E193" s="44" t="b">
+      <c r="E195" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F193" s="44" t="b">
+      <c r="F195" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G193" s="44"/>
-      <c r="H193" s="44">
+      <c r="G195" s="43"/>
+      <c r="H195" s="43">
         <v>5</v>
       </c>
-      <c r="I193" s="46" t="s">
+      <c r="I195" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="J193" s="46"/>
-      <c r="K193" s="46"/>
-      <c r="L193" s="46"/>
-      <c r="M193" s="46"/>
-      <c r="N193" s="46"/>
-      <c r="O193" s="46"/>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A194" s="44">
+      <c r="J195" s="50"/>
+      <c r="K195" s="50"/>
+      <c r="L195" s="50"/>
+      <c r="M195" s="50"/>
+      <c r="N195" s="50"/>
+      <c r="O195" s="50"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A196" s="43">
         <v>301061</v>
       </c>
-      <c r="B194" s="44" t="b">
+      <c r="B196" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C194" s="44" t="b">
+      <c r="C196" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="D194" s="44" t="b">
+      <c r="D196" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E194" s="44" t="b">
+      <c r="E196" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F194" s="44" t="b">
+      <c r="F196" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G194" s="44"/>
-      <c r="H194" s="44">
+      <c r="G196" s="43"/>
+      <c r="H196" s="43">
         <v>5</v>
       </c>
-      <c r="I194" s="46" t="s">
+      <c r="I196" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="J194" s="46"/>
-      <c r="K194" s="46"/>
-      <c r="L194" s="46"/>
-      <c r="M194" s="46"/>
-      <c r="N194" s="46"/>
-      <c r="O194" s="46"/>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B195" s="47" t="s">
+      <c r="J196" s="50"/>
+      <c r="K196" s="50"/>
+      <c r="L196" s="50"/>
+      <c r="M196" s="50"/>
+      <c r="N196" s="50"/>
+      <c r="O196" s="50"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B197" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="C195" s="47"/>
-      <c r="D195" s="47"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="47"/>
-      <c r="G195" t="s">
+      <c r="C197" s="59"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" t="s">
         <v>508</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H197" t="s">
         <v>509</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="178">
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="H79:R79"/>
+  <mergeCells count="179">
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I194:O194"/>
+    <mergeCell ref="I195:O195"/>
+    <mergeCell ref="I196:O196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="I185:O185"/>
+    <mergeCell ref="I186:O186"/>
+    <mergeCell ref="I187:O187"/>
+    <mergeCell ref="I188:O188"/>
+    <mergeCell ref="I189:O189"/>
+    <mergeCell ref="I190:O190"/>
+    <mergeCell ref="I191:O191"/>
+    <mergeCell ref="I192:O192"/>
+    <mergeCell ref="I193:O193"/>
+    <mergeCell ref="I176:O176"/>
+    <mergeCell ref="I177:O177"/>
+    <mergeCell ref="I178:O178"/>
+    <mergeCell ref="I179:O179"/>
+    <mergeCell ref="I180:O180"/>
+    <mergeCell ref="I181:O181"/>
+    <mergeCell ref="I182:O182"/>
+    <mergeCell ref="I183:O183"/>
+    <mergeCell ref="I184:O184"/>
+    <mergeCell ref="I167:O167"/>
+    <mergeCell ref="I168:O168"/>
+    <mergeCell ref="I169:O169"/>
+    <mergeCell ref="I170:O170"/>
+    <mergeCell ref="I171:O171"/>
+    <mergeCell ref="I172:O172"/>
+    <mergeCell ref="I173:O173"/>
+    <mergeCell ref="I174:O174"/>
+    <mergeCell ref="I175:O175"/>
+    <mergeCell ref="S149:W162"/>
+    <mergeCell ref="S141:W148"/>
+    <mergeCell ref="A136:D140"/>
+    <mergeCell ref="A142:D156"/>
+    <mergeCell ref="A158:F162"/>
+    <mergeCell ref="E150:F152"/>
+    <mergeCell ref="E146:F148"/>
+    <mergeCell ref="E142:F144"/>
+    <mergeCell ref="E154:F156"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="K161:R161"/>
+    <mergeCell ref="K162:R162"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="S134:W134"/>
+    <mergeCell ref="S135:W138"/>
+    <mergeCell ref="S139:W140"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K159:R159"/>
+    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
     <mergeCell ref="H142:I142"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E112:Q112"/>
     <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="H71:R71"/>
     <mergeCell ref="H72:R72"/>
     <mergeCell ref="H73:R73"/>
@@ -9180,143 +9328,30 @@
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="K132:R132"/>
-    <mergeCell ref="K133:R133"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="S132:W132"/>
-    <mergeCell ref="S133:W136"/>
-    <mergeCell ref="S137:W138"/>
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="H152:I152"/>
     <mergeCell ref="H153:I153"/>
     <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="S147:W160"/>
-    <mergeCell ref="S139:W146"/>
-    <mergeCell ref="A134:D138"/>
-    <mergeCell ref="A140:D154"/>
-    <mergeCell ref="A156:F160"/>
-    <mergeCell ref="E148:F150"/>
-    <mergeCell ref="E144:F146"/>
-    <mergeCell ref="E140:F142"/>
-    <mergeCell ref="E152:F154"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="K159:R159"/>
-    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
     <mergeCell ref="H137:I137"/>
     <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="I165:O165"/>
-    <mergeCell ref="I166:O166"/>
-    <mergeCell ref="I167:O167"/>
-    <mergeCell ref="I168:O168"/>
-    <mergeCell ref="I169:O169"/>
-    <mergeCell ref="I170:O170"/>
-    <mergeCell ref="I171:O171"/>
-    <mergeCell ref="I172:O172"/>
-    <mergeCell ref="I173:O173"/>
-    <mergeCell ref="I174:O174"/>
-    <mergeCell ref="I175:O175"/>
-    <mergeCell ref="I176:O176"/>
-    <mergeCell ref="I177:O177"/>
-    <mergeCell ref="I178:O178"/>
-    <mergeCell ref="I179:O179"/>
-    <mergeCell ref="I180:O180"/>
-    <mergeCell ref="I181:O181"/>
-    <mergeCell ref="I182:O182"/>
-    <mergeCell ref="I192:O192"/>
-    <mergeCell ref="I193:O193"/>
-    <mergeCell ref="I194:O194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="I183:O183"/>
-    <mergeCell ref="I184:O184"/>
-    <mergeCell ref="I185:O185"/>
-    <mergeCell ref="I186:O186"/>
-    <mergeCell ref="I187:O187"/>
-    <mergeCell ref="I188:O188"/>
-    <mergeCell ref="I189:O189"/>
-    <mergeCell ref="I190:O190"/>
-    <mergeCell ref="I191:O191"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E111:Q111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9769,71 +9804,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="50">
         <v>6</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -9879,134 +9914,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="50">
         <v>0</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50">
         <v>0</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="50">
         <v>1</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50">
         <v>0</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -10082,73 +10117,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -10174,33 +10209,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -10226,60 +10261,62 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -10296,13 +10333,11 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10343,10 +10378,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:N126"/>
+  <dimension ref="B1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10782,17 +10817,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="57" t="s">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="59"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -10899,192 +10934,192 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="36" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="35" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="36" t="s">
+      <c r="G27" s="53"/>
+      <c r="H27" s="35" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>1</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="36" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="36">
+      <c r="G28" s="53"/>
+      <c r="H28" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>2</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="36" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="36">
+      <c r="G29" s="53"/>
+      <c r="H29" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>3</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="36" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="36">
+      <c r="G30" s="53"/>
+      <c r="H30" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>4</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="36" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="36">
+      <c r="G31" s="53"/>
+      <c r="H31" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>5</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="36" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="36">
+      <c r="G32" s="53"/>
+      <c r="H32" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>6</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="36">
+      <c r="G33" s="53"/>
+      <c r="H33" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>7</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="36">
+      <c r="G34" s="53"/>
+      <c r="H34" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>8</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="36" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="36">
+      <c r="G35" s="53"/>
+      <c r="H35" s="35">
         <v>20</v>
       </c>
     </row>
@@ -11099,196 +11134,196 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="40" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="40" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="40">
+      <c r="B41" s="39">
         <v>1</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="60"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="50">
         <v>1</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="40">
+      <c r="B42" s="39">
         <v>2</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="50">
         <v>1</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="40">
+      <c r="B43" s="39">
         <v>3</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="61"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="50">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="40">
+      <c r="B44" s="39">
         <v>4</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="60"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="50">
         <v>2</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="40">
+      <c r="B45" s="39">
         <v>5</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>121</v>
       </c>
       <c r="D45" s="60"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="50">
         <v>2</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46" s="40">
+      <c r="B46" s="39">
         <v>6</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>122</v>
       </c>
       <c r="D46" s="60"/>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="50">
         <v>3</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" s="40">
+      <c r="B47" s="39">
         <v>7</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>123</v>
       </c>
       <c r="D47" s="60"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="50">
         <v>3</v>
       </c>
-      <c r="G47" s="46"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="40">
+      <c r="B48" s="39">
         <v>8</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="60"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="50">
         <v>3</v>
       </c>
-      <c r="G48" s="46"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="40">
+      <c r="B49" s="39">
         <v>9</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>125</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="50">
         <v>3</v>
       </c>
-      <c r="G49" s="46"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="40">
+      <c r="B50" s="39">
         <v>10</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>126</v>
       </c>
       <c r="D50" s="60"/>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="50">
         <v>3</v>
       </c>
-      <c r="G50" s="46"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -11301,1805 +11336,1867 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="44" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="44" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="35">
+      <c r="B56" s="44">
         <v>1</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="44">
         <v>1</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D56" s="44">
         <v>0</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="44">
         <v>0</v>
       </c>
-      <c r="F56" s="33">
+      <c r="F56" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="35">
+      <c r="B57" s="44">
         <v>2</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="44">
         <v>2</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="44">
         <v>10</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="44">
         <v>10</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="35">
+      <c r="B58" s="44">
         <v>3</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="44">
         <v>3</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="44">
         <v>10</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="44">
         <v>10</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="35">
+      <c r="B59" s="44">
         <v>4</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="44">
         <v>4</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="44">
         <v>10</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="44">
         <v>10</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="35">
+      <c r="B60" s="44">
         <v>5</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="44">
         <v>5</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="44">
         <v>10</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="44">
         <v>10</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
+      <c r="B61" s="28">
+        <v>10</v>
+      </c>
+      <c r="C61" s="28">
+        <v>10</v>
+      </c>
+      <c r="D61" s="28">
+        <v>60</v>
+      </c>
+      <c r="E61" s="28">
+        <v>60</v>
+      </c>
+      <c r="F61" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
         <v>457</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>353</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>353</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="46" t="s">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="E65" s="46"/>
-      <c r="F65" s="33" t="s">
+      <c r="E67" s="50"/>
+      <c r="F67" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G67" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H67" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="I65" s="33" t="s">
+      <c r="I67" s="33" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="46" t="s">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="33" t="s">
+      <c r="E68" s="50"/>
+      <c r="F68" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G68" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H68" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="I66" s="33" t="s">
+      <c r="I68" s="33" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="46">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="50">
         <v>1</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="33" t="s">
+      <c r="E69" s="50"/>
+      <c r="F69" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G69" s="33">
         <v>0</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H69" s="33">
         <v>0</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I69" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="46">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B70" s="50">
         <v>2</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="33" t="s">
+      <c r="E70" s="50"/>
+      <c r="F70" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="G68" s="33">
+      <c r="G70" s="33">
         <v>20</v>
       </c>
-      <c r="H68" s="33">
+      <c r="H70" s="33">
         <v>20</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I70" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="46">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="50">
         <v>3</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46" t="s">
+      <c r="C71" s="50"/>
+      <c r="D71" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="33" t="s">
+      <c r="E71" s="50"/>
+      <c r="F71" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="G69" s="33">
+      <c r="G71" s="33">
         <v>40</v>
       </c>
-      <c r="H69" s="33">
+      <c r="H71" s="33">
         <v>40</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I71" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="G70" t="s">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G72" t="s">
         <v>353</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" t="s">
         <v>353</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I72" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>418</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F75" t="s">
         <v>427</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J75" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="36" t="s">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F76" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G76" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H76" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="J76" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="K76" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="L74" s="36" t="s">
+      <c r="L76" s="35" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B75" s="36" t="s">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="H75" s="36" t="s">
+      <c r="H77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="J75" s="36" t="s">
+      <c r="J77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="K75" s="36" t="s">
+      <c r="K77" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="L77" s="35" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B76" s="36">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="35">
         <v>1</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C78" s="35">
         <v>1</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D78" s="35">
         <v>6</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F78" s="35">
         <v>1</v>
       </c>
-      <c r="G76" s="36">
+      <c r="G78" s="35">
         <v>1</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H78" s="35">
         <v>0</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J78" s="35">
         <v>1</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K78" s="35">
         <v>1</v>
       </c>
-      <c r="L76" s="36">
+      <c r="L78" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B77" s="36">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="35">
         <v>2</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C79" s="35">
         <v>2</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D79" s="35">
         <v>10</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F79" s="35">
         <v>2</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G79" s="35">
         <v>2</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H79" s="35">
         <v>0</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J79" s="35">
         <v>2</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K79" s="35">
         <v>2</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L79" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="36">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="35">
         <v>3</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C80" s="35">
         <v>3</v>
       </c>
-      <c r="D78" s="36">
+      <c r="D80" s="35">
         <v>14</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F80" s="35">
         <v>3</v>
       </c>
-      <c r="G78" s="36">
+      <c r="G80" s="35">
         <v>3</v>
       </c>
-      <c r="H78" s="36">
+      <c r="H80" s="35">
         <v>0</v>
       </c>
-      <c r="J78" s="36">
+      <c r="J80" s="35">
         <v>3</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K80" s="35">
         <v>3</v>
       </c>
-      <c r="L78" s="36">
+      <c r="L80" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="36">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B81" s="35">
         <v>4</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C81" s="35">
         <v>4</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D81" s="35">
         <v>18</v>
       </c>
-      <c r="F79" s="36">
+      <c r="F81" s="35">
         <v>4</v>
       </c>
-      <c r="G79" s="36">
+      <c r="G81" s="35">
         <v>4</v>
       </c>
-      <c r="H79" s="36">
+      <c r="H81" s="35">
         <v>0</v>
       </c>
-      <c r="J79" s="36">
+      <c r="J81" s="35">
         <v>4</v>
       </c>
-      <c r="K79" s="36">
+      <c r="K81" s="35">
         <v>4</v>
       </c>
-      <c r="L79" s="36">
+      <c r="L81" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B80" s="36">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B82" s="35">
         <v>5</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C82" s="35">
         <v>5</v>
       </c>
-      <c r="D80" s="36">
+      <c r="D82" s="35">
         <v>22</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F82" s="35">
         <v>5</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G82" s="35">
         <v>5</v>
       </c>
-      <c r="H80" s="36">
+      <c r="H82" s="35">
         <v>0</v>
       </c>
-      <c r="J80" s="36">
+      <c r="J82" s="35">
         <v>5</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K82" s="35">
         <v>5</v>
       </c>
-      <c r="L80" s="36">
+      <c r="L82" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B81" s="36">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B83" s="35">
         <v>6</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C83" s="35">
         <v>6</v>
       </c>
-      <c r="D81" s="36">
+      <c r="D83" s="35">
         <v>26</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F83" s="35">
         <v>6</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G83" s="35">
         <v>6</v>
       </c>
-      <c r="H81" s="36">
+      <c r="H83" s="35">
         <v>1</v>
       </c>
-      <c r="J81" s="36">
+      <c r="J83" s="35">
         <v>6</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K83" s="35">
         <v>6</v>
       </c>
-      <c r="L81" s="36">
+      <c r="L83" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B82" s="36">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B84" s="35">
         <v>7</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C84" s="35">
         <v>7</v>
       </c>
-      <c r="D82" s="36">
+      <c r="D84" s="35">
         <v>30</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F84" s="35">
         <v>7</v>
       </c>
-      <c r="G82" s="36">
+      <c r="G84" s="35">
         <v>7</v>
       </c>
-      <c r="H82" s="36">
+      <c r="H84" s="35">
         <v>1</v>
       </c>
-      <c r="J82" s="36">
+      <c r="J84" s="35">
         <v>7</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K84" s="35">
         <v>7</v>
       </c>
-      <c r="L82" s="36">
+      <c r="L84" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B83" s="36">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B85" s="35">
         <v>8</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C85" s="35">
         <v>8</v>
       </c>
-      <c r="D83" s="36">
+      <c r="D85" s="35">
         <v>34</v>
       </c>
-      <c r="F83" s="36">
+      <c r="F85" s="35">
         <v>8</v>
       </c>
-      <c r="G83" s="36">
+      <c r="G85" s="35">
         <v>8</v>
       </c>
-      <c r="H83" s="36">
+      <c r="H85" s="35">
         <v>1</v>
       </c>
-      <c r="J83" s="36">
+      <c r="J85" s="35">
         <v>8</v>
       </c>
-      <c r="K83" s="36">
+      <c r="K85" s="35">
         <v>8</v>
       </c>
-      <c r="L83" s="36">
+      <c r="L85" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B84" s="36">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B86" s="35">
         <v>9</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C86" s="35">
         <v>9</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D86" s="35">
         <v>38</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F86" s="35">
         <v>9</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G86" s="35">
         <v>9</v>
       </c>
-      <c r="H84" s="36">
+      <c r="H86" s="35">
         <v>2</v>
       </c>
-      <c r="J84" s="36">
+      <c r="J86" s="35">
         <v>9</v>
       </c>
-      <c r="K84" s="36">
+      <c r="K86" s="35">
         <v>9</v>
       </c>
-      <c r="L84" s="36">
+      <c r="L86" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B85" s="36">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B87" s="35">
         <v>10</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C87" s="35">
         <v>10</v>
       </c>
-      <c r="D85" s="36">
+      <c r="D87" s="35">
         <v>42</v>
       </c>
-      <c r="F85" s="36">
+      <c r="F87" s="35">
         <v>10</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G87" s="35">
         <v>10</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H87" s="35">
         <v>2</v>
       </c>
-      <c r="J85" s="36">
+      <c r="J87" s="35">
         <v>10</v>
       </c>
-      <c r="K85" s="36">
+      <c r="K87" s="35">
         <v>10</v>
       </c>
-      <c r="L85" s="36">
+      <c r="L87" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B86" s="36">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B88" s="35">
         <v>11</v>
       </c>
-      <c r="C86" s="36">
+      <c r="C88" s="35">
         <v>11</v>
       </c>
-      <c r="D86" s="36">
+      <c r="D88" s="35">
         <v>46</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F88" s="35">
         <v>11</v>
       </c>
-      <c r="G86" s="36">
+      <c r="G88" s="35">
         <v>11</v>
       </c>
-      <c r="H86" s="36">
+      <c r="H88" s="35">
         <v>3</v>
       </c>
-      <c r="J86" s="36">
+      <c r="J88" s="35">
         <v>11</v>
       </c>
-      <c r="K86" s="36">
+      <c r="K88" s="35">
         <v>11</v>
       </c>
-      <c r="L86" s="36">
+      <c r="L88" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B87" s="36">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B89" s="35">
         <v>12</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C89" s="35">
         <v>12</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D89" s="35">
         <v>51</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F89" s="35">
         <v>12</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G89" s="35">
         <v>12</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H89" s="35">
         <v>3</v>
       </c>
-      <c r="J87" s="36">
+      <c r="J89" s="35">
         <v>12</v>
       </c>
-      <c r="K87" s="36">
+      <c r="K89" s="35">
         <v>12</v>
       </c>
-      <c r="L87" s="36">
+      <c r="L89" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B88" s="36">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B90" s="35">
         <v>13</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C90" s="35">
         <v>13</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D90" s="35">
         <v>56</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F90" s="35">
         <v>13</v>
       </c>
-      <c r="G88" s="36">
+      <c r="G90" s="35">
         <v>13</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H90" s="35">
         <v>4</v>
       </c>
-      <c r="J88" s="36">
+      <c r="J90" s="35">
         <v>13</v>
       </c>
-      <c r="K88" s="36">
+      <c r="K90" s="35">
         <v>13</v>
       </c>
-      <c r="L88" s="36">
+      <c r="L90" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B89" s="36">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B91" s="35">
         <v>14</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C91" s="35">
         <v>14</v>
       </c>
-      <c r="D89" s="36">
+      <c r="D91" s="35">
         <v>62</v>
       </c>
-      <c r="F89" s="36">
+      <c r="F91" s="35">
         <v>14</v>
       </c>
-      <c r="G89" s="36">
+      <c r="G91" s="35">
         <v>14</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H91" s="35">
         <v>4</v>
       </c>
-      <c r="J89" s="36">
+      <c r="J91" s="35">
         <v>14</v>
       </c>
-      <c r="K89" s="36">
+      <c r="K91" s="35">
         <v>14</v>
       </c>
-      <c r="L89" s="36">
+      <c r="L91" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B90" s="36">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B92" s="35">
         <v>15</v>
       </c>
-      <c r="C90" s="36">
+      <c r="C92" s="35">
         <v>15</v>
       </c>
-      <c r="D90" s="36">
+      <c r="D92" s="35">
         <v>68</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F92" s="35">
         <v>15</v>
       </c>
-      <c r="G90" s="36">
+      <c r="G92" s="35">
         <v>15</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H92" s="35">
         <v>5</v>
       </c>
-      <c r="J90" s="36">
+      <c r="J92" s="35">
         <v>15</v>
       </c>
-      <c r="K90" s="36">
+      <c r="K92" s="35">
         <v>15</v>
       </c>
-      <c r="L90" s="36">
+      <c r="L92" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B91" s="36">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B93" s="35">
         <v>16</v>
       </c>
-      <c r="C91" s="36">
+      <c r="C93" s="35">
         <v>16</v>
       </c>
-      <c r="D91" s="36">
+      <c r="D93" s="35">
         <v>75</v>
       </c>
-      <c r="F91" s="36">
+      <c r="F93" s="35">
         <v>16</v>
       </c>
-      <c r="G91" s="36">
+      <c r="G93" s="35">
         <v>16</v>
       </c>
-      <c r="H91" s="36">
+      <c r="H93" s="35">
         <v>5</v>
       </c>
-      <c r="J91" s="36">
+      <c r="J93" s="35">
         <v>16</v>
       </c>
-      <c r="K91" s="36">
+      <c r="K93" s="35">
         <v>16</v>
       </c>
-      <c r="L91" s="36">
+      <c r="L93" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B92" s="36">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B94" s="35">
         <v>17</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C94" s="35">
         <v>17</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D94" s="35">
         <v>83</v>
       </c>
-      <c r="F92" s="36">
+      <c r="F94" s="35">
         <v>17</v>
       </c>
-      <c r="G92" s="36">
+      <c r="G94" s="35">
         <v>17</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H94" s="35">
         <v>6</v>
       </c>
-      <c r="J92" s="36">
+      <c r="J94" s="35">
         <v>17</v>
       </c>
-      <c r="K92" s="36">
+      <c r="K94" s="35">
         <v>17</v>
       </c>
-      <c r="L92" s="36">
+      <c r="L94" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B93" s="36">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B95" s="35">
         <v>18</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C95" s="35">
         <v>18</v>
       </c>
-      <c r="D93" s="36">
+      <c r="D95" s="35">
         <v>91</v>
       </c>
-      <c r="F93" s="36">
+      <c r="F95" s="35">
         <v>18</v>
       </c>
-      <c r="G93" s="36">
+      <c r="G95" s="35">
         <v>18</v>
       </c>
-      <c r="H93" s="36">
+      <c r="H95" s="35">
         <v>6</v>
       </c>
-      <c r="J93" s="36">
+      <c r="J95" s="35">
         <v>18</v>
       </c>
-      <c r="K93" s="36">
+      <c r="K95" s="35">
         <v>18</v>
       </c>
-      <c r="L93" s="36">
+      <c r="L95" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B94" s="36">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B96" s="35">
         <v>19</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C96" s="35">
         <v>19</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D96" s="35">
         <v>100</v>
       </c>
-      <c r="F94" s="36">
+      <c r="F96" s="35">
         <v>19</v>
       </c>
-      <c r="G94" s="36">
+      <c r="G96" s="35">
         <v>19</v>
       </c>
-      <c r="H94" s="36">
+      <c r="H96" s="35">
         <v>7</v>
       </c>
-      <c r="J94" s="36">
+      <c r="J96" s="35">
         <v>19</v>
       </c>
-      <c r="K94" s="36">
+      <c r="K96" s="35">
         <v>19</v>
       </c>
-      <c r="L94" s="36">
+      <c r="L96" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B95" s="36">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B97" s="35">
         <v>20</v>
       </c>
-      <c r="C95" s="36">
+      <c r="C97" s="35">
         <v>20</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D97" s="35">
         <v>110</v>
       </c>
-      <c r="F95" s="36">
+      <c r="F97" s="35">
         <v>20</v>
       </c>
-      <c r="G95" s="36">
+      <c r="G97" s="35">
         <v>20</v>
       </c>
-      <c r="H95" s="36">
+      <c r="H97" s="35">
         <v>7</v>
       </c>
-      <c r="J95" s="36">
+      <c r="J97" s="35">
         <v>20</v>
       </c>
-      <c r="K95" s="36">
+      <c r="K97" s="35">
         <v>20</v>
       </c>
-      <c r="L95" s="36">
+      <c r="L97" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B96" s="36">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B98" s="35">
         <v>21</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C98" s="35">
         <v>21</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D98" s="35">
         <v>121</v>
       </c>
-      <c r="F96" s="36">
+      <c r="F98" s="35">
         <v>21</v>
       </c>
-      <c r="G96" s="36">
+      <c r="G98" s="35">
         <v>21</v>
       </c>
-      <c r="H96" s="36">
+      <c r="H98" s="35">
         <v>8</v>
       </c>
-      <c r="J96" s="36">
+      <c r="J98" s="35">
         <v>21</v>
       </c>
-      <c r="K96" s="36">
+      <c r="K98" s="35">
         <v>21</v>
       </c>
-      <c r="L96" s="36">
+      <c r="L98" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B97" s="36">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B99" s="35">
         <v>22</v>
       </c>
-      <c r="C97" s="36">
+      <c r="C99" s="35">
         <v>22</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D99" s="35">
         <v>133</v>
       </c>
-      <c r="F97" s="36">
+      <c r="F99" s="35">
         <v>22</v>
       </c>
-      <c r="G97" s="36">
+      <c r="G99" s="35">
         <v>22</v>
       </c>
-      <c r="H97" s="36">
+      <c r="H99" s="35">
         <v>8</v>
       </c>
-      <c r="J97" s="36">
+      <c r="J99" s="35">
         <v>22</v>
       </c>
-      <c r="K97" s="36">
+      <c r="K99" s="35">
         <v>22</v>
       </c>
-      <c r="L97" s="36">
+      <c r="L99" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B98" s="36">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B100" s="35">
         <v>23</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C100" s="35">
         <v>23</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D100" s="35">
         <v>146</v>
       </c>
-      <c r="F98" s="36">
+      <c r="F100" s="35">
         <v>23</v>
       </c>
-      <c r="G98" s="36">
+      <c r="G100" s="35">
         <v>23</v>
       </c>
-      <c r="H98" s="36">
+      <c r="H100" s="35">
         <v>9</v>
       </c>
-      <c r="J98" s="36">
+      <c r="J100" s="35">
         <v>23</v>
       </c>
-      <c r="K98" s="36">
+      <c r="K100" s="35">
         <v>23</v>
       </c>
-      <c r="L98" s="36">
+      <c r="L100" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B99" s="36">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B101" s="35">
         <v>24</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C101" s="35">
         <v>24</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D101" s="35">
         <v>161</v>
       </c>
-      <c r="F99" s="36">
+      <c r="F101" s="35">
         <v>24</v>
       </c>
-      <c r="G99" s="36">
+      <c r="G101" s="35">
         <v>24</v>
       </c>
-      <c r="H99" s="36">
+      <c r="H101" s="35">
         <v>9</v>
       </c>
-      <c r="J99" s="36">
+      <c r="J101" s="35">
         <v>24</v>
       </c>
-      <c r="K99" s="36">
+      <c r="K101" s="35">
         <v>24</v>
       </c>
-      <c r="L99" s="36">
+      <c r="L101" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B100" s="36">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B102" s="35">
         <v>25</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C102" s="35">
         <v>25</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D102" s="35">
         <v>177</v>
       </c>
-      <c r="F100" s="36">
+      <c r="F102" s="35">
         <v>25</v>
       </c>
-      <c r="G100" s="36">
+      <c r="G102" s="35">
         <v>25</v>
       </c>
-      <c r="H100" s="36">
+      <c r="H102" s="35">
         <v>10</v>
       </c>
-      <c r="J100" s="36">
+      <c r="J102" s="35">
         <v>25</v>
       </c>
-      <c r="K100" s="36">
+      <c r="K102" s="35">
         <v>25</v>
       </c>
-      <c r="L100" s="36">
+      <c r="L102" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B101" s="36">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B103" s="35">
         <v>26</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C103" s="35">
         <v>26</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D103" s="35">
         <v>195</v>
       </c>
-      <c r="F101" s="36">
+      <c r="F103" s="35">
         <v>26</v>
       </c>
-      <c r="G101" s="36">
+      <c r="G103" s="35">
         <v>26</v>
       </c>
-      <c r="H101" s="36">
+      <c r="H103" s="35">
         <v>10</v>
       </c>
-      <c r="J101" s="36">
+      <c r="J103" s="35">
         <v>26</v>
       </c>
-      <c r="K101" s="36">
+      <c r="K103" s="35">
         <v>26</v>
       </c>
-      <c r="L101" s="36">
+      <c r="L103" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B102" s="36">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B104" s="35">
         <v>27</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C104" s="35">
         <v>27</v>
       </c>
-      <c r="D102" s="36">
+      <c r="D104" s="35">
         <v>215</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F104" s="35">
         <v>27</v>
       </c>
-      <c r="G102" s="36">
+      <c r="G104" s="35">
         <v>27</v>
       </c>
-      <c r="H102" s="36">
+      <c r="H104" s="35">
         <v>11</v>
       </c>
-      <c r="J102" s="36">
+      <c r="J104" s="35">
         <v>27</v>
       </c>
-      <c r="K102" s="36">
+      <c r="K104" s="35">
         <v>27</v>
       </c>
-      <c r="L102" s="36">
+      <c r="L104" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B103" s="36">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B105" s="35">
         <v>28</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C105" s="35">
         <v>28</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D105" s="35">
         <v>237</v>
       </c>
-      <c r="F103" s="36">
+      <c r="F105" s="35">
         <v>28</v>
       </c>
-      <c r="G103" s="36">
+      <c r="G105" s="35">
         <v>28</v>
       </c>
-      <c r="H103" s="36">
+      <c r="H105" s="35">
         <v>11</v>
       </c>
-      <c r="J103" s="36">
+      <c r="J105" s="35">
         <v>28</v>
       </c>
-      <c r="K103" s="36">
+      <c r="K105" s="35">
         <v>28</v>
       </c>
-      <c r="L103" s="36">
+      <c r="L105" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B104" s="36">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B106" s="35">
         <v>29</v>
       </c>
-      <c r="C104" s="36">
+      <c r="C106" s="35">
         <v>29</v>
       </c>
-      <c r="D104" s="36">
+      <c r="D106" s="35">
         <v>261</v>
       </c>
-      <c r="F104" s="36">
+      <c r="F106" s="35">
         <v>29</v>
       </c>
-      <c r="G104" s="36">
+      <c r="G106" s="35">
         <v>29</v>
       </c>
-      <c r="H104" s="36">
+      <c r="H106" s="35">
         <v>12</v>
       </c>
-      <c r="J104" s="36">
+      <c r="J106" s="35">
         <v>29</v>
       </c>
-      <c r="K104" s="36">
+      <c r="K106" s="35">
         <v>29</v>
       </c>
-      <c r="L104" s="36">
+      <c r="L106" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B105" s="36">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B107" s="35">
         <v>30</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C107" s="35">
         <v>30</v>
       </c>
-      <c r="D105" s="36">
+      <c r="D107" s="35">
         <v>287</v>
       </c>
-      <c r="F105" s="36">
+      <c r="F107" s="35">
         <v>30</v>
       </c>
-      <c r="G105" s="36">
+      <c r="G107" s="35">
         <v>30</v>
       </c>
-      <c r="H105" s="36">
+      <c r="H107" s="35">
         <v>12</v>
       </c>
-      <c r="J105" s="36">
+      <c r="J107" s="35">
         <v>30</v>
       </c>
-      <c r="K105" s="36">
+      <c r="K107" s="35">
         <v>30</v>
       </c>
-      <c r="L105" s="36">
+      <c r="L107" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="36">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B108" s="35">
         <v>31</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C108" s="35">
         <v>31</v>
       </c>
-      <c r="D106" s="36">
+      <c r="D108" s="35">
         <v>316</v>
       </c>
-      <c r="F106" s="36">
+      <c r="F108" s="35">
         <v>31</v>
       </c>
-      <c r="G106" s="36">
+      <c r="G108" s="35">
         <v>31</v>
       </c>
-      <c r="H106" s="36">
+      <c r="H108" s="35">
         <v>13</v>
       </c>
-      <c r="J106" s="36">
+      <c r="J108" s="35">
         <v>31</v>
       </c>
-      <c r="K106" s="36">
+      <c r="K108" s="35">
         <v>31</v>
       </c>
-      <c r="L106" s="36">
+      <c r="L108" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B107" s="36">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B109" s="35">
         <v>32</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C109" s="35">
         <v>32</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D109" s="35">
         <v>348</v>
       </c>
-      <c r="F107" s="36">
+      <c r="F109" s="35">
         <v>32</v>
       </c>
-      <c r="G107" s="36">
+      <c r="G109" s="35">
         <v>32</v>
       </c>
-      <c r="H107" s="36">
+      <c r="H109" s="35">
         <v>14</v>
       </c>
-      <c r="J107" s="36">
+      <c r="J109" s="35">
         <v>32</v>
       </c>
-      <c r="K107" s="36">
+      <c r="K109" s="35">
         <v>32</v>
       </c>
-      <c r="L107" s="36">
+      <c r="L109" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B108" s="36">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B110" s="35">
         <v>33</v>
       </c>
-      <c r="C108" s="36">
+      <c r="C110" s="35">
         <v>33</v>
       </c>
-      <c r="D108" s="36">
+      <c r="D110" s="35">
         <v>383</v>
       </c>
-      <c r="F108" s="36">
+      <c r="F110" s="35">
         <v>33</v>
       </c>
-      <c r="G108" s="36">
+      <c r="G110" s="35">
         <v>33</v>
       </c>
-      <c r="H108" s="36">
+      <c r="H110" s="35">
         <v>15</v>
       </c>
-      <c r="J108" s="36">
+      <c r="J110" s="35">
         <v>33</v>
       </c>
-      <c r="K108" s="36">
+      <c r="K110" s="35">
         <v>33</v>
       </c>
-      <c r="L108" s="36">
+      <c r="L110" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="36">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B111" s="35">
         <v>34</v>
       </c>
-      <c r="C109" s="36">
+      <c r="C111" s="35">
         <v>34</v>
       </c>
-      <c r="D109" s="36">
+      <c r="D111" s="35">
         <v>421</v>
       </c>
-      <c r="F109" s="36">
+      <c r="F111" s="35">
         <v>34</v>
       </c>
-      <c r="G109" s="36">
+      <c r="G111" s="35">
         <v>34</v>
       </c>
-      <c r="H109" s="36">
+      <c r="H111" s="35">
         <v>16</v>
       </c>
-      <c r="J109" s="36">
+      <c r="J111" s="35">
         <v>34</v>
       </c>
-      <c r="K109" s="36">
+      <c r="K111" s="35">
         <v>34</v>
       </c>
-      <c r="L109" s="36">
+      <c r="L111" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B110" s="36">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B112" s="35">
         <v>35</v>
       </c>
-      <c r="C110" s="36">
+      <c r="C112" s="35">
         <v>35</v>
       </c>
-      <c r="D110" s="36">
+      <c r="D112" s="35">
         <v>463</v>
       </c>
-      <c r="F110" s="36">
+      <c r="F112" s="35">
         <v>35</v>
       </c>
-      <c r="G110" s="36">
+      <c r="G112" s="35">
         <v>35</v>
       </c>
-      <c r="H110" s="36">
+      <c r="H112" s="35">
         <v>17</v>
       </c>
-      <c r="J110" s="36">
+      <c r="J112" s="35">
         <v>35</v>
       </c>
-      <c r="K110" s="36">
+      <c r="K112" s="35">
         <v>35</v>
       </c>
-      <c r="L110" s="36">
+      <c r="L112" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B111" s="36">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B113" s="35">
         <v>36</v>
       </c>
-      <c r="C111" s="36">
+      <c r="C113" s="35">
         <v>36</v>
       </c>
-      <c r="D111" s="36">
+      <c r="D113" s="35">
         <v>509</v>
       </c>
-      <c r="F111" s="36">
+      <c r="F113" s="35">
         <v>36</v>
       </c>
-      <c r="G111" s="36">
+      <c r="G113" s="35">
         <v>36</v>
       </c>
-      <c r="H111" s="36">
+      <c r="H113" s="35">
         <v>18</v>
       </c>
-      <c r="J111" s="36">
+      <c r="J113" s="35">
         <v>36</v>
       </c>
-      <c r="K111" s="36">
+      <c r="K113" s="35">
         <v>36</v>
       </c>
-      <c r="L111" s="36">
+      <c r="L113" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B112" s="36">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B114" s="35">
         <v>37</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C114" s="35">
         <v>37</v>
       </c>
-      <c r="D112" s="36">
+      <c r="D114" s="35">
         <v>560</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F114" s="35">
         <v>37</v>
       </c>
-      <c r="G112" s="36">
+      <c r="G114" s="35">
         <v>37</v>
       </c>
-      <c r="H112" s="36">
+      <c r="H114" s="35">
         <v>19</v>
       </c>
-      <c r="J112" s="36">
+      <c r="J114" s="35">
         <v>37</v>
       </c>
-      <c r="K112" s="36">
+      <c r="K114" s="35">
         <v>37</v>
       </c>
-      <c r="L112" s="36">
+      <c r="L114" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B113" s="36">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B115" s="35">
         <v>38</v>
       </c>
-      <c r="C113" s="36">
+      <c r="C115" s="35">
         <v>38</v>
       </c>
-      <c r="D113" s="36">
+      <c r="D115" s="35">
         <v>616</v>
       </c>
-      <c r="F113" s="36">
+      <c r="F115" s="35">
         <v>38</v>
       </c>
-      <c r="G113" s="36">
+      <c r="G115" s="35">
         <v>38</v>
       </c>
-      <c r="H113" s="36">
+      <c r="H115" s="35">
         <v>20</v>
       </c>
-      <c r="J113" s="36">
+      <c r="J115" s="35">
         <v>38</v>
       </c>
-      <c r="K113" s="36">
+      <c r="K115" s="35">
         <v>38</v>
       </c>
-      <c r="L113" s="36">
+      <c r="L115" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B114" s="36">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B116" s="35">
         <v>39</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C116" s="35">
         <v>39</v>
       </c>
-      <c r="D114" s="36">
+      <c r="D116" s="35">
         <v>678</v>
       </c>
-      <c r="F114" s="36">
+      <c r="F116" s="35">
         <v>39</v>
       </c>
-      <c r="G114" s="36">
+      <c r="G116" s="35">
         <v>39</v>
       </c>
-      <c r="H114" s="36">
+      <c r="H116" s="35">
         <v>21</v>
       </c>
-      <c r="J114" s="36">
+      <c r="J116" s="35">
         <v>39</v>
       </c>
-      <c r="K114" s="36">
+      <c r="K116" s="35">
         <v>39</v>
       </c>
-      <c r="L114" s="36">
+      <c r="L116" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B115" s="36">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B117" s="35">
         <v>40</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C117" s="35">
         <v>40</v>
       </c>
-      <c r="D115" s="36">
+      <c r="D117" s="35">
         <v>746</v>
       </c>
-      <c r="F115" s="36">
+      <c r="F117" s="35">
         <v>40</v>
       </c>
-      <c r="G115" s="36">
+      <c r="G117" s="35">
         <v>40</v>
       </c>
-      <c r="H115" s="36">
+      <c r="H117" s="35">
         <v>22</v>
       </c>
-      <c r="J115" s="36">
+      <c r="J117" s="35">
         <v>40</v>
       </c>
-      <c r="K115" s="36">
+      <c r="K117" s="35">
         <v>40</v>
       </c>
-      <c r="L115" s="36">
+      <c r="L117" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B116" s="36">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B118" s="35">
         <v>41</v>
       </c>
-      <c r="C116" s="36">
+      <c r="C118" s="35">
         <v>41</v>
       </c>
-      <c r="D116" s="36">
+      <c r="D118" s="35">
         <v>858</v>
       </c>
-      <c r="F116" s="36">
+      <c r="F118" s="35">
         <v>41</v>
       </c>
-      <c r="G116" s="36">
+      <c r="G118" s="35">
         <v>41</v>
       </c>
-      <c r="H116" s="36">
+      <c r="H118" s="35">
         <v>24</v>
       </c>
-      <c r="J116" s="36">
+      <c r="J118" s="35">
         <v>41</v>
       </c>
-      <c r="K116" s="36">
+      <c r="K118" s="35">
         <v>41</v>
       </c>
-      <c r="L116" s="36">
+      <c r="L118" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B117" s="36">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B119" s="35">
         <v>42</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C119" s="35">
         <v>42</v>
       </c>
-      <c r="D117" s="36">
+      <c r="D119" s="35">
         <v>987</v>
       </c>
-      <c r="F117" s="36">
+      <c r="F119" s="35">
         <v>42</v>
       </c>
-      <c r="G117" s="36">
+      <c r="G119" s="35">
         <v>42</v>
       </c>
-      <c r="H117" s="36">
+      <c r="H119" s="35">
         <v>26</v>
       </c>
-      <c r="J117" s="36">
+      <c r="J119" s="35">
         <v>42</v>
       </c>
-      <c r="K117" s="36">
+      <c r="K119" s="35">
         <v>42</v>
       </c>
-      <c r="L117" s="36">
+      <c r="L119" s="35">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B118" s="36">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B120" s="35">
         <v>43</v>
       </c>
-      <c r="C118" s="36">
+      <c r="C120" s="35">
         <v>43</v>
       </c>
-      <c r="D118" s="36">
+      <c r="D120" s="35">
         <v>1135</v>
       </c>
-      <c r="F118" s="36">
+      <c r="F120" s="35">
         <v>43</v>
       </c>
-      <c r="G118" s="36">
+      <c r="G120" s="35">
         <v>43</v>
       </c>
-      <c r="H118" s="36">
+      <c r="H120" s="35">
         <v>28</v>
       </c>
-      <c r="J118" s="36">
+      <c r="J120" s="35">
         <v>43</v>
       </c>
-      <c r="K118" s="36">
+      <c r="K120" s="35">
         <v>43</v>
       </c>
-      <c r="L118" s="36">
+      <c r="L120" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B119" s="36">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B121" s="35">
         <v>44</v>
       </c>
-      <c r="C119" s="36">
+      <c r="C121" s="35">
         <v>44</v>
       </c>
-      <c r="D119" s="36">
+      <c r="D121" s="35">
         <v>1305</v>
       </c>
-      <c r="F119" s="36">
+      <c r="F121" s="35">
         <v>44</v>
       </c>
-      <c r="G119" s="36">
+      <c r="G121" s="35">
         <v>44</v>
       </c>
-      <c r="H119" s="36">
+      <c r="H121" s="35">
         <v>30</v>
       </c>
-      <c r="J119" s="36">
+      <c r="J121" s="35">
         <v>44</v>
       </c>
-      <c r="K119" s="36">
+      <c r="K121" s="35">
         <v>44</v>
       </c>
-      <c r="L119" s="36">
+      <c r="L121" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B120" s="36">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B122" s="35">
         <v>45</v>
       </c>
-      <c r="C120" s="36">
+      <c r="C122" s="35">
         <v>45</v>
       </c>
-      <c r="D120" s="36">
+      <c r="D122" s="35">
         <v>1501</v>
       </c>
-      <c r="F120" s="36">
+      <c r="F122" s="35">
         <v>45</v>
       </c>
-      <c r="G120" s="36">
+      <c r="G122" s="35">
         <v>45</v>
       </c>
-      <c r="H120" s="36">
+      <c r="H122" s="35">
         <v>32</v>
       </c>
-      <c r="J120" s="36">
+      <c r="J122" s="35">
         <v>45</v>
       </c>
-      <c r="K120" s="36">
+      <c r="K122" s="35">
         <v>45</v>
       </c>
-      <c r="L120" s="36">
+      <c r="L122" s="35">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B121" s="36">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B123" s="35">
         <v>46</v>
       </c>
-      <c r="C121" s="36">
+      <c r="C123" s="35">
         <v>46</v>
       </c>
-      <c r="D121" s="36">
+      <c r="D123" s="35">
         <v>1726</v>
       </c>
-      <c r="F121" s="36">
+      <c r="F123" s="35">
         <v>46</v>
       </c>
-      <c r="G121" s="36">
+      <c r="G123" s="35">
         <v>46</v>
       </c>
-      <c r="H121" s="36">
+      <c r="H123" s="35">
         <v>36</v>
       </c>
-      <c r="J121" s="36">
+      <c r="J123" s="35">
         <v>46</v>
       </c>
-      <c r="K121" s="36">
+      <c r="K123" s="35">
         <v>46</v>
       </c>
-      <c r="L121" s="36">
+      <c r="L123" s="35">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B122" s="36">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B124" s="35">
         <v>47</v>
       </c>
-      <c r="C122" s="36">
+      <c r="C124" s="35">
         <v>47</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D124" s="35">
         <v>1985</v>
       </c>
-      <c r="F122" s="36">
+      <c r="F124" s="35">
         <v>47</v>
       </c>
-      <c r="G122" s="36">
+      <c r="G124" s="35">
         <v>47</v>
       </c>
-      <c r="H122" s="36">
+      <c r="H124" s="35">
         <v>40</v>
       </c>
-      <c r="J122" s="36">
+      <c r="J124" s="35">
         <v>47</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K124" s="35">
         <v>47</v>
       </c>
-      <c r="L122" s="36">
+      <c r="L124" s="35">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B123" s="36">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B125" s="35">
         <v>48</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C125" s="35">
         <v>48</v>
       </c>
-      <c r="D123" s="36">
+      <c r="D125" s="35">
         <v>2283</v>
       </c>
-      <c r="F123" s="36">
+      <c r="F125" s="35">
         <v>48</v>
       </c>
-      <c r="G123" s="36">
+      <c r="G125" s="35">
         <v>48</v>
       </c>
-      <c r="H123" s="36">
+      <c r="H125" s="35">
         <v>44</v>
       </c>
-      <c r="J123" s="36">
+      <c r="J125" s="35">
         <v>48</v>
       </c>
-      <c r="K123" s="36">
+      <c r="K125" s="35">
         <v>48</v>
       </c>
-      <c r="L123" s="36">
+      <c r="L125" s="35">
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B124" s="36">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B126" s="35">
         <v>49</v>
       </c>
-      <c r="C124" s="36">
+      <c r="C126" s="35">
         <v>49</v>
       </c>
-      <c r="D124" s="36">
+      <c r="D126" s="35">
         <v>2625</v>
       </c>
-      <c r="F124" s="36">
+      <c r="F126" s="35">
         <v>49</v>
       </c>
-      <c r="G124" s="36">
+      <c r="G126" s="35">
         <v>49</v>
       </c>
-      <c r="H124" s="36">
+      <c r="H126" s="35">
         <v>48</v>
       </c>
-      <c r="J124" s="36">
+      <c r="J126" s="35">
         <v>49</v>
       </c>
-      <c r="K124" s="36">
+      <c r="K126" s="35">
         <v>49</v>
       </c>
-      <c r="L124" s="36">
+      <c r="L126" s="35">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B125" s="36">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B127" s="35">
         <v>50</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C127" s="35">
         <v>50</v>
       </c>
-      <c r="D125" s="36">
+      <c r="D127" s="35">
         <v>3019</v>
       </c>
-      <c r="F125" s="36">
+      <c r="F127" s="35">
         <v>50</v>
       </c>
-      <c r="G125" s="36">
+      <c r="G127" s="35">
         <v>50</v>
       </c>
-      <c r="H125" s="36">
+      <c r="H127" s="35">
         <v>52</v>
       </c>
-      <c r="J125" s="36">
+      <c r="J127" s="35">
         <v>50</v>
       </c>
-      <c r="K125" s="36">
+      <c r="K127" s="35">
         <v>50</v>
       </c>
-      <c r="L125" s="36">
+      <c r="L127" s="35">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C126" t="s">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
         <v>445</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D128" t="s">
         <v>446</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G128" t="s">
         <v>445</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H128" t="s">
         <v>447</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K128" t="s">
         <v>445</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L128" t="s">
         <v>447</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="F39:G39"/>
@@ -13116,46 +13213,6 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114F6AB-E9F9-455B-93BD-C6C0B9D1E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B28E5F-0A5D-420E-B8CD-DE520894E3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="520">
   <si>
     <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2027,6 +2027,34 @@
   </si>
   <si>
     <t>*레벨 10은 45라운드 이후에 출몰하는 기존 스탯치가 낮은 몬스터들을 강화하기 위한 레벨이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브별 몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBossProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 별 몬스터 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 보스 특성ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 특성ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2235,7 +2263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,7 +2399,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,10 +2426,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2396,24 +2445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5376,21 +5407,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -5399,17 +5430,17 @@
       <c r="B2">
         <v>1.7</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -5418,70 +5449,70 @@
       <c r="B3" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -5564,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
@@ -5734,14 +5765,14 @@
       <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5757,14 +5788,14 @@
       <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5780,14 +5811,14 @@
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5803,14 +5834,14 @@
       <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5844,10 +5875,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="6" t="s">
         <v>95</v>
       </c>
@@ -5859,10 +5890,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
@@ -5872,26 +5903,26 @@
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="53"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="60"/>
       <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
@@ -5901,24 +5932,24 @@
       <c r="F43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="48"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="6" t="s">
         <v>102</v>
       </c>
@@ -5928,24 +5959,24 @@
       <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="6" t="s">
         <v>104</v>
       </c>
@@ -5955,24 +5986,24 @@
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
@@ -5982,24 +6013,24 @@
       <c r="F46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="27" t="s">
         <v>211</v>
       </c>
@@ -6031,10 +6062,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="21" t="s">
         <v>95</v>
       </c>
@@ -6048,10 +6079,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="21" t="s">
         <v>105</v>
       </c>
@@ -6063,13 +6094,13 @@
       <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -6078,10 +6109,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="21" t="s">
         <v>114</v>
       </c>
@@ -6093,13 +6124,13 @@
       <c r="G59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="50" t="s">
+      <c r="H59" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -6108,10 +6139,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
@@ -6123,13 +6154,13 @@
       <c r="G60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6138,10 +6169,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="6" t="s">
         <v>108</v>
       </c>
@@ -6153,13 +6184,13 @@
       <c r="G61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6168,10 +6199,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="50"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="6" t="s">
         <v>109</v>
       </c>
@@ -6183,13 +6214,13 @@
       <c r="G62" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="H62" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6198,10 +6229,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="6" t="s">
         <v>110</v>
       </c>
@@ -6213,13 +6244,13 @@
       <c r="G63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6228,10 +6259,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="6" t="s">
         <v>111</v>
       </c>
@@ -6243,13 +6274,13 @@
       <c r="G64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="50" t="s">
+      <c r="H64" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6258,10 +6289,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6273,13 +6304,13 @@
       <c r="G65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6288,10 +6319,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="6" t="s">
         <v>113</v>
       </c>
@@ -6315,10 +6346,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>117</v>
       </c>
@@ -6330,10 +6361,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>105</v>
       </c>
@@ -6344,19 +6375,19 @@
       <c r="G71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="48"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="53"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6371,10 +6402,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="50"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>114</v>
       </c>
@@ -6385,19 +6416,19 @@
       <c r="G72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="48"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="53"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6412,10 +6443,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="6" t="s">
         <v>118</v>
       </c>
@@ -6426,19 +6457,19 @@
       <c r="G73" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="48"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="53"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6453,10 +6484,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="24" t="s">
         <v>119</v>
       </c>
@@ -6467,19 +6498,19 @@
       <c r="G74" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="48"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="53"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6494,10 +6525,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="6" t="s">
         <v>120</v>
       </c>
@@ -6508,19 +6539,19 @@
       <c r="G75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="48"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="53"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6535,10 +6566,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="6" t="s">
         <v>121</v>
       </c>
@@ -6549,19 +6580,19 @@
       <c r="G76" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="48"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="53"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6576,10 +6607,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="55"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
@@ -6590,19 +6621,19 @@
       <c r="G77" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="48"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="53"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6617,10 +6648,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="55"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="6" t="s">
         <v>123</v>
       </c>
@@ -6631,19 +6662,19 @@
       <c r="G78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="46" t="s">
+      <c r="H78" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="48"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="53"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6658,10 +6689,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="55"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="6" t="s">
         <v>124</v>
       </c>
@@ -6672,19 +6703,19 @@
       <c r="G79" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="46" t="s">
+      <c r="H79" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="48"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="52"/>
+      <c r="R79" s="53"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6699,10 +6730,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="6" t="s">
         <v>125</v>
       </c>
@@ -6713,19 +6744,19 @@
       <c r="G80" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="46" t="s">
+      <c r="H80" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="48"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="53"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6740,10 +6771,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="55"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="6" t="s">
         <v>126</v>
       </c>
@@ -6816,12 +6847,12 @@
       <c r="D91" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="44">
@@ -6833,12 +6864,12 @@
       <c r="D92" s="44">
         <v>1</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="44">
@@ -6850,12 +6881,12 @@
       <c r="D93" s="44">
         <v>2</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="44">
@@ -6867,12 +6898,12 @@
       <c r="D94" s="44">
         <v>3</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="44">
@@ -6884,12 +6915,12 @@
       <c r="D95" s="44">
         <v>4</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="44">
@@ -6901,12 +6932,12 @@
       <c r="D96" s="44">
         <v>5</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A97" s="28">
@@ -6918,12 +6949,12 @@
       <c r="D97" s="28">
         <v>10</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D98" t="s">
@@ -6971,21 +7002,21 @@
       <c r="D109" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="50"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="47"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="47"/>
+      <c r="Q109" s="47"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6997,21 +7028,21 @@
       <c r="D110" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="50"/>
-      <c r="O110" s="50"/>
-      <c r="P110" s="50"/>
-      <c r="Q110" s="50"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="47"/>
+      <c r="Q110" s="47"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A111" s="6">
@@ -7023,21 +7054,21 @@
       <c r="D111" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="50"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="50"/>
-      <c r="O111" s="50"/>
-      <c r="P111" s="50"/>
-      <c r="Q111" s="50"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="47"/>
+      <c r="Q111" s="47"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A112" s="6">
@@ -7049,21 +7080,21 @@
       <c r="D112" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="50"/>
-      <c r="N112" s="50"/>
-      <c r="O112" s="50"/>
-      <c r="P112" s="50"/>
-      <c r="Q112" s="50"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="47"/>
+      <c r="Q112" s="47"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D113" s="14" t="s">
@@ -7089,37 +7120,37 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C121" s="50"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C122" s="50"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B123" s="50" t="s">
+      <c r="B123" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C123" s="50"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B124" s="50" t="s">
+      <c r="B124" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C124" s="50"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="6">
         <v>6</v>
       </c>
@@ -7155,123 +7186,123 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E134" s="57" t="s">
+      <c r="E134" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="F134" s="57"/>
+      <c r="F134" s="54"/>
       <c r="G134" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="H134" s="54" t="s">
+      <c r="H134" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="I134" s="54"/>
+      <c r="I134" s="50"/>
       <c r="J134" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="K134" s="54" t="s">
+      <c r="K134" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="P134" s="54"/>
-      <c r="Q134" s="54"/>
-      <c r="R134" s="54"/>
-      <c r="S134" s="54" t="s">
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="T134" s="54"/>
-      <c r="U134" s="54"/>
-      <c r="V134" s="54"/>
-      <c r="W134" s="54"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="58" t="s">
+      <c r="A135" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
       <c r="D135" s="29">
         <v>10</v>
       </c>
-      <c r="E135" s="58" t="s">
+      <c r="E135" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="F135" s="58"/>
+      <c r="F135" s="55"/>
       <c r="G135" s="29">
         <v>11</v>
       </c>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="50" t="s">
+      <c r="K135" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
-      <c r="N135" s="50"/>
-      <c r="O135" s="50"/>
-      <c r="P135" s="50"/>
-      <c r="Q135" s="50"/>
-      <c r="R135" s="50"/>
-      <c r="S135" s="50" t="s">
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="47"/>
+      <c r="R135" s="47"/>
+      <c r="S135" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="T135" s="50"/>
-      <c r="U135" s="50"/>
-      <c r="V135" s="50"/>
-      <c r="W135" s="50"/>
+      <c r="T135" s="47"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="47"/>
+      <c r="W135" s="47"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="58" t="s">
+      <c r="A136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="F136" s="58"/>
+      <c r="F136" s="55"/>
       <c r="G136" s="29">
         <v>21</v>
       </c>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="50" t="s">
+      <c r="K136" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="L136" s="50"/>
-      <c r="M136" s="50"/>
-      <c r="N136" s="50"/>
-      <c r="O136" s="50"/>
-      <c r="P136" s="50"/>
-      <c r="Q136" s="50"/>
-      <c r="R136" s="50"/>
-      <c r="S136" s="50"/>
-      <c r="T136" s="50"/>
-      <c r="U136" s="50"/>
-      <c r="V136" s="50"/>
-      <c r="W136" s="50"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="29" t="s">
         <v>238</v>
       </c>
@@ -7279,32 +7310,32 @@
       <c r="G137" s="29">
         <v>31</v>
       </c>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="50" t="s">
+      <c r="K137" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="L137" s="50"/>
-      <c r="M137" s="50"/>
-      <c r="N137" s="50"/>
-      <c r="O137" s="50"/>
-      <c r="P137" s="50"/>
-      <c r="Q137" s="50"/>
-      <c r="R137" s="50"/>
-      <c r="S137" s="50"/>
-      <c r="T137" s="50"/>
-      <c r="U137" s="50"/>
-      <c r="V137" s="50"/>
-      <c r="W137" s="50"/>
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+      <c r="S137" s="47"/>
+      <c r="T137" s="47"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="47"/>
+      <c r="W137" s="47"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="28" t="s">
         <v>240</v>
       </c>
@@ -7312,8 +7343,8 @@
       <c r="G138" s="29">
         <v>41</v>
       </c>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
@@ -7327,17 +7358,17 @@
       <c r="P138" s="49"/>
       <c r="Q138" s="49"/>
       <c r="R138" s="49"/>
-      <c r="S138" s="50"/>
-      <c r="T138" s="50"/>
-      <c r="U138" s="50"/>
-      <c r="V138" s="50"/>
-      <c r="W138" s="50"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="47"/>
+      <c r="U138" s="47"/>
+      <c r="V138" s="47"/>
+      <c r="W138" s="47"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
+      <c r="A139" s="47"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="28" t="s">
         <v>242</v>
       </c>
@@ -7345,8 +7376,8 @@
       <c r="G139" s="29">
         <v>51</v>
       </c>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
       <c r="J139" s="29">
         <v>10</v>
       </c>
@@ -7360,19 +7391,19 @@
       <c r="P139" s="49"/>
       <c r="Q139" s="49"/>
       <c r="R139" s="49"/>
-      <c r="S139" s="50" t="s">
+      <c r="S139" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="T139" s="50"/>
-      <c r="U139" s="50"/>
-      <c r="V139" s="50"/>
-      <c r="W139" s="50"/>
+      <c r="T139" s="47"/>
+      <c r="U139" s="47"/>
+      <c r="V139" s="47"/>
+      <c r="W139" s="47"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
       <c r="E140" s="28" t="s">
         <v>244</v>
       </c>
@@ -7380,8 +7411,8 @@
       <c r="G140" s="29">
         <v>61</v>
       </c>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
       <c r="J140" s="29">
         <v>10</v>
       </c>
@@ -7395,18 +7426,18 @@
       <c r="P140" s="49"/>
       <c r="Q140" s="49"/>
       <c r="R140" s="49"/>
-      <c r="S140" s="50"/>
-      <c r="T140" s="50"/>
-      <c r="U140" s="50"/>
-      <c r="V140" s="50"/>
-      <c r="W140" s="50"/>
+      <c r="S140" s="47"/>
+      <c r="T140" s="47"/>
+      <c r="U140" s="47"/>
+      <c r="V140" s="47"/>
+      <c r="W140" s="47"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="58" t="s">
+      <c r="A141" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
       <c r="D141" s="29">
         <v>20</v>
       </c>
@@ -7417,100 +7448,100 @@
       <c r="G141" s="29">
         <v>11</v>
       </c>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I141" s="50"/>
+      <c r="I141" s="47"/>
       <c r="J141" s="29">
         <v>11</v>
       </c>
-      <c r="K141" s="50" t="s">
+      <c r="K141" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
-      <c r="N141" s="50"/>
-      <c r="O141" s="50"/>
-      <c r="P141" s="50"/>
-      <c r="Q141" s="50"/>
-      <c r="R141" s="50"/>
-      <c r="S141" s="50" t="s">
+      <c r="L141" s="47"/>
+      <c r="M141" s="47"/>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="47"/>
+      <c r="R141" s="47"/>
+      <c r="S141" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="T141" s="50"/>
-      <c r="U141" s="50"/>
-      <c r="V141" s="50"/>
-      <c r="W141" s="50"/>
+      <c r="T141" s="47"/>
+      <c r="U141" s="47"/>
+      <c r="V141" s="47"/>
+      <c r="W141" s="47"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="50"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I142" s="50"/>
+      <c r="I142" s="47"/>
       <c r="J142" s="29">
         <v>21</v>
       </c>
-      <c r="K142" s="50" t="s">
+      <c r="K142" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
-      <c r="R142" s="50"/>
-      <c r="S142" s="50"/>
-      <c r="T142" s="50"/>
-      <c r="U142" s="50"/>
-      <c r="V142" s="50"/>
-      <c r="W142" s="50"/>
+      <c r="L142" s="47"/>
+      <c r="M142" s="47"/>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="47"/>
+      <c r="R142" s="47"/>
+      <c r="S142" s="47"/>
+      <c r="T142" s="47"/>
+      <c r="U142" s="47"/>
+      <c r="V142" s="47"/>
+      <c r="W142" s="47"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="50"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
       <c r="G143" s="29"/>
-      <c r="H143" s="50" t="s">
+      <c r="H143" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="I143" s="50"/>
+      <c r="I143" s="47"/>
       <c r="J143" s="29">
         <v>31</v>
       </c>
-      <c r="K143" s="50" t="s">
+      <c r="K143" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
-      <c r="R143" s="50"/>
-      <c r="S143" s="50"/>
-      <c r="T143" s="50"/>
-      <c r="U143" s="50"/>
-      <c r="V143" s="50"/>
-      <c r="W143" s="50"/>
+      <c r="L143" s="47"/>
+      <c r="M143" s="47"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="47"/>
+      <c r="Q143" s="47"/>
+      <c r="R143" s="47"/>
+      <c r="S143" s="47"/>
+      <c r="T143" s="47"/>
+      <c r="U143" s="47"/>
+      <c r="V143" s="47"/>
+      <c r="W143" s="47"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
       <c r="G144" s="29"/>
       <c r="H144" s="49" t="s">
         <v>303</v>
@@ -7519,27 +7550,27 @@
       <c r="J144" s="29">
         <v>41</v>
       </c>
-      <c r="K144" s="50" t="s">
+      <c r="K144" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
-      <c r="R144" s="50"/>
-      <c r="S144" s="50"/>
-      <c r="T144" s="50"/>
-      <c r="U144" s="50"/>
-      <c r="V144" s="50"/>
-      <c r="W144" s="50"/>
+      <c r="L144" s="47"/>
+      <c r="M144" s="47"/>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="47"/>
+      <c r="S144" s="47"/>
+      <c r="T144" s="47"/>
+      <c r="U144" s="47"/>
+      <c r="V144" s="47"/>
+      <c r="W144" s="47"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="50"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
       <c r="E145" s="28" t="s">
         <v>236</v>
       </c>
@@ -7547,98 +7578,98 @@
       <c r="G145" s="29">
         <v>21</v>
       </c>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I145" s="50"/>
+      <c r="I145" s="47"/>
       <c r="J145" s="29">
         <v>11</v>
       </c>
-      <c r="K145" s="50" t="s">
+      <c r="K145" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
-      <c r="R145" s="50"/>
-      <c r="S145" s="50"/>
-      <c r="T145" s="50"/>
-      <c r="U145" s="50"/>
-      <c r="V145" s="50"/>
-      <c r="W145" s="50"/>
+      <c r="L145" s="47"/>
+      <c r="M145" s="47"/>
+      <c r="N145" s="47"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="47"/>
+      <c r="S145" s="47"/>
+      <c r="T145" s="47"/>
+      <c r="U145" s="47"/>
+      <c r="V145" s="47"/>
+      <c r="W145" s="47"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="50"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="50" t="s">
+      <c r="H146" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I146" s="50"/>
+      <c r="I146" s="47"/>
       <c r="J146" s="29">
         <v>21</v>
       </c>
-      <c r="K146" s="50" t="s">
+      <c r="K146" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="L146" s="50"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="50"/>
-      <c r="O146" s="50"/>
-      <c r="P146" s="50"/>
-      <c r="Q146" s="50"/>
-      <c r="R146" s="50"/>
-      <c r="S146" s="50"/>
-      <c r="T146" s="50"/>
-      <c r="U146" s="50"/>
-      <c r="V146" s="50"/>
-      <c r="W146" s="50"/>
+      <c r="L146" s="47"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="47"/>
+      <c r="S146" s="47"/>
+      <c r="T146" s="47"/>
+      <c r="U146" s="47"/>
+      <c r="V146" s="47"/>
+      <c r="W146" s="47"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
       <c r="G147" s="29"/>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="I147" s="50"/>
+      <c r="I147" s="47"/>
       <c r="J147" s="29">
         <v>31</v>
       </c>
-      <c r="K147" s="50" t="s">
+      <c r="K147" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="50"/>
-      <c r="O147" s="50"/>
-      <c r="P147" s="50"/>
-      <c r="Q147" s="50"/>
-      <c r="R147" s="50"/>
-      <c r="S147" s="50"/>
-      <c r="T147" s="50"/>
-      <c r="U147" s="50"/>
-      <c r="V147" s="50"/>
-      <c r="W147" s="50"/>
+      <c r="L147" s="47"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
+      <c r="U147" s="47"/>
+      <c r="V147" s="47"/>
+      <c r="W147" s="47"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="50"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="50"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="47"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
       <c r="G148" s="29"/>
       <c r="H148" s="49" t="s">
         <v>253</v>
@@ -7647,27 +7678,27 @@
       <c r="J148" s="29">
         <v>41</v>
       </c>
-      <c r="K148" s="50" t="s">
+      <c r="K148" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="50"/>
-      <c r="O148" s="50"/>
-      <c r="P148" s="50"/>
-      <c r="Q148" s="50"/>
-      <c r="R148" s="50"/>
-      <c r="S148" s="50"/>
-      <c r="T148" s="50"/>
-      <c r="U148" s="50"/>
-      <c r="V148" s="50"/>
-      <c r="W148" s="50"/>
+      <c r="L148" s="47"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="47"/>
+      <c r="S148" s="47"/>
+      <c r="T148" s="47"/>
+      <c r="U148" s="47"/>
+      <c r="V148" s="47"/>
+      <c r="W148" s="47"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="50"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="28" t="s">
         <v>242</v>
       </c>
@@ -7675,100 +7706,100 @@
       <c r="G149" s="29">
         <v>31</v>
       </c>
-      <c r="H149" s="50" t="s">
+      <c r="H149" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I149" s="50"/>
+      <c r="I149" s="47"/>
       <c r="J149" s="29">
         <v>11</v>
       </c>
-      <c r="K149" s="50" t="s">
+      <c r="K149" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="50" t="s">
+      <c r="L149" s="47"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="47"/>
+      <c r="S149" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="T149" s="50"/>
-      <c r="U149" s="50"/>
-      <c r="V149" s="50"/>
-      <c r="W149" s="50"/>
+      <c r="T149" s="47"/>
+      <c r="U149" s="47"/>
+      <c r="V149" s="47"/>
+      <c r="W149" s="47"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="50"/>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="50" t="s">
+      <c r="H150" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I150" s="50"/>
+      <c r="I150" s="47"/>
       <c r="J150" s="29">
         <v>21</v>
       </c>
-      <c r="K150" s="50" t="s">
+      <c r="K150" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="50"/>
-      <c r="O150" s="50"/>
-      <c r="P150" s="50"/>
-      <c r="Q150" s="50"/>
-      <c r="R150" s="50"/>
-      <c r="S150" s="50"/>
-      <c r="T150" s="50"/>
-      <c r="U150" s="50"/>
-      <c r="V150" s="50"/>
-      <c r="W150" s="50"/>
+      <c r="L150" s="47"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
+      <c r="R150" s="47"/>
+      <c r="S150" s="47"/>
+      <c r="T150" s="47"/>
+      <c r="U150" s="47"/>
+      <c r="V150" s="47"/>
+      <c r="W150" s="47"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="50"/>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="50"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
       <c r="G151" s="29"/>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="I151" s="50"/>
+      <c r="I151" s="47"/>
       <c r="J151" s="29">
         <v>31</v>
       </c>
-      <c r="K151" s="50" t="s">
+      <c r="K151" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="50"/>
-      <c r="O151" s="50"/>
-      <c r="P151" s="50"/>
-      <c r="Q151" s="50"/>
-      <c r="R151" s="50"/>
-      <c r="S151" s="50"/>
-      <c r="T151" s="50"/>
-      <c r="U151" s="50"/>
-      <c r="V151" s="50"/>
-      <c r="W151" s="50"/>
+      <c r="L151" s="47"/>
+      <c r="M151" s="47"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="47"/>
+      <c r="Q151" s="47"/>
+      <c r="R151" s="47"/>
+      <c r="S151" s="47"/>
+      <c r="T151" s="47"/>
+      <c r="U151" s="47"/>
+      <c r="V151" s="47"/>
+      <c r="W151" s="47"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="50"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="50"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
       <c r="G152" s="29"/>
       <c r="H152" s="49" t="s">
         <v>253</v>
@@ -7777,27 +7808,27 @@
       <c r="J152" s="29">
         <v>41</v>
       </c>
-      <c r="K152" s="50" t="s">
+      <c r="K152" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
-      <c r="N152" s="50"/>
-      <c r="O152" s="50"/>
-      <c r="P152" s="50"/>
-      <c r="Q152" s="50"/>
-      <c r="R152" s="50"/>
-      <c r="S152" s="50"/>
-      <c r="T152" s="50"/>
-      <c r="U152" s="50"/>
-      <c r="V152" s="50"/>
-      <c r="W152" s="50"/>
+      <c r="L152" s="47"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="47"/>
+      <c r="Q152" s="47"/>
+      <c r="R152" s="47"/>
+      <c r="S152" s="47"/>
+      <c r="T152" s="47"/>
+      <c r="U152" s="47"/>
+      <c r="V152" s="47"/>
+      <c r="W152" s="47"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="28" t="s">
         <v>244</v>
       </c>
@@ -7805,96 +7836,96 @@
       <c r="G153" s="29">
         <v>41</v>
       </c>
-      <c r="H153" s="50" t="s">
+      <c r="H153" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="I153" s="50"/>
+      <c r="I153" s="47"/>
       <c r="J153" s="29">
         <v>11</v>
       </c>
-      <c r="K153" s="50" t="s">
+      <c r="K153" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
-      <c r="N153" s="50"/>
-      <c r="O153" s="50"/>
-      <c r="P153" s="50"/>
-      <c r="Q153" s="50"/>
-      <c r="R153" s="50"/>
-      <c r="S153" s="50"/>
-      <c r="T153" s="50"/>
-      <c r="U153" s="50"/>
-      <c r="V153" s="50"/>
-      <c r="W153" s="50"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
+      <c r="P153" s="47"/>
+      <c r="Q153" s="47"/>
+      <c r="R153" s="47"/>
+      <c r="S153" s="47"/>
+      <c r="T153" s="47"/>
+      <c r="U153" s="47"/>
+      <c r="V153" s="47"/>
+      <c r="W153" s="47"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="50"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="49"/>
       <c r="F154" s="49"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="50" t="s">
+      <c r="H154" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I154" s="50"/>
+      <c r="I154" s="47"/>
       <c r="J154" s="29">
         <v>21</v>
       </c>
-      <c r="K154" s="50" t="s">
+      <c r="K154" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="50"/>
-      <c r="P154" s="50"/>
-      <c r="Q154" s="50"/>
-      <c r="R154" s="50"/>
-      <c r="S154" s="50"/>
-      <c r="T154" s="50"/>
-      <c r="U154" s="50"/>
-      <c r="V154" s="50"/>
-      <c r="W154" s="50"/>
+      <c r="L154" s="47"/>
+      <c r="M154" s="47"/>
+      <c r="N154" s="47"/>
+      <c r="O154" s="47"/>
+      <c r="P154" s="47"/>
+      <c r="Q154" s="47"/>
+      <c r="R154" s="47"/>
+      <c r="S154" s="47"/>
+      <c r="T154" s="47"/>
+      <c r="U154" s="47"/>
+      <c r="V154" s="47"/>
+      <c r="W154" s="47"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="50"/>
-      <c r="B155" s="50"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="50"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="49"/>
       <c r="F155" s="49"/>
       <c r="G155" s="29"/>
-      <c r="H155" s="50" t="s">
+      <c r="H155" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="I155" s="50"/>
+      <c r="I155" s="47"/>
       <c r="J155" s="29">
         <v>31</v>
       </c>
-      <c r="K155" s="50" t="s">
+      <c r="K155" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="50"/>
-      <c r="P155" s="50"/>
-      <c r="Q155" s="50"/>
-      <c r="R155" s="50"/>
-      <c r="S155" s="50"/>
-      <c r="T155" s="50"/>
-      <c r="U155" s="50"/>
-      <c r="V155" s="50"/>
-      <c r="W155" s="50"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="47"/>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="47"/>
+      <c r="Q155" s="47"/>
+      <c r="R155" s="47"/>
+      <c r="S155" s="47"/>
+      <c r="T155" s="47"/>
+      <c r="U155" s="47"/>
+      <c r="V155" s="47"/>
+      <c r="W155" s="47"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="50"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
       <c r="G156" s="29"/>
@@ -7905,28 +7936,28 @@
       <c r="J156" s="29">
         <v>41</v>
       </c>
-      <c r="K156" s="50" t="s">
+      <c r="K156" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="L156" s="50"/>
-      <c r="M156" s="50"/>
-      <c r="N156" s="50"/>
-      <c r="O156" s="50"/>
-      <c r="P156" s="50"/>
-      <c r="Q156" s="50"/>
-      <c r="R156" s="50"/>
-      <c r="S156" s="50"/>
-      <c r="T156" s="50"/>
-      <c r="U156" s="50"/>
-      <c r="V156" s="50"/>
-      <c r="W156" s="50"/>
+      <c r="L156" s="47"/>
+      <c r="M156" s="47"/>
+      <c r="N156" s="47"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="47"/>
+      <c r="Q156" s="47"/>
+      <c r="R156" s="47"/>
+      <c r="S156" s="47"/>
+      <c r="T156" s="47"/>
+      <c r="U156" s="47"/>
+      <c r="V156" s="47"/>
+      <c r="W156" s="47"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="58" t="s">
+      <c r="A157" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
       <c r="D157" s="29">
         <v>30</v>
       </c>
@@ -7935,36 +7966,36 @@
       <c r="G157" s="29">
         <v>10</v>
       </c>
-      <c r="H157" s="50" t="s">
+      <c r="H157" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I157" s="50"/>
+      <c r="I157" s="47"/>
       <c r="J157" s="29">
         <v>11</v>
       </c>
-      <c r="K157" s="50" t="s">
+      <c r="K157" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="50"/>
-      <c r="P157" s="50"/>
-      <c r="Q157" s="50"/>
-      <c r="R157" s="50"/>
-      <c r="S157" s="50"/>
-      <c r="T157" s="50"/>
-      <c r="U157" s="50"/>
-      <c r="V157" s="50"/>
-      <c r="W157" s="50"/>
+      <c r="L157" s="47"/>
+      <c r="M157" s="47"/>
+      <c r="N157" s="47"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="47"/>
+      <c r="Q157" s="47"/>
+      <c r="R157" s="47"/>
+      <c r="S157" s="47"/>
+      <c r="T157" s="47"/>
+      <c r="U157" s="47"/>
+      <c r="V157" s="47"/>
+      <c r="W157" s="47"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="50"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
+      <c r="A158" s="47"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="47"/>
       <c r="G158" s="29"/>
       <c r="H158" s="49" t="s">
         <v>269</v>
@@ -7973,29 +8004,29 @@
       <c r="J158" s="28">
         <v>21</v>
       </c>
-      <c r="K158" s="50" t="s">
+      <c r="K158" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="L158" s="50"/>
-      <c r="M158" s="50"/>
-      <c r="N158" s="50"/>
-      <c r="O158" s="50"/>
-      <c r="P158" s="50"/>
-      <c r="Q158" s="50"/>
-      <c r="R158" s="50"/>
-      <c r="S158" s="50"/>
-      <c r="T158" s="50"/>
-      <c r="U158" s="50"/>
-      <c r="V158" s="50"/>
-      <c r="W158" s="50"/>
+      <c r="L158" s="47"/>
+      <c r="M158" s="47"/>
+      <c r="N158" s="47"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="47"/>
+      <c r="Q158" s="47"/>
+      <c r="R158" s="47"/>
+      <c r="S158" s="47"/>
+      <c r="T158" s="47"/>
+      <c r="U158" s="47"/>
+      <c r="V158" s="47"/>
+      <c r="W158" s="47"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="50"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
       <c r="G159" s="29"/>
       <c r="H159" s="49" t="s">
         <v>271</v>
@@ -8004,29 +8035,29 @@
       <c r="J159" s="28">
         <v>31</v>
       </c>
-      <c r="K159" s="50" t="s">
+      <c r="K159" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="50"/>
-      <c r="P159" s="50"/>
-      <c r="Q159" s="50"/>
-      <c r="R159" s="50"/>
-      <c r="S159" s="50"/>
-      <c r="T159" s="50"/>
-      <c r="U159" s="50"/>
-      <c r="V159" s="50"/>
-      <c r="W159" s="50"/>
+      <c r="L159" s="47"/>
+      <c r="M159" s="47"/>
+      <c r="N159" s="47"/>
+      <c r="O159" s="47"/>
+      <c r="P159" s="47"/>
+      <c r="Q159" s="47"/>
+      <c r="R159" s="47"/>
+      <c r="S159" s="47"/>
+      <c r="T159" s="47"/>
+      <c r="U159" s="47"/>
+      <c r="V159" s="47"/>
+      <c r="W159" s="47"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
       <c r="G160" s="29"/>
       <c r="H160" s="49" t="s">
         <v>273</v>
@@ -8035,29 +8066,29 @@
       <c r="J160" s="28">
         <v>41</v>
       </c>
-      <c r="K160" s="50" t="s">
+      <c r="K160" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="50"/>
-      <c r="P160" s="50"/>
-      <c r="Q160" s="50"/>
-      <c r="R160" s="50"/>
-      <c r="S160" s="50"/>
-      <c r="T160" s="50"/>
-      <c r="U160" s="50"/>
-      <c r="V160" s="50"/>
-      <c r="W160" s="50"/>
+      <c r="L160" s="47"/>
+      <c r="M160" s="47"/>
+      <c r="N160" s="47"/>
+      <c r="O160" s="47"/>
+      <c r="P160" s="47"/>
+      <c r="Q160" s="47"/>
+      <c r="R160" s="47"/>
+      <c r="S160" s="47"/>
+      <c r="T160" s="47"/>
+      <c r="U160" s="47"/>
+      <c r="V160" s="47"/>
+      <c r="W160" s="47"/>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A161" s="50"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
       <c r="G161" s="29"/>
       <c r="H161" s="49" t="s">
         <v>275</v>
@@ -8066,29 +8097,29 @@
       <c r="J161" s="28">
         <v>51</v>
       </c>
-      <c r="K161" s="50" t="s">
+      <c r="K161" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="L161" s="50"/>
-      <c r="M161" s="50"/>
-      <c r="N161" s="50"/>
-      <c r="O161" s="50"/>
-      <c r="P161" s="50"/>
-      <c r="Q161" s="50"/>
-      <c r="R161" s="50"/>
-      <c r="S161" s="50"/>
-      <c r="T161" s="50"/>
-      <c r="U161" s="50"/>
-      <c r="V161" s="50"/>
-      <c r="W161" s="50"/>
+      <c r="L161" s="47"/>
+      <c r="M161" s="47"/>
+      <c r="N161" s="47"/>
+      <c r="O161" s="47"/>
+      <c r="P161" s="47"/>
+      <c r="Q161" s="47"/>
+      <c r="R161" s="47"/>
+      <c r="S161" s="47"/>
+      <c r="T161" s="47"/>
+      <c r="U161" s="47"/>
+      <c r="V161" s="47"/>
+      <c r="W161" s="47"/>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A162" s="50"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="50"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
       <c r="G162" s="29"/>
       <c r="H162" s="49" t="s">
         <v>277</v>
@@ -8097,21 +8128,21 @@
       <c r="J162" s="28">
         <v>61</v>
       </c>
-      <c r="K162" s="50" t="s">
+      <c r="K162" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="L162" s="50"/>
-      <c r="M162" s="50"/>
-      <c r="N162" s="50"/>
-      <c r="O162" s="50"/>
-      <c r="P162" s="50"/>
-      <c r="Q162" s="50"/>
-      <c r="R162" s="50"/>
-      <c r="S162" s="50"/>
-      <c r="T162" s="50"/>
-      <c r="U162" s="50"/>
-      <c r="V162" s="50"/>
-      <c r="W162" s="50"/>
+      <c r="L162" s="47"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="47"/>
+      <c r="Q162" s="47"/>
+      <c r="R162" s="47"/>
+      <c r="S162" s="47"/>
+      <c r="T162" s="47"/>
+      <c r="U162" s="47"/>
+      <c r="V162" s="47"/>
+      <c r="W162" s="47"/>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
@@ -8143,15 +8174,15 @@
       <c r="H167" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="I167" s="50" t="s">
+      <c r="I167" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="50"/>
-      <c r="M167" s="50"/>
-      <c r="N167" s="50"/>
-      <c r="O167" s="50"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47"/>
+      <c r="M167" s="47"/>
+      <c r="N167" s="47"/>
+      <c r="O167" s="47"/>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A168" s="43" t="s">
@@ -8178,15 +8209,15 @@
       <c r="H168" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="I168" s="50" t="s">
+      <c r="I168" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50"/>
-      <c r="L168" s="50"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="50"/>
-      <c r="O168" s="50"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="47"/>
+      <c r="L168" s="47"/>
+      <c r="M168" s="47"/>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A169" s="43">
@@ -8213,15 +8244,15 @@
       <c r="H169" s="43">
         <v>10</v>
       </c>
-      <c r="I169" s="50" t="s">
+      <c r="I169" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50"/>
-      <c r="L169" s="50"/>
-      <c r="M169" s="50"/>
-      <c r="N169" s="50"/>
-      <c r="O169" s="50"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A170" s="43">
@@ -8248,15 +8279,15 @@
       <c r="H170" s="43">
         <v>-7</v>
       </c>
-      <c r="I170" s="50" t="s">
+      <c r="I170" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="50"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="50"/>
-      <c r="O170" s="50"/>
+      <c r="J170" s="47"/>
+      <c r="K170" s="47"/>
+      <c r="L170" s="47"/>
+      <c r="M170" s="47"/>
+      <c r="N170" s="47"/>
+      <c r="O170" s="47"/>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A171" s="43">
@@ -8283,15 +8314,15 @@
       <c r="H171" s="43">
         <v>5</v>
       </c>
-      <c r="I171" s="50" t="s">
+      <c r="I171" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="50"/>
-      <c r="O171" s="50"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="47"/>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A172" s="43">
@@ -8318,15 +8349,15 @@
       <c r="H172" s="43">
         <v>-5</v>
       </c>
-      <c r="I172" s="50" t="s">
+      <c r="I172" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50"/>
-      <c r="O172" s="50"/>
+      <c r="J172" s="47"/>
+      <c r="K172" s="47"/>
+      <c r="L172" s="47"/>
+      <c r="M172" s="47"/>
+      <c r="N172" s="47"/>
+      <c r="O172" s="47"/>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A173" s="43">
@@ -8353,15 +8384,15 @@
       <c r="H173" s="43">
         <v>10</v>
       </c>
-      <c r="I173" s="50" t="s">
+      <c r="I173" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="J173" s="50"/>
-      <c r="K173" s="50"/>
-      <c r="L173" s="50"/>
-      <c r="M173" s="50"/>
-      <c r="N173" s="50"/>
-      <c r="O173" s="50"/>
+      <c r="J173" s="47"/>
+      <c r="K173" s="47"/>
+      <c r="L173" s="47"/>
+      <c r="M173" s="47"/>
+      <c r="N173" s="47"/>
+      <c r="O173" s="47"/>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A174" s="43">
@@ -8388,15 +8419,15 @@
       <c r="H174" s="43">
         <v>-10</v>
       </c>
-      <c r="I174" s="50" t="s">
+      <c r="I174" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="J174" s="50"/>
-      <c r="K174" s="50"/>
-      <c r="L174" s="50"/>
-      <c r="M174" s="50"/>
-      <c r="N174" s="50"/>
-      <c r="O174" s="50"/>
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
+      <c r="L174" s="47"/>
+      <c r="M174" s="47"/>
+      <c r="N174" s="47"/>
+      <c r="O174" s="47"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A175" s="43">
@@ -8423,15 +8454,15 @@
       <c r="H175" s="43">
         <v>13</v>
       </c>
-      <c r="I175" s="50" t="s">
+      <c r="I175" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="J175" s="50"/>
-      <c r="K175" s="50"/>
-      <c r="L175" s="50"/>
-      <c r="M175" s="50"/>
-      <c r="N175" s="50"/>
-      <c r="O175" s="50"/>
+      <c r="J175" s="47"/>
+      <c r="K175" s="47"/>
+      <c r="L175" s="47"/>
+      <c r="M175" s="47"/>
+      <c r="N175" s="47"/>
+      <c r="O175" s="47"/>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A176" s="43">
@@ -8458,15 +8489,15 @@
       <c r="H176" s="43">
         <v>13</v>
       </c>
-      <c r="I176" s="50" t="s">
+      <c r="I176" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="J176" s="50"/>
-      <c r="K176" s="50"/>
-      <c r="L176" s="50"/>
-      <c r="M176" s="50"/>
-      <c r="N176" s="50"/>
-      <c r="O176" s="50"/>
+      <c r="J176" s="47"/>
+      <c r="K176" s="47"/>
+      <c r="L176" s="47"/>
+      <c r="M176" s="47"/>
+      <c r="N176" s="47"/>
+      <c r="O176" s="47"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A177" s="43">
@@ -8493,15 +8524,15 @@
       <c r="H177" s="43">
         <v>13</v>
       </c>
-      <c r="I177" s="50" t="s">
+      <c r="I177" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="J177" s="50"/>
-      <c r="K177" s="50"/>
-      <c r="L177" s="50"/>
-      <c r="M177" s="50"/>
-      <c r="N177" s="50"/>
-      <c r="O177" s="50"/>
+      <c r="J177" s="47"/>
+      <c r="K177" s="47"/>
+      <c r="L177" s="47"/>
+      <c r="M177" s="47"/>
+      <c r="N177" s="47"/>
+      <c r="O177" s="47"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="43">
@@ -8528,15 +8559,15 @@
       <c r="H178" s="43">
         <v>13</v>
       </c>
-      <c r="I178" s="50" t="s">
+      <c r="I178" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="J178" s="50"/>
-      <c r="K178" s="50"/>
-      <c r="L178" s="50"/>
-      <c r="M178" s="50"/>
-      <c r="N178" s="50"/>
-      <c r="O178" s="50"/>
+      <c r="J178" s="47"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="47"/>
+      <c r="M178" s="47"/>
+      <c r="N178" s="47"/>
+      <c r="O178" s="47"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="43">
@@ -8563,15 +8594,15 @@
       <c r="H179" s="43">
         <v>-10</v>
       </c>
-      <c r="I179" s="50" t="s">
+      <c r="I179" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-      <c r="L179" s="50"/>
-      <c r="M179" s="50"/>
-      <c r="N179" s="50"/>
-      <c r="O179" s="50"/>
+      <c r="J179" s="47"/>
+      <c r="K179" s="47"/>
+      <c r="L179" s="47"/>
+      <c r="M179" s="47"/>
+      <c r="N179" s="47"/>
+      <c r="O179" s="47"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="43">
@@ -8598,15 +8629,15 @@
       <c r="H180" s="43">
         <v>-10</v>
       </c>
-      <c r="I180" s="50" t="s">
+      <c r="I180" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="J180" s="50"/>
-      <c r="K180" s="50"/>
-      <c r="L180" s="50"/>
-      <c r="M180" s="50"/>
-      <c r="N180" s="50"/>
-      <c r="O180" s="50"/>
+      <c r="J180" s="47"/>
+      <c r="K180" s="47"/>
+      <c r="L180" s="47"/>
+      <c r="M180" s="47"/>
+      <c r="N180" s="47"/>
+      <c r="O180" s="47"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="43">
@@ -8633,15 +8664,15 @@
       <c r="H181" s="43">
         <v>-10</v>
       </c>
-      <c r="I181" s="50" t="s">
+      <c r="I181" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="J181" s="50"/>
-      <c r="K181" s="50"/>
-      <c r="L181" s="50"/>
-      <c r="M181" s="50"/>
-      <c r="N181" s="50"/>
-      <c r="O181" s="50"/>
+      <c r="J181" s="47"/>
+      <c r="K181" s="47"/>
+      <c r="L181" s="47"/>
+      <c r="M181" s="47"/>
+      <c r="N181" s="47"/>
+      <c r="O181" s="47"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="43">
@@ -8668,15 +8699,15 @@
       <c r="H182" s="43">
         <v>-10</v>
       </c>
-      <c r="I182" s="50" t="s">
+      <c r="I182" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="J182" s="50"/>
-      <c r="K182" s="50"/>
-      <c r="L182" s="50"/>
-      <c r="M182" s="50"/>
-      <c r="N182" s="50"/>
-      <c r="O182" s="50"/>
+      <c r="J182" s="47"/>
+      <c r="K182" s="47"/>
+      <c r="L182" s="47"/>
+      <c r="M182" s="47"/>
+      <c r="N182" s="47"/>
+      <c r="O182" s="47"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="43">
@@ -8703,15 +8734,15 @@
       <c r="H183" s="43">
         <v>7</v>
       </c>
-      <c r="I183" s="50" t="s">
+      <c r="I183" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="J183" s="50"/>
-      <c r="K183" s="50"/>
-      <c r="L183" s="50"/>
-      <c r="M183" s="50"/>
-      <c r="N183" s="50"/>
-      <c r="O183" s="50"/>
+      <c r="J183" s="47"/>
+      <c r="K183" s="47"/>
+      <c r="L183" s="47"/>
+      <c r="M183" s="47"/>
+      <c r="N183" s="47"/>
+      <c r="O183" s="47"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="43">
@@ -8738,15 +8769,15 @@
       <c r="H184" s="43">
         <v>7</v>
       </c>
-      <c r="I184" s="50" t="s">
+      <c r="I184" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50"/>
-      <c r="L184" s="50"/>
-      <c r="M184" s="50"/>
-      <c r="N184" s="50"/>
-      <c r="O184" s="50"/>
+      <c r="J184" s="47"/>
+      <c r="K184" s="47"/>
+      <c r="L184" s="47"/>
+      <c r="M184" s="47"/>
+      <c r="N184" s="47"/>
+      <c r="O184" s="47"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="43">
@@ -8773,15 +8804,15 @@
       <c r="H185" s="43">
         <v>7</v>
       </c>
-      <c r="I185" s="50" t="s">
+      <c r="I185" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="J185" s="50"/>
-      <c r="K185" s="50"/>
-      <c r="L185" s="50"/>
-      <c r="M185" s="50"/>
-      <c r="N185" s="50"/>
-      <c r="O185" s="50"/>
+      <c r="J185" s="47"/>
+      <c r="K185" s="47"/>
+      <c r="L185" s="47"/>
+      <c r="M185" s="47"/>
+      <c r="N185" s="47"/>
+      <c r="O185" s="47"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="43">
@@ -8808,15 +8839,15 @@
       <c r="H186" s="43">
         <v>7</v>
       </c>
-      <c r="I186" s="50" t="s">
+      <c r="I186" s="47" t="s">
         <v>496</v>
       </c>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="50"/>
+      <c r="J186" s="47"/>
+      <c r="K186" s="47"/>
+      <c r="L186" s="47"/>
+      <c r="M186" s="47"/>
+      <c r="N186" s="47"/>
+      <c r="O186" s="47"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="43">
@@ -8843,15 +8874,15 @@
       <c r="H187" s="43">
         <v>-7</v>
       </c>
-      <c r="I187" s="50" t="s">
+      <c r="I187" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="50"/>
-      <c r="M187" s="50"/>
-      <c r="N187" s="50"/>
-      <c r="O187" s="50"/>
+      <c r="J187" s="47"/>
+      <c r="K187" s="47"/>
+      <c r="L187" s="47"/>
+      <c r="M187" s="47"/>
+      <c r="N187" s="47"/>
+      <c r="O187" s="47"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="43">
@@ -8878,15 +8909,15 @@
       <c r="H188" s="43">
         <v>-7</v>
       </c>
-      <c r="I188" s="50" t="s">
+      <c r="I188" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="50"/>
+      <c r="J188" s="47"/>
+      <c r="K188" s="47"/>
+      <c r="L188" s="47"/>
+      <c r="M188" s="47"/>
+      <c r="N188" s="47"/>
+      <c r="O188" s="47"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="43">
@@ -8913,15 +8944,15 @@
       <c r="H189" s="43">
         <v>-7</v>
       </c>
-      <c r="I189" s="50" t="s">
+      <c r="I189" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="J189" s="50"/>
-      <c r="K189" s="50"/>
-      <c r="L189" s="50"/>
-      <c r="M189" s="50"/>
-      <c r="N189" s="50"/>
-      <c r="O189" s="50"/>
+      <c r="J189" s="47"/>
+      <c r="K189" s="47"/>
+      <c r="L189" s="47"/>
+      <c r="M189" s="47"/>
+      <c r="N189" s="47"/>
+      <c r="O189" s="47"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="43">
@@ -8948,15 +8979,15 @@
       <c r="H190" s="43">
         <v>-7</v>
       </c>
-      <c r="I190" s="50" t="s">
+      <c r="I190" s="47" t="s">
         <v>500</v>
       </c>
-      <c r="J190" s="50"/>
-      <c r="K190" s="50"/>
-      <c r="L190" s="50"/>
-      <c r="M190" s="50"/>
-      <c r="N190" s="50"/>
-      <c r="O190" s="50"/>
+      <c r="J190" s="47"/>
+      <c r="K190" s="47"/>
+      <c r="L190" s="47"/>
+      <c r="M190" s="47"/>
+      <c r="N190" s="47"/>
+      <c r="O190" s="47"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="43">
@@ -8981,15 +9012,15 @@
       <c r="H191" s="43">
         <v>5</v>
       </c>
-      <c r="I191" s="50" t="s">
+      <c r="I191" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="J191" s="50"/>
-      <c r="K191" s="50"/>
-      <c r="L191" s="50"/>
-      <c r="M191" s="50"/>
-      <c r="N191" s="50"/>
-      <c r="O191" s="50"/>
+      <c r="J191" s="47"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="47"/>
+      <c r="M191" s="47"/>
+      <c r="N191" s="47"/>
+      <c r="O191" s="47"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="43">
@@ -9014,15 +9045,15 @@
       <c r="H192" s="43">
         <v>-5</v>
       </c>
-      <c r="I192" s="50" t="s">
+      <c r="I192" s="47" t="s">
         <v>502</v>
       </c>
-      <c r="J192" s="50"/>
-      <c r="K192" s="50"/>
-      <c r="L192" s="50"/>
-      <c r="M192" s="50"/>
-      <c r="N192" s="50"/>
-      <c r="O192" s="50"/>
+      <c r="J192" s="47"/>
+      <c r="K192" s="47"/>
+      <c r="L192" s="47"/>
+      <c r="M192" s="47"/>
+      <c r="N192" s="47"/>
+      <c r="O192" s="47"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="43">
@@ -9047,15 +9078,15 @@
       <c r="H193" s="43">
         <v>5</v>
       </c>
-      <c r="I193" s="50" t="s">
+      <c r="I193" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="J193" s="50"/>
-      <c r="K193" s="50"/>
-      <c r="L193" s="50"/>
-      <c r="M193" s="50"/>
-      <c r="N193" s="50"/>
-      <c r="O193" s="50"/>
+      <c r="J193" s="47"/>
+      <c r="K193" s="47"/>
+      <c r="L193" s="47"/>
+      <c r="M193" s="47"/>
+      <c r="N193" s="47"/>
+      <c r="O193" s="47"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="43">
@@ -9080,15 +9111,15 @@
       <c r="H194" s="43">
         <v>5</v>
       </c>
-      <c r="I194" s="50" t="s">
+      <c r="I194" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="J194" s="50"/>
-      <c r="K194" s="50"/>
-      <c r="L194" s="50"/>
-      <c r="M194" s="50"/>
-      <c r="N194" s="50"/>
-      <c r="O194" s="50"/>
+      <c r="J194" s="47"/>
+      <c r="K194" s="47"/>
+      <c r="L194" s="47"/>
+      <c r="M194" s="47"/>
+      <c r="N194" s="47"/>
+      <c r="O194" s="47"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="43">
@@ -9113,15 +9144,15 @@
       <c r="H195" s="43">
         <v>5</v>
       </c>
-      <c r="I195" s="50" t="s">
+      <c r="I195" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="J195" s="50"/>
-      <c r="K195" s="50"/>
-      <c r="L195" s="50"/>
-      <c r="M195" s="50"/>
-      <c r="N195" s="50"/>
-      <c r="O195" s="50"/>
+      <c r="J195" s="47"/>
+      <c r="K195" s="47"/>
+      <c r="L195" s="47"/>
+      <c r="M195" s="47"/>
+      <c r="N195" s="47"/>
+      <c r="O195" s="47"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="43">
@@ -9146,24 +9177,24 @@
       <c r="H196" s="43">
         <v>5</v>
       </c>
-      <c r="I196" s="50" t="s">
+      <c r="I196" s="47" t="s">
         <v>506</v>
       </c>
-      <c r="J196" s="50"/>
-      <c r="K196" s="50"/>
-      <c r="L196" s="50"/>
-      <c r="M196" s="50"/>
-      <c r="N196" s="50"/>
-      <c r="O196" s="50"/>
+      <c r="J196" s="47"/>
+      <c r="K196" s="47"/>
+      <c r="L196" s="47"/>
+      <c r="M196" s="47"/>
+      <c r="N196" s="47"/>
+      <c r="O196" s="47"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B197" s="59" t="s">
+      <c r="B197" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="C197" s="59"/>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
       <c r="G197" t="s">
         <v>508</v>
       </c>
@@ -9173,6 +9204,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E111:Q111"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E112:Q112"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="S134:W134"/>
+    <mergeCell ref="S135:W138"/>
+    <mergeCell ref="S139:W140"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="K155:R155"/>
+    <mergeCell ref="K156:R156"/>
+    <mergeCell ref="K157:R157"/>
+    <mergeCell ref="K158:R158"/>
+    <mergeCell ref="K159:R159"/>
+    <mergeCell ref="K160:R160"/>
+    <mergeCell ref="K145:R145"/>
+    <mergeCell ref="K146:R146"/>
+    <mergeCell ref="K147:R147"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="S141:W148"/>
+    <mergeCell ref="A136:D140"/>
+    <mergeCell ref="A142:D156"/>
+    <mergeCell ref="A158:F162"/>
+    <mergeCell ref="E150:F152"/>
+    <mergeCell ref="E146:F148"/>
+    <mergeCell ref="E142:F144"/>
+    <mergeCell ref="E154:F156"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="K161:R161"/>
+    <mergeCell ref="K162:R162"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="K154:R154"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="I168:O168"/>
+    <mergeCell ref="I169:O169"/>
+    <mergeCell ref="I170:O170"/>
+    <mergeCell ref="I171:O171"/>
+    <mergeCell ref="I172:O172"/>
+    <mergeCell ref="I173:O173"/>
+    <mergeCell ref="I174:O174"/>
+    <mergeCell ref="I175:O175"/>
+    <mergeCell ref="S149:W162"/>
     <mergeCell ref="E97:H97"/>
     <mergeCell ref="I194:O194"/>
     <mergeCell ref="I195:O195"/>
@@ -9197,161 +9383,6 @@
     <mergeCell ref="I183:O183"/>
     <mergeCell ref="I184:O184"/>
     <mergeCell ref="I167:O167"/>
-    <mergeCell ref="I168:O168"/>
-    <mergeCell ref="I169:O169"/>
-    <mergeCell ref="I170:O170"/>
-    <mergeCell ref="I171:O171"/>
-    <mergeCell ref="I172:O172"/>
-    <mergeCell ref="I173:O173"/>
-    <mergeCell ref="I174:O174"/>
-    <mergeCell ref="I175:O175"/>
-    <mergeCell ref="S149:W162"/>
-    <mergeCell ref="S141:W148"/>
-    <mergeCell ref="A136:D140"/>
-    <mergeCell ref="A142:D156"/>
-    <mergeCell ref="A158:F162"/>
-    <mergeCell ref="E150:F152"/>
-    <mergeCell ref="E146:F148"/>
-    <mergeCell ref="E142:F144"/>
-    <mergeCell ref="E154:F156"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="K161:R161"/>
-    <mergeCell ref="K162:R162"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="K154:R154"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="S134:W134"/>
-    <mergeCell ref="S135:W138"/>
-    <mergeCell ref="S139:W140"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="K155:R155"/>
-    <mergeCell ref="K156:R156"/>
-    <mergeCell ref="K157:R157"/>
-    <mergeCell ref="K158:R158"/>
-    <mergeCell ref="K159:R159"/>
-    <mergeCell ref="K160:R160"/>
-    <mergeCell ref="K145:R145"/>
-    <mergeCell ref="K146:R146"/>
-    <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E112:Q112"/>
-    <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E111:Q111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9804,71 +9835,71 @@
       <c r="B19" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="47">
         <v>6</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -9914,134 +9945,134 @@
       <c r="B34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="50">
-        <v>0</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50">
-        <v>0</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="C35" s="47">
+        <v>0</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47">
+        <v>0</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="47">
         <v>1</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50">
-        <v>0</v>
-      </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47">
+        <v>0</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50" t="s">
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50" t="s">
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50" t="s">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -10117,73 +10148,73 @@
       <c r="B51" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -10209,33 +10240,33 @@
       <c r="B64" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
@@ -10261,62 +10292,60 @@
       <c r="B73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C54:M54"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="C52:M52"/>
-    <mergeCell ref="C53:M53"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:E40"/>
@@ -10333,11 +10362,13 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C54:M54"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="C52:M52"/>
+    <mergeCell ref="C53:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10378,10 +10409,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:N128"/>
+  <dimension ref="B1:N184"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184:I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10817,17 +10848,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="51" t="s">
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -10937,17 +10968,17 @@
       <c r="B26" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="35" t="s">
         <v>340</v>
       </c>
@@ -10956,17 +10987,17 @@
       <c r="B27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="35" t="s">
         <v>386</v>
       </c>
@@ -10975,17 +11006,17 @@
       <c r="B28" s="35">
         <v>1</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="35">
         <v>0</v>
       </c>
@@ -10994,17 +11025,17 @@
       <c r="B29" s="35">
         <v>2</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="35">
         <v>5</v>
       </c>
@@ -11013,17 +11044,17 @@
       <c r="B30" s="35">
         <v>3</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="35">
         <v>10</v>
       </c>
@@ -11032,17 +11063,17 @@
       <c r="B31" s="35">
         <v>4</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="35">
         <v>5</v>
       </c>
@@ -11051,17 +11082,17 @@
       <c r="B32" s="35">
         <v>5</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="35">
         <v>10</v>
       </c>
@@ -11070,17 +11101,17 @@
       <c r="B33" s="35">
         <v>6</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="35">
         <v>5</v>
       </c>
@@ -11089,17 +11120,17 @@
       <c r="B34" s="35">
         <v>7</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="35">
         <v>10</v>
       </c>
@@ -11108,17 +11139,17 @@
       <c r="B35" s="35">
         <v>8</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="35">
         <v>20</v>
       </c>
@@ -11137,10 +11168,10 @@
       <c r="B39" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="39" t="s">
         <v>338</v>
       </c>
@@ -11153,10 +11184,10 @@
       <c r="B40" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="39" t="s">
         <v>10</v>
       </c>
@@ -11169,161 +11200,161 @@
       <c r="B41" s="39">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="47">
         <v>1</v>
       </c>
-      <c r="G41" s="50"/>
+      <c r="G41" s="47"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="39">
         <v>2</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="60"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="47">
         <v>1</v>
       </c>
-      <c r="G42" s="50"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="39">
         <v>3</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="47">
         <v>2</v>
       </c>
-      <c r="G43" s="50"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="39">
         <v>4</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="60"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="47">
         <v>2</v>
       </c>
-      <c r="G44" s="50"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="39">
         <v>5</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="47">
         <v>2</v>
       </c>
-      <c r="G45" s="50"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="39">
         <v>6</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="47">
         <v>3</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="39">
         <v>7</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="47">
         <v>3</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="39">
         <v>8</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="60"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="47">
         <v>3</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="39">
         <v>9</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="60"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="47">
         <v>3</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="39">
         <v>10</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="60"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="47">
         <v>3</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -11496,14 +11527,14 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50" t="s">
+      <c r="C67" s="47"/>
+      <c r="D67" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="E67" s="50"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="33" t="s">
         <v>358</v>
       </c>
@@ -11518,14 +11549,14 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50" t="s">
+      <c r="C68" s="47"/>
+      <c r="D68" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="E68" s="50"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="33" t="s">
         <v>359</v>
       </c>
@@ -11540,14 +11571,14 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="50">
+      <c r="B69" s="47">
         <v>1</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50" t="s">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="E69" s="50"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="33" t="s">
         <v>360</v>
       </c>
@@ -11562,14 +11593,14 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B70" s="50">
+      <c r="B70" s="47">
         <v>2</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50" t="s">
+      <c r="C70" s="47"/>
+      <c r="D70" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="E70" s="50"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="33" t="s">
         <v>361</v>
       </c>
@@ -11584,14 +11615,14 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B71" s="50">
+      <c r="B71" s="47">
         <v>3</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50" t="s">
+      <c r="C71" s="47"/>
+      <c r="D71" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="E71" s="50"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="33" t="s">
         <v>362</v>
       </c>
@@ -13155,24 +13186,1302 @@
         <v>447</v>
       </c>
     </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B131" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B132" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E132" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="F132" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="I132" s="47"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B133" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="E133" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="F133" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="47"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B134" s="45">
+        <v>1</v>
+      </c>
+      <c r="C134" s="45">
+        <v>1</v>
+      </c>
+      <c r="D134" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="47">
+        <v>3</v>
+      </c>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47">
+        <v>6</v>
+      </c>
+      <c r="I134" s="47"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B135" s="45">
+        <v>2</v>
+      </c>
+      <c r="C135" s="45">
+        <v>2</v>
+      </c>
+      <c r="D135" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="47">
+        <v>3</v>
+      </c>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47">
+        <v>6</v>
+      </c>
+      <c r="I135" s="47"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B136" s="45">
+        <v>3</v>
+      </c>
+      <c r="C136" s="45">
+        <v>3</v>
+      </c>
+      <c r="D136" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="47">
+        <v>3</v>
+      </c>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47">
+        <v>6</v>
+      </c>
+      <c r="I136" s="47"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B137" s="45">
+        <v>4</v>
+      </c>
+      <c r="C137" s="45">
+        <v>4</v>
+      </c>
+      <c r="D137" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="47">
+        <v>3</v>
+      </c>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47">
+        <v>6</v>
+      </c>
+      <c r="I137" s="47"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B138" s="45">
+        <v>5</v>
+      </c>
+      <c r="C138" s="45">
+        <v>5</v>
+      </c>
+      <c r="D138" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="47">
+        <v>3</v>
+      </c>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47">
+        <v>6</v>
+      </c>
+      <c r="I138" s="47"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B139" s="45">
+        <v>6</v>
+      </c>
+      <c r="C139" s="45">
+        <v>6</v>
+      </c>
+      <c r="D139" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="47">
+        <v>3</v>
+      </c>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47">
+        <v>6</v>
+      </c>
+      <c r="I139" s="47"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B140" s="45">
+        <v>7</v>
+      </c>
+      <c r="C140" s="45">
+        <v>7</v>
+      </c>
+      <c r="D140" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="47">
+        <v>3</v>
+      </c>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47">
+        <v>6</v>
+      </c>
+      <c r="I140" s="47"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B141" s="45">
+        <v>8</v>
+      </c>
+      <c r="C141" s="45">
+        <v>8</v>
+      </c>
+      <c r="D141" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="47">
+        <v>3</v>
+      </c>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47">
+        <v>6</v>
+      </c>
+      <c r="I141" s="47"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B142" s="45">
+        <v>9</v>
+      </c>
+      <c r="C142" s="45">
+        <v>9</v>
+      </c>
+      <c r="D142" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="47">
+        <v>3</v>
+      </c>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47">
+        <v>6</v>
+      </c>
+      <c r="I142" s="47"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B143" s="45">
+        <v>10</v>
+      </c>
+      <c r="C143" s="45">
+        <v>10</v>
+      </c>
+      <c r="D143" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" s="47">
+        <v>3</v>
+      </c>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47">
+        <v>6</v>
+      </c>
+      <c r="I143" s="47"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B144" s="45">
+        <v>11</v>
+      </c>
+      <c r="C144" s="45">
+        <v>11</v>
+      </c>
+      <c r="D144" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" s="47">
+        <v>3</v>
+      </c>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47">
+        <v>6</v>
+      </c>
+      <c r="I144" s="47"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B145" s="45">
+        <v>12</v>
+      </c>
+      <c r="C145" s="45">
+        <v>12</v>
+      </c>
+      <c r="D145" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="47">
+        <v>3</v>
+      </c>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47">
+        <v>6</v>
+      </c>
+      <c r="I145" s="47"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B146" s="45">
+        <v>13</v>
+      </c>
+      <c r="C146" s="45">
+        <v>13</v>
+      </c>
+      <c r="D146" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" s="47">
+        <v>3</v>
+      </c>
+      <c r="G146" s="47"/>
+      <c r="H146" s="47">
+        <v>6</v>
+      </c>
+      <c r="I146" s="47"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B147" s="45">
+        <v>14</v>
+      </c>
+      <c r="C147" s="45">
+        <v>14</v>
+      </c>
+      <c r="D147" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="47">
+        <v>3</v>
+      </c>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47">
+        <v>6</v>
+      </c>
+      <c r="I147" s="47"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B148" s="45">
+        <v>15</v>
+      </c>
+      <c r="C148" s="45">
+        <v>15</v>
+      </c>
+      <c r="D148" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" s="47">
+        <v>3</v>
+      </c>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47">
+        <v>6</v>
+      </c>
+      <c r="I148" s="47"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B149" s="45">
+        <v>16</v>
+      </c>
+      <c r="C149" s="45">
+        <v>16</v>
+      </c>
+      <c r="D149" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="47">
+        <v>3</v>
+      </c>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47">
+        <v>8</v>
+      </c>
+      <c r="I149" s="47"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B150" s="45">
+        <v>17</v>
+      </c>
+      <c r="C150" s="45">
+        <v>17</v>
+      </c>
+      <c r="D150" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="47">
+        <v>3</v>
+      </c>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47">
+        <v>8</v>
+      </c>
+      <c r="I150" s="47"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B151" s="45">
+        <v>18</v>
+      </c>
+      <c r="C151" s="45">
+        <v>18</v>
+      </c>
+      <c r="D151" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="47">
+        <v>3</v>
+      </c>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47">
+        <v>8</v>
+      </c>
+      <c r="I151" s="47"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B152" s="45">
+        <v>19</v>
+      </c>
+      <c r="C152" s="45">
+        <v>19</v>
+      </c>
+      <c r="D152" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" s="47">
+        <v>3</v>
+      </c>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47">
+        <v>8</v>
+      </c>
+      <c r="I152" s="47"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B153" s="45">
+        <v>20</v>
+      </c>
+      <c r="C153" s="45">
+        <v>20</v>
+      </c>
+      <c r="D153" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" s="47">
+        <v>3</v>
+      </c>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47">
+        <v>8</v>
+      </c>
+      <c r="I153" s="47"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B154" s="45">
+        <v>21</v>
+      </c>
+      <c r="C154" s="45">
+        <v>21</v>
+      </c>
+      <c r="D154" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" s="47">
+        <v>5</v>
+      </c>
+      <c r="G154" s="47"/>
+      <c r="H154" s="47">
+        <v>8</v>
+      </c>
+      <c r="I154" s="47"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B155" s="45">
+        <v>22</v>
+      </c>
+      <c r="C155" s="45">
+        <v>22</v>
+      </c>
+      <c r="D155" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="47">
+        <v>5</v>
+      </c>
+      <c r="G155" s="47"/>
+      <c r="H155" s="47">
+        <v>8</v>
+      </c>
+      <c r="I155" s="47"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B156" s="45">
+        <v>23</v>
+      </c>
+      <c r="C156" s="45">
+        <v>23</v>
+      </c>
+      <c r="D156" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="47">
+        <v>5</v>
+      </c>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47">
+        <v>8</v>
+      </c>
+      <c r="I156" s="47"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B157" s="45">
+        <v>24</v>
+      </c>
+      <c r="C157" s="45">
+        <v>24</v>
+      </c>
+      <c r="D157" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" s="47">
+        <v>5</v>
+      </c>
+      <c r="G157" s="47"/>
+      <c r="H157" s="47">
+        <v>8</v>
+      </c>
+      <c r="I157" s="47"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B158" s="45">
+        <v>25</v>
+      </c>
+      <c r="C158" s="45">
+        <v>25</v>
+      </c>
+      <c r="D158" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" s="47">
+        <v>5</v>
+      </c>
+      <c r="G158" s="47"/>
+      <c r="H158" s="47">
+        <v>8</v>
+      </c>
+      <c r="I158" s="47"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B159" s="45">
+        <v>26</v>
+      </c>
+      <c r="C159" s="45">
+        <v>26</v>
+      </c>
+      <c r="D159" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="47">
+        <v>5</v>
+      </c>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47">
+        <v>8</v>
+      </c>
+      <c r="I159" s="47"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B160" s="45">
+        <v>27</v>
+      </c>
+      <c r="C160" s="45">
+        <v>27</v>
+      </c>
+      <c r="D160" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" s="47">
+        <v>5</v>
+      </c>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47">
+        <v>8</v>
+      </c>
+      <c r="I160" s="47"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B161" s="45">
+        <v>28</v>
+      </c>
+      <c r="C161" s="45">
+        <v>28</v>
+      </c>
+      <c r="D161" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" s="47">
+        <v>5</v>
+      </c>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47">
+        <v>8</v>
+      </c>
+      <c r="I161" s="47"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B162" s="45">
+        <v>29</v>
+      </c>
+      <c r="C162" s="45">
+        <v>29</v>
+      </c>
+      <c r="D162" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" s="47">
+        <v>5</v>
+      </c>
+      <c r="G162" s="47"/>
+      <c r="H162" s="47">
+        <v>8</v>
+      </c>
+      <c r="I162" s="47"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B163" s="45">
+        <v>30</v>
+      </c>
+      <c r="C163" s="45">
+        <v>30</v>
+      </c>
+      <c r="D163" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163" s="47">
+        <v>5</v>
+      </c>
+      <c r="G163" s="47"/>
+      <c r="H163" s="47">
+        <v>8</v>
+      </c>
+      <c r="I163" s="47"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B164" s="45">
+        <v>31</v>
+      </c>
+      <c r="C164" s="45">
+        <v>31</v>
+      </c>
+      <c r="D164" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" s="47">
+        <v>5</v>
+      </c>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47">
+        <v>10</v>
+      </c>
+      <c r="I164" s="47"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B165" s="45">
+        <v>32</v>
+      </c>
+      <c r="C165" s="45">
+        <v>32</v>
+      </c>
+      <c r="D165" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" s="47">
+        <v>5</v>
+      </c>
+      <c r="G165" s="47"/>
+      <c r="H165" s="47">
+        <v>10</v>
+      </c>
+      <c r="I165" s="47"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B166" s="45">
+        <v>33</v>
+      </c>
+      <c r="C166" s="45">
+        <v>33</v>
+      </c>
+      <c r="D166" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" s="47">
+        <v>5</v>
+      </c>
+      <c r="G166" s="47"/>
+      <c r="H166" s="47">
+        <v>10</v>
+      </c>
+      <c r="I166" s="47"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B167" s="45">
+        <v>34</v>
+      </c>
+      <c r="C167" s="45">
+        <v>34</v>
+      </c>
+      <c r="D167" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" s="47">
+        <v>5</v>
+      </c>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47">
+        <v>10</v>
+      </c>
+      <c r="I167" s="47"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B168" s="45">
+        <v>35</v>
+      </c>
+      <c r="C168" s="45">
+        <v>35</v>
+      </c>
+      <c r="D168" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168" s="47">
+        <v>5</v>
+      </c>
+      <c r="G168" s="47"/>
+      <c r="H168" s="47">
+        <v>10</v>
+      </c>
+      <c r="I168" s="47"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B169" s="45">
+        <v>36</v>
+      </c>
+      <c r="C169" s="45">
+        <v>36</v>
+      </c>
+      <c r="D169" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" s="47">
+        <v>3</v>
+      </c>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47">
+        <v>10</v>
+      </c>
+      <c r="I169" s="47"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B170" s="45">
+        <v>37</v>
+      </c>
+      <c r="C170" s="45">
+        <v>37</v>
+      </c>
+      <c r="D170" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" s="47">
+        <v>5</v>
+      </c>
+      <c r="G170" s="47"/>
+      <c r="H170" s="47">
+        <v>10</v>
+      </c>
+      <c r="I170" s="47"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B171" s="45">
+        <v>38</v>
+      </c>
+      <c r="C171" s="45">
+        <v>38</v>
+      </c>
+      <c r="D171" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" s="47">
+        <v>3</v>
+      </c>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47">
+        <v>10</v>
+      </c>
+      <c r="I171" s="47"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B172" s="45">
+        <v>39</v>
+      </c>
+      <c r="C172" s="45">
+        <v>39</v>
+      </c>
+      <c r="D172" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" s="47">
+        <v>5</v>
+      </c>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47">
+        <v>10</v>
+      </c>
+      <c r="I172" s="47"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B173" s="45">
+        <v>40</v>
+      </c>
+      <c r="C173" s="45">
+        <v>40</v>
+      </c>
+      <c r="D173" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173" s="47">
+        <v>3</v>
+      </c>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47">
+        <v>10</v>
+      </c>
+      <c r="I173" s="47"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B174" s="45">
+        <v>41</v>
+      </c>
+      <c r="C174" s="45">
+        <v>41</v>
+      </c>
+      <c r="D174" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" s="47">
+        <v>3</v>
+      </c>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47">
+        <v>9</v>
+      </c>
+      <c r="I174" s="47"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B175" s="45">
+        <v>42</v>
+      </c>
+      <c r="C175" s="45">
+        <v>42</v>
+      </c>
+      <c r="D175" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" s="47">
+        <v>5</v>
+      </c>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47">
+        <v>9</v>
+      </c>
+      <c r="I175" s="47"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B176" s="45">
+        <v>43</v>
+      </c>
+      <c r="C176" s="45">
+        <v>43</v>
+      </c>
+      <c r="D176" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" s="47">
+        <v>5</v>
+      </c>
+      <c r="G176" s="47"/>
+      <c r="H176" s="47">
+        <v>9</v>
+      </c>
+      <c r="I176" s="47"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B177" s="45">
+        <v>44</v>
+      </c>
+      <c r="C177" s="45">
+        <v>44</v>
+      </c>
+      <c r="D177" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" s="47">
+        <v>3</v>
+      </c>
+      <c r="G177" s="47"/>
+      <c r="H177" s="47">
+        <v>9</v>
+      </c>
+      <c r="I177" s="47"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B178" s="45">
+        <v>45</v>
+      </c>
+      <c r="C178" s="45">
+        <v>45</v>
+      </c>
+      <c r="D178" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" s="47">
+        <v>5</v>
+      </c>
+      <c r="G178" s="47"/>
+      <c r="H178" s="47">
+        <v>9</v>
+      </c>
+      <c r="I178" s="47"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B179" s="45">
+        <v>46</v>
+      </c>
+      <c r="C179" s="45">
+        <v>46</v>
+      </c>
+      <c r="D179" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" s="47">
+        <v>3</v>
+      </c>
+      <c r="G179" s="47"/>
+      <c r="H179" s="47">
+        <v>9</v>
+      </c>
+      <c r="I179" s="47"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B180" s="45">
+        <v>47</v>
+      </c>
+      <c r="C180" s="45">
+        <v>47</v>
+      </c>
+      <c r="D180" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" s="47">
+        <v>5</v>
+      </c>
+      <c r="G180" s="47"/>
+      <c r="H180" s="47">
+        <v>9</v>
+      </c>
+      <c r="I180" s="47"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B181" s="45">
+        <v>48</v>
+      </c>
+      <c r="C181" s="45">
+        <v>48</v>
+      </c>
+      <c r="D181" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" s="47">
+        <v>3</v>
+      </c>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47">
+        <v>9</v>
+      </c>
+      <c r="I181" s="47"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B182" s="45">
+        <v>49</v>
+      </c>
+      <c r="C182" s="45">
+        <v>49</v>
+      </c>
+      <c r="D182" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" s="47">
+        <v>3</v>
+      </c>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47">
+        <v>9</v>
+      </c>
+      <c r="I182" s="47"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B183" s="45">
+        <v>50</v>
+      </c>
+      <c r="C183" s="45">
+        <v>50</v>
+      </c>
+      <c r="D183" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" s="47">
+        <v>5</v>
+      </c>
+      <c r="G183" s="47"/>
+      <c r="H183" s="47">
+        <v>9</v>
+      </c>
+      <c r="I183" s="47"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D184" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="I184" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
+  <mergeCells count="163">
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="B67:C67"/>
@@ -13189,30 +14498,22 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48887128-8917-4C07-B91C-92703E9A78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915BE85-5B89-4D0C-9125-F90949BC75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
     <sheet name="몬스터 능력치" sheetId="6" r:id="rId2"/>
     <sheet name="몬스터UI" sheetId="8" r:id="rId3"/>
-    <sheet name="공격로 기믹 UI" sheetId="13" r:id="rId4"/>
-    <sheet name="몬스터 종류" sheetId="10" r:id="rId5"/>
-    <sheet name="몬스터 생성규칙" sheetId="11" r:id="rId6"/>
-    <sheet name="이동경로" sheetId="9" r:id="rId7"/>
-    <sheet name="몬스터 데이터" sheetId="12" r:id="rId8"/>
-    <sheet name="일정" sheetId="7" r:id="rId9"/>
+    <sheet name="몬스터 종류" sheetId="10" r:id="rId4"/>
+    <sheet name="몬스터 생성규칙" sheetId="11" r:id="rId5"/>
+    <sheet name="이동경로" sheetId="9" r:id="rId6"/>
+    <sheet name="몬스터 데이터" sheetId="12" r:id="rId7"/>
+    <sheet name="일정" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="508">
   <si>
     <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,15 +1964,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*한 웨이브에서 n 종류의 몬스터가 출현 한다면 각 몬스터의 출현량은 (웨이브 총 개체수)/n를 내림한 값으로 하고 (웨이브 총 개체 수) % n 값만큼 ID가 가장 작은 몬스터를 추가로 소환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>증감량(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1공격로 기믹 생성규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 칸의 공격로 기믹 생성 확률은 1/4이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹 생성 시 각 종류의 공격로 기믹 등장 확률은 1/n을 따른다.(*n은 현 시점 적용 가능한 기믹의 개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류 10, 30에 해당하는 기믹만 발생한다. 확률 1/12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 기믹이 발생한다. 확률 1/28.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기믹은 중첩이 가능하다.( ex. 몬스터가 202111 ID의 기믹이 적용 중이라도 301011 ID의 기믹이 중첩되어 적용 가능하다.).또한 중첩 개수에 제한은 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2182,7 +2217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2321,6 +2356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,6 +2366,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2349,12 +2393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -5329,21 +5367,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="43"/>
@@ -5364,54 +5402,54 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -5490,9 +5528,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
-  <dimension ref="A1:AE162"/>
+  <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
@@ -5665,14 +5703,14 @@
       <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5688,14 +5726,14 @@
       <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5711,14 +5749,14 @@
       <c r="E29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5734,14 +5772,14 @@
       <c r="E30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5770,10 +5808,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="6" t="s">
         <v>89</v>
       </c>
@@ -5785,10 +5823,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
@@ -5798,26 +5836,26 @@
       <c r="F42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="51"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="6" t="s">
         <v>95</v>
       </c>
@@ -5827,24 +5865,24 @@
       <c r="F43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="55"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="58"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="47"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
@@ -5854,24 +5892,24 @@
       <c r="F44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G44" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="55"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="58"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="6" t="s">
         <v>98</v>
       </c>
@@ -5881,24 +5919,24 @@
       <c r="F45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="58"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="6" t="s">
         <v>97</v>
       </c>
@@ -5908,24 +5946,24 @@
       <c r="F46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="53" t="s">
+      <c r="G46" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="55"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="47"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="27" t="s">
         <v>202</v>
       </c>
@@ -5952,10 +5990,10 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="21" t="s">
         <v>89</v>
       </c>
@@ -5969,10 +6007,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="47"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="21" t="s">
         <v>99</v>
       </c>
@@ -5984,13 +6022,13 @@
       <c r="G58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="47" t="s">
+      <c r="H58" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -5999,10 +6037,10 @@
       <c r="S58" s="20"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="21" t="s">
         <v>108</v>
       </c>
@@ -6014,13 +6052,13 @@
       <c r="G59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="47" t="s">
+      <c r="H59" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
       <c r="N59" s="19"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
@@ -6029,10 +6067,10 @@
       <c r="S59" s="20"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="47"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="6" t="s">
         <v>101</v>
       </c>
@@ -6044,13 +6082,13 @@
       <c r="G60" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="47" t="s">
+      <c r="H60" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
       <c r="N60" s="19"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -6059,10 +6097,10 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="47"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="6" t="s">
         <v>102</v>
       </c>
@@ -6074,13 +6112,13 @@
       <c r="G61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="47" t="s">
+      <c r="H61" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -6089,10 +6127,10 @@
       <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="47"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="6" t="s">
         <v>103</v>
       </c>
@@ -6104,13 +6142,13 @@
       <c r="G62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
       <c r="N62" s="19"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
@@ -6119,10 +6157,10 @@
       <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="47"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="6" t="s">
         <v>104</v>
       </c>
@@ -6134,13 +6172,13 @@
       <c r="G63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
       <c r="N63" s="19"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
@@ -6149,10 +6187,10 @@
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="47"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="6" t="s">
         <v>105</v>
       </c>
@@ -6164,13 +6202,13 @@
       <c r="G64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
@@ -6179,10 +6217,10 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="6" t="s">
         <v>106</v>
       </c>
@@ -6194,13 +6232,13 @@
       <c r="G65" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H65" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
       <c r="N65" s="19"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -6209,10 +6247,10 @@
       <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="47"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="6" t="s">
         <v>107</v>
       </c>
@@ -6236,10 +6274,10 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="21" t="s">
         <v>111</v>
       </c>
@@ -6251,10 +6289,10 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="47"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="21" t="s">
         <v>99</v>
       </c>
@@ -6265,19 +6303,19 @@
       <c r="G71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="55"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="58"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6292,10 +6330,10 @@
       <c r="AE71" s="23"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="47"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="21" t="s">
         <v>108</v>
       </c>
@@ -6306,19 +6344,19 @@
       <c r="G72" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="53" t="s">
+      <c r="H72" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="55"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="58"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6333,10 +6371,10 @@
       <c r="AE72" s="23"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="47"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="6" t="s">
         <v>112</v>
       </c>
@@ -6347,19 +6385,19 @@
       <c r="G73" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="53" t="s">
+      <c r="H73" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="55"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="58"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6374,10 +6412,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="24" t="s">
         <v>113</v>
       </c>
@@ -6388,19 +6426,19 @@
       <c r="G74" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="53" t="s">
+      <c r="H74" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="55"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="58"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6415,10 +6453,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="6" t="s">
         <v>114</v>
       </c>
@@ -6429,19 +6467,19 @@
       <c r="G75" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="53" t="s">
+      <c r="H75" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="55"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="58"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6456,10 +6494,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="6" t="s">
         <v>115</v>
       </c>
@@ -6470,19 +6508,19 @@
       <c r="G76" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="53" t="s">
+      <c r="H76" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="55"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="58"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6497,10 +6535,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="57"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="6" t="s">
         <v>116</v>
       </c>
@@ -6511,19 +6549,19 @@
       <c r="G77" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H77" s="53" t="s">
+      <c r="H77" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="55"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="58"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6538,10 +6576,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="57"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="6" t="s">
         <v>117</v>
       </c>
@@ -6552,19 +6590,19 @@
       <c r="G78" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H78" s="53" t="s">
+      <c r="H78" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="55"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="58"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6579,10 +6617,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="6" t="s">
         <v>118</v>
       </c>
@@ -6593,19 +6631,19 @@
       <c r="G79" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H79" s="53" t="s">
+      <c r="H79" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="55"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="58"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6620,10 +6658,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="6" t="s">
         <v>119</v>
       </c>
@@ -6634,19 +6672,19 @@
       <c r="G80" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="53" t="s">
+      <c r="H80" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="55"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="58"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6661,10 +6699,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="57"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="6" t="s">
         <v>120</v>
       </c>
@@ -6737,12 +6775,12 @@
       <c r="D91" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="47" t="s">
+      <c r="E91" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="41">
@@ -6754,12 +6792,12 @@
       <c r="D92" s="41">
         <v>1</v>
       </c>
-      <c r="E92" s="47" t="s">
+      <c r="E92" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="41">
@@ -6771,12 +6809,12 @@
       <c r="D93" s="41">
         <v>2</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="E93" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="41">
@@ -6788,12 +6826,12 @@
       <c r="D94" s="41">
         <v>3</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="41">
@@ -6805,12 +6843,12 @@
       <c r="D95" s="41">
         <v>4</v>
       </c>
-      <c r="E95" s="47" t="s">
+      <c r="E95" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="41">
@@ -6822,12 +6860,12 @@
       <c r="D96" s="41">
         <v>5</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A97" s="28">
@@ -6839,12 +6877,12 @@
       <c r="D97" s="28">
         <v>10</v>
       </c>
-      <c r="E97" s="47" t="s">
+      <c r="E97" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D98" t="s">
@@ -6887,31 +6925,31 @@
       <c r="D109" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E109" s="47" t="s">
+      <c r="E109" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="47"/>
-      <c r="L109" s="47"/>
-      <c r="M109" s="47"/>
-      <c r="N109" s="47"/>
-      <c r="O109" s="47"/>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="47"/>
-      <c r="S109" s="47"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="47"/>
-      <c r="V109" s="47"/>
-      <c r="W109" s="47"/>
-      <c r="X109" s="47"/>
-      <c r="Y109" s="47"/>
-      <c r="Z109" s="47"/>
-      <c r="AA109" s="47"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="48"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="48"/>
+      <c r="V109" s="48"/>
+      <c r="W109" s="48"/>
+      <c r="X109" s="48"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="48"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A110" s="6">
@@ -6923,31 +6961,31 @@
       <c r="D110" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="47" t="s">
+      <c r="E110" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="47"/>
-      <c r="L110" s="47"/>
-      <c r="M110" s="47"/>
-      <c r="N110" s="47"/>
-      <c r="O110" s="47"/>
-      <c r="P110" s="47"/>
-      <c r="Q110" s="47"/>
-      <c r="R110" s="47"/>
-      <c r="S110" s="47"/>
-      <c r="T110" s="47"/>
-      <c r="U110" s="47"/>
-      <c r="V110" s="47"/>
-      <c r="W110" s="47"/>
-      <c r="X110" s="47"/>
-      <c r="Y110" s="47"/>
-      <c r="Z110" s="47"/>
-      <c r="AA110" s="47"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
+      <c r="W110" s="48"/>
+      <c r="X110" s="48"/>
+      <c r="Y110" s="48"/>
+      <c r="Z110" s="48"/>
+      <c r="AA110" s="48"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A111" s="6">
@@ -6995,31 +7033,31 @@
       <c r="D112" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="47" t="s">
+      <c r="E112" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="47"/>
-      <c r="O112" s="47"/>
-      <c r="P112" s="47"/>
-      <c r="Q112" s="47"/>
-      <c r="R112" s="47"/>
-      <c r="S112" s="47"/>
-      <c r="T112" s="47"/>
-      <c r="U112" s="47"/>
-      <c r="V112" s="47"/>
-      <c r="W112" s="47"/>
-      <c r="X112" s="47"/>
-      <c r="Y112" s="47"/>
-      <c r="Z112" s="47"/>
-      <c r="AA112" s="47"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="48"/>
+      <c r="O112" s="48"/>
+      <c r="P112" s="48"/>
+      <c r="Q112" s="48"/>
+      <c r="R112" s="48"/>
+      <c r="S112" s="48"/>
+      <c r="T112" s="48"/>
+      <c r="U112" s="48"/>
+      <c r="V112" s="48"/>
+      <c r="W112" s="48"/>
+      <c r="X112" s="48"/>
+      <c r="Y112" s="48"/>
+      <c r="Z112" s="48"/>
+      <c r="AA112" s="48"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D113" s="14" t="s">
@@ -7045,37 +7083,37 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="48"/>
       <c r="D121" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B122" s="47" t="s">
+      <c r="B122" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C122" s="47"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C123" s="47"/>
+      <c r="C123" s="48"/>
       <c r="D123" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C124" s="47"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="6">
         <v>6</v>
       </c>
@@ -7111,123 +7149,123 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="58" t="s">
+      <c r="A134" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
       <c r="D134" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E134" s="58" t="s">
+      <c r="E134" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="F134" s="58"/>
+      <c r="F134" s="59"/>
       <c r="G134" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H134" s="52" t="s">
+      <c r="H134" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="I134" s="52"/>
+      <c r="I134" s="55"/>
       <c r="J134" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="K134" s="52" t="s">
+      <c r="K134" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="L134" s="52"/>
-      <c r="M134" s="52"/>
-      <c r="N134" s="52"/>
-      <c r="O134" s="52"/>
-      <c r="P134" s="52"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="52"/>
-      <c r="S134" s="52" t="s">
+      <c r="L134" s="55"/>
+      <c r="M134" s="55"/>
+      <c r="N134" s="55"/>
+      <c r="O134" s="55"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="55"/>
+      <c r="R134" s="55"/>
+      <c r="S134" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="T134" s="52"/>
-      <c r="U134" s="52"/>
-      <c r="V134" s="52"/>
-      <c r="W134" s="52"/>
+      <c r="T134" s="55"/>
+      <c r="U134" s="55"/>
+      <c r="V134" s="55"/>
+      <c r="W134" s="55"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="59"/>
-      <c r="C135" s="59"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
       <c r="D135" s="29">
         <v>10</v>
       </c>
-      <c r="E135" s="59" t="s">
+      <c r="E135" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="F135" s="59"/>
+      <c r="F135" s="60"/>
       <c r="G135" s="29">
         <v>11</v>
       </c>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
       <c r="J135" s="29">
         <v>10</v>
       </c>
-      <c r="K135" s="47" t="s">
+      <c r="K135" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="L135" s="47"/>
-      <c r="M135" s="47"/>
-      <c r="N135" s="47"/>
-      <c r="O135" s="47"/>
-      <c r="P135" s="47"/>
-      <c r="Q135" s="47"/>
-      <c r="R135" s="47"/>
-      <c r="S135" s="47" t="s">
+      <c r="L135" s="48"/>
+      <c r="M135" s="48"/>
+      <c r="N135" s="48"/>
+      <c r="O135" s="48"/>
+      <c r="P135" s="48"/>
+      <c r="Q135" s="48"/>
+      <c r="R135" s="48"/>
+      <c r="S135" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="T135" s="47"/>
-      <c r="U135" s="47"/>
-      <c r="V135" s="47"/>
-      <c r="W135" s="47"/>
+      <c r="T135" s="48"/>
+      <c r="U135" s="48"/>
+      <c r="V135" s="48"/>
+      <c r="W135" s="48"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="59" t="s">
+      <c r="A136" s="48"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="F136" s="59"/>
+      <c r="F136" s="60"/>
       <c r="G136" s="29">
         <v>21</v>
       </c>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="48"/>
       <c r="J136" s="29">
         <v>10</v>
       </c>
-      <c r="K136" s="47" t="s">
+      <c r="K136" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="47"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="47"/>
-      <c r="Q136" s="47"/>
-      <c r="R136" s="47"/>
-      <c r="S136" s="47"/>
-      <c r="T136" s="47"/>
-      <c r="U136" s="47"/>
-      <c r="V136" s="47"/>
-      <c r="W136" s="47"/>
+      <c r="L136" s="48"/>
+      <c r="M136" s="48"/>
+      <c r="N136" s="48"/>
+      <c r="O136" s="48"/>
+      <c r="P136" s="48"/>
+      <c r="Q136" s="48"/>
+      <c r="R136" s="48"/>
+      <c r="S136" s="48"/>
+      <c r="T136" s="48"/>
+      <c r="U136" s="48"/>
+      <c r="V136" s="48"/>
+      <c r="W136" s="48"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
       <c r="E137" s="29" t="s">
         <v>229</v>
       </c>
@@ -7235,32 +7273,32 @@
       <c r="G137" s="29">
         <v>31</v>
       </c>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
       <c r="J137" s="29">
         <v>10</v>
       </c>
-      <c r="K137" s="47" t="s">
+      <c r="K137" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-      <c r="N137" s="47"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="47"/>
-      <c r="Q137" s="47"/>
-      <c r="R137" s="47"/>
-      <c r="S137" s="47"/>
-      <c r="T137" s="47"/>
-      <c r="U137" s="47"/>
-      <c r="V137" s="47"/>
-      <c r="W137" s="47"/>
+      <c r="L137" s="48"/>
+      <c r="M137" s="48"/>
+      <c r="N137" s="48"/>
+      <c r="O137" s="48"/>
+      <c r="P137" s="48"/>
+      <c r="Q137" s="48"/>
+      <c r="R137" s="48"/>
+      <c r="S137" s="48"/>
+      <c r="T137" s="48"/>
+      <c r="U137" s="48"/>
+      <c r="V137" s="48"/>
+      <c r="W137" s="48"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
       <c r="E138" s="28" t="s">
         <v>231</v>
       </c>
@@ -7268,32 +7306,32 @@
       <c r="G138" s="29">
         <v>41</v>
       </c>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="48"/>
       <c r="J138" s="29">
         <v>10</v>
       </c>
-      <c r="K138" s="48" t="s">
+      <c r="K138" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="L138" s="48"/>
-      <c r="M138" s="48"/>
-      <c r="N138" s="48"/>
-      <c r="O138" s="48"/>
-      <c r="P138" s="48"/>
-      <c r="Q138" s="48"/>
-      <c r="R138" s="48"/>
-      <c r="S138" s="47"/>
-      <c r="T138" s="47"/>
-      <c r="U138" s="47"/>
-      <c r="V138" s="47"/>
-      <c r="W138" s="47"/>
+      <c r="L138" s="49"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+      <c r="O138" s="49"/>
+      <c r="P138" s="49"/>
+      <c r="Q138" s="49"/>
+      <c r="R138" s="49"/>
+      <c r="S138" s="48"/>
+      <c r="T138" s="48"/>
+      <c r="U138" s="48"/>
+      <c r="V138" s="48"/>
+      <c r="W138" s="48"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="48"/>
       <c r="E139" s="28" t="s">
         <v>233</v>
       </c>
@@ -7301,34 +7339,34 @@
       <c r="G139" s="29">
         <v>51</v>
       </c>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
       <c r="J139" s="29">
         <v>10</v>
       </c>
-      <c r="K139" s="48" t="s">
+      <c r="K139" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="L139" s="48"/>
-      <c r="M139" s="48"/>
-      <c r="N139" s="48"/>
-      <c r="O139" s="48"/>
-      <c r="P139" s="48"/>
-      <c r="Q139" s="48"/>
-      <c r="R139" s="48"/>
-      <c r="S139" s="47" t="s">
+      <c r="L139" s="49"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="49"/>
+      <c r="O139" s="49"/>
+      <c r="P139" s="49"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="49"/>
+      <c r="S139" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="T139" s="47"/>
-      <c r="U139" s="47"/>
-      <c r="V139" s="47"/>
-      <c r="W139" s="47"/>
+      <c r="T139" s="48"/>
+      <c r="U139" s="48"/>
+      <c r="V139" s="48"/>
+      <c r="W139" s="48"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
-      <c r="D140" s="47"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
       <c r="E140" s="28" t="s">
         <v>235</v>
       </c>
@@ -7336,33 +7374,33 @@
       <c r="G140" s="29">
         <v>61</v>
       </c>
-      <c r="H140" s="47"/>
-      <c r="I140" s="47"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
       <c r="J140" s="29">
         <v>10</v>
       </c>
-      <c r="K140" s="48" t="s">
+      <c r="K140" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="L140" s="48"/>
-      <c r="M140" s="48"/>
-      <c r="N140" s="48"/>
-      <c r="O140" s="48"/>
-      <c r="P140" s="48"/>
-      <c r="Q140" s="48"/>
-      <c r="R140" s="48"/>
-      <c r="S140" s="47"/>
-      <c r="T140" s="47"/>
-      <c r="U140" s="47"/>
-      <c r="V140" s="47"/>
-      <c r="W140" s="47"/>
+      <c r="L140" s="49"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="49"/>
+      <c r="O140" s="49"/>
+      <c r="P140" s="49"/>
+      <c r="Q140" s="49"/>
+      <c r="R140" s="49"/>
+      <c r="S140" s="48"/>
+      <c r="T140" s="48"/>
+      <c r="U140" s="48"/>
+      <c r="V140" s="48"/>
+      <c r="W140" s="48"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="59" t="s">
+      <c r="A141" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
       <c r="D141" s="29">
         <v>20</v>
       </c>
@@ -7373,129 +7411,129 @@
       <c r="G141" s="29">
         <v>11</v>
       </c>
-      <c r="H141" s="47" t="s">
+      <c r="H141" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="I141" s="47"/>
+      <c r="I141" s="48"/>
       <c r="J141" s="29">
         <v>11</v>
       </c>
-      <c r="K141" s="47" t="s">
+      <c r="K141" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="L141" s="47"/>
-      <c r="M141" s="47"/>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
-      <c r="R141" s="47"/>
-      <c r="S141" s="47" t="s">
+      <c r="L141" s="48"/>
+      <c r="M141" s="48"/>
+      <c r="N141" s="48"/>
+      <c r="O141" s="48"/>
+      <c r="P141" s="48"/>
+      <c r="Q141" s="48"/>
+      <c r="R141" s="48"/>
+      <c r="S141" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="T141" s="47"/>
-      <c r="U141" s="47"/>
-      <c r="V141" s="47"/>
-      <c r="W141" s="47"/>
+      <c r="T141" s="48"/>
+      <c r="U141" s="48"/>
+      <c r="V141" s="48"/>
+      <c r="W141" s="48"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A142" s="47"/>
-      <c r="B142" s="47"/>
-      <c r="C142" s="47"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="47"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="47" t="s">
+      <c r="H142" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I142" s="47"/>
+      <c r="I142" s="48"/>
       <c r="J142" s="29">
         <v>21</v>
       </c>
-      <c r="K142" s="47" t="s">
+      <c r="K142" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="L142" s="47"/>
-      <c r="M142" s="47"/>
-      <c r="N142" s="47"/>
-      <c r="O142" s="47"/>
-      <c r="P142" s="47"/>
-      <c r="Q142" s="47"/>
-      <c r="R142" s="47"/>
-      <c r="S142" s="47"/>
-      <c r="T142" s="47"/>
-      <c r="U142" s="47"/>
-      <c r="V142" s="47"/>
-      <c r="W142" s="47"/>
+      <c r="L142" s="48"/>
+      <c r="M142" s="48"/>
+      <c r="N142" s="48"/>
+      <c r="O142" s="48"/>
+      <c r="P142" s="48"/>
+      <c r="Q142" s="48"/>
+      <c r="R142" s="48"/>
+      <c r="S142" s="48"/>
+      <c r="T142" s="48"/>
+      <c r="U142" s="48"/>
+      <c r="V142" s="48"/>
+      <c r="W142" s="48"/>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A143" s="47"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
+      <c r="A143" s="48"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
       <c r="G143" s="29"/>
-      <c r="H143" s="47" t="s">
+      <c r="H143" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I143" s="47"/>
+      <c r="I143" s="48"/>
       <c r="J143" s="29">
         <v>31</v>
       </c>
-      <c r="K143" s="47" t="s">
+      <c r="K143" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="L143" s="47"/>
-      <c r="M143" s="47"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="47"/>
-      <c r="Q143" s="47"/>
-      <c r="R143" s="47"/>
-      <c r="S143" s="47"/>
-      <c r="T143" s="47"/>
-      <c r="U143" s="47"/>
-      <c r="V143" s="47"/>
-      <c r="W143" s="47"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="48"/>
+      <c r="O143" s="48"/>
+      <c r="P143" s="48"/>
+      <c r="Q143" s="48"/>
+      <c r="R143" s="48"/>
+      <c r="S143" s="48"/>
+      <c r="T143" s="48"/>
+      <c r="U143" s="48"/>
+      <c r="V143" s="48"/>
+      <c r="W143" s="48"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
+      <c r="A144" s="48"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
       <c r="G144" s="29"/>
-      <c r="H144" s="48" t="s">
+      <c r="H144" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="I144" s="48"/>
+      <c r="I144" s="49"/>
       <c r="J144" s="29">
         <v>41</v>
       </c>
-      <c r="K144" s="47" t="s">
+      <c r="K144" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="L144" s="47"/>
-      <c r="M144" s="47"/>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="47"/>
-      <c r="S144" s="47"/>
-      <c r="T144" s="47"/>
-      <c r="U144" s="47"/>
-      <c r="V144" s="47"/>
-      <c r="W144" s="47"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="48"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="48"/>
+      <c r="R144" s="48"/>
+      <c r="S144" s="48"/>
+      <c r="T144" s="48"/>
+      <c r="U144" s="48"/>
+      <c r="V144" s="48"/>
+      <c r="W144" s="48"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
-      <c r="C145" s="47"/>
-      <c r="D145" s="47"/>
+      <c r="A145" s="48"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
       <c r="E145" s="28" t="s">
         <v>227</v>
       </c>
@@ -7503,127 +7541,127 @@
       <c r="G145" s="29">
         <v>21</v>
       </c>
-      <c r="H145" s="47" t="s">
+      <c r="H145" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="I145" s="47"/>
+      <c r="I145" s="48"/>
       <c r="J145" s="29">
         <v>11</v>
       </c>
-      <c r="K145" s="47" t="s">
+      <c r="K145" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="L145" s="47"/>
-      <c r="M145" s="47"/>
-      <c r="N145" s="47"/>
-      <c r="O145" s="47"/>
-      <c r="P145" s="47"/>
-      <c r="Q145" s="47"/>
-      <c r="R145" s="47"/>
-      <c r="S145" s="47"/>
-      <c r="T145" s="47"/>
-      <c r="U145" s="47"/>
-      <c r="V145" s="47"/>
-      <c r="W145" s="47"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="48"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="48"/>
+      <c r="R145" s="48"/>
+      <c r="S145" s="48"/>
+      <c r="T145" s="48"/>
+      <c r="U145" s="48"/>
+      <c r="V145" s="48"/>
+      <c r="W145" s="48"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="47"/>
-      <c r="D146" s="47"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
+      <c r="A146" s="48"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="47" t="s">
+      <c r="H146" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I146" s="47"/>
+      <c r="I146" s="48"/>
       <c r="J146" s="29">
         <v>21</v>
       </c>
-      <c r="K146" s="47" t="s">
+      <c r="K146" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="L146" s="47"/>
-      <c r="M146" s="47"/>
-      <c r="N146" s="47"/>
-      <c r="O146" s="47"/>
-      <c r="P146" s="47"/>
-      <c r="Q146" s="47"/>
-      <c r="R146" s="47"/>
-      <c r="S146" s="47"/>
-      <c r="T146" s="47"/>
-      <c r="U146" s="47"/>
-      <c r="V146" s="47"/>
-      <c r="W146" s="47"/>
+      <c r="L146" s="48"/>
+      <c r="M146" s="48"/>
+      <c r="N146" s="48"/>
+      <c r="O146" s="48"/>
+      <c r="P146" s="48"/>
+      <c r="Q146" s="48"/>
+      <c r="R146" s="48"/>
+      <c r="S146" s="48"/>
+      <c r="T146" s="48"/>
+      <c r="U146" s="48"/>
+      <c r="V146" s="48"/>
+      <c r="W146" s="48"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="47"/>
-      <c r="D147" s="47"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
+      <c r="A147" s="48"/>
+      <c r="B147" s="48"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
       <c r="G147" s="29"/>
-      <c r="H147" s="47" t="s">
+      <c r="H147" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I147" s="47"/>
+      <c r="I147" s="48"/>
       <c r="J147" s="29">
         <v>31</v>
       </c>
-      <c r="K147" s="47" t="s">
+      <c r="K147" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="47"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
-      <c r="U147" s="47"/>
-      <c r="V147" s="47"/>
-      <c r="W147" s="47"/>
+      <c r="L147" s="48"/>
+      <c r="M147" s="48"/>
+      <c r="N147" s="48"/>
+      <c r="O147" s="48"/>
+      <c r="P147" s="48"/>
+      <c r="Q147" s="48"/>
+      <c r="R147" s="48"/>
+      <c r="S147" s="48"/>
+      <c r="T147" s="48"/>
+      <c r="U147" s="48"/>
+      <c r="V147" s="48"/>
+      <c r="W147" s="48"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
-      <c r="C148" s="47"/>
-      <c r="D148" s="47"/>
-      <c r="E148" s="47"/>
-      <c r="F148" s="47"/>
+      <c r="A148" s="48"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="48" t="s">
+      <c r="H148" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="I148" s="48"/>
+      <c r="I148" s="49"/>
       <c r="J148" s="29">
         <v>41</v>
       </c>
-      <c r="K148" s="47" t="s">
+      <c r="K148" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="L148" s="47"/>
-      <c r="M148" s="47"/>
-      <c r="N148" s="47"/>
-      <c r="O148" s="47"/>
-      <c r="P148" s="47"/>
-      <c r="Q148" s="47"/>
-      <c r="R148" s="47"/>
-      <c r="S148" s="47"/>
-      <c r="T148" s="47"/>
-      <c r="U148" s="47"/>
-      <c r="V148" s="47"/>
-      <c r="W148" s="47"/>
+      <c r="L148" s="48"/>
+      <c r="M148" s="48"/>
+      <c r="N148" s="48"/>
+      <c r="O148" s="48"/>
+      <c r="P148" s="48"/>
+      <c r="Q148" s="48"/>
+      <c r="R148" s="48"/>
+      <c r="S148" s="48"/>
+      <c r="T148" s="48"/>
+      <c r="U148" s="48"/>
+      <c r="V148" s="48"/>
+      <c r="W148" s="48"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
-      <c r="C149" s="47"/>
-      <c r="D149" s="47"/>
+      <c r="A149" s="48"/>
+      <c r="B149" s="48"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
       <c r="E149" s="28" t="s">
         <v>233</v>
       </c>
@@ -7631,129 +7669,129 @@
       <c r="G149" s="29">
         <v>31</v>
       </c>
-      <c r="H149" s="47" t="s">
+      <c r="H149" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="I149" s="47"/>
+      <c r="I149" s="48"/>
       <c r="J149" s="29">
         <v>11</v>
       </c>
-      <c r="K149" s="47" t="s">
+      <c r="K149" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="L149" s="47"/>
-      <c r="M149" s="47"/>
-      <c r="N149" s="47"/>
-      <c r="O149" s="47"/>
-      <c r="P149" s="47"/>
-      <c r="Q149" s="47"/>
-      <c r="R149" s="47"/>
-      <c r="S149" s="47" t="s">
+      <c r="L149" s="48"/>
+      <c r="M149" s="48"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="48"/>
+      <c r="P149" s="48"/>
+      <c r="Q149" s="48"/>
+      <c r="R149" s="48"/>
+      <c r="S149" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="T149" s="47"/>
-      <c r="U149" s="47"/>
-      <c r="V149" s="47"/>
-      <c r="W149" s="47"/>
+      <c r="T149" s="48"/>
+      <c r="U149" s="48"/>
+      <c r="V149" s="48"/>
+      <c r="W149" s="48"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
+      <c r="A150" s="48"/>
+      <c r="B150" s="48"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
       <c r="G150" s="29"/>
-      <c r="H150" s="47" t="s">
+      <c r="H150" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I150" s="47"/>
+      <c r="I150" s="48"/>
       <c r="J150" s="29">
         <v>21</v>
       </c>
-      <c r="K150" s="47" t="s">
+      <c r="K150" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="L150" s="47"/>
-      <c r="M150" s="47"/>
-      <c r="N150" s="47"/>
-      <c r="O150" s="47"/>
-      <c r="P150" s="47"/>
-      <c r="Q150" s="47"/>
-      <c r="R150" s="47"/>
-      <c r="S150" s="47"/>
-      <c r="T150" s="47"/>
-      <c r="U150" s="47"/>
-      <c r="V150" s="47"/>
-      <c r="W150" s="47"/>
+      <c r="L150" s="48"/>
+      <c r="M150" s="48"/>
+      <c r="N150" s="48"/>
+      <c r="O150" s="48"/>
+      <c r="P150" s="48"/>
+      <c r="Q150" s="48"/>
+      <c r="R150" s="48"/>
+      <c r="S150" s="48"/>
+      <c r="T150" s="48"/>
+      <c r="U150" s="48"/>
+      <c r="V150" s="48"/>
+      <c r="W150" s="48"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
+      <c r="A151" s="48"/>
+      <c r="B151" s="48"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="48"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
       <c r="G151" s="29"/>
-      <c r="H151" s="47" t="s">
+      <c r="H151" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I151" s="47"/>
+      <c r="I151" s="48"/>
       <c r="J151" s="29">
         <v>31</v>
       </c>
-      <c r="K151" s="47" t="s">
+      <c r="K151" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="L151" s="47"/>
-      <c r="M151" s="47"/>
-      <c r="N151" s="47"/>
-      <c r="O151" s="47"/>
-      <c r="P151" s="47"/>
-      <c r="Q151" s="47"/>
-      <c r="R151" s="47"/>
-      <c r="S151" s="47"/>
-      <c r="T151" s="47"/>
-      <c r="U151" s="47"/>
-      <c r="V151" s="47"/>
-      <c r="W151" s="47"/>
+      <c r="L151" s="48"/>
+      <c r="M151" s="48"/>
+      <c r="N151" s="48"/>
+      <c r="O151" s="48"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="48"/>
+      <c r="R151" s="48"/>
+      <c r="S151" s="48"/>
+      <c r="T151" s="48"/>
+      <c r="U151" s="48"/>
+      <c r="V151" s="48"/>
+      <c r="W151" s="48"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
+      <c r="A152" s="48"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="48" t="s">
+      <c r="H152" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="I152" s="48"/>
+      <c r="I152" s="49"/>
       <c r="J152" s="29">
         <v>41</v>
       </c>
-      <c r="K152" s="47" t="s">
+      <c r="K152" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="L152" s="47"/>
-      <c r="M152" s="47"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="47"/>
-      <c r="Q152" s="47"/>
-      <c r="R152" s="47"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="47"/>
-      <c r="U152" s="47"/>
-      <c r="V152" s="47"/>
-      <c r="W152" s="47"/>
+      <c r="L152" s="48"/>
+      <c r="M152" s="48"/>
+      <c r="N152" s="48"/>
+      <c r="O152" s="48"/>
+      <c r="P152" s="48"/>
+      <c r="Q152" s="48"/>
+      <c r="R152" s="48"/>
+      <c r="S152" s="48"/>
+      <c r="T152" s="48"/>
+      <c r="U152" s="48"/>
+      <c r="V152" s="48"/>
+      <c r="W152" s="48"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="47"/>
+      <c r="A153" s="48"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="48"/>
       <c r="E153" s="28" t="s">
         <v>235</v>
       </c>
@@ -7761,128 +7799,128 @@
       <c r="G153" s="29">
         <v>41</v>
       </c>
-      <c r="H153" s="47" t="s">
+      <c r="H153" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="I153" s="47"/>
+      <c r="I153" s="48"/>
       <c r="J153" s="29">
         <v>11</v>
       </c>
-      <c r="K153" s="47" t="s">
+      <c r="K153" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="L153" s="47"/>
-      <c r="M153" s="47"/>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
-      <c r="P153" s="47"/>
-      <c r="Q153" s="47"/>
-      <c r="R153" s="47"/>
-      <c r="S153" s="47"/>
-      <c r="T153" s="47"/>
-      <c r="U153" s="47"/>
-      <c r="V153" s="47"/>
-      <c r="W153" s="47"/>
+      <c r="L153" s="48"/>
+      <c r="M153" s="48"/>
+      <c r="N153" s="48"/>
+      <c r="O153" s="48"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="48"/>
+      <c r="R153" s="48"/>
+      <c r="S153" s="48"/>
+      <c r="T153" s="48"/>
+      <c r="U153" s="48"/>
+      <c r="V153" s="48"/>
+      <c r="W153" s="48"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
+      <c r="A154" s="48"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="47" t="s">
+      <c r="H154" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I154" s="47"/>
+      <c r="I154" s="48"/>
       <c r="J154" s="29">
         <v>21</v>
       </c>
-      <c r="K154" s="47" t="s">
+      <c r="K154" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="L154" s="47"/>
-      <c r="M154" s="47"/>
-      <c r="N154" s="47"/>
-      <c r="O154" s="47"/>
-      <c r="P154" s="47"/>
-      <c r="Q154" s="47"/>
-      <c r="R154" s="47"/>
-      <c r="S154" s="47"/>
-      <c r="T154" s="47"/>
-      <c r="U154" s="47"/>
-      <c r="V154" s="47"/>
-      <c r="W154" s="47"/>
+      <c r="L154" s="48"/>
+      <c r="M154" s="48"/>
+      <c r="N154" s="48"/>
+      <c r="O154" s="48"/>
+      <c r="P154" s="48"/>
+      <c r="Q154" s="48"/>
+      <c r="R154" s="48"/>
+      <c r="S154" s="48"/>
+      <c r="T154" s="48"/>
+      <c r="U154" s="48"/>
+      <c r="V154" s="48"/>
+      <c r="W154" s="48"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="47"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
+      <c r="A155" s="48"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="29"/>
-      <c r="H155" s="47" t="s">
+      <c r="H155" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I155" s="47"/>
+      <c r="I155" s="48"/>
       <c r="J155" s="29">
         <v>31</v>
       </c>
-      <c r="K155" s="47" t="s">
+      <c r="K155" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="L155" s="47"/>
-      <c r="M155" s="47"/>
-      <c r="N155" s="47"/>
-      <c r="O155" s="47"/>
-      <c r="P155" s="47"/>
-      <c r="Q155" s="47"/>
-      <c r="R155" s="47"/>
-      <c r="S155" s="47"/>
-      <c r="T155" s="47"/>
-      <c r="U155" s="47"/>
-      <c r="V155" s="47"/>
-      <c r="W155" s="47"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="48"/>
+      <c r="N155" s="48"/>
+      <c r="O155" s="48"/>
+      <c r="P155" s="48"/>
+      <c r="Q155" s="48"/>
+      <c r="R155" s="48"/>
+      <c r="S155" s="48"/>
+      <c r="T155" s="48"/>
+      <c r="U155" s="48"/>
+      <c r="V155" s="48"/>
+      <c r="W155" s="48"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A156" s="47"/>
-      <c r="B156" s="47"/>
-      <c r="C156" s="47"/>
-      <c r="D156" s="47"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
+      <c r="A156" s="48"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="49"/>
       <c r="G156" s="29"/>
-      <c r="H156" s="48" t="s">
+      <c r="H156" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="I156" s="48"/>
+      <c r="I156" s="49"/>
       <c r="J156" s="29">
         <v>41</v>
       </c>
-      <c r="K156" s="47" t="s">
+      <c r="K156" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="L156" s="47"/>
-      <c r="M156" s="47"/>
-      <c r="N156" s="47"/>
-      <c r="O156" s="47"/>
-      <c r="P156" s="47"/>
-      <c r="Q156" s="47"/>
-      <c r="R156" s="47"/>
-      <c r="S156" s="47"/>
-      <c r="T156" s="47"/>
-      <c r="U156" s="47"/>
-      <c r="V156" s="47"/>
-      <c r="W156" s="47"/>
+      <c r="L156" s="48"/>
+      <c r="M156" s="48"/>
+      <c r="N156" s="48"/>
+      <c r="O156" s="48"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="48"/>
+      <c r="R156" s="48"/>
+      <c r="S156" s="48"/>
+      <c r="T156" s="48"/>
+      <c r="U156" s="48"/>
+      <c r="V156" s="48"/>
+      <c r="W156" s="48"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="59" t="s">
+      <c r="A157" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="59"/>
-      <c r="C157" s="59"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
       <c r="D157" s="29">
         <v>30</v>
       </c>
@@ -7891,189 +7929,194 @@
       <c r="G157" s="29">
         <v>10</v>
       </c>
-      <c r="H157" s="47" t="s">
+      <c r="H157" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="I157" s="47"/>
+      <c r="I157" s="48"/>
       <c r="J157" s="29">
         <v>11</v>
       </c>
-      <c r="K157" s="47" t="s">
+      <c r="K157" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="L157" s="47"/>
-      <c r="M157" s="47"/>
-      <c r="N157" s="47"/>
-      <c r="O157" s="47"/>
-      <c r="P157" s="47"/>
-      <c r="Q157" s="47"/>
-      <c r="R157" s="47"/>
-      <c r="S157" s="47"/>
-      <c r="T157" s="47"/>
-      <c r="U157" s="47"/>
-      <c r="V157" s="47"/>
-      <c r="W157" s="47"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="48"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="48"/>
+      <c r="P157" s="48"/>
+      <c r="Q157" s="48"/>
+      <c r="R157" s="48"/>
+      <c r="S157" s="48"/>
+      <c r="T157" s="48"/>
+      <c r="U157" s="48"/>
+      <c r="V157" s="48"/>
+      <c r="W157" s="48"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
+      <c r="A158" s="48"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="48" t="s">
+      <c r="H158" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="I158" s="48"/>
+      <c r="I158" s="49"/>
       <c r="J158" s="28">
         <v>21</v>
       </c>
-      <c r="K158" s="47" t="s">
+      <c r="K158" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="L158" s="47"/>
-      <c r="M158" s="47"/>
-      <c r="N158" s="47"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="47"/>
-      <c r="Q158" s="47"/>
-      <c r="R158" s="47"/>
-      <c r="S158" s="47"/>
-      <c r="T158" s="47"/>
-      <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
-      <c r="W158" s="47"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="48"/>
+      <c r="N158" s="48"/>
+      <c r="O158" s="48"/>
+      <c r="P158" s="48"/>
+      <c r="Q158" s="48"/>
+      <c r="R158" s="48"/>
+      <c r="S158" s="48"/>
+      <c r="T158" s="48"/>
+      <c r="U158" s="48"/>
+      <c r="V158" s="48"/>
+      <c r="W158" s="48"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
+      <c r="A159" s="48"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="48" t="s">
+      <c r="H159" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="I159" s="48"/>
+      <c r="I159" s="49"/>
       <c r="J159" s="28">
         <v>31</v>
       </c>
-      <c r="K159" s="47" t="s">
+      <c r="K159" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
-      <c r="O159" s="47"/>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="47"/>
-      <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
-      <c r="W159" s="47"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="48"/>
+      <c r="N159" s="48"/>
+      <c r="O159" s="48"/>
+      <c r="P159" s="48"/>
+      <c r="Q159" s="48"/>
+      <c r="R159" s="48"/>
+      <c r="S159" s="48"/>
+      <c r="T159" s="48"/>
+      <c r="U159" s="48"/>
+      <c r="V159" s="48"/>
+      <c r="W159" s="48"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
-      <c r="C160" s="47"/>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
+      <c r="A160" s="48"/>
+      <c r="B160" s="48"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="I160" s="48"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="28">
         <v>41</v>
       </c>
-      <c r="K160" s="47" t="s">
+      <c r="K160" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="L160" s="47"/>
-      <c r="M160" s="47"/>
-      <c r="N160" s="47"/>
-      <c r="O160" s="47"/>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47"/>
-      <c r="T160" s="47"/>
-      <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
-      <c r="W160" s="47"/>
+      <c r="L160" s="48"/>
+      <c r="M160" s="48"/>
+      <c r="N160" s="48"/>
+      <c r="O160" s="48"/>
+      <c r="P160" s="48"/>
+      <c r="Q160" s="48"/>
+      <c r="R160" s="48"/>
+      <c r="S160" s="48"/>
+      <c r="T160" s="48"/>
+      <c r="U160" s="48"/>
+      <c r="V160" s="48"/>
+      <c r="W160" s="48"/>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
-      <c r="C161" s="47"/>
-      <c r="D161" s="47"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="47"/>
+      <c r="A161" s="48"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
       <c r="G161" s="29"/>
-      <c r="H161" s="48" t="s">
+      <c r="H161" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I161" s="48"/>
+      <c r="I161" s="49"/>
       <c r="J161" s="28">
         <v>51</v>
       </c>
-      <c r="K161" s="47" t="s">
+      <c r="K161" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="L161" s="47"/>
-      <c r="M161" s="47"/>
-      <c r="N161" s="47"/>
-      <c r="O161" s="47"/>
-      <c r="P161" s="47"/>
-      <c r="Q161" s="47"/>
-      <c r="R161" s="47"/>
-      <c r="S161" s="47"/>
-      <c r="T161" s="47"/>
-      <c r="U161" s="47"/>
-      <c r="V161" s="47"/>
-      <c r="W161" s="47"/>
+      <c r="L161" s="48"/>
+      <c r="M161" s="48"/>
+      <c r="N161" s="48"/>
+      <c r="O161" s="48"/>
+      <c r="P161" s="48"/>
+      <c r="Q161" s="48"/>
+      <c r="R161" s="48"/>
+      <c r="S161" s="48"/>
+      <c r="T161" s="48"/>
+      <c r="U161" s="48"/>
+      <c r="V161" s="48"/>
+      <c r="W161" s="48"/>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
-      <c r="C162" s="47"/>
-      <c r="D162" s="47"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="47"/>
+      <c r="A162" s="48"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
       <c r="G162" s="29"/>
-      <c r="H162" s="48" t="s">
+      <c r="H162" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="I162" s="48"/>
+      <c r="I162" s="49"/>
       <c r="J162" s="28">
         <v>61</v>
       </c>
-      <c r="K162" s="47" t="s">
+      <c r="K162" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="L162" s="47"/>
-      <c r="M162" s="47"/>
-      <c r="N162" s="47"/>
-      <c r="O162" s="47"/>
-      <c r="P162" s="47"/>
-      <c r="Q162" s="47"/>
-      <c r="R162" s="47"/>
-      <c r="S162" s="47"/>
-      <c r="T162" s="47"/>
-      <c r="U162" s="47"/>
-      <c r="V162" s="47"/>
-      <c r="W162" s="47"/>
+      <c r="L162" s="48"/>
+      <c r="M162" s="48"/>
+      <c r="N162" s="48"/>
+      <c r="O162" s="48"/>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="48"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="48"/>
+      <c r="T162" s="48"/>
+      <c r="U162" s="48"/>
+      <c r="V162" s="48"/>
+      <c r="W162" s="48"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A166" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="S149:W162"/>
-    <mergeCell ref="S141:W148"/>
     <mergeCell ref="A136:D140"/>
     <mergeCell ref="A142:D156"/>
     <mergeCell ref="A158:F162"/>
@@ -8083,20 +8126,15 @@
     <mergeCell ref="E154:F156"/>
     <mergeCell ref="H161:I161"/>
     <mergeCell ref="H162:I162"/>
-    <mergeCell ref="K161:R161"/>
-    <mergeCell ref="K162:R162"/>
     <mergeCell ref="H139:I139"/>
     <mergeCell ref="H140:I140"/>
     <mergeCell ref="H141:I141"/>
-    <mergeCell ref="K154:R154"/>
     <mergeCell ref="H145:I145"/>
     <mergeCell ref="H146:I146"/>
     <mergeCell ref="H147:I147"/>
     <mergeCell ref="H148:I148"/>
     <mergeCell ref="H149:I149"/>
     <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
     <mergeCell ref="S134:W134"/>
     <mergeCell ref="S135:W138"/>
     <mergeCell ref="S139:W140"/>
@@ -8104,6 +8142,12 @@
     <mergeCell ref="H156:I156"/>
     <mergeCell ref="H157:I157"/>
     <mergeCell ref="H158:I158"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="S149:W162"/>
+    <mergeCell ref="S141:W148"/>
+    <mergeCell ref="K161:R161"/>
+    <mergeCell ref="K162:R162"/>
+    <mergeCell ref="K154:R154"/>
     <mergeCell ref="H159:I159"/>
     <mergeCell ref="H160:I160"/>
     <mergeCell ref="K155:R155"/>
@@ -8121,6 +8165,8 @@
     <mergeCell ref="K151:R151"/>
     <mergeCell ref="K152:R152"/>
     <mergeCell ref="K153:R153"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="B121:C121"/>
@@ -8278,27 +8324,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668325E7-D9E9-4EB1-98E8-4B77FBFD0880}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D3AE-EA7B-4ECD-8B36-2AF685B19998}">
   <dimension ref="B1:S80"/>
   <sheetViews>
@@ -8599,7 +8624,7 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -8613,12 +8638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D889C-6BC7-4AA6-B2AE-A17E32433E8E}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W58" sqref="W58"/>
+    <sheetView showGridLines="0" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8697,76 +8722,76 @@
       <c r="B19" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" s="44">
         <v>1</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="48">
         <v>6</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B22" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
@@ -8812,134 +8837,134 @@
       <c r="B34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="47">
-        <v>0</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47">
-        <v>0</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
+      <c r="C35" s="48">
+        <v>0</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
         <v>6</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="48">
         <v>1</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47">
-        <v>0</v>
-      </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48">
+        <v>0</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" s="13" t="s">
@@ -9013,73 +9038,73 @@
       <c r="B51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B55" s="14" t="s">
@@ -9095,76 +9120,130 @@
       <c r="B61" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="48"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B62" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="48"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>349</v>
       </c>
     </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B78" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B79" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B80" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:L34"/>
@@ -9174,8 +9253,6 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C62:U62"/>
-    <mergeCell ref="C61:U61"/>
     <mergeCell ref="C54:M54"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="F36:L36"/>
@@ -9190,6 +9267,11 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F38:L38"/>
     <mergeCell ref="F37:L37"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C62:U62"/>
+    <mergeCell ref="C61:U61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9197,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDCFC51-F329-4DF0-9957-672B6080BF8B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9228,12 +9310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
   <dimension ref="B1:Q218"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9669,17 +9751,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="49" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="N12" s="51"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9789,17 +9871,17 @@
       <c r="B26" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="33" t="s">
         <v>324</v>
       </c>
@@ -9808,17 +9890,17 @@
       <c r="B27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="33" t="s">
         <v>363</v>
       </c>
@@ -9827,17 +9909,17 @@
       <c r="B28" s="33">
         <v>1</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="33">
         <v>0</v>
       </c>
@@ -9846,17 +9928,17 @@
       <c r="B29" s="33">
         <v>2</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="G29" s="51"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="33">
         <v>5</v>
       </c>
@@ -9865,17 +9947,17 @@
       <c r="B30" s="33">
         <v>3</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="33">
         <v>10</v>
       </c>
@@ -9884,17 +9966,17 @@
       <c r="B31" s="33">
         <v>4</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="33">
         <v>5</v>
       </c>
@@ -9903,17 +9985,17 @@
       <c r="B32" s="33">
         <v>5</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="33">
         <v>10</v>
       </c>
@@ -9922,17 +10004,17 @@
       <c r="B33" s="33">
         <v>6</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="33">
         <v>5</v>
       </c>
@@ -9941,17 +10023,17 @@
       <c r="B34" s="33">
         <v>7</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="G34" s="51"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="33">
         <v>10</v>
       </c>
@@ -9960,17 +10042,17 @@
       <c r="B35" s="33">
         <v>8</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="51"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="33">
         <v>20</v>
       </c>
@@ -9989,193 +10071,193 @@
       <c r="B39" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="G40" s="48"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="37">
         <v>1</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="48">
         <v>1</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="37">
         <v>2</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="48">
         <v>1</v>
       </c>
-      <c r="G42" s="47"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="37">
         <v>3</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="48">
         <v>2</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="37">
         <v>4</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="48">
         <v>2</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="37">
         <v>5</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="48">
         <v>2</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="37">
         <v>6</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="48">
         <v>3</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="37">
         <v>7</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="61"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="48">
         <v>3</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="37">
         <v>8</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="61"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="48">
         <v>3</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="37">
         <v>9</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="61"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="48">
         <v>3</v>
       </c>
-      <c r="G49" s="47"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="37">
         <v>10</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="61"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="F50" s="47">
+      <c r="F50" s="48">
         <v>3</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
@@ -10348,14 +10430,14 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47" t="s">
+      <c r="C67" s="48"/>
+      <c r="D67" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="32" t="s">
         <v>342</v>
       </c>
@@ -10370,14 +10452,14 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="32" t="s">
         <v>343</v>
       </c>
@@ -10392,14 +10474,14 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="47">
+      <c r="B69" s="48">
         <v>1</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="32" t="s">
         <v>344</v>
       </c>
@@ -10414,14 +10496,14 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B70" s="47">
+      <c r="B70" s="48">
         <v>2</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47" t="s">
+      <c r="C70" s="48"/>
+      <c r="D70" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="E70" s="47"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="32" t="s">
         <v>345</v>
       </c>
@@ -10436,14 +10518,14 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B71" s="47">
+      <c r="B71" s="48">
         <v>3</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47" t="s">
+      <c r="C71" s="48"/>
+      <c r="D71" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="E71" s="47"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="32" t="s">
         <v>346</v>
       </c>
@@ -12025,14 +12107,14 @@
       <c r="E132" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F132" s="47" t="s">
+      <c r="F132" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47" t="s">
+      <c r="G132" s="48"/>
+      <c r="H132" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="I132" s="47"/>
+      <c r="I132" s="48"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B133" s="42" t="s">
@@ -12047,14 +12129,14 @@
       <c r="E133" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="F133" s="47" t="s">
+      <c r="F133" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47" t="s">
+      <c r="G133" s="48"/>
+      <c r="H133" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="47"/>
+      <c r="I133" s="48"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B134" s="42">
@@ -12069,14 +12151,14 @@
       <c r="E134" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F134" s="47">
+      <c r="F134" s="48">
         <v>3</v>
       </c>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47">
+      <c r="G134" s="48"/>
+      <c r="H134" s="48">
         <v>6</v>
       </c>
-      <c r="I134" s="47"/>
+      <c r="I134" s="48"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B135" s="42">
@@ -12091,14 +12173,14 @@
       <c r="E135" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F135" s="47">
+      <c r="F135" s="48">
         <v>3</v>
       </c>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47">
+      <c r="G135" s="48"/>
+      <c r="H135" s="48">
         <v>6</v>
       </c>
-      <c r="I135" s="47"/>
+      <c r="I135" s="48"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B136" s="42">
@@ -12113,14 +12195,14 @@
       <c r="E136" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F136" s="47">
+      <c r="F136" s="48">
         <v>3</v>
       </c>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47">
+      <c r="G136" s="48"/>
+      <c r="H136" s="48">
         <v>6</v>
       </c>
-      <c r="I136" s="47"/>
+      <c r="I136" s="48"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B137" s="42">
@@ -12135,14 +12217,14 @@
       <c r="E137" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F137" s="47">
+      <c r="F137" s="48">
         <v>3</v>
       </c>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47">
+      <c r="G137" s="48"/>
+      <c r="H137" s="48">
         <v>6</v>
       </c>
-      <c r="I137" s="47"/>
+      <c r="I137" s="48"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B138" s="42">
@@ -12157,14 +12239,14 @@
       <c r="E138" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F138" s="47">
+      <c r="F138" s="48">
         <v>3</v>
       </c>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47">
+      <c r="G138" s="48"/>
+      <c r="H138" s="48">
         <v>6</v>
       </c>
-      <c r="I138" s="47"/>
+      <c r="I138" s="48"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B139" s="42">
@@ -12179,14 +12261,14 @@
       <c r="E139" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F139" s="47">
+      <c r="F139" s="48">
         <v>3</v>
       </c>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47">
+      <c r="G139" s="48"/>
+      <c r="H139" s="48">
         <v>6</v>
       </c>
-      <c r="I139" s="47"/>
+      <c r="I139" s="48"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B140" s="42">
@@ -12201,14 +12283,14 @@
       <c r="E140" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F140" s="47">
+      <c r="F140" s="48">
         <v>3</v>
       </c>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47">
+      <c r="G140" s="48"/>
+      <c r="H140" s="48">
         <v>6</v>
       </c>
-      <c r="I140" s="47"/>
+      <c r="I140" s="48"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B141" s="42">
@@ -12223,14 +12305,14 @@
       <c r="E141" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F141" s="47">
+      <c r="F141" s="48">
         <v>3</v>
       </c>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47">
+      <c r="G141" s="48"/>
+      <c r="H141" s="48">
         <v>6</v>
       </c>
-      <c r="I141" s="47"/>
+      <c r="I141" s="48"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B142" s="42">
@@ -12245,14 +12327,14 @@
       <c r="E142" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F142" s="47">
+      <c r="F142" s="48">
         <v>3</v>
       </c>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47">
+      <c r="G142" s="48"/>
+      <c r="H142" s="48">
         <v>6</v>
       </c>
-      <c r="I142" s="47"/>
+      <c r="I142" s="48"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B143" s="42">
@@ -12267,14 +12349,14 @@
       <c r="E143" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F143" s="47">
+      <c r="F143" s="48">
         <v>3</v>
       </c>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47">
+      <c r="G143" s="48"/>
+      <c r="H143" s="48">
         <v>6</v>
       </c>
-      <c r="I143" s="47"/>
+      <c r="I143" s="48"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B144" s="42">
@@ -12289,14 +12371,14 @@
       <c r="E144" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F144" s="47">
+      <c r="F144" s="48">
         <v>3</v>
       </c>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47">
+      <c r="G144" s="48"/>
+      <c r="H144" s="48">
         <v>6</v>
       </c>
-      <c r="I144" s="47"/>
+      <c r="I144" s="48"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B145" s="42">
@@ -12311,14 +12393,14 @@
       <c r="E145" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F145" s="47">
+      <c r="F145" s="48">
         <v>3</v>
       </c>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47">
+      <c r="G145" s="48"/>
+      <c r="H145" s="48">
         <v>6</v>
       </c>
-      <c r="I145" s="47"/>
+      <c r="I145" s="48"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B146" s="42">
@@ -12333,14 +12415,14 @@
       <c r="E146" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F146" s="47">
+      <c r="F146" s="48">
         <v>3</v>
       </c>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47">
+      <c r="G146" s="48"/>
+      <c r="H146" s="48">
         <v>6</v>
       </c>
-      <c r="I146" s="47"/>
+      <c r="I146" s="48"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B147" s="42">
@@ -12355,14 +12437,14 @@
       <c r="E147" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F147" s="47">
+      <c r="F147" s="48">
         <v>3</v>
       </c>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47">
+      <c r="G147" s="48"/>
+      <c r="H147" s="48">
         <v>6</v>
       </c>
-      <c r="I147" s="47"/>
+      <c r="I147" s="48"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B148" s="42">
@@ -12377,14 +12459,14 @@
       <c r="E148" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F148" s="47">
+      <c r="F148" s="48">
         <v>3</v>
       </c>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47">
+      <c r="G148" s="48"/>
+      <c r="H148" s="48">
         <v>6</v>
       </c>
-      <c r="I148" s="47"/>
+      <c r="I148" s="48"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B149" s="42">
@@ -12399,14 +12481,14 @@
       <c r="E149" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F149" s="47">
+      <c r="F149" s="48">
         <v>3</v>
       </c>
-      <c r="G149" s="47"/>
-      <c r="H149" s="47">
+      <c r="G149" s="48"/>
+      <c r="H149" s="48">
         <v>8</v>
       </c>
-      <c r="I149" s="47"/>
+      <c r="I149" s="48"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B150" s="42">
@@ -12421,14 +12503,14 @@
       <c r="E150" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F150" s="47">
+      <c r="F150" s="48">
         <v>3</v>
       </c>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47">
+      <c r="G150" s="48"/>
+      <c r="H150" s="48">
         <v>8</v>
       </c>
-      <c r="I150" s="47"/>
+      <c r="I150" s="48"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B151" s="42">
@@ -12443,14 +12525,14 @@
       <c r="E151" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F151" s="47">
+      <c r="F151" s="48">
         <v>3</v>
       </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47">
+      <c r="G151" s="48"/>
+      <c r="H151" s="48">
         <v>8</v>
       </c>
-      <c r="I151" s="47"/>
+      <c r="I151" s="48"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B152" s="42">
@@ -12465,14 +12547,14 @@
       <c r="E152" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F152" s="47">
+      <c r="F152" s="48">
         <v>3</v>
       </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47">
+      <c r="G152" s="48"/>
+      <c r="H152" s="48">
         <v>8</v>
       </c>
-      <c r="I152" s="47"/>
+      <c r="I152" s="48"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B153" s="42">
@@ -12487,14 +12569,14 @@
       <c r="E153" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F153" s="47">
+      <c r="F153" s="48">
         <v>3</v>
       </c>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47">
+      <c r="G153" s="48"/>
+      <c r="H153" s="48">
         <v>8</v>
       </c>
-      <c r="I153" s="47"/>
+      <c r="I153" s="48"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B154" s="42">
@@ -12509,14 +12591,14 @@
       <c r="E154" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F154" s="47">
+      <c r="F154" s="48">
         <v>5</v>
       </c>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47">
+      <c r="G154" s="48"/>
+      <c r="H154" s="48">
         <v>8</v>
       </c>
-      <c r="I154" s="47"/>
+      <c r="I154" s="48"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B155" s="42">
@@ -12531,14 +12613,14 @@
       <c r="E155" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F155" s="47">
+      <c r="F155" s="48">
         <v>5</v>
       </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47">
+      <c r="G155" s="48"/>
+      <c r="H155" s="48">
         <v>8</v>
       </c>
-      <c r="I155" s="47"/>
+      <c r="I155" s="48"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B156" s="42">
@@ -12553,14 +12635,14 @@
       <c r="E156" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F156" s="47">
+      <c r="F156" s="48">
         <v>5</v>
       </c>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47">
+      <c r="G156" s="48"/>
+      <c r="H156" s="48">
         <v>8</v>
       </c>
-      <c r="I156" s="47"/>
+      <c r="I156" s="48"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B157" s="42">
@@ -12575,14 +12657,14 @@
       <c r="E157" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F157" s="47">
+      <c r="F157" s="48">
         <v>5</v>
       </c>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47">
+      <c r="G157" s="48"/>
+      <c r="H157" s="48">
         <v>8</v>
       </c>
-      <c r="I157" s="47"/>
+      <c r="I157" s="48"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B158" s="42">
@@ -12597,14 +12679,14 @@
       <c r="E158" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F158" s="47">
+      <c r="F158" s="48">
         <v>5</v>
       </c>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47">
+      <c r="G158" s="48"/>
+      <c r="H158" s="48">
         <v>8</v>
       </c>
-      <c r="I158" s="47"/>
+      <c r="I158" s="48"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B159" s="42">
@@ -12619,14 +12701,14 @@
       <c r="E159" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F159" s="47">
+      <c r="F159" s="48">
         <v>5</v>
       </c>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47">
+      <c r="G159" s="48"/>
+      <c r="H159" s="48">
         <v>8</v>
       </c>
-      <c r="I159" s="47"/>
+      <c r="I159" s="48"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B160" s="42">
@@ -12641,14 +12723,14 @@
       <c r="E160" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F160" s="47">
+      <c r="F160" s="48">
         <v>5</v>
       </c>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47">
+      <c r="G160" s="48"/>
+      <c r="H160" s="48">
         <v>8</v>
       </c>
-      <c r="I160" s="47"/>
+      <c r="I160" s="48"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B161" s="42">
@@ -12663,14 +12745,14 @@
       <c r="E161" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F161" s="47">
+      <c r="F161" s="48">
         <v>5</v>
       </c>
-      <c r="G161" s="47"/>
-      <c r="H161" s="47">
+      <c r="G161" s="48"/>
+      <c r="H161" s="48">
         <v>8</v>
       </c>
-      <c r="I161" s="47"/>
+      <c r="I161" s="48"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B162" s="42">
@@ -12685,14 +12767,14 @@
       <c r="E162" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F162" s="47">
+      <c r="F162" s="48">
         <v>5</v>
       </c>
-      <c r="G162" s="47"/>
-      <c r="H162" s="47">
+      <c r="G162" s="48"/>
+      <c r="H162" s="48">
         <v>8</v>
       </c>
-      <c r="I162" s="47"/>
+      <c r="I162" s="48"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B163" s="42">
@@ -12707,14 +12789,14 @@
       <c r="E163" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F163" s="47">
+      <c r="F163" s="48">
         <v>5</v>
       </c>
-      <c r="G163" s="47"/>
-      <c r="H163" s="47">
+      <c r="G163" s="48"/>
+      <c r="H163" s="48">
         <v>8</v>
       </c>
-      <c r="I163" s="47"/>
+      <c r="I163" s="48"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B164" s="42">
@@ -12729,14 +12811,14 @@
       <c r="E164" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F164" s="47">
+      <c r="F164" s="48">
         <v>5</v>
       </c>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47">
+      <c r="G164" s="48"/>
+      <c r="H164" s="48">
         <v>10</v>
       </c>
-      <c r="I164" s="47"/>
+      <c r="I164" s="48"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B165" s="42">
@@ -12751,14 +12833,14 @@
       <c r="E165" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F165" s="47">
+      <c r="F165" s="48">
         <v>5</v>
       </c>
-      <c r="G165" s="47"/>
-      <c r="H165" s="47">
+      <c r="G165" s="48"/>
+      <c r="H165" s="48">
         <v>10</v>
       </c>
-      <c r="I165" s="47"/>
+      <c r="I165" s="48"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B166" s="42">
@@ -12773,14 +12855,14 @@
       <c r="E166" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F166" s="47">
+      <c r="F166" s="48">
         <v>5</v>
       </c>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47">
+      <c r="G166" s="48"/>
+      <c r="H166" s="48">
         <v>10</v>
       </c>
-      <c r="I166" s="47"/>
+      <c r="I166" s="48"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B167" s="42">
@@ -12795,14 +12877,14 @@
       <c r="E167" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F167" s="47">
+      <c r="F167" s="48">
         <v>5</v>
       </c>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47">
+      <c r="G167" s="48"/>
+      <c r="H167" s="48">
         <v>10</v>
       </c>
-      <c r="I167" s="47"/>
+      <c r="I167" s="48"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B168" s="42">
@@ -12817,14 +12899,14 @@
       <c r="E168" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F168" s="47">
+      <c r="F168" s="48">
         <v>5</v>
       </c>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47">
+      <c r="G168" s="48"/>
+      <c r="H168" s="48">
         <v>10</v>
       </c>
-      <c r="I168" s="47"/>
+      <c r="I168" s="48"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B169" s="42">
@@ -12839,14 +12921,14 @@
       <c r="E169" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F169" s="47">
+      <c r="F169" s="48">
         <v>3</v>
       </c>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47">
+      <c r="G169" s="48"/>
+      <c r="H169" s="48">
         <v>10</v>
       </c>
-      <c r="I169" s="47"/>
+      <c r="I169" s="48"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B170" s="42">
@@ -12861,14 +12943,14 @@
       <c r="E170" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F170" s="47">
+      <c r="F170" s="48">
         <v>5</v>
       </c>
-      <c r="G170" s="47"/>
-      <c r="H170" s="47">
+      <c r="G170" s="48"/>
+      <c r="H170" s="48">
         <v>10</v>
       </c>
-      <c r="I170" s="47"/>
+      <c r="I170" s="48"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B171" s="42">
@@ -12883,14 +12965,14 @@
       <c r="E171" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F171" s="47">
+      <c r="F171" s="48">
         <v>3</v>
       </c>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47">
+      <c r="G171" s="48"/>
+      <c r="H171" s="48">
         <v>10</v>
       </c>
-      <c r="I171" s="47"/>
+      <c r="I171" s="48"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B172" s="42">
@@ -12905,14 +12987,14 @@
       <c r="E172" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F172" s="47">
+      <c r="F172" s="48">
         <v>5</v>
       </c>
-      <c r="G172" s="47"/>
-      <c r="H172" s="47">
+      <c r="G172" s="48"/>
+      <c r="H172" s="48">
         <v>10</v>
       </c>
-      <c r="I172" s="47"/>
+      <c r="I172" s="48"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B173" s="42">
@@ -12927,14 +13009,14 @@
       <c r="E173" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F173" s="47">
+      <c r="F173" s="48">
         <v>3</v>
       </c>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47">
+      <c r="G173" s="48"/>
+      <c r="H173" s="48">
         <v>10</v>
       </c>
-      <c r="I173" s="47"/>
+      <c r="I173" s="48"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B174" s="42">
@@ -12949,14 +13031,14 @@
       <c r="E174" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F174" s="47">
+      <c r="F174" s="48">
         <v>3</v>
       </c>
-      <c r="G174" s="47"/>
-      <c r="H174" s="47">
+      <c r="G174" s="48"/>
+      <c r="H174" s="48">
         <v>9</v>
       </c>
-      <c r="I174" s="47"/>
+      <c r="I174" s="48"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B175" s="42">
@@ -12971,14 +13053,14 @@
       <c r="E175" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F175" s="47">
+      <c r="F175" s="48">
         <v>5</v>
       </c>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47">
+      <c r="G175" s="48"/>
+      <c r="H175" s="48">
         <v>9</v>
       </c>
-      <c r="I175" s="47"/>
+      <c r="I175" s="48"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B176" s="42">
@@ -12993,14 +13075,14 @@
       <c r="E176" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F176" s="47">
+      <c r="F176" s="48">
         <v>5</v>
       </c>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47">
+      <c r="G176" s="48"/>
+      <c r="H176" s="48">
         <v>9</v>
       </c>
-      <c r="I176" s="47"/>
+      <c r="I176" s="48"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B177" s="42">
@@ -13015,14 +13097,14 @@
       <c r="E177" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F177" s="47">
+      <c r="F177" s="48">
         <v>3</v>
       </c>
-      <c r="G177" s="47"/>
-      <c r="H177" s="47">
+      <c r="G177" s="48"/>
+      <c r="H177" s="48">
         <v>9</v>
       </c>
-      <c r="I177" s="47"/>
+      <c r="I177" s="48"/>
     </row>
     <row r="178" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B178" s="42">
@@ -13037,14 +13119,14 @@
       <c r="E178" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F178" s="47">
+      <c r="F178" s="48">
         <v>5</v>
       </c>
-      <c r="G178" s="47"/>
-      <c r="H178" s="47">
+      <c r="G178" s="48"/>
+      <c r="H178" s="48">
         <v>9</v>
       </c>
-      <c r="I178" s="47"/>
+      <c r="I178" s="48"/>
     </row>
     <row r="179" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B179" s="42">
@@ -13059,14 +13141,14 @@
       <c r="E179" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F179" s="47">
+      <c r="F179" s="48">
         <v>3</v>
       </c>
-      <c r="G179" s="47"/>
-      <c r="H179" s="47">
+      <c r="G179" s="48"/>
+      <c r="H179" s="48">
         <v>9</v>
       </c>
-      <c r="I179" s="47"/>
+      <c r="I179" s="48"/>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B180" s="42">
@@ -13081,14 +13163,14 @@
       <c r="E180" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F180" s="47">
+      <c r="F180" s="48">
         <v>5</v>
       </c>
-      <c r="G180" s="47"/>
-      <c r="H180" s="47">
+      <c r="G180" s="48"/>
+      <c r="H180" s="48">
         <v>9</v>
       </c>
-      <c r="I180" s="47"/>
+      <c r="I180" s="48"/>
     </row>
     <row r="181" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B181" s="42">
@@ -13103,14 +13185,14 @@
       <c r="E181" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F181" s="47">
+      <c r="F181" s="48">
         <v>3</v>
       </c>
-      <c r="G181" s="47"/>
-      <c r="H181" s="47">
+      <c r="G181" s="48"/>
+      <c r="H181" s="48">
         <v>9</v>
       </c>
-      <c r="I181" s="47"/>
+      <c r="I181" s="48"/>
     </row>
     <row r="182" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B182" s="42">
@@ -13125,14 +13207,14 @@
       <c r="E182" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="F182" s="47">
+      <c r="F182" s="48">
         <v>3</v>
       </c>
-      <c r="G182" s="47"/>
-      <c r="H182" s="47">
+      <c r="G182" s="48"/>
+      <c r="H182" s="48">
         <v>9</v>
       </c>
-      <c r="I182" s="47"/>
+      <c r="I182" s="48"/>
     </row>
     <row r="183" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B183" s="42">
@@ -13147,28 +13229,28 @@
       <c r="E183" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="F183" s="47">
+      <c r="F183" s="48">
         <v>5</v>
       </c>
-      <c r="G183" s="47"/>
-      <c r="H183" s="47">
+      <c r="G183" s="48"/>
+      <c r="H183" s="48">
         <v>9</v>
       </c>
-      <c r="I183" s="47"/>
+      <c r="I183" s="48"/>
     </row>
     <row r="184" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="D184" s="60" t="s">
+      <c r="D184" s="61" t="s">
         <v>484</v>
       </c>
-      <c r="E184" s="60"/>
-      <c r="F184" s="60" t="s">
+      <c r="E184" s="61"/>
+      <c r="F184" s="61" t="s">
         <v>485</v>
       </c>
-      <c r="G184" s="60"/>
-      <c r="H184" s="60" t="s">
+      <c r="G184" s="61"/>
+      <c r="H184" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="I184" s="60"/>
+      <c r="I184" s="61"/>
     </row>
     <row r="188" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B188" s="45" t="s">
@@ -13189,22 +13271,22 @@
       <c r="G188" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="H188" s="47" t="s">
+      <c r="H188" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I188" s="47"/>
+      <c r="I188" s="48"/>
       <c r="J188" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="K188" s="47" t="s">
+      <c r="K188" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="L188" s="47"/>
-      <c r="M188" s="47"/>
-      <c r="N188" s="47"/>
-      <c r="O188" s="47"/>
-      <c r="P188" s="47"/>
-      <c r="Q188" s="47"/>
+      <c r="L188" s="48"/>
+      <c r="M188" s="48"/>
+      <c r="N188" s="48"/>
+      <c r="O188" s="48"/>
+      <c r="P188" s="48"/>
+      <c r="Q188" s="48"/>
     </row>
     <row r="189" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B189" s="45" t="s">
@@ -13225,22 +13307,22 @@
       <c r="G189" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="H189" s="47" t="s">
+      <c r="H189" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="I189" s="47"/>
+      <c r="I189" s="48"/>
       <c r="J189" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="K189" s="47" t="s">
+      <c r="K189" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L189" s="47"/>
-      <c r="M189" s="47"/>
-      <c r="N189" s="47"/>
-      <c r="O189" s="47"/>
-      <c r="P189" s="47"/>
-      <c r="Q189" s="47"/>
+      <c r="L189" s="48"/>
+      <c r="M189" s="48"/>
+      <c r="N189" s="48"/>
+      <c r="O189" s="48"/>
+      <c r="P189" s="48"/>
+      <c r="Q189" s="48"/>
     </row>
     <row r="190" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B190" s="45">
@@ -13261,22 +13343,22 @@
       <c r="G190" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H190" s="47" t="s">
+      <c r="H190" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I190" s="47"/>
+      <c r="I190" s="48"/>
       <c r="J190" s="45">
         <v>10</v>
       </c>
-      <c r="K190" s="47" t="s">
+      <c r="K190" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="L190" s="47"/>
-      <c r="M190" s="47"/>
-      <c r="N190" s="47"/>
-      <c r="O190" s="47"/>
-      <c r="P190" s="47"/>
-      <c r="Q190" s="47"/>
+      <c r="L190" s="48"/>
+      <c r="M190" s="48"/>
+      <c r="N190" s="48"/>
+      <c r="O190" s="48"/>
+      <c r="P190" s="48"/>
+      <c r="Q190" s="48"/>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B191" s="45">
@@ -13297,22 +13379,22 @@
       <c r="G191" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H191" s="47" t="s">
+      <c r="H191" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I191" s="47"/>
+      <c r="I191" s="48"/>
       <c r="J191" s="45">
         <v>-7</v>
       </c>
-      <c r="K191" s="47" t="s">
+      <c r="K191" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="L191" s="47"/>
-      <c r="M191" s="47"/>
-      <c r="N191" s="47"/>
-      <c r="O191" s="47"/>
-      <c r="P191" s="47"/>
-      <c r="Q191" s="47"/>
+      <c r="L191" s="48"/>
+      <c r="M191" s="48"/>
+      <c r="N191" s="48"/>
+      <c r="O191" s="48"/>
+      <c r="P191" s="48"/>
+      <c r="Q191" s="48"/>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B192" s="45">
@@ -13333,22 +13415,22 @@
       <c r="G192" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H192" s="47" t="s">
+      <c r="H192" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="I192" s="47"/>
+      <c r="I192" s="48"/>
       <c r="J192" s="45">
         <v>5</v>
       </c>
-      <c r="K192" s="47" t="s">
+      <c r="K192" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="L192" s="47"/>
-      <c r="M192" s="47"/>
-      <c r="N192" s="47"/>
-      <c r="O192" s="47"/>
-      <c r="P192" s="47"/>
-      <c r="Q192" s="47"/>
+      <c r="L192" s="48"/>
+      <c r="M192" s="48"/>
+      <c r="N192" s="48"/>
+      <c r="O192" s="48"/>
+      <c r="P192" s="48"/>
+      <c r="Q192" s="48"/>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B193" s="45">
@@ -13369,22 +13451,22 @@
       <c r="G193" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H193" s="47" t="s">
+      <c r="H193" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="I193" s="47"/>
+      <c r="I193" s="48"/>
       <c r="J193" s="45">
         <v>-5</v>
       </c>
-      <c r="K193" s="47" t="s">
+      <c r="K193" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="L193" s="47"/>
-      <c r="M193" s="47"/>
-      <c r="N193" s="47"/>
-      <c r="O193" s="47"/>
-      <c r="P193" s="47"/>
-      <c r="Q193" s="47"/>
+      <c r="L193" s="48"/>
+      <c r="M193" s="48"/>
+      <c r="N193" s="48"/>
+      <c r="O193" s="48"/>
+      <c r="P193" s="48"/>
+      <c r="Q193" s="48"/>
     </row>
     <row r="194" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B194" s="45">
@@ -13405,22 +13487,22 @@
       <c r="G194" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H194" s="47" t="s">
+      <c r="H194" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I194" s="47"/>
+      <c r="I194" s="48"/>
       <c r="J194" s="45">
         <v>10</v>
       </c>
-      <c r="K194" s="47" t="s">
+      <c r="K194" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="L194" s="47"/>
-      <c r="M194" s="47"/>
-      <c r="N194" s="47"/>
-      <c r="O194" s="47"/>
-      <c r="P194" s="47"/>
-      <c r="Q194" s="47"/>
+      <c r="L194" s="48"/>
+      <c r="M194" s="48"/>
+      <c r="N194" s="48"/>
+      <c r="O194" s="48"/>
+      <c r="P194" s="48"/>
+      <c r="Q194" s="48"/>
     </row>
     <row r="195" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B195" s="45">
@@ -13441,22 +13523,22 @@
       <c r="G195" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H195" s="47" t="s">
+      <c r="H195" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I195" s="47"/>
+      <c r="I195" s="48"/>
       <c r="J195" s="45">
         <v>-10</v>
       </c>
-      <c r="K195" s="47" t="s">
+      <c r="K195" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="L195" s="47"/>
-      <c r="M195" s="47"/>
-      <c r="N195" s="47"/>
-      <c r="O195" s="47"/>
-      <c r="P195" s="47"/>
-      <c r="Q195" s="47"/>
+      <c r="L195" s="48"/>
+      <c r="M195" s="48"/>
+      <c r="N195" s="48"/>
+      <c r="O195" s="48"/>
+      <c r="P195" s="48"/>
+      <c r="Q195" s="48"/>
     </row>
     <row r="196" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B196" s="45">
@@ -13477,22 +13559,22 @@
       <c r="G196" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H196" s="47" t="s">
+      <c r="H196" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I196" s="47"/>
+      <c r="I196" s="48"/>
       <c r="J196" s="45">
         <v>13</v>
       </c>
-      <c r="K196" s="47" t="s">
+      <c r="K196" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="L196" s="47"/>
-      <c r="M196" s="47"/>
-      <c r="N196" s="47"/>
-      <c r="O196" s="47"/>
-      <c r="P196" s="47"/>
-      <c r="Q196" s="47"/>
+      <c r="L196" s="48"/>
+      <c r="M196" s="48"/>
+      <c r="N196" s="48"/>
+      <c r="O196" s="48"/>
+      <c r="P196" s="48"/>
+      <c r="Q196" s="48"/>
     </row>
     <row r="197" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B197" s="45">
@@ -13513,22 +13595,22 @@
       <c r="G197" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H197" s="47" t="s">
+      <c r="H197" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I197" s="47"/>
+      <c r="I197" s="48"/>
       <c r="J197" s="45">
         <v>13</v>
       </c>
-      <c r="K197" s="47" t="s">
+      <c r="K197" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="L197" s="47"/>
-      <c r="M197" s="47"/>
-      <c r="N197" s="47"/>
-      <c r="O197" s="47"/>
-      <c r="P197" s="47"/>
-      <c r="Q197" s="47"/>
+      <c r="L197" s="48"/>
+      <c r="M197" s="48"/>
+      <c r="N197" s="48"/>
+      <c r="O197" s="48"/>
+      <c r="P197" s="48"/>
+      <c r="Q197" s="48"/>
     </row>
     <row r="198" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B198" s="45">
@@ -13549,22 +13631,22 @@
       <c r="G198" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H198" s="47" t="s">
+      <c r="H198" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I198" s="47"/>
+      <c r="I198" s="48"/>
       <c r="J198" s="45">
         <v>13</v>
       </c>
-      <c r="K198" s="47" t="s">
+      <c r="K198" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="L198" s="47"/>
-      <c r="M198" s="47"/>
-      <c r="N198" s="47"/>
-      <c r="O198" s="47"/>
-      <c r="P198" s="47"/>
-      <c r="Q198" s="47"/>
+      <c r="L198" s="48"/>
+      <c r="M198" s="48"/>
+      <c r="N198" s="48"/>
+      <c r="O198" s="48"/>
+      <c r="P198" s="48"/>
+      <c r="Q198" s="48"/>
     </row>
     <row r="199" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B199" s="45">
@@ -13585,22 +13667,22 @@
       <c r="G199" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H199" s="47" t="s">
+      <c r="H199" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I199" s="47"/>
+      <c r="I199" s="48"/>
       <c r="J199" s="45">
         <v>13</v>
       </c>
-      <c r="K199" s="47" t="s">
+      <c r="K199" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="L199" s="47"/>
-      <c r="M199" s="47"/>
-      <c r="N199" s="47"/>
-      <c r="O199" s="47"/>
-      <c r="P199" s="47"/>
-      <c r="Q199" s="47"/>
+      <c r="L199" s="48"/>
+      <c r="M199" s="48"/>
+      <c r="N199" s="48"/>
+      <c r="O199" s="48"/>
+      <c r="P199" s="48"/>
+      <c r="Q199" s="48"/>
     </row>
     <row r="200" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B200" s="45">
@@ -13621,22 +13703,22 @@
       <c r="G200" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H200" s="47" t="s">
+      <c r="H200" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I200" s="47"/>
+      <c r="I200" s="48"/>
       <c r="J200" s="45">
         <v>-10</v>
       </c>
-      <c r="K200" s="47" t="s">
+      <c r="K200" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="L200" s="47"/>
-      <c r="M200" s="47"/>
-      <c r="N200" s="47"/>
-      <c r="O200" s="47"/>
-      <c r="P200" s="47"/>
-      <c r="Q200" s="47"/>
+      <c r="L200" s="48"/>
+      <c r="M200" s="48"/>
+      <c r="N200" s="48"/>
+      <c r="O200" s="48"/>
+      <c r="P200" s="48"/>
+      <c r="Q200" s="48"/>
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B201" s="45">
@@ -13657,22 +13739,22 @@
       <c r="G201" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H201" s="47" t="s">
+      <c r="H201" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I201" s="47"/>
+      <c r="I201" s="48"/>
       <c r="J201" s="45">
         <v>-10</v>
       </c>
-      <c r="K201" s="47" t="s">
+      <c r="K201" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="L201" s="47"/>
-      <c r="M201" s="47"/>
-      <c r="N201" s="47"/>
-      <c r="O201" s="47"/>
-      <c r="P201" s="47"/>
-      <c r="Q201" s="47"/>
+      <c r="L201" s="48"/>
+      <c r="M201" s="48"/>
+      <c r="N201" s="48"/>
+      <c r="O201" s="48"/>
+      <c r="P201" s="48"/>
+      <c r="Q201" s="48"/>
     </row>
     <row r="202" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B202" s="45">
@@ -13693,22 +13775,22 @@
       <c r="G202" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H202" s="47" t="s">
+      <c r="H202" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I202" s="47"/>
+      <c r="I202" s="48"/>
       <c r="J202" s="45">
         <v>-10</v>
       </c>
-      <c r="K202" s="47" t="s">
+      <c r="K202" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="L202" s="47"/>
-      <c r="M202" s="47"/>
-      <c r="N202" s="47"/>
-      <c r="O202" s="47"/>
-      <c r="P202" s="47"/>
-      <c r="Q202" s="47"/>
+      <c r="L202" s="48"/>
+      <c r="M202" s="48"/>
+      <c r="N202" s="48"/>
+      <c r="O202" s="48"/>
+      <c r="P202" s="48"/>
+      <c r="Q202" s="48"/>
     </row>
     <row r="203" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B203" s="45">
@@ -13729,22 +13811,22 @@
       <c r="G203" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H203" s="47" t="s">
+      <c r="H203" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="I203" s="47"/>
+      <c r="I203" s="48"/>
       <c r="J203" s="45">
         <v>-10</v>
       </c>
-      <c r="K203" s="47" t="s">
+      <c r="K203" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="L203" s="47"/>
-      <c r="M203" s="47"/>
-      <c r="N203" s="47"/>
-      <c r="O203" s="47"/>
-      <c r="P203" s="47"/>
-      <c r="Q203" s="47"/>
+      <c r="L203" s="48"/>
+      <c r="M203" s="48"/>
+      <c r="N203" s="48"/>
+      <c r="O203" s="48"/>
+      <c r="P203" s="48"/>
+      <c r="Q203" s="48"/>
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B204" s="45">
@@ -13765,22 +13847,22 @@
       <c r="G204" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H204" s="47" t="s">
+      <c r="H204" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I204" s="47"/>
+      <c r="I204" s="48"/>
       <c r="J204" s="45">
         <v>7</v>
       </c>
-      <c r="K204" s="47" t="s">
+      <c r="K204" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="L204" s="47"/>
-      <c r="M204" s="47"/>
-      <c r="N204" s="47"/>
-      <c r="O204" s="47"/>
-      <c r="P204" s="47"/>
-      <c r="Q204" s="47"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="48"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="48"/>
+      <c r="P204" s="48"/>
+      <c r="Q204" s="48"/>
     </row>
     <row r="205" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B205" s="45">
@@ -13801,22 +13883,22 @@
       <c r="G205" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H205" s="47" t="s">
+      <c r="H205" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I205" s="47"/>
+      <c r="I205" s="48"/>
       <c r="J205" s="45">
         <v>7</v>
       </c>
-      <c r="K205" s="47" t="s">
+      <c r="K205" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="L205" s="47"/>
-      <c r="M205" s="47"/>
-      <c r="N205" s="47"/>
-      <c r="O205" s="47"/>
-      <c r="P205" s="47"/>
-      <c r="Q205" s="47"/>
+      <c r="L205" s="48"/>
+      <c r="M205" s="48"/>
+      <c r="N205" s="48"/>
+      <c r="O205" s="48"/>
+      <c r="P205" s="48"/>
+      <c r="Q205" s="48"/>
     </row>
     <row r="206" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B206" s="45">
@@ -13837,22 +13919,22 @@
       <c r="G206" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H206" s="47" t="s">
+      <c r="H206" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I206" s="47"/>
+      <c r="I206" s="48"/>
       <c r="J206" s="45">
         <v>7</v>
       </c>
-      <c r="K206" s="47" t="s">
+      <c r="K206" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="L206" s="47"/>
-      <c r="M206" s="47"/>
-      <c r="N206" s="47"/>
-      <c r="O206" s="47"/>
-      <c r="P206" s="47"/>
-      <c r="Q206" s="47"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="48"/>
+      <c r="N206" s="48"/>
+      <c r="O206" s="48"/>
+      <c r="P206" s="48"/>
+      <c r="Q206" s="48"/>
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B207" s="45">
@@ -13873,22 +13955,22 @@
       <c r="G207" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H207" s="47" t="s">
+      <c r="H207" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I207" s="47"/>
+      <c r="I207" s="48"/>
       <c r="J207" s="45">
         <v>7</v>
       </c>
-      <c r="K207" s="47" t="s">
+      <c r="K207" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="L207" s="47"/>
-      <c r="M207" s="47"/>
-      <c r="N207" s="47"/>
-      <c r="O207" s="47"/>
-      <c r="P207" s="47"/>
-      <c r="Q207" s="47"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="48"/>
+      <c r="O207" s="48"/>
+      <c r="P207" s="48"/>
+      <c r="Q207" s="48"/>
     </row>
     <row r="208" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B208" s="45">
@@ -13909,22 +13991,22 @@
       <c r="G208" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H208" s="47" t="s">
+      <c r="H208" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I208" s="47"/>
+      <c r="I208" s="48"/>
       <c r="J208" s="45">
         <v>-7</v>
       </c>
-      <c r="K208" s="47" t="s">
+      <c r="K208" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="L208" s="47"/>
-      <c r="M208" s="47"/>
-      <c r="N208" s="47"/>
-      <c r="O208" s="47"/>
-      <c r="P208" s="47"/>
-      <c r="Q208" s="47"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="48"/>
+      <c r="O208" s="48"/>
+      <c r="P208" s="48"/>
+      <c r="Q208" s="48"/>
     </row>
     <row r="209" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B209" s="45">
@@ -13945,22 +14027,22 @@
       <c r="G209" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H209" s="47" t="s">
+      <c r="H209" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I209" s="47"/>
+      <c r="I209" s="48"/>
       <c r="J209" s="45">
         <v>-7</v>
       </c>
-      <c r="K209" s="47" t="s">
+      <c r="K209" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="L209" s="47"/>
-      <c r="M209" s="47"/>
-      <c r="N209" s="47"/>
-      <c r="O209" s="47"/>
-      <c r="P209" s="47"/>
-      <c r="Q209" s="47"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="48"/>
+      <c r="O209" s="48"/>
+      <c r="P209" s="48"/>
+      <c r="Q209" s="48"/>
     </row>
     <row r="210" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B210" s="45">
@@ -13981,22 +14063,22 @@
       <c r="G210" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="H210" s="47" t="s">
+      <c r="H210" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I210" s="47"/>
+      <c r="I210" s="48"/>
       <c r="J210" s="45">
         <v>-7</v>
       </c>
-      <c r="K210" s="47" t="s">
+      <c r="K210" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="L210" s="47"/>
-      <c r="M210" s="47"/>
-      <c r="N210" s="47"/>
-      <c r="O210" s="47"/>
-      <c r="P210" s="47"/>
-      <c r="Q210" s="47"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="48"/>
+      <c r="N210" s="48"/>
+      <c r="O210" s="48"/>
+      <c r="P210" s="48"/>
+      <c r="Q210" s="48"/>
     </row>
     <row r="211" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B211" s="45">
@@ -14017,22 +14099,22 @@
       <c r="G211" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H211" s="47" t="s">
+      <c r="H211" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="I211" s="47"/>
+      <c r="I211" s="48"/>
       <c r="J211" s="45">
         <v>-7</v>
       </c>
-      <c r="K211" s="47" t="s">
+      <c r="K211" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="L211" s="47"/>
-      <c r="M211" s="47"/>
-      <c r="N211" s="47"/>
-      <c r="O211" s="47"/>
-      <c r="P211" s="47"/>
-      <c r="Q211" s="47"/>
+      <c r="L211" s="48"/>
+      <c r="M211" s="48"/>
+      <c r="N211" s="48"/>
+      <c r="O211" s="48"/>
+      <c r="P211" s="48"/>
+      <c r="Q211" s="48"/>
     </row>
     <row r="212" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B212" s="45">
@@ -14053,22 +14135,22 @@
       <c r="G212" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H212" s="47" t="s">
+      <c r="H212" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="I212" s="47"/>
+      <c r="I212" s="48"/>
       <c r="J212" s="45">
         <v>5</v>
       </c>
-      <c r="K212" s="47" t="s">
+      <c r="K212" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="L212" s="47"/>
-      <c r="M212" s="47"/>
-      <c r="N212" s="47"/>
-      <c r="O212" s="47"/>
-      <c r="P212" s="47"/>
-      <c r="Q212" s="47"/>
+      <c r="L212" s="48"/>
+      <c r="M212" s="48"/>
+      <c r="N212" s="48"/>
+      <c r="O212" s="48"/>
+      <c r="P212" s="48"/>
+      <c r="Q212" s="48"/>
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B213" s="45">
@@ -14089,22 +14171,22 @@
       <c r="G213" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H213" s="47" t="s">
+      <c r="H213" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="I213" s="47"/>
+      <c r="I213" s="48"/>
       <c r="J213" s="45">
         <v>-5</v>
       </c>
-      <c r="K213" s="47" t="s">
+      <c r="K213" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="L213" s="47"/>
-      <c r="M213" s="47"/>
-      <c r="N213" s="47"/>
-      <c r="O213" s="47"/>
-      <c r="P213" s="47"/>
-      <c r="Q213" s="47"/>
+      <c r="L213" s="48"/>
+      <c r="M213" s="48"/>
+      <c r="N213" s="48"/>
+      <c r="O213" s="48"/>
+      <c r="P213" s="48"/>
+      <c r="Q213" s="48"/>
     </row>
     <row r="214" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B214" s="45">
@@ -14125,22 +14207,22 @@
       <c r="G214" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H214" s="47" t="s">
+      <c r="H214" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="I214" s="47"/>
+      <c r="I214" s="48"/>
       <c r="J214" s="45">
         <v>5</v>
       </c>
-      <c r="K214" s="47" t="s">
+      <c r="K214" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="L214" s="47"/>
-      <c r="M214" s="47"/>
-      <c r="N214" s="47"/>
-      <c r="O214" s="47"/>
-      <c r="P214" s="47"/>
-      <c r="Q214" s="47"/>
+      <c r="L214" s="48"/>
+      <c r="M214" s="48"/>
+      <c r="N214" s="48"/>
+      <c r="O214" s="48"/>
+      <c r="P214" s="48"/>
+      <c r="Q214" s="48"/>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B215" s="45">
@@ -14161,22 +14243,22 @@
       <c r="G215" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H215" s="47" t="s">
+      <c r="H215" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="I215" s="47"/>
+      <c r="I215" s="48"/>
       <c r="J215" s="45">
         <v>5</v>
       </c>
-      <c r="K215" s="47" t="s">
+      <c r="K215" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="L215" s="47"/>
-      <c r="M215" s="47"/>
-      <c r="N215" s="47"/>
-      <c r="O215" s="47"/>
-      <c r="P215" s="47"/>
-      <c r="Q215" s="47"/>
+      <c r="L215" s="48"/>
+      <c r="M215" s="48"/>
+      <c r="N215" s="48"/>
+      <c r="O215" s="48"/>
+      <c r="P215" s="48"/>
+      <c r="Q215" s="48"/>
     </row>
     <row r="216" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B216" s="45">
@@ -14197,22 +14279,22 @@
       <c r="G216" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H216" s="47" t="s">
+      <c r="H216" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="I216" s="47"/>
+      <c r="I216" s="48"/>
       <c r="J216" s="45">
         <v>5</v>
       </c>
-      <c r="K216" s="47" t="s">
+      <c r="K216" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="L216" s="47"/>
-      <c r="M216" s="47"/>
-      <c r="N216" s="47"/>
-      <c r="O216" s="47"/>
-      <c r="P216" s="47"/>
-      <c r="Q216" s="47"/>
+      <c r="L216" s="48"/>
+      <c r="M216" s="48"/>
+      <c r="N216" s="48"/>
+      <c r="O216" s="48"/>
+      <c r="P216" s="48"/>
+      <c r="Q216" s="48"/>
     </row>
     <row r="217" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B217" s="45">
@@ -14233,37 +14315,37 @@
       <c r="G217" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="H217" s="47" t="s">
+      <c r="H217" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="I217" s="47"/>
+      <c r="I217" s="48"/>
       <c r="J217" s="45">
         <v>5</v>
       </c>
-      <c r="K217" s="47" t="s">
+      <c r="K217" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="L217" s="47"/>
-      <c r="M217" s="47"/>
-      <c r="N217" s="47"/>
-      <c r="O217" s="47"/>
-      <c r="P217" s="47"/>
-      <c r="Q217" s="47"/>
+      <c r="L217" s="48"/>
+      <c r="M217" s="48"/>
+      <c r="N217" s="48"/>
+      <c r="O217" s="48"/>
+      <c r="P217" s="48"/>
+      <c r="Q217" s="48"/>
     </row>
     <row r="218" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C218" s="63" t="s">
+      <c r="C218" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="63"/>
-      <c r="H218" s="46" t="s">
+      <c r="D218" s="64"/>
+      <c r="E218" s="64"/>
+      <c r="F218" s="64"/>
+      <c r="G218" s="64"/>
+      <c r="H218" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="I218" s="46"/>
+      <c r="I218" s="47"/>
       <c r="J218" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -14282,6 +14364,9 @@
     <mergeCell ref="H215:I215"/>
     <mergeCell ref="H216:I216"/>
     <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
     <mergeCell ref="K188:Q188"/>
     <mergeCell ref="K189:Q189"/>
     <mergeCell ref="K190:Q190"/>
@@ -14309,9 +14394,6 @@
     <mergeCell ref="H209:I209"/>
     <mergeCell ref="H210:I210"/>
     <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
     <mergeCell ref="H197:I197"/>
     <mergeCell ref="H198:I198"/>
     <mergeCell ref="H199:I199"/>
@@ -14500,7 +14582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7957EAEE-90B0-40E0-9698-9F30DADA447F}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915BE85-5B89-4D0C-9125-F90949BC75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF8E96-DFD1-4232-BFE1-A073AFD16343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="몬스터 기획서" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="몬스터UI" sheetId="8" r:id="rId3"/>
     <sheet name="몬스터 종류" sheetId="10" r:id="rId4"/>
     <sheet name="몬스터 생성규칙" sheetId="11" r:id="rId5"/>
-    <sheet name="이동경로" sheetId="9" r:id="rId6"/>
-    <sheet name="몬스터 데이터" sheetId="12" r:id="rId7"/>
-    <sheet name="일정" sheetId="7" r:id="rId8"/>
+    <sheet name="몬스터 재화" sheetId="13" r:id="rId6"/>
+    <sheet name="이동경로" sheetId="9" r:id="rId7"/>
+    <sheet name="몬스터 데이터" sheetId="12" r:id="rId8"/>
+    <sheet name="일정" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="517">
   <si>
     <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,14 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.이동경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.몬스터 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Huge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,6 +2002,50 @@
   </si>
   <si>
     <t>*기믹은 중첩이 가능하다.( ex. 몬스터가 202111 ID의 기믹이 적용 중이라도 301011 ID의 기믹이 중첩되어 적용 가능하다.).또한 중첩 개수에 제한은 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDebuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프(1)디버프(2) 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.몬스터 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.이동경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.몬스터 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.몬스터 재화 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 1라운드에서 각 몬스터가 사망 시 획득하는 재화량은 10이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 웨이브가 1 지날 때마다 몬스터 사망 시 획득하는 재화량은 1씩 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.몬스터 분류에 따른 재화 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)서브보스가 사망할 경우 해당 웨이브에서 일반 몬스터가 사망 시 획득하는 재화량의 3배를 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)보스가 사망할 경우 해당 웨이브에서 일반 몬스터가 사망 시 획득하는 재화량의 6배를 얻는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2368,21 +2405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2401,7 +2423,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2410,7 +2447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5355,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DFB3C-5D1D-47ED-91C8-3F144D22BD65}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5505,12 +5542,17 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE54A3D-9C9F-418C-AD1A-92217D66A9D7}">
   <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
@@ -5546,7 +5588,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -5586,42 +5628,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -5703,14 +5745,14 @@
       <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -5726,14 +5768,14 @@
       <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -5749,14 +5791,14 @@
       <c r="E29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -5772,14 +5814,14 @@
       <c r="E30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -5836,17 +5878,17 @@
       <c r="F42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="54"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="60"/>
       <c r="P42" s="6" t="s">
         <v>18</v>
       </c>
@@ -5865,17 +5907,17 @@
       <c r="F43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="58"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
@@ -5892,17 +5934,17 @@
       <c r="F44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="56" t="s">
-        <v>489</v>
-      </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="58"/>
+      <c r="G44" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
@@ -5919,17 +5961,17 @@
       <c r="F45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="58"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="11"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
@@ -5946,17 +5988,17 @@
       <c r="F46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="58"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
@@ -6303,19 +6345,19 @@
       <c r="G71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="56" t="s">
+      <c r="H71" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="58"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="53"/>
       <c r="T71" s="19"/>
       <c r="U71" s="23"/>
       <c r="V71" s="23"/>
@@ -6344,19 +6386,19 @@
       <c r="G72" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="58"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="53"/>
       <c r="T72" s="19"/>
       <c r="U72" s="23"/>
       <c r="V72" s="23"/>
@@ -6385,19 +6427,19 @@
       <c r="G73" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="H73" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="58"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="53"/>
       <c r="T73" s="19"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
@@ -6412,10 +6454,10 @@
       <c r="AE73" s="23"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="50"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="24" t="s">
         <v>113</v>
       </c>
@@ -6426,19 +6468,19 @@
       <c r="G74" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="56" t="s">
+      <c r="H74" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="57"/>
-      <c r="R74" s="58"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="53"/>
       <c r="T74" s="19"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
@@ -6453,10 +6495,10 @@
       <c r="AE74" s="23"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="6" t="s">
         <v>114</v>
       </c>
@@ -6467,19 +6509,19 @@
       <c r="G75" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="H75" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="58"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="53"/>
       <c r="T75" s="19"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
@@ -6494,10 +6536,10 @@
       <c r="AE75" s="23"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="6" t="s">
         <v>115</v>
       </c>
@@ -6508,19 +6550,19 @@
       <c r="G76" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="58"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="53"/>
       <c r="T76" s="19"/>
       <c r="U76" s="23"/>
       <c r="V76" s="23"/>
@@ -6535,10 +6577,10 @@
       <c r="AE76" s="23"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="51"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="6" t="s">
         <v>116</v>
       </c>
@@ -6549,19 +6591,19 @@
       <c r="G77" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="H77" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="58"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="53"/>
       <c r="T77" s="19"/>
       <c r="U77" s="23"/>
       <c r="V77" s="23"/>
@@ -6576,10 +6618,10 @@
       <c r="AE77" s="23"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A78" s="51" t="s">
+      <c r="A78" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="51"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="6" t="s">
         <v>117</v>
       </c>
@@ -6590,19 +6632,19 @@
       <c r="G78" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H78" s="56" t="s">
+      <c r="H78" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="58"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="53"/>
       <c r="T78" s="19"/>
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
@@ -6617,10 +6659,10 @@
       <c r="AE78" s="23"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="6" t="s">
         <v>118</v>
       </c>
@@ -6631,19 +6673,19 @@
       <c r="G79" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H79" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="58"/>
+      <c r="H79" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="52"/>
+      <c r="R79" s="53"/>
       <c r="T79" s="19"/>
       <c r="U79" s="23"/>
       <c r="V79" s="23"/>
@@ -6658,10 +6700,10 @@
       <c r="AE79" s="23"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="51"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="6" t="s">
         <v>119</v>
       </c>
@@ -6672,19 +6714,19 @@
       <c r="G80" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="56" t="s">
+      <c r="H80" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="58"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="53"/>
       <c r="T80" s="19"/>
       <c r="U80" s="23"/>
       <c r="V80" s="23"/>
@@ -6699,10 +6741,10 @@
       <c r="AE80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="51"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="6" t="s">
         <v>120</v>
       </c>
@@ -6878,7 +6920,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48"/>
@@ -6896,7 +6938,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D101" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.4">
@@ -6998,7 +7040,7 @@
         <v>79</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
@@ -7061,12 +7103,12 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D113" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D114" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -7125,7 +7167,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.4">
@@ -7149,59 +7191,59 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A134" s="59" t="s">
+      <c r="A134" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="E134" s="59" t="s">
+      <c r="E134" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="F134" s="59"/>
+      <c r="F134" s="54"/>
       <c r="G134" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H134" s="55" t="s">
+      <c r="H134" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="I134" s="55"/>
+      <c r="I134" s="50"/>
       <c r="J134" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="K134" s="55" t="s">
+      <c r="K134" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="L134" s="55"/>
-      <c r="M134" s="55"/>
-      <c r="N134" s="55"/>
-      <c r="O134" s="55"/>
-      <c r="P134" s="55"/>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="55"/>
-      <c r="S134" s="55" t="s">
+      <c r="L134" s="50"/>
+      <c r="M134" s="50"/>
+      <c r="N134" s="50"/>
+      <c r="O134" s="50"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="50"/>
+      <c r="S134" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="T134" s="55"/>
-      <c r="U134" s="55"/>
-      <c r="V134" s="55"/>
-      <c r="W134" s="55"/>
+      <c r="T134" s="50"/>
+      <c r="U134" s="50"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="50"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A135" s="60" t="s">
+      <c r="A135" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
       <c r="D135" s="29">
         <v>10</v>
       </c>
-      <c r="E135" s="60" t="s">
+      <c r="E135" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="F135" s="60"/>
+      <c r="F135" s="55"/>
       <c r="G135" s="29">
         <v>11</v>
       </c>
@@ -7221,7 +7263,7 @@
       <c r="Q135" s="48"/>
       <c r="R135" s="48"/>
       <c r="S135" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T135" s="48"/>
       <c r="U135" s="48"/>
@@ -7233,10 +7275,10 @@
       <c r="B136" s="48"/>
       <c r="C136" s="48"/>
       <c r="D136" s="48"/>
-      <c r="E136" s="60" t="s">
+      <c r="E136" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="F136" s="60"/>
+      <c r="F136" s="55"/>
       <c r="G136" s="29">
         <v>21</v>
       </c>
@@ -7396,11 +7438,11 @@
       <c r="W140" s="48"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A141" s="60" t="s">
+      <c r="A141" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="60"/>
-      <c r="C141" s="60"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
       <c r="D141" s="29">
         <v>20</v>
       </c>
@@ -7429,7 +7471,7 @@
       <c r="Q141" s="48"/>
       <c r="R141" s="48"/>
       <c r="S141" s="48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T141" s="48"/>
       <c r="U141" s="48"/>
@@ -7916,11 +7958,11 @@
       <c r="W156" s="48"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A157" s="60" t="s">
+      <c r="A157" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
       <c r="D157" s="29">
         <v>30</v>
       </c>
@@ -8109,7 +8151,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.4">
@@ -8117,24 +8159,111 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A136:D140"/>
-    <mergeCell ref="A142:D156"/>
-    <mergeCell ref="A158:F162"/>
-    <mergeCell ref="E150:F152"/>
-    <mergeCell ref="E146:F148"/>
-    <mergeCell ref="E142:F144"/>
-    <mergeCell ref="E154:F156"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="E110:AA110"/>
+    <mergeCell ref="E109:AA109"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G46:O46"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H71:R71"/>
+    <mergeCell ref="H72:R72"/>
+    <mergeCell ref="H73:R73"/>
+    <mergeCell ref="H74:R74"/>
+    <mergeCell ref="H80:R80"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="H77:R77"/>
+    <mergeCell ref="H78:R78"/>
+    <mergeCell ref="H79:R79"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H76:R76"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="K134:R134"/>
+    <mergeCell ref="K135:R135"/>
+    <mergeCell ref="K136:R136"/>
+    <mergeCell ref="K137:R137"/>
+    <mergeCell ref="K138:R138"/>
+    <mergeCell ref="K139:R139"/>
+    <mergeCell ref="K140:R140"/>
+    <mergeCell ref="K141:R141"/>
+    <mergeCell ref="K142:R142"/>
+    <mergeCell ref="K143:R143"/>
+    <mergeCell ref="K144:R144"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="E112:AA112"/>
+    <mergeCell ref="K148:R148"/>
+    <mergeCell ref="K149:R149"/>
+    <mergeCell ref="K150:R150"/>
+    <mergeCell ref="K151:R151"/>
+    <mergeCell ref="K152:R152"/>
+    <mergeCell ref="K153:R153"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="S134:W134"/>
     <mergeCell ref="S135:W138"/>
     <mergeCell ref="S139:W140"/>
@@ -8159,111 +8288,24 @@
     <mergeCell ref="K145:R145"/>
     <mergeCell ref="K146:R146"/>
     <mergeCell ref="K147:R147"/>
-    <mergeCell ref="K148:R148"/>
-    <mergeCell ref="K149:R149"/>
-    <mergeCell ref="K150:R150"/>
-    <mergeCell ref="K151:R151"/>
-    <mergeCell ref="K152:R152"/>
-    <mergeCell ref="K153:R153"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H76:R76"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="K134:R134"/>
-    <mergeCell ref="K135:R135"/>
-    <mergeCell ref="K136:R136"/>
-    <mergeCell ref="K137:R137"/>
-    <mergeCell ref="K138:R138"/>
-    <mergeCell ref="K139:R139"/>
-    <mergeCell ref="K140:R140"/>
-    <mergeCell ref="K141:R141"/>
-    <mergeCell ref="K142:R142"/>
-    <mergeCell ref="K143:R143"/>
-    <mergeCell ref="K144:R144"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="H75:R75"/>
-    <mergeCell ref="H77:R77"/>
-    <mergeCell ref="H78:R78"/>
-    <mergeCell ref="H79:R79"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H71:R71"/>
-    <mergeCell ref="H72:R72"/>
-    <mergeCell ref="H73:R73"/>
-    <mergeCell ref="H74:R74"/>
-    <mergeCell ref="H80:R80"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="E112:AA112"/>
-    <mergeCell ref="E110:AA110"/>
-    <mergeCell ref="E109:AA109"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="A136:D140"/>
+    <mergeCell ref="A142:D156"/>
+    <mergeCell ref="A158:F162"/>
+    <mergeCell ref="E150:F152"/>
+    <mergeCell ref="E146:F148"/>
+    <mergeCell ref="E142:F144"/>
+    <mergeCell ref="E154:F156"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8365,13 +8407,13 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I11" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" t="s">
+        <v>438</v>
+      </c>
+      <c r="M11" t="s">
         <v>439</v>
-      </c>
-      <c r="K11" t="s">
-        <v>440</v>
-      </c>
-      <c r="M11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
@@ -8396,16 +8438,16 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="J21" t="s">
+        <v>437</v>
+      </c>
+      <c r="L21" t="s">
+        <v>440</v>
+      </c>
+      <c r="N21" t="s">
+        <v>438</v>
+      </c>
+      <c r="P21" t="s">
         <v>439</v>
-      </c>
-      <c r="L21" t="s">
-        <v>442</v>
-      </c>
-      <c r="N21" t="s">
-        <v>440</v>
-      </c>
-      <c r="P21" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
@@ -8430,16 +8472,16 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="J30" t="s">
+        <v>437</v>
+      </c>
+      <c r="L30" t="s">
         <v>439</v>
       </c>
-      <c r="L30" t="s">
-        <v>441</v>
-      </c>
       <c r="N30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
@@ -8464,16 +8506,16 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
       <c r="J39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
@@ -8498,19 +8540,19 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="K47" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" t="s">
+        <v>440</v>
+      </c>
+      <c r="O47" t="s">
         <v>439</v>
       </c>
-      <c r="M47" t="s">
-        <v>442</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
+        <v>438</v>
+      </c>
+      <c r="S47" t="s">
         <v>441</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>440</v>
-      </c>
-      <c r="S47" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.4">
@@ -8535,13 +8577,13 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I57" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.4">
@@ -8556,7 +8598,7 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.4">
@@ -8566,16 +8608,16 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.4">
       <c r="J66" t="s">
+        <v>439</v>
+      </c>
+      <c r="M66" t="s">
         <v>441</v>
       </c>
-      <c r="M66" t="s">
-        <v>443</v>
-      </c>
       <c r="P66" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S66" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.4">
@@ -8590,7 +8632,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.4">
       <c r="E71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.4">
@@ -8600,31 +8642,31 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.4">
       <c r="J75" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s">
+        <v>438</v>
+      </c>
+      <c r="N75" t="s">
+        <v>439</v>
+      </c>
+      <c r="P75" t="s">
         <v>440</v>
-      </c>
-      <c r="N75" t="s">
-        <v>441</v>
-      </c>
-      <c r="P75" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B78" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -8643,7 +8685,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8655,27 +8697,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -8705,12 +8747,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -8768,7 +8810,7 @@
         <v>146</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -8783,7 +8825,7 @@
         <v>147</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
@@ -8900,7 +8942,7 @@
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -8919,7 +8961,7 @@
       <c r="D38" s="48"/>
       <c r="E38" s="48"/>
       <c r="F38" s="48" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
@@ -8938,7 +8980,7 @@
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -8957,7 +8999,7 @@
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
@@ -9147,7 +9189,7 @@
         <v>318</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D62" s="48"/>
       <c r="E62" s="48"/>
@@ -9170,7 +9212,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -9190,25 +9232,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B78" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="C78" s="48" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B78" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>502</v>
       </c>
       <c r="D78" s="48"/>
       <c r="E78" s="48"/>
@@ -9217,11 +9259,11 @@
       <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="C79" s="48" t="s">
         <v>503</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>505</v>
       </c>
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
@@ -9230,11 +9272,11 @@
       <c r="H79" s="48"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="C80" s="48" t="s">
         <v>504</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>506</v>
       </c>
       <c r="D80" s="48"/>
       <c r="E80" s="48"/>
@@ -9244,15 +9286,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C62:U62"/>
+    <mergeCell ref="C61:U61"/>
     <mergeCell ref="C54:M54"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="F36:L36"/>
@@ -9267,11 +9305,15 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F38:L38"/>
     <mergeCell ref="F37:L37"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C62:U62"/>
-    <mergeCell ref="C61:U61"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9280,6 +9322,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C1E23-6E7B-430C-9D13-1F235036F879}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDCFC51-F329-4DF0-9957-672B6080BF8B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9310,12 +9398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF28440-5CF1-47B7-8D33-8E6B67D19736}">
-  <dimension ref="B1:Q218"/>
+  <dimension ref="B1:S218"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="104" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188:S217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9357,16 +9445,16 @@
         <v>325</v>
       </c>
       <c r="I2" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>435</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>437</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>195</v>
@@ -9751,17 +9839,17 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="52" t="s">
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
@@ -9878,10 +9966,10 @@
       <c r="E26" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="33" t="s">
         <v>324</v>
       </c>
@@ -9897,10 +9985,10 @@
       <c r="E27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="G27" s="54"/>
+      <c r="F27" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="G27" s="60"/>
       <c r="H27" s="33" t="s">
         <v>363</v>
       </c>
@@ -9916,10 +10004,10 @@
       <c r="E28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="G28" s="54"/>
+      <c r="F28" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="G28" s="60"/>
       <c r="H28" s="33">
         <v>0</v>
       </c>
@@ -9935,10 +10023,10 @@
       <c r="E29" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="33">
         <v>5</v>
       </c>
@@ -9948,16 +10036,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="54"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="33">
         <v>10</v>
       </c>
@@ -9973,10 +10061,10 @@
       <c r="E31" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="G31" s="54"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="33">
         <v>5</v>
       </c>
@@ -9992,10 +10080,10 @@
       <c r="E32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="33">
         <v>10</v>
       </c>
@@ -10011,10 +10099,10 @@
       <c r="E33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="G33" s="54"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="33">
         <v>5</v>
       </c>
@@ -10030,10 +10118,10 @@
       <c r="E34" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="G34" s="54"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="33">
         <v>10</v>
       </c>
@@ -10049,17 +10137,17 @@
       <c r="E35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="54"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
@@ -10095,7 +10183,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G40" s="49"/>
     </row>
@@ -10261,7 +10349,7 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -10407,7 +10495,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D62" t="s">
         <v>337</v>
@@ -10421,7 +10509,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -10457,7 +10545,7 @@
       </c>
       <c r="C68" s="48"/>
       <c r="D68" s="48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E68" s="48"/>
       <c r="F68" s="32" t="s">
@@ -10552,71 +10640,71 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F75" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B76" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>398</v>
-      </c>
       <c r="D76" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F76" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G76" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="G76" s="33" t="s">
-        <v>398</v>
-      </c>
       <c r="H76" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J76" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="K76" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="K76" s="33" t="s">
-        <v>398</v>
-      </c>
       <c r="L76" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -12071,27 +12159,27 @@
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C128" t="s">
+        <v>420</v>
+      </c>
+      <c r="D128" t="s">
+        <v>421</v>
+      </c>
+      <c r="G128" t="s">
+        <v>420</v>
+      </c>
+      <c r="H128" t="s">
         <v>422</v>
       </c>
-      <c r="D128" t="s">
-        <v>423</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="K128" t="s">
+        <v>420</v>
+      </c>
+      <c r="L128" t="s">
         <v>422</v>
-      </c>
-      <c r="H128" t="s">
-        <v>424</v>
-      </c>
-      <c r="K128" t="s">
-        <v>422</v>
-      </c>
-      <c r="L128" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.4">
@@ -12099,7 +12187,7 @@
         <v>370</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D132" s="42" t="s">
         <v>340</v>
@@ -12108,26 +12196,26 @@
         <v>341</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G132" s="48"/>
       <c r="H132" s="48" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I132" s="48"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B133" s="42" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C133" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E133" s="42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F133" s="48" t="s">
         <v>7</v>
@@ -13084,7 +13172,7 @@
       </c>
       <c r="I176" s="48"/>
     </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B177" s="42">
         <v>44</v>
       </c>
@@ -13106,7 +13194,7 @@
       </c>
       <c r="I177" s="48"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B178" s="42">
         <v>45</v>
       </c>
@@ -13128,7 +13216,7 @@
       </c>
       <c r="I178" s="48"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B179" s="42">
         <v>46</v>
       </c>
@@ -13150,7 +13238,7 @@
       </c>
       <c r="I179" s="48"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B180" s="42">
         <v>47</v>
       </c>
@@ -13172,7 +13260,7 @@
       </c>
       <c r="I180" s="48"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B181" s="42">
         <v>48</v>
       </c>
@@ -13194,7 +13282,7 @@
       </c>
       <c r="I181" s="48"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B182" s="42">
         <v>49</v>
       </c>
@@ -13216,7 +13304,7 @@
       </c>
       <c r="I182" s="48"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B183" s="42">
         <v>50</v>
       </c>
@@ -13238,1189 +13326,1482 @@
       </c>
       <c r="I183" s="48"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="D184" s="61" t="s">
+    <row r="184" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="D184" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E184" s="64"/>
+      <c r="F184" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="G184" s="64"/>
+      <c r="H184" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="E184" s="61"/>
-      <c r="F184" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="G184" s="61"/>
-      <c r="H184" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="I184" s="61"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B188" s="45" t="s">
+      <c r="I184" s="64"/>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B188" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="C188" s="45" t="s">
+      <c r="C188" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="D188" s="45" t="s">
+      <c r="D188" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="E188" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="F188" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="E188" s="45" t="s">
+      <c r="G188" s="46" t="s">
         <v>435</v>
-      </c>
-      <c r="F188" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="G188" s="45" t="s">
-        <v>437</v>
       </c>
       <c r="H188" s="48" t="s">
         <v>6</v>
       </c>
       <c r="I188" s="48"/>
-      <c r="J188" s="45" t="s">
+      <c r="J188" s="46" t="s">
         <v>324</v>
       </c>
       <c r="K188" s="48" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="L188" s="48"/>
-      <c r="M188" s="48"/>
+      <c r="M188" s="48" t="s">
+        <v>444</v>
+      </c>
       <c r="N188" s="48"/>
       <c r="O188" s="48"/>
       <c r="P188" s="48"/>
       <c r="Q188" s="48"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B189" s="45" t="s">
+      <c r="R188" s="48"/>
+      <c r="S188" s="48"/>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B189" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="D189" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="E189" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="F189" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="G189" s="45" t="s">
-        <v>447</v>
+      <c r="C189" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D189" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="E189" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="F189" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G189" s="46" t="s">
+        <v>445</v>
       </c>
       <c r="H189" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I189" s="48"/>
-      <c r="J189" s="45" t="s">
+      <c r="J189" s="46" t="s">
         <v>363</v>
       </c>
       <c r="K189" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="L189" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M189" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L189" s="48"/>
-      <c r="M189" s="48"/>
       <c r="N189" s="48"/>
       <c r="O189" s="48"/>
       <c r="P189" s="48"/>
       <c r="Q189" s="48"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B190" s="45">
+      <c r="R189" s="48"/>
+      <c r="S189" s="48"/>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B190" s="46">
         <v>101110</v>
       </c>
-      <c r="C190" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D190" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E190" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F190" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G190" s="45" t="b">
+      <c r="C190" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H190" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I190" s="48"/>
-      <c r="J190" s="45">
+      <c r="J190" s="46">
         <v>10</v>
       </c>
-      <c r="K190" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="L190" s="48"/>
-      <c r="M190" s="48"/>
+      <c r="K190" s="48">
+        <v>1</v>
+      </c>
+      <c r="L190" s="48">
+        <v>1</v>
+      </c>
+      <c r="M190" s="48" t="s">
+        <v>446</v>
+      </c>
       <c r="N190" s="48"/>
       <c r="O190" s="48"/>
       <c r="P190" s="48"/>
       <c r="Q190" s="48"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B191" s="45">
+      <c r="R190" s="48"/>
+      <c r="S190" s="48"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B191" s="46">
         <v>102110</v>
       </c>
-      <c r="C191" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D191" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E191" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F191" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G191" s="45" t="b">
+      <c r="C191" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H191" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I191" s="48"/>
-      <c r="J191" s="45">
+      <c r="J191" s="46">
         <v>-7</v>
       </c>
-      <c r="K191" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="L191" s="48"/>
-      <c r="M191" s="48"/>
+      <c r="K191" s="48">
+        <v>2</v>
+      </c>
+      <c r="L191" s="48">
+        <v>2</v>
+      </c>
+      <c r="M191" s="48" t="s">
+        <v>447</v>
+      </c>
       <c r="N191" s="48"/>
       <c r="O191" s="48"/>
       <c r="P191" s="48"/>
       <c r="Q191" s="48"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B192" s="45">
+      <c r="R191" s="48"/>
+      <c r="S191" s="48"/>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B192" s="46">
         <v>103110</v>
       </c>
-      <c r="C192" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D192" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E192" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F192" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G192" s="45" t="b">
+      <c r="C192" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H192" s="48" t="s">
         <v>332</v>
       </c>
       <c r="I192" s="48"/>
-      <c r="J192" s="45">
+      <c r="J192" s="46">
         <v>5</v>
       </c>
-      <c r="K192" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="L192" s="48"/>
-      <c r="M192" s="48"/>
+      <c r="K192" s="48">
+        <v>1</v>
+      </c>
+      <c r="L192" s="48">
+        <v>1</v>
+      </c>
+      <c r="M192" s="48" t="s">
+        <v>448</v>
+      </c>
       <c r="N192" s="48"/>
       <c r="O192" s="48"/>
       <c r="P192" s="48"/>
       <c r="Q192" s="48"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B193" s="45">
+      <c r="R192" s="48"/>
+      <c r="S192" s="48"/>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B193" s="46">
         <v>104110</v>
       </c>
-      <c r="C193" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D193" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E193" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F193" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G193" s="45" t="b">
+      <c r="C193" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H193" s="48" t="s">
         <v>332</v>
       </c>
       <c r="I193" s="48"/>
-      <c r="J193" s="45">
+      <c r="J193" s="46">
         <v>-5</v>
       </c>
-      <c r="K193" s="48" t="s">
-        <v>451</v>
-      </c>
-      <c r="L193" s="48"/>
-      <c r="M193" s="48"/>
+      <c r="K193" s="48">
+        <v>2</v>
+      </c>
+      <c r="L193" s="48">
+        <v>2</v>
+      </c>
+      <c r="M193" s="48" t="s">
+        <v>449</v>
+      </c>
       <c r="N193" s="48"/>
       <c r="O193" s="48"/>
       <c r="P193" s="48"/>
       <c r="Q193" s="48"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B194" s="45">
+      <c r="R193" s="48"/>
+      <c r="S193" s="48"/>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B194" s="46">
         <v>105110</v>
       </c>
-      <c r="C194" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D194" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E194" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F194" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G194" s="45" t="b">
+      <c r="C194" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H194" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I194" s="48"/>
-      <c r="J194" s="45">
+      <c r="J194" s="46">
         <v>10</v>
       </c>
-      <c r="K194" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="L194" s="48"/>
-      <c r="M194" s="48"/>
+      <c r="K194" s="48">
+        <v>1</v>
+      </c>
+      <c r="L194" s="48">
+        <v>1</v>
+      </c>
+      <c r="M194" s="48" t="s">
+        <v>450</v>
+      </c>
       <c r="N194" s="48"/>
       <c r="O194" s="48"/>
       <c r="P194" s="48"/>
       <c r="Q194" s="48"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B195" s="45">
+      <c r="R194" s="48"/>
+      <c r="S194" s="48"/>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B195" s="46">
         <v>106110</v>
       </c>
-      <c r="C195" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D195" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E195" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F195" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G195" s="45" t="b">
+      <c r="C195" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H195" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I195" s="48"/>
-      <c r="J195" s="45">
+      <c r="J195" s="46">
         <v>-10</v>
       </c>
-      <c r="K195" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="L195" s="48"/>
-      <c r="M195" s="48"/>
+      <c r="K195" s="48">
+        <v>2</v>
+      </c>
+      <c r="L195" s="48">
+        <v>2</v>
+      </c>
+      <c r="M195" s="48" t="s">
+        <v>451</v>
+      </c>
       <c r="N195" s="48"/>
       <c r="O195" s="48"/>
       <c r="P195" s="48"/>
       <c r="Q195" s="48"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B196" s="45">
+      <c r="R195" s="48"/>
+      <c r="S195" s="48"/>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B196" s="46">
         <v>201111</v>
       </c>
-      <c r="C196" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D196" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E196" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F196" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G196" s="45" t="b">
+      <c r="C196" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G196" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H196" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I196" s="48"/>
-      <c r="J196" s="45">
+      <c r="J196" s="46">
         <v>13</v>
       </c>
-      <c r="K196" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="L196" s="48"/>
-      <c r="M196" s="48"/>
+      <c r="K196" s="48">
+        <v>1</v>
+      </c>
+      <c r="L196" s="48">
+        <v>1</v>
+      </c>
+      <c r="M196" s="48" t="s">
+        <v>452</v>
+      </c>
       <c r="N196" s="48"/>
       <c r="O196" s="48"/>
       <c r="P196" s="48"/>
       <c r="Q196" s="48"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B197" s="45">
+      <c r="R196" s="48"/>
+      <c r="S196" s="48"/>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B197" s="46">
         <v>201121</v>
       </c>
-      <c r="C197" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D197" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E197" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F197" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G197" s="45" t="b">
+      <c r="C197" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D197" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H197" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I197" s="48"/>
-      <c r="J197" s="45">
+      <c r="J197" s="46">
         <v>13</v>
       </c>
-      <c r="K197" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="L197" s="48"/>
-      <c r="M197" s="48"/>
+      <c r="K197" s="48">
+        <v>1</v>
+      </c>
+      <c r="L197" s="48">
+        <v>1</v>
+      </c>
+      <c r="M197" s="48" t="s">
+        <v>453</v>
+      </c>
       <c r="N197" s="48"/>
       <c r="O197" s="48"/>
       <c r="P197" s="48"/>
       <c r="Q197" s="48"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B198" s="45">
+      <c r="R197" s="48"/>
+      <c r="S197" s="48"/>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B198" s="46">
         <v>201131</v>
       </c>
-      <c r="C198" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D198" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E198" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F198" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G198" s="45" t="b">
+      <c r="C198" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D198" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H198" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I198" s="48"/>
-      <c r="J198" s="45">
+      <c r="J198" s="46">
         <v>13</v>
       </c>
-      <c r="K198" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="L198" s="48"/>
-      <c r="M198" s="48"/>
+      <c r="K198" s="48">
+        <v>1</v>
+      </c>
+      <c r="L198" s="48">
+        <v>1</v>
+      </c>
+      <c r="M198" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="N198" s="48"/>
       <c r="O198" s="48"/>
       <c r="P198" s="48"/>
       <c r="Q198" s="48"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B199" s="45">
+      <c r="R198" s="48"/>
+      <c r="S198" s="48"/>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B199" s="46">
         <v>201141</v>
       </c>
-      <c r="C199" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D199" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E199" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F199" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G199" s="45" t="b">
+      <c r="C199" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E199" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H199" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I199" s="48"/>
-      <c r="J199" s="45">
+      <c r="J199" s="46">
         <v>13</v>
       </c>
-      <c r="K199" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="L199" s="48"/>
-      <c r="M199" s="48"/>
+      <c r="K199" s="48">
+        <v>1</v>
+      </c>
+      <c r="L199" s="48">
+        <v>1</v>
+      </c>
+      <c r="M199" s="48" t="s">
+        <v>455</v>
+      </c>
       <c r="N199" s="48"/>
       <c r="O199" s="48"/>
       <c r="P199" s="48"/>
       <c r="Q199" s="48"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B200" s="45">
+      <c r="R199" s="48"/>
+      <c r="S199" s="48"/>
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B200" s="46">
         <v>202111</v>
       </c>
-      <c r="C200" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D200" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E200" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F200" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G200" s="45" t="b">
+      <c r="C200" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G200" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H200" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I200" s="48"/>
-      <c r="J200" s="45">
+      <c r="J200" s="46">
         <v>-10</v>
       </c>
-      <c r="K200" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="L200" s="48"/>
-      <c r="M200" s="48"/>
+      <c r="K200" s="48">
+        <v>2</v>
+      </c>
+      <c r="L200" s="48">
+        <v>2</v>
+      </c>
+      <c r="M200" s="48" t="s">
+        <v>456</v>
+      </c>
       <c r="N200" s="48"/>
       <c r="O200" s="48"/>
       <c r="P200" s="48"/>
       <c r="Q200" s="48"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B201" s="45">
+      <c r="R200" s="48"/>
+      <c r="S200" s="48"/>
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B201" s="46">
         <v>202121</v>
       </c>
-      <c r="C201" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D201" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E201" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G201" s="45" t="b">
+      <c r="C201" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D201" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G201" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H201" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I201" s="48"/>
-      <c r="J201" s="45">
+      <c r="J201" s="46">
         <v>-10</v>
       </c>
-      <c r="K201" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="L201" s="48"/>
-      <c r="M201" s="48"/>
+      <c r="K201" s="48">
+        <v>2</v>
+      </c>
+      <c r="L201" s="48">
+        <v>2</v>
+      </c>
+      <c r="M201" s="48" t="s">
+        <v>457</v>
+      </c>
       <c r="N201" s="48"/>
       <c r="O201" s="48"/>
       <c r="P201" s="48"/>
       <c r="Q201" s="48"/>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B202" s="45">
+      <c r="R201" s="48"/>
+      <c r="S201" s="48"/>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B202" s="46">
         <v>202131</v>
       </c>
-      <c r="C202" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D202" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E202" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G202" s="45" t="b">
+      <c r="C202" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E202" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G202" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H202" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I202" s="48"/>
-      <c r="J202" s="45">
+      <c r="J202" s="46">
         <v>-10</v>
       </c>
-      <c r="K202" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="L202" s="48"/>
-      <c r="M202" s="48"/>
+      <c r="K202" s="48">
+        <v>2</v>
+      </c>
+      <c r="L202" s="48">
+        <v>2</v>
+      </c>
+      <c r="M202" s="48" t="s">
+        <v>458</v>
+      </c>
       <c r="N202" s="48"/>
       <c r="O202" s="48"/>
       <c r="P202" s="48"/>
       <c r="Q202" s="48"/>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B203" s="45">
+      <c r="R202" s="48"/>
+      <c r="S202" s="48"/>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B203" s="46">
         <v>202141</v>
       </c>
-      <c r="C203" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D203" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E203" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F203" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G203" s="45" t="b">
+      <c r="C203" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D203" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E203" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G203" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H203" s="48" t="s">
         <v>327</v>
       </c>
       <c r="I203" s="48"/>
-      <c r="J203" s="45">
+      <c r="J203" s="46">
         <v>-10</v>
       </c>
-      <c r="K203" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="L203" s="48"/>
-      <c r="M203" s="48"/>
+      <c r="K203" s="48">
+        <v>2</v>
+      </c>
+      <c r="L203" s="48">
+        <v>2</v>
+      </c>
+      <c r="M203" s="48" t="s">
+        <v>459</v>
+      </c>
       <c r="N203" s="48"/>
       <c r="O203" s="48"/>
       <c r="P203" s="48"/>
       <c r="Q203" s="48"/>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B204" s="45">
+      <c r="R203" s="48"/>
+      <c r="S203" s="48"/>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B204" s="46">
         <v>203111</v>
       </c>
-      <c r="C204" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D204" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E204" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F204" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G204" s="45" t="b">
+      <c r="C204" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D204" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G204" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H204" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I204" s="48"/>
-      <c r="J204" s="45">
+      <c r="J204" s="46">
         <v>7</v>
       </c>
-      <c r="K204" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="L204" s="48"/>
-      <c r="M204" s="48"/>
+      <c r="K204" s="48">
+        <v>1</v>
+      </c>
+      <c r="L204" s="48">
+        <v>1</v>
+      </c>
+      <c r="M204" s="48" t="s">
+        <v>460</v>
+      </c>
       <c r="N204" s="48"/>
       <c r="O204" s="48"/>
       <c r="P204" s="48"/>
       <c r="Q204" s="48"/>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B205" s="45">
+      <c r="R204" s="48"/>
+      <c r="S204" s="48"/>
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B205" s="46">
         <v>203121</v>
       </c>
-      <c r="C205" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D205" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E205" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F205" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G205" s="45" t="b">
+      <c r="C205" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E205" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G205" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H205" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I205" s="48"/>
-      <c r="J205" s="45">
+      <c r="J205" s="46">
         <v>7</v>
       </c>
-      <c r="K205" s="48" t="s">
+      <c r="K205" s="48">
+        <v>1</v>
+      </c>
+      <c r="L205" s="48">
+        <v>1</v>
+      </c>
+      <c r="M205" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="L205" s="48"/>
-      <c r="M205" s="48"/>
       <c r="N205" s="48"/>
       <c r="O205" s="48"/>
       <c r="P205" s="48"/>
       <c r="Q205" s="48"/>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B206" s="45">
+      <c r="R205" s="48"/>
+      <c r="S205" s="48"/>
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B206" s="46">
         <v>203131</v>
       </c>
-      <c r="C206" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D206" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E206" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F206" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G206" s="45" t="b">
+      <c r="C206" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E206" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F206" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G206" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H206" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I206" s="48"/>
-      <c r="J206" s="45">
+      <c r="J206" s="46">
         <v>7</v>
       </c>
-      <c r="K206" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="L206" s="48"/>
-      <c r="M206" s="48"/>
+      <c r="K206" s="48">
+        <v>1</v>
+      </c>
+      <c r="L206" s="48">
+        <v>1</v>
+      </c>
+      <c r="M206" s="48" t="s">
+        <v>461</v>
+      </c>
       <c r="N206" s="48"/>
       <c r="O206" s="48"/>
       <c r="P206" s="48"/>
       <c r="Q206" s="48"/>
-    </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B207" s="45">
+      <c r="R206" s="48"/>
+      <c r="S206" s="48"/>
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B207" s="46">
         <v>203141</v>
       </c>
-      <c r="C207" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D207" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E207" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F207" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G207" s="45" t="b">
+      <c r="C207" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G207" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H207" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I207" s="48"/>
-      <c r="J207" s="45">
+      <c r="J207" s="46">
         <v>7</v>
       </c>
-      <c r="K207" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="L207" s="48"/>
-      <c r="M207" s="48"/>
+      <c r="K207" s="48">
+        <v>1</v>
+      </c>
+      <c r="L207" s="48">
+        <v>1</v>
+      </c>
+      <c r="M207" s="48" t="s">
+        <v>462</v>
+      </c>
       <c r="N207" s="48"/>
       <c r="O207" s="48"/>
       <c r="P207" s="48"/>
       <c r="Q207" s="48"/>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B208" s="45">
+      <c r="R207" s="48"/>
+      <c r="S207" s="48"/>
+    </row>
+    <row r="208" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B208" s="46">
         <v>204111</v>
       </c>
-      <c r="C208" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D208" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E208" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F208" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" s="45" t="b">
+      <c r="C208" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F208" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H208" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I208" s="48"/>
-      <c r="J208" s="45">
+      <c r="J208" s="46">
         <v>-7</v>
       </c>
-      <c r="K208" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="L208" s="48"/>
-      <c r="M208" s="48"/>
+      <c r="K208" s="48">
+        <v>2</v>
+      </c>
+      <c r="L208" s="48">
+        <v>2</v>
+      </c>
+      <c r="M208" s="48" t="s">
+        <v>463</v>
+      </c>
       <c r="N208" s="48"/>
       <c r="O208" s="48"/>
       <c r="P208" s="48"/>
       <c r="Q208" s="48"/>
-    </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B209" s="45">
+      <c r="R208" s="48"/>
+      <c r="S208" s="48"/>
+    </row>
+    <row r="209" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B209" s="46">
         <v>204121</v>
       </c>
-      <c r="C209" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D209" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E209" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F209" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" s="45" t="b">
+      <c r="C209" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F209" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H209" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I209" s="48"/>
-      <c r="J209" s="45">
+      <c r="J209" s="46">
         <v>-7</v>
       </c>
-      <c r="K209" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="L209" s="48"/>
-      <c r="M209" s="48"/>
+      <c r="K209" s="48">
+        <v>2</v>
+      </c>
+      <c r="L209" s="48">
+        <v>2</v>
+      </c>
+      <c r="M209" s="48" t="s">
+        <v>464</v>
+      </c>
       <c r="N209" s="48"/>
       <c r="O209" s="48"/>
       <c r="P209" s="48"/>
       <c r="Q209" s="48"/>
-    </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B210" s="45">
+      <c r="R209" s="48"/>
+      <c r="S209" s="48"/>
+    </row>
+    <row r="210" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B210" s="46">
         <v>204131</v>
       </c>
-      <c r="C210" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D210" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E210" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G210" s="45" t="b">
+      <c r="C210" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G210" s="46" t="b">
         <v>0</v>
       </c>
       <c r="H210" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I210" s="48"/>
-      <c r="J210" s="45">
+      <c r="J210" s="46">
         <v>-7</v>
       </c>
-      <c r="K210" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="L210" s="48"/>
-      <c r="M210" s="48"/>
+      <c r="K210" s="48">
+        <v>2</v>
+      </c>
+      <c r="L210" s="48">
+        <v>2</v>
+      </c>
+      <c r="M210" s="48" t="s">
+        <v>465</v>
+      </c>
       <c r="N210" s="48"/>
       <c r="O210" s="48"/>
       <c r="P210" s="48"/>
       <c r="Q210" s="48"/>
-    </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B211" s="45">
+      <c r="R210" s="48"/>
+      <c r="S210" s="48"/>
+    </row>
+    <row r="211" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B211" s="46">
         <v>204141</v>
       </c>
-      <c r="C211" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D211" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E211" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F211" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G211" s="45" t="b">
+      <c r="C211" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H211" s="48" t="s">
         <v>329</v>
       </c>
       <c r="I211" s="48"/>
-      <c r="J211" s="45">
+      <c r="J211" s="46">
         <v>-7</v>
       </c>
-      <c r="K211" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="L211" s="48"/>
-      <c r="M211" s="48"/>
+      <c r="K211" s="48">
+        <v>2</v>
+      </c>
+      <c r="L211" s="48">
+        <v>2</v>
+      </c>
+      <c r="M211" s="48" t="s">
+        <v>466</v>
+      </c>
       <c r="N211" s="48"/>
       <c r="O211" s="48"/>
       <c r="P211" s="48"/>
       <c r="Q211" s="48"/>
-    </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B212" s="45">
+      <c r="R211" s="48"/>
+      <c r="S211" s="48"/>
+    </row>
+    <row r="212" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B212" s="46">
         <v>301011</v>
       </c>
-      <c r="C212" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D212" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E212" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F212" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G212" s="45" t="b">
+      <c r="C212" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G212" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I212" s="48"/>
-      <c r="J212" s="45">
+      <c r="J212" s="46">
         <v>5</v>
       </c>
-      <c r="K212" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="L212" s="48"/>
-      <c r="M212" s="48"/>
+      <c r="K212" s="48">
+        <v>2</v>
+      </c>
+      <c r="L212" s="48">
+        <v>2</v>
+      </c>
+      <c r="M212" s="48" t="s">
+        <v>467</v>
+      </c>
       <c r="N212" s="48"/>
       <c r="O212" s="48"/>
       <c r="P212" s="48"/>
       <c r="Q212" s="48"/>
-    </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B213" s="45">
+      <c r="R212" s="48"/>
+      <c r="S212" s="48"/>
+    </row>
+    <row r="213" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B213" s="46">
         <v>301021</v>
       </c>
-      <c r="C213" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D213" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E213" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F213" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G213" s="45" t="b">
+      <c r="C213" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F213" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G213" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H213" s="48" t="s">
         <v>334</v>
       </c>
       <c r="I213" s="48"/>
-      <c r="J213" s="45">
+      <c r="J213" s="46">
         <v>-5</v>
       </c>
-      <c r="K213" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="L213" s="48"/>
-      <c r="M213" s="48"/>
+      <c r="K213" s="48">
+        <v>2</v>
+      </c>
+      <c r="L213" s="48">
+        <v>2</v>
+      </c>
+      <c r="M213" s="48" t="s">
+        <v>468</v>
+      </c>
       <c r="N213" s="48"/>
       <c r="O213" s="48"/>
       <c r="P213" s="48"/>
       <c r="Q213" s="48"/>
-    </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B214" s="45">
+      <c r="R213" s="48"/>
+      <c r="S213" s="48"/>
+    </row>
+    <row r="214" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B214" s="46">
         <v>301031</v>
       </c>
-      <c r="C214" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D214" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E214" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F214" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G214" s="45" t="b">
+      <c r="C214" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D214" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F214" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G214" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H214" s="48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I214" s="48"/>
-      <c r="J214" s="45">
+      <c r="J214" s="46">
         <v>5</v>
       </c>
-      <c r="K214" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="L214" s="48"/>
-      <c r="M214" s="48"/>
+      <c r="K214" s="48">
+        <v>2</v>
+      </c>
+      <c r="L214" s="48">
+        <v>2</v>
+      </c>
+      <c r="M214" s="48" t="s">
+        <v>469</v>
+      </c>
       <c r="N214" s="48"/>
       <c r="O214" s="48"/>
       <c r="P214" s="48"/>
       <c r="Q214" s="48"/>
-    </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B215" s="45">
+      <c r="R214" s="48"/>
+      <c r="S214" s="48"/>
+    </row>
+    <row r="215" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B215" s="46">
         <v>301041</v>
       </c>
-      <c r="C215" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D215" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E215" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F215" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G215" s="45" t="b">
+      <c r="C215" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F215" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I215" s="48"/>
-      <c r="J215" s="45">
+      <c r="J215" s="46">
         <v>5</v>
       </c>
-      <c r="K215" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="L215" s="48"/>
-      <c r="M215" s="48"/>
+      <c r="K215" s="48">
+        <v>2</v>
+      </c>
+      <c r="L215" s="48">
+        <v>2</v>
+      </c>
+      <c r="M215" s="48" t="s">
+        <v>470</v>
+      </c>
       <c r="N215" s="48"/>
       <c r="O215" s="48"/>
       <c r="P215" s="48"/>
       <c r="Q215" s="48"/>
-    </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B216" s="45">
+      <c r="R215" s="48"/>
+      <c r="S215" s="48"/>
+    </row>
+    <row r="216" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B216" s="46">
         <v>301051</v>
       </c>
-      <c r="C216" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D216" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E216" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F216" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G216" s="45" t="b">
+      <c r="C216" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F216" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H216" s="48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I216" s="48"/>
-      <c r="J216" s="45">
+      <c r="J216" s="46">
         <v>5</v>
       </c>
-      <c r="K216" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="L216" s="48"/>
-      <c r="M216" s="48"/>
+      <c r="K216" s="48">
+        <v>2</v>
+      </c>
+      <c r="L216" s="48">
+        <v>2</v>
+      </c>
+      <c r="M216" s="48" t="s">
+        <v>471</v>
+      </c>
       <c r="N216" s="48"/>
       <c r="O216" s="48"/>
       <c r="P216" s="48"/>
       <c r="Q216" s="48"/>
-    </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B217" s="45">
+      <c r="R216" s="48"/>
+      <c r="S216" s="48"/>
+    </row>
+    <row r="217" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B217" s="46">
         <v>301061</v>
       </c>
-      <c r="C217" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D217" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E217" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F217" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G217" s="45" t="b">
+      <c r="C217" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F217" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G217" s="46" t="b">
         <v>1</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I217" s="48"/>
-      <c r="J217" s="45">
+      <c r="J217" s="46">
         <v>5</v>
       </c>
-      <c r="K217" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="L217" s="48"/>
-      <c r="M217" s="48"/>
+      <c r="K217" s="48">
+        <v>2</v>
+      </c>
+      <c r="L217" s="48">
+        <v>2</v>
+      </c>
+      <c r="M217" s="48" t="s">
+        <v>472</v>
+      </c>
       <c r="N217" s="48"/>
       <c r="O217" s="48"/>
       <c r="P217" s="48"/>
       <c r="Q217" s="48"/>
-    </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C218" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
+      <c r="R217" s="48"/>
+      <c r="S217" s="48"/>
+    </row>
+    <row r="218" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C218" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="D218" s="61"/>
+      <c r="E218" s="61"/>
+      <c r="F218" s="61"/>
+      <c r="G218" s="61"/>
       <c r="H218" s="47" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I218" s="47"/>
       <c r="J218" t="s">
-        <v>497</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="K218" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="L218" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="225">
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="K209:Q209"/>
-    <mergeCell ref="K210:Q210"/>
-    <mergeCell ref="K211:Q211"/>
-    <mergeCell ref="K212:Q212"/>
-    <mergeCell ref="K213:Q213"/>
-    <mergeCell ref="K214:Q214"/>
-    <mergeCell ref="K215:Q215"/>
-    <mergeCell ref="K216:Q216"/>
-    <mergeCell ref="K217:Q217"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="K188:Q188"/>
-    <mergeCell ref="K189:Q189"/>
-    <mergeCell ref="K190:Q190"/>
-    <mergeCell ref="K191:Q191"/>
-    <mergeCell ref="K192:Q192"/>
-    <mergeCell ref="K193:Q193"/>
-    <mergeCell ref="K194:Q194"/>
-    <mergeCell ref="K195:Q195"/>
-    <mergeCell ref="K196:Q196"/>
-    <mergeCell ref="K197:Q197"/>
-    <mergeCell ref="K198:Q198"/>
-    <mergeCell ref="K199:Q199"/>
-    <mergeCell ref="K200:Q200"/>
-    <mergeCell ref="K201:Q201"/>
-    <mergeCell ref="K202:Q202"/>
-    <mergeCell ref="K203:Q203"/>
-    <mergeCell ref="K204:Q204"/>
-    <mergeCell ref="K205:Q205"/>
-    <mergeCell ref="K206:Q206"/>
-    <mergeCell ref="K207:Q207"/>
-    <mergeCell ref="K208:Q208"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
+  <mergeCells count="256">
+    <mergeCell ref="M215:S215"/>
+    <mergeCell ref="M216:S216"/>
+    <mergeCell ref="M217:S217"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:S206"/>
+    <mergeCell ref="M207:S207"/>
+    <mergeCell ref="M208:S208"/>
+    <mergeCell ref="M209:S209"/>
+    <mergeCell ref="M210:S210"/>
+    <mergeCell ref="M211:S211"/>
+    <mergeCell ref="M212:S212"/>
+    <mergeCell ref="M213:S213"/>
+    <mergeCell ref="M214:S214"/>
+    <mergeCell ref="M197:S197"/>
+    <mergeCell ref="M198:S198"/>
+    <mergeCell ref="M199:S199"/>
+    <mergeCell ref="M200:S200"/>
+    <mergeCell ref="M201:S201"/>
+    <mergeCell ref="M202:S202"/>
+    <mergeCell ref="M203:S203"/>
+    <mergeCell ref="M204:S204"/>
+    <mergeCell ref="M205:S205"/>
+    <mergeCell ref="M188:S188"/>
+    <mergeCell ref="M189:S189"/>
+    <mergeCell ref="M190:S190"/>
+    <mergeCell ref="M191:S191"/>
+    <mergeCell ref="M192:S192"/>
+    <mergeCell ref="M193:S193"/>
+    <mergeCell ref="M194:S194"/>
+    <mergeCell ref="M195:S195"/>
+    <mergeCell ref="M196:S196"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="B67:C67"/>
@@ -14445,136 +14826,56 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="K217:L217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14582,7 +14883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7957EAEE-90B0-40E0-9698-9F30DADA447F}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/Design/몬스터 기획서.xlsx
+++ b/Design/몬스터 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF8E96-DFD1-4232-BFE1-A073AFD16343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F0168-FAE7-4894-8C06-6E46B7E23C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{6ED0029A-6F1E-4A92-AB37-7B6700187FC9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="520">
   <si>
     <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2046,6 +2046,18 @@
   </si>
   <si>
     <t>2)보스가 사망할 경우 해당 웨이브에서 일반 몬스터가 사망 시 획득하는 재화량의 6배를 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 분류에 따른재화 비율(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2156,7 +2168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2245,6 +2257,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2254,7 +2275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6